--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\Concurrent-And-Parallel-Systems-CW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\C&amp;PS\Concurrent-And-Parallel-Systems-CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -606,12 +606,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,12 +623,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,6 +630,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -962,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,54 +979,86 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>8</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>16</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>32</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>64</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>128</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>256</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>512</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
+        <v>128</v>
+      </c>
+      <c r="S2" s="13">
+        <v>256</v>
+      </c>
+      <c r="T2" s="13">
+        <v>512</v>
+      </c>
+      <c r="U2" s="13">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1028,22 +1066,32 @@
         <v>762.57</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -1051,7 +1099,7 @@
         <v>1536.27</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -1060,14 +1108,50 @@
       <c r="H4">
         <v>1634</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="I4">
+        <v>3098</v>
+      </c>
+      <c r="J4">
+        <v>6252</v>
+      </c>
+      <c r="K4">
+        <v>12621</v>
+      </c>
+      <c r="L4">
+        <v>24370</v>
+      </c>
+      <c r="M4">
+        <v>47769</v>
+      </c>
+      <c r="N4">
+        <v>95274</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>827</v>
+      </c>
+      <c r="S4">
+        <v>3163</v>
+      </c>
+      <c r="T4">
+        <v>12144</v>
+      </c>
+      <c r="U4">
+        <v>47763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>16</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <f>AVERAGE(I4:I103)</f>
+        <v>3059.91</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
       <c r="G5" s="1">
@@ -1076,14 +1160,50 @@
       <c r="H5">
         <v>1571</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="I5">
+        <v>3018</v>
+      </c>
+      <c r="J5">
+        <v>6159</v>
+      </c>
+      <c r="K5">
+        <v>12564</v>
+      </c>
+      <c r="L5">
+        <v>24252</v>
+      </c>
+      <c r="M5">
+        <v>48362</v>
+      </c>
+      <c r="N5">
+        <v>95360</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>761</v>
+      </c>
+      <c r="S5">
+        <v>3096</v>
+      </c>
+      <c r="T5">
+        <v>12069</v>
+      </c>
+      <c r="U5">
+        <v>47465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>32</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <f>AVERAGE(J4:J103)</f>
+        <v>6223.33</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="G6" s="1">
@@ -1092,14 +1212,50 @@
       <c r="H6">
         <v>1559</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="I6">
+        <v>3026</v>
+      </c>
+      <c r="J6">
+        <v>6100</v>
+      </c>
+      <c r="K6">
+        <v>12596</v>
+      </c>
+      <c r="L6">
+        <v>24856</v>
+      </c>
+      <c r="M6">
+        <v>47704</v>
+      </c>
+      <c r="N6">
+        <v>96347</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>751</v>
+      </c>
+      <c r="S6">
+        <v>3073</v>
+      </c>
+      <c r="T6">
+        <v>11831</v>
+      </c>
+      <c r="U6">
+        <v>48176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>64</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <f>AVERAGE(K4:K103)</f>
+        <v>12510.68</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
       <c r="G7" s="1">
@@ -1108,14 +1264,50 @@
       <c r="H7">
         <v>1544</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="I7">
+        <v>3013</v>
+      </c>
+      <c r="J7">
+        <v>6020</v>
+      </c>
+      <c r="K7">
+        <v>12491</v>
+      </c>
+      <c r="L7">
+        <v>24278</v>
+      </c>
+      <c r="M7">
+        <v>47353</v>
+      </c>
+      <c r="N7">
+        <v>95194</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>749</v>
+      </c>
+      <c r="S7">
+        <v>3142</v>
+      </c>
+      <c r="T7">
+        <v>11812</v>
+      </c>
+      <c r="U7">
+        <v>48115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>128</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <f>AVERAGE(L4:L103)</f>
+        <v>24544.85</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
       <c r="G8" s="1">
@@ -1124,14 +1316,50 @@
       <c r="H8">
         <v>1547</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="I8">
+        <v>3010</v>
+      </c>
+      <c r="J8">
+        <v>6033</v>
+      </c>
+      <c r="K8">
+        <v>12554</v>
+      </c>
+      <c r="L8">
+        <v>24117</v>
+      </c>
+      <c r="M8">
+        <v>47799</v>
+      </c>
+      <c r="N8">
+        <v>94824</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>747</v>
+      </c>
+      <c r="S8">
+        <v>2983</v>
+      </c>
+      <c r="T8">
+        <v>11812</v>
+      </c>
+      <c r="U8">
+        <v>48483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>256</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <f>AVERAGE(M4:M103)</f>
+        <v>48129.36</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>6</v>
       </c>
       <c r="G9" s="1">
@@ -1140,14 +1368,50 @@
       <c r="H9">
         <v>1544</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="I9">
+        <v>3035</v>
+      </c>
+      <c r="J9">
+        <v>6019</v>
+      </c>
+      <c r="K9">
+        <v>12644</v>
+      </c>
+      <c r="L9">
+        <v>24110</v>
+      </c>
+      <c r="M9">
+        <v>47386</v>
+      </c>
+      <c r="N9">
+        <v>94903</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>749</v>
+      </c>
+      <c r="S9">
+        <v>2959</v>
+      </c>
+      <c r="T9">
+        <v>11823</v>
+      </c>
+      <c r="U9">
+        <v>47987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>512</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <f>AVERAGE(N4:N103)</f>
+        <v>95256.72</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>7</v>
       </c>
       <c r="G10" s="1">
@@ -1156,11 +1420,44 @@
       <c r="H10">
         <v>1595</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>3148</v>
+      </c>
+      <c r="J10">
+        <v>6022</v>
+      </c>
+      <c r="K10">
+        <v>12574</v>
+      </c>
+      <c r="L10">
+        <v>24200</v>
+      </c>
+      <c r="M10">
+        <v>47618</v>
+      </c>
+      <c r="N10">
+        <v>94675</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>744</v>
+      </c>
+      <c r="S10">
+        <v>2954</v>
+      </c>
+      <c r="T10">
+        <v>11821</v>
+      </c>
+      <c r="U10">
+        <v>48089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>8</v>
       </c>
       <c r="G11" s="1">
@@ -1169,10 +1466,43 @@
       <c r="H11">
         <v>1581</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>3054</v>
+      </c>
+      <c r="J11">
+        <v>6073</v>
+      </c>
+      <c r="K11">
+        <v>12703</v>
+      </c>
+      <c r="L11">
+        <v>24195</v>
+      </c>
+      <c r="M11">
+        <v>47231</v>
+      </c>
+      <c r="N11">
+        <v>95592</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>756</v>
+      </c>
+      <c r="S11">
+        <v>2960</v>
+      </c>
+      <c r="T11">
+        <v>11840</v>
+      </c>
+      <c r="U11">
+        <v>48173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>9</v>
       </c>
       <c r="G12" s="1">
@@ -1181,14 +1511,47 @@
       <c r="H12">
         <v>1553</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I12">
+        <v>3053</v>
+      </c>
+      <c r="J12">
+        <v>6032</v>
+      </c>
+      <c r="K12">
+        <v>12575</v>
+      </c>
+      <c r="L12">
+        <v>24796</v>
+      </c>
+      <c r="M12">
+        <v>47489</v>
+      </c>
+      <c r="N12">
+        <v>95262</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>736</v>
+      </c>
+      <c r="S12">
+        <v>3044</v>
+      </c>
+      <c r="T12">
+        <v>11963</v>
+      </c>
+      <c r="U12">
+        <v>47788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="9"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>10</v>
       </c>
       <c r="G13" s="1">
@@ -1197,16 +1560,49 @@
       <c r="H13">
         <v>1564</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="I13">
+        <v>3043</v>
+      </c>
+      <c r="J13">
+        <v>6052</v>
+      </c>
+      <c r="K13">
+        <v>12656</v>
+      </c>
+      <c r="L13">
+        <v>25240</v>
+      </c>
+      <c r="M13">
+        <v>47982</v>
+      </c>
+      <c r="N13">
+        <v>95335</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>736</v>
+      </c>
+      <c r="S13">
+        <v>2953</v>
+      </c>
+      <c r="T13">
+        <v>11895</v>
+      </c>
+      <c r="U13">
+        <v>47748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>11</v>
       </c>
       <c r="G14" s="1">
@@ -1215,13 +1611,50 @@
       <c r="H14">
         <v>1578</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="I14">
+        <v>3078</v>
+      </c>
+      <c r="J14">
+        <v>6157</v>
+      </c>
+      <c r="K14">
+        <v>12530</v>
+      </c>
+      <c r="L14">
+        <v>25221</v>
+      </c>
+      <c r="M14">
+        <v>48164</v>
+      </c>
+      <c r="N14">
+        <v>94407</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>743</v>
+      </c>
+      <c r="S14">
+        <v>2963</v>
+      </c>
+      <c r="T14">
+        <v>12110</v>
+      </c>
+      <c r="U14">
+        <v>47312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>128</v>
       </c>
+      <c r="B15">
+        <f>AVERAGE(R4:R103)</f>
+        <v>746.34</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>12</v>
       </c>
       <c r="G15" s="1">
@@ -1230,13 +1663,50 @@
       <c r="H15">
         <v>1568</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="I15">
+        <v>3059</v>
+      </c>
+      <c r="J15">
+        <v>6261</v>
+      </c>
+      <c r="K15">
+        <v>12590</v>
+      </c>
+      <c r="L15">
+        <v>25197</v>
+      </c>
+      <c r="M15">
+        <v>48107</v>
+      </c>
+      <c r="N15">
+        <v>94044</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>735</v>
+      </c>
+      <c r="S15">
+        <v>2958</v>
+      </c>
+      <c r="T15">
+        <v>11847</v>
+      </c>
+      <c r="U15">
+        <v>47275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>256</v>
       </c>
+      <c r="B16">
+        <f>AVERAGE(S4:S103)</f>
+        <v>3012.15</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>13</v>
       </c>
       <c r="G16" s="1">
@@ -1245,13 +1715,50 @@
       <c r="H16">
         <v>1542</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="I16">
+        <v>3052</v>
+      </c>
+      <c r="J16">
+        <v>6264</v>
+      </c>
+      <c r="K16">
+        <v>12573</v>
+      </c>
+      <c r="L16">
+        <v>25180</v>
+      </c>
+      <c r="M16">
+        <v>47860</v>
+      </c>
+      <c r="N16">
+        <v>94220</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>739</v>
+      </c>
+      <c r="S16">
+        <v>2955</v>
+      </c>
+      <c r="T16">
+        <v>11870</v>
+      </c>
+      <c r="U16">
+        <v>47226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>512</v>
       </c>
+      <c r="B17">
+        <f>AVERAGE(T4:T103)</f>
+        <v>11881.24</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>14</v>
       </c>
       <c r="G17" s="1">
@@ -1260,13 +1767,50 @@
       <c r="H17">
         <v>1551</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="I17">
+        <v>3064</v>
+      </c>
+      <c r="J17">
+        <v>6247</v>
+      </c>
+      <c r="K17">
+        <v>12667</v>
+      </c>
+      <c r="L17">
+        <v>25231</v>
+      </c>
+      <c r="M17">
+        <v>47267</v>
+      </c>
+      <c r="N17">
+        <v>95233</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>735</v>
+      </c>
+      <c r="S17">
+        <v>2949</v>
+      </c>
+      <c r="T17">
+        <v>11824</v>
+      </c>
+      <c r="U17">
+        <v>47260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>1024</v>
       </c>
+      <c r="B18">
+        <f>AVERAGE(U4:U103)</f>
+        <v>47855.7</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>15</v>
       </c>
       <c r="G18" s="1">
@@ -1275,10 +1819,43 @@
       <c r="H18">
         <v>1562</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>3033</v>
+      </c>
+      <c r="J18">
+        <v>6264</v>
+      </c>
+      <c r="K18">
+        <v>12619</v>
+      </c>
+      <c r="L18">
+        <v>25416</v>
+      </c>
+      <c r="M18">
+        <v>47465</v>
+      </c>
+      <c r="N18">
+        <v>95664</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>738</v>
+      </c>
+      <c r="S18">
+        <v>2953</v>
+      </c>
+      <c r="T18">
+        <v>11837</v>
+      </c>
+      <c r="U18">
+        <v>47553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>16</v>
       </c>
       <c r="G19" s="1">
@@ -1287,10 +1864,43 @@
       <c r="H19">
         <v>1570</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>3026</v>
+      </c>
+      <c r="J19">
+        <v>6185</v>
+      </c>
+      <c r="K19">
+        <v>12584</v>
+      </c>
+      <c r="L19">
+        <v>24968</v>
+      </c>
+      <c r="M19">
+        <v>50240</v>
+      </c>
+      <c r="N19">
+        <v>95663</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>743</v>
+      </c>
+      <c r="S19">
+        <v>2969</v>
+      </c>
+      <c r="T19">
+        <v>11848</v>
+      </c>
+      <c r="U19">
+        <v>47356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>17</v>
       </c>
       <c r="G20" s="1">
@@ -1299,10 +1909,43 @@
       <c r="H20">
         <v>1550</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>3030</v>
+      </c>
+      <c r="J20">
+        <v>6126</v>
+      </c>
+      <c r="K20">
+        <v>12567</v>
+      </c>
+      <c r="L20">
+        <v>25208</v>
+      </c>
+      <c r="M20">
+        <v>48814</v>
+      </c>
+      <c r="N20">
+        <v>95601</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>749</v>
+      </c>
+      <c r="S20">
+        <v>2953</v>
+      </c>
+      <c r="T20">
+        <v>11821</v>
+      </c>
+      <c r="U20">
+        <v>47303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>18</v>
       </c>
       <c r="G21" s="1">
@@ -1311,10 +1954,43 @@
       <c r="H21">
         <v>1536</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>3037</v>
+      </c>
+      <c r="J21">
+        <v>6450</v>
+      </c>
+      <c r="K21">
+        <v>12767</v>
+      </c>
+      <c r="L21">
+        <v>24337</v>
+      </c>
+      <c r="M21">
+        <v>48079</v>
+      </c>
+      <c r="N21">
+        <v>94723</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>772</v>
+      </c>
+      <c r="S21">
+        <v>2959</v>
+      </c>
+      <c r="T21">
+        <v>11820</v>
+      </c>
+      <c r="U21">
+        <v>47255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>19</v>
       </c>
       <c r="G22" s="1">
@@ -1323,10 +1999,43 @@
       <c r="H22">
         <v>1533</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>3059</v>
+      </c>
+      <c r="J22">
+        <v>6363</v>
+      </c>
+      <c r="K22">
+        <v>12574</v>
+      </c>
+      <c r="L22">
+        <v>24234</v>
+      </c>
+      <c r="M22">
+        <v>48321</v>
+      </c>
+      <c r="N22">
+        <v>94073</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>753</v>
+      </c>
+      <c r="S22">
+        <v>2966</v>
+      </c>
+      <c r="T22">
+        <v>11814</v>
+      </c>
+      <c r="U22">
+        <v>47308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>20</v>
       </c>
       <c r="G23" s="1">
@@ -1335,10 +2044,43 @@
       <c r="H23">
         <v>1526</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>3050</v>
+      </c>
+      <c r="J23">
+        <v>6302</v>
+      </c>
+      <c r="K23">
+        <v>12608</v>
+      </c>
+      <c r="L23">
+        <v>24123</v>
+      </c>
+      <c r="M23">
+        <v>48228</v>
+      </c>
+      <c r="N23">
+        <v>96134</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>758</v>
+      </c>
+      <c r="S23">
+        <v>2952</v>
+      </c>
+      <c r="T23">
+        <v>11898</v>
+      </c>
+      <c r="U23">
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>21</v>
       </c>
       <c r="G24" s="1">
@@ -1347,10 +2089,43 @@
       <c r="H24">
         <v>1525</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>3035</v>
+      </c>
+      <c r="J24">
+        <v>6289</v>
+      </c>
+      <c r="K24">
+        <v>12554</v>
+      </c>
+      <c r="L24">
+        <v>24035</v>
+      </c>
+      <c r="M24">
+        <v>47946</v>
+      </c>
+      <c r="N24">
+        <v>95943</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>753</v>
+      </c>
+      <c r="S24">
+        <v>2953</v>
+      </c>
+      <c r="T24">
+        <v>11810</v>
+      </c>
+      <c r="U24">
+        <v>48053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>22</v>
       </c>
       <c r="G25" s="1">
@@ -1359,10 +2134,43 @@
       <c r="H25">
         <v>1543</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>3022</v>
+      </c>
+      <c r="J25">
+        <v>6283</v>
+      </c>
+      <c r="K25">
+        <v>12580</v>
+      </c>
+      <c r="L25">
+        <v>24014</v>
+      </c>
+      <c r="M25">
+        <v>50563</v>
+      </c>
+      <c r="N25">
+        <v>95315</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>754</v>
+      </c>
+      <c r="S25">
+        <v>2962</v>
+      </c>
+      <c r="T25">
+        <v>11844</v>
+      </c>
+      <c r="U25">
+        <v>47531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <v>23</v>
       </c>
       <c r="G26" s="1">
@@ -1371,10 +2179,43 @@
       <c r="H26">
         <v>1541</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>3026</v>
+      </c>
+      <c r="J26">
+        <v>6311</v>
+      </c>
+      <c r="K26">
+        <v>12580</v>
+      </c>
+      <c r="L26">
+        <v>24155</v>
+      </c>
+      <c r="M26">
+        <v>48742</v>
+      </c>
+      <c r="N26">
+        <v>94213</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>763</v>
+      </c>
+      <c r="S26">
+        <v>3002</v>
+      </c>
+      <c r="T26">
+        <v>11845</v>
+      </c>
+      <c r="U26">
+        <v>47674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
-      <c r="F27" s="10">
+      <c r="F27" s="7">
         <v>24</v>
       </c>
       <c r="G27" s="1">
@@ -1383,10 +2224,43 @@
       <c r="H27">
         <v>1548</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>3053</v>
+      </c>
+      <c r="J27">
+        <v>6242</v>
+      </c>
+      <c r="K27">
+        <v>12567</v>
+      </c>
+      <c r="L27">
+        <v>24195</v>
+      </c>
+      <c r="M27">
+        <v>48107</v>
+      </c>
+      <c r="N27">
+        <v>95376</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>750</v>
+      </c>
+      <c r="S27">
+        <v>2951</v>
+      </c>
+      <c r="T27">
+        <v>11813</v>
+      </c>
+      <c r="U27">
+        <v>47219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
-      <c r="F28" s="10">
+      <c r="F28" s="7">
         <v>25</v>
       </c>
       <c r="G28" s="1">
@@ -1395,10 +2269,43 @@
       <c r="H28">
         <v>1572</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>3053</v>
+      </c>
+      <c r="J28">
+        <v>6235</v>
+      </c>
+      <c r="K28">
+        <v>12683</v>
+      </c>
+      <c r="L28">
+        <v>24263</v>
+      </c>
+      <c r="M28">
+        <v>48462</v>
+      </c>
+      <c r="N28">
+        <v>95475</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <v>747</v>
+      </c>
+      <c r="S28">
+        <v>2961</v>
+      </c>
+      <c r="T28">
+        <v>11809</v>
+      </c>
+      <c r="U28">
+        <v>47242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
-      <c r="F29" s="10">
+      <c r="F29" s="7">
         <v>26</v>
       </c>
       <c r="G29" s="1">
@@ -1407,10 +2314,43 @@
       <c r="H29">
         <v>1535</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>3049</v>
+      </c>
+      <c r="J29">
+        <v>5996</v>
+      </c>
+      <c r="K29">
+        <v>12732</v>
+      </c>
+      <c r="L29">
+        <v>24191</v>
+      </c>
+      <c r="M29">
+        <v>47928</v>
+      </c>
+      <c r="N29">
+        <v>95298</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>736</v>
+      </c>
+      <c r="S29">
+        <v>2968</v>
+      </c>
+      <c r="T29">
+        <v>11797</v>
+      </c>
+      <c r="U29">
+        <v>47567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
-      <c r="F30" s="10">
+      <c r="F30" s="7">
         <v>27</v>
       </c>
       <c r="G30" s="1">
@@ -1419,10 +2359,43 @@
       <c r="H30">
         <v>1543</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>3056</v>
+      </c>
+      <c r="J30">
+        <v>6112</v>
+      </c>
+      <c r="K30">
+        <v>12813</v>
+      </c>
+      <c r="L30">
+        <v>24754</v>
+      </c>
+      <c r="M30">
+        <v>49088</v>
+      </c>
+      <c r="N30">
+        <v>95799</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>745</v>
+      </c>
+      <c r="S30">
+        <v>2965</v>
+      </c>
+      <c r="T30">
+        <v>11811</v>
+      </c>
+      <c r="U30">
+        <v>47724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <v>28</v>
       </c>
       <c r="G31" s="1">
@@ -1431,10 +2404,43 @@
       <c r="H31">
         <v>1559</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>3040</v>
+      </c>
+      <c r="J31">
+        <v>6270</v>
+      </c>
+      <c r="K31">
+        <v>12696</v>
+      </c>
+      <c r="L31">
+        <v>24031</v>
+      </c>
+      <c r="M31">
+        <v>48367</v>
+      </c>
+      <c r="N31">
+        <v>95294</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <v>736</v>
+      </c>
+      <c r="S31">
+        <v>2964</v>
+      </c>
+      <c r="T31">
+        <v>11831</v>
+      </c>
+      <c r="U31">
+        <v>48229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-      <c r="F32" s="10">
+      <c r="F32" s="7">
         <v>29</v>
       </c>
       <c r="G32" s="1">
@@ -1443,10 +2449,43 @@
       <c r="H32">
         <v>1546</v>
       </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>3035</v>
+      </c>
+      <c r="J32">
+        <v>6141</v>
+      </c>
+      <c r="K32">
+        <v>12611</v>
+      </c>
+      <c r="L32">
+        <v>23907</v>
+      </c>
+      <c r="M32">
+        <v>47735</v>
+      </c>
+      <c r="N32">
+        <v>96028</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>736</v>
+      </c>
+      <c r="S32">
+        <v>3099</v>
+      </c>
+      <c r="T32">
+        <v>11905</v>
+      </c>
+      <c r="U32">
+        <v>48258</v>
+      </c>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-      <c r="F33" s="10">
+      <c r="F33" s="7">
         <v>30</v>
       </c>
       <c r="G33" s="1">
@@ -1455,10 +2494,43 @@
       <c r="H33">
         <v>1523</v>
       </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>3050</v>
+      </c>
+      <c r="J33">
+        <v>6078</v>
+      </c>
+      <c r="K33">
+        <v>12599</v>
+      </c>
+      <c r="L33">
+        <v>23980</v>
+      </c>
+      <c r="M33">
+        <v>48946</v>
+      </c>
+      <c r="N33">
+        <v>95455</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>738</v>
+      </c>
+      <c r="S33">
+        <v>3028</v>
+      </c>
+      <c r="T33">
+        <v>11941</v>
+      </c>
+      <c r="U33">
+        <v>48450</v>
+      </c>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
-      <c r="F34" s="10">
+      <c r="F34" s="7">
         <v>31</v>
       </c>
       <c r="G34" s="1">
@@ -1467,10 +2539,43 @@
       <c r="H34">
         <v>1565</v>
       </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>3071</v>
+      </c>
+      <c r="J34">
+        <v>6117</v>
+      </c>
+      <c r="K34">
+        <v>12700</v>
+      </c>
+      <c r="L34">
+        <v>24486</v>
+      </c>
+      <c r="M34">
+        <v>48171</v>
+      </c>
+      <c r="N34">
+        <v>95307</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>736</v>
+      </c>
+      <c r="S34">
+        <v>2987</v>
+      </c>
+      <c r="T34">
+        <v>11992</v>
+      </c>
+      <c r="U34">
+        <v>47473</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
-      <c r="F35" s="10">
+      <c r="F35" s="7">
         <v>32</v>
       </c>
       <c r="G35" s="1">
@@ -1479,10 +2584,43 @@
       <c r="H35">
         <v>1543</v>
       </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>3177</v>
+      </c>
+      <c r="J35">
+        <v>6106</v>
+      </c>
+      <c r="K35">
+        <v>12585</v>
+      </c>
+      <c r="L35">
+        <v>24575</v>
+      </c>
+      <c r="M35">
+        <v>48013</v>
+      </c>
+      <c r="N35">
+        <v>95766</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>746</v>
+      </c>
+      <c r="S35">
+        <v>2983</v>
+      </c>
+      <c r="T35">
+        <v>12006</v>
+      </c>
+      <c r="U35">
+        <v>47598</v>
+      </c>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
-      <c r="F36" s="10">
+      <c r="F36" s="7">
         <v>33</v>
       </c>
       <c r="G36" s="1">
@@ -1491,10 +2629,43 @@
       <c r="H36">
         <v>1556</v>
       </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>3070</v>
+      </c>
+      <c r="J36">
+        <v>6064</v>
+      </c>
+      <c r="K36">
+        <v>12606</v>
+      </c>
+      <c r="L36">
+        <v>24429</v>
+      </c>
+      <c r="M36">
+        <v>48473</v>
+      </c>
+      <c r="N36">
+        <v>95122</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>744</v>
+      </c>
+      <c r="S36">
+        <v>2981</v>
+      </c>
+      <c r="T36">
+        <v>11955</v>
+      </c>
+      <c r="U36">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
-      <c r="F37" s="10">
+      <c r="F37" s="7">
         <v>34</v>
       </c>
       <c r="G37" s="1">
@@ -1503,10 +2674,43 @@
       <c r="H37">
         <v>1536</v>
       </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>3054</v>
+      </c>
+      <c r="J37">
+        <v>6241</v>
+      </c>
+      <c r="K37">
+        <v>12778</v>
+      </c>
+      <c r="L37">
+        <v>25257</v>
+      </c>
+      <c r="M37">
+        <v>47926</v>
+      </c>
+      <c r="N37">
+        <v>94385</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>742</v>
+      </c>
+      <c r="S37">
+        <v>2966</v>
+      </c>
+      <c r="T37">
+        <v>11831</v>
+      </c>
+      <c r="U37">
+        <v>48072</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
-      <c r="F38" s="10">
+      <c r="F38" s="7">
         <v>35</v>
       </c>
       <c r="G38" s="1">
@@ -1515,10 +2719,43 @@
       <c r="H38">
         <v>1523</v>
       </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>3040</v>
+      </c>
+      <c r="J38">
+        <v>6423</v>
+      </c>
+      <c r="K38">
+        <v>12747</v>
+      </c>
+      <c r="L38">
+        <v>24846</v>
+      </c>
+      <c r="M38">
+        <v>47801</v>
+      </c>
+      <c r="N38">
+        <v>94437</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>740</v>
+      </c>
+      <c r="S38">
+        <v>2949</v>
+      </c>
+      <c r="T38">
+        <v>11855</v>
+      </c>
+      <c r="U38">
+        <v>47923</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
-      <c r="F39" s="10">
+      <c r="F39" s="7">
         <v>36</v>
       </c>
       <c r="G39" s="1">
@@ -1527,10 +2764,43 @@
       <c r="H39">
         <v>1530</v>
       </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>3082</v>
+      </c>
+      <c r="J39">
+        <v>6352</v>
+      </c>
+      <c r="K39">
+        <v>12963</v>
+      </c>
+      <c r="L39">
+        <v>24377</v>
+      </c>
+      <c r="M39">
+        <v>47676</v>
+      </c>
+      <c r="N39">
+        <v>95014</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>36</v>
+      </c>
+      <c r="R39">
+        <v>738</v>
+      </c>
+      <c r="S39">
+        <v>2952</v>
+      </c>
+      <c r="T39">
+        <v>11831</v>
+      </c>
+      <c r="U39">
+        <v>47829</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
-      <c r="F40" s="10">
+      <c r="F40" s="7">
         <v>37</v>
       </c>
       <c r="G40" s="1">
@@ -1539,10 +2809,43 @@
       <c r="H40">
         <v>1518</v>
       </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>3034</v>
+      </c>
+      <c r="J40">
+        <v>6376</v>
+      </c>
+      <c r="K40">
+        <v>12791</v>
+      </c>
+      <c r="L40">
+        <v>25077</v>
+      </c>
+      <c r="M40">
+        <v>48431</v>
+      </c>
+      <c r="N40">
+        <v>96019</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>37</v>
+      </c>
+      <c r="R40">
+        <v>739</v>
+      </c>
+      <c r="S40">
+        <v>2958</v>
+      </c>
+      <c r="T40">
+        <v>11913</v>
+      </c>
+      <c r="U40">
+        <v>48392</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
-      <c r="F41" s="10">
+      <c r="F41" s="7">
         <v>38</v>
       </c>
       <c r="G41" s="1">
@@ -1551,10 +2854,43 @@
       <c r="H41">
         <v>1537</v>
       </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>3051</v>
+      </c>
+      <c r="J41">
+        <v>6260</v>
+      </c>
+      <c r="K41">
+        <v>12421</v>
+      </c>
+      <c r="L41">
+        <v>24039</v>
+      </c>
+      <c r="M41">
+        <v>48681</v>
+      </c>
+      <c r="N41">
+        <v>94454</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>38</v>
+      </c>
+      <c r="R41">
+        <v>742</v>
+      </c>
+      <c r="S41">
+        <v>2973</v>
+      </c>
+      <c r="T41">
+        <v>11845</v>
+      </c>
+      <c r="U41">
+        <v>47935</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
-      <c r="F42" s="10">
+      <c r="F42" s="7">
         <v>39</v>
       </c>
       <c r="G42" s="1">
@@ -1563,10 +2899,43 @@
       <c r="H42">
         <v>1523</v>
       </c>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>3044</v>
+      </c>
+      <c r="J42">
+        <v>6281</v>
+      </c>
+      <c r="K42">
+        <v>12103</v>
+      </c>
+      <c r="L42">
+        <v>24677</v>
+      </c>
+      <c r="M42">
+        <v>48540</v>
+      </c>
+      <c r="N42">
+        <v>94838</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>39</v>
+      </c>
+      <c r="R42">
+        <v>737</v>
+      </c>
+      <c r="S42">
+        <v>2958</v>
+      </c>
+      <c r="T42">
+        <v>11901</v>
+      </c>
+      <c r="U42">
+        <v>48443</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
-      <c r="F43" s="10">
+      <c r="F43" s="7">
         <v>40</v>
       </c>
       <c r="G43" s="1">
@@ -1575,10 +2944,43 @@
       <c r="H43">
         <v>1529</v>
       </c>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>3049</v>
+      </c>
+      <c r="J43">
+        <v>6342</v>
+      </c>
+      <c r="K43">
+        <v>12031</v>
+      </c>
+      <c r="L43">
+        <v>24100</v>
+      </c>
+      <c r="M43">
+        <v>48078</v>
+      </c>
+      <c r="N43">
+        <v>94925</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>737</v>
+      </c>
+      <c r="S43">
+        <v>2956</v>
+      </c>
+      <c r="T43">
+        <v>11815</v>
+      </c>
+      <c r="U43">
+        <v>47404</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
-      <c r="F44" s="10">
+      <c r="F44" s="7">
         <v>41</v>
       </c>
       <c r="G44" s="1">
@@ -1587,10 +2989,43 @@
       <c r="H44">
         <v>1530</v>
       </c>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>3023</v>
+      </c>
+      <c r="J44">
+        <v>6360</v>
+      </c>
+      <c r="K44">
+        <v>12052</v>
+      </c>
+      <c r="L44">
+        <v>25257</v>
+      </c>
+      <c r="M44">
+        <v>48462</v>
+      </c>
+      <c r="N44">
+        <v>94392</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>41</v>
+      </c>
+      <c r="R44">
+        <v>745</v>
+      </c>
+      <c r="S44">
+        <v>3091</v>
+      </c>
+      <c r="T44">
+        <v>11851</v>
+      </c>
+      <c r="U44">
+        <v>47731</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
-      <c r="F45" s="10">
+      <c r="F45" s="7">
         <v>42</v>
       </c>
       <c r="G45" s="1">
@@ -1599,10 +3034,43 @@
       <c r="H45">
         <v>1542</v>
       </c>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>3025</v>
+      </c>
+      <c r="J45">
+        <v>6336</v>
+      </c>
+      <c r="K45">
+        <v>12110</v>
+      </c>
+      <c r="L45">
+        <v>24045</v>
+      </c>
+      <c r="M45">
+        <v>49069</v>
+      </c>
+      <c r="N45">
+        <v>95690</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>42</v>
+      </c>
+      <c r="R45">
+        <v>744</v>
+      </c>
+      <c r="S45">
+        <v>3002</v>
+      </c>
+      <c r="T45">
+        <v>11853</v>
+      </c>
+      <c r="U45">
+        <v>48272</v>
+      </c>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
-      <c r="F46" s="10">
+      <c r="F46" s="7">
         <v>43</v>
       </c>
       <c r="G46" s="1">
@@ -1611,10 +3079,43 @@
       <c r="H46">
         <v>1545</v>
       </c>
-    </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>3025</v>
+      </c>
+      <c r="J46">
+        <v>6340</v>
+      </c>
+      <c r="K46">
+        <v>12064</v>
+      </c>
+      <c r="L46">
+        <v>24645</v>
+      </c>
+      <c r="M46">
+        <v>47070</v>
+      </c>
+      <c r="N46">
+        <v>95348</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>755</v>
+      </c>
+      <c r="S46">
+        <v>2978</v>
+      </c>
+      <c r="T46">
+        <v>11840</v>
+      </c>
+      <c r="U46">
+        <v>47408</v>
+      </c>
+    </row>
+    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
-      <c r="F47" s="10">
+      <c r="F47" s="7">
         <v>44</v>
       </c>
       <c r="G47" s="1">
@@ -1623,10 +3124,43 @@
       <c r="H47">
         <v>1579</v>
       </c>
-    </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>3025</v>
+      </c>
+      <c r="J47">
+        <v>6272</v>
+      </c>
+      <c r="K47">
+        <v>12167</v>
+      </c>
+      <c r="L47">
+        <v>24819</v>
+      </c>
+      <c r="M47">
+        <v>47285</v>
+      </c>
+      <c r="N47">
+        <v>94493</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>750</v>
+      </c>
+      <c r="S47">
+        <v>2953</v>
+      </c>
+      <c r="T47">
+        <v>11829</v>
+      </c>
+      <c r="U47">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
-      <c r="F48" s="10">
+      <c r="F48" s="7">
         <v>45</v>
       </c>
       <c r="G48" s="1">
@@ -1635,10 +3169,43 @@
       <c r="H48">
         <v>1522</v>
       </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>3025</v>
+      </c>
+      <c r="J48">
+        <v>6261</v>
+      </c>
+      <c r="K48">
+        <v>12139</v>
+      </c>
+      <c r="L48">
+        <v>24234</v>
+      </c>
+      <c r="M48">
+        <v>47715</v>
+      </c>
+      <c r="N48">
+        <v>96032</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>45</v>
+      </c>
+      <c r="R48">
+        <v>755</v>
+      </c>
+      <c r="S48">
+        <v>2972</v>
+      </c>
+      <c r="T48">
+        <v>12013</v>
+      </c>
+      <c r="U48">
+        <v>48075</v>
+      </c>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
-      <c r="F49" s="10">
+      <c r="F49" s="7">
         <v>46</v>
       </c>
       <c r="G49" s="1">
@@ -1647,10 +3214,43 @@
       <c r="H49">
         <v>1528</v>
       </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>3031</v>
+      </c>
+      <c r="J49">
+        <v>6235</v>
+      </c>
+      <c r="K49">
+        <v>12142</v>
+      </c>
+      <c r="L49">
+        <v>24867</v>
+      </c>
+      <c r="M49">
+        <v>47547</v>
+      </c>
+      <c r="N49">
+        <v>94742</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>46</v>
+      </c>
+      <c r="R49">
+        <v>736</v>
+      </c>
+      <c r="S49">
+        <v>2968</v>
+      </c>
+      <c r="T49">
+        <v>11966</v>
+      </c>
+      <c r="U49">
+        <v>47949</v>
+      </c>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="F50" s="10">
+      <c r="F50" s="7">
         <v>47</v>
       </c>
       <c r="G50" s="1">
@@ -1659,10 +3259,43 @@
       <c r="H50">
         <v>1537</v>
       </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>3027</v>
+      </c>
+      <c r="J50">
+        <v>6311</v>
+      </c>
+      <c r="K50">
+        <v>12135</v>
+      </c>
+      <c r="L50">
+        <v>25083</v>
+      </c>
+      <c r="M50">
+        <v>47192</v>
+      </c>
+      <c r="N50">
+        <v>95639</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>47</v>
+      </c>
+      <c r="R50">
+        <v>742</v>
+      </c>
+      <c r="S50">
+        <v>2948</v>
+      </c>
+      <c r="T50">
+        <v>11975</v>
+      </c>
+      <c r="U50">
+        <v>48394</v>
+      </c>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
-      <c r="F51" s="10">
+      <c r="F51" s="7">
         <v>48</v>
       </c>
       <c r="G51" s="1">
@@ -1671,10 +3304,43 @@
       <c r="H51">
         <v>1531</v>
       </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>3020</v>
+      </c>
+      <c r="J51">
+        <v>6390</v>
+      </c>
+      <c r="K51">
+        <v>12144</v>
+      </c>
+      <c r="L51">
+        <v>25025</v>
+      </c>
+      <c r="M51">
+        <v>48709</v>
+      </c>
+      <c r="N51">
+        <v>95843</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>48</v>
+      </c>
+      <c r="R51">
+        <v>746</v>
+      </c>
+      <c r="S51">
+        <v>2954</v>
+      </c>
+      <c r="T51">
+        <v>11900</v>
+      </c>
+      <c r="U51">
+        <v>47668</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
-      <c r="F52" s="10">
+      <c r="F52" s="7">
         <v>49</v>
       </c>
       <c r="G52" s="1">
@@ -1683,10 +3349,43 @@
       <c r="H52">
         <v>1553</v>
       </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>3028</v>
+      </c>
+      <c r="J52">
+        <v>6322</v>
+      </c>
+      <c r="K52">
+        <v>12116</v>
+      </c>
+      <c r="L52">
+        <v>24665</v>
+      </c>
+      <c r="M52">
+        <v>48706</v>
+      </c>
+      <c r="N52">
+        <v>96033</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>49</v>
+      </c>
+      <c r="R52">
+        <v>747</v>
+      </c>
+      <c r="S52">
+        <v>2957</v>
+      </c>
+      <c r="T52">
+        <v>11979</v>
+      </c>
+      <c r="U52">
+        <v>47545</v>
+      </c>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
-      <c r="F53" s="10">
+      <c r="F53" s="7">
         <v>50</v>
       </c>
       <c r="G53" s="1">
@@ -1695,10 +3394,43 @@
       <c r="H53">
         <v>1546</v>
       </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>3025</v>
+      </c>
+      <c r="J53">
+        <v>6389</v>
+      </c>
+      <c r="K53">
+        <v>12137</v>
+      </c>
+      <c r="L53">
+        <v>24988</v>
+      </c>
+      <c r="M53">
+        <v>47569</v>
+      </c>
+      <c r="N53">
+        <v>95754</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>765</v>
+      </c>
+      <c r="S53">
+        <v>2965</v>
+      </c>
+      <c r="T53">
+        <v>12039</v>
+      </c>
+      <c r="U53">
+        <v>47806</v>
+      </c>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
-      <c r="F54" s="10">
+      <c r="F54" s="7">
         <v>51</v>
       </c>
       <c r="G54" s="1">
@@ -1707,10 +3439,43 @@
       <c r="H54">
         <v>1520</v>
       </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>3044</v>
+      </c>
+      <c r="J54">
+        <v>6208</v>
+      </c>
+      <c r="K54">
+        <v>12597</v>
+      </c>
+      <c r="L54">
+        <v>24010</v>
+      </c>
+      <c r="M54">
+        <v>48581</v>
+      </c>
+      <c r="N54">
+        <v>96315</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>51</v>
+      </c>
+      <c r="R54">
+        <v>759</v>
+      </c>
+      <c r="S54">
+        <v>2955</v>
+      </c>
+      <c r="T54">
+        <v>11730</v>
+      </c>
+      <c r="U54">
+        <v>47524</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
-      <c r="F55" s="10">
+      <c r="F55" s="7">
         <v>52</v>
       </c>
       <c r="G55" s="1">
@@ -1719,10 +3484,43 @@
       <c r="H55">
         <v>1526</v>
       </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>3045</v>
+      </c>
+      <c r="J55">
+        <v>6144</v>
+      </c>
+      <c r="K55">
+        <v>12122</v>
+      </c>
+      <c r="L55">
+        <v>24829</v>
+      </c>
+      <c r="M55">
+        <v>47341</v>
+      </c>
+      <c r="N55">
+        <v>96202</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>52</v>
+      </c>
+      <c r="R55">
+        <v>773</v>
+      </c>
+      <c r="S55">
+        <v>3105</v>
+      </c>
+      <c r="T55">
+        <v>11758</v>
+      </c>
+      <c r="U55">
+        <v>48476</v>
+      </c>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
-      <c r="F56" s="10">
+      <c r="F56" s="7">
         <v>53</v>
       </c>
       <c r="G56" s="1">
@@ -1731,10 +3529,43 @@
       <c r="H56">
         <v>1511</v>
       </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>3070</v>
+      </c>
+      <c r="J56">
+        <v>6323</v>
+      </c>
+      <c r="K56">
+        <v>12867</v>
+      </c>
+      <c r="L56">
+        <v>24956</v>
+      </c>
+      <c r="M56">
+        <v>48966</v>
+      </c>
+      <c r="N56">
+        <v>95389</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>53</v>
+      </c>
+      <c r="R56">
+        <v>754</v>
+      </c>
+      <c r="S56">
+        <v>3031</v>
+      </c>
+      <c r="T56">
+        <v>11772</v>
+      </c>
+      <c r="U56">
+        <v>47374</v>
+      </c>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
-      <c r="F57" s="10">
+      <c r="F57" s="7">
         <v>54</v>
       </c>
       <c r="G57" s="1">
@@ -1743,10 +3574,43 @@
       <c r="H57">
         <v>1519</v>
       </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>3038</v>
+      </c>
+      <c r="J57">
+        <v>6144</v>
+      </c>
+      <c r="K57">
+        <v>12829</v>
+      </c>
+      <c r="L57">
+        <v>23936</v>
+      </c>
+      <c r="M57">
+        <v>47632</v>
+      </c>
+      <c r="N57">
+        <v>94324</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>54</v>
+      </c>
+      <c r="R57">
+        <v>755</v>
+      </c>
+      <c r="S57">
+        <v>3067</v>
+      </c>
+      <c r="T57">
+        <v>12025</v>
+      </c>
+      <c r="U57">
+        <v>47937</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
-      <c r="F58" s="10">
+      <c r="F58" s="7">
         <v>55</v>
       </c>
       <c r="G58" s="1">
@@ -1755,10 +3619,43 @@
       <c r="H58">
         <v>1522</v>
       </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>3066</v>
+      </c>
+      <c r="J58">
+        <v>6007</v>
+      </c>
+      <c r="K58">
+        <v>12176</v>
+      </c>
+      <c r="L58">
+        <v>25164</v>
+      </c>
+      <c r="M58">
+        <v>47803</v>
+      </c>
+      <c r="N58">
+        <v>96164</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>55</v>
+      </c>
+      <c r="R58">
+        <v>740</v>
+      </c>
+      <c r="S58">
+        <v>3046</v>
+      </c>
+      <c r="T58">
+        <v>11855</v>
+      </c>
+      <c r="U58">
+        <v>48027</v>
+      </c>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
-      <c r="F59" s="10">
+      <c r="F59" s="7">
         <v>56</v>
       </c>
       <c r="G59" s="1">
@@ -1767,10 +3664,43 @@
       <c r="H59">
         <v>1523</v>
       </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>3022</v>
+      </c>
+      <c r="J59">
+        <v>6036</v>
+      </c>
+      <c r="K59">
+        <v>12592</v>
+      </c>
+      <c r="L59">
+        <v>25176</v>
+      </c>
+      <c r="M59">
+        <v>47212</v>
+      </c>
+      <c r="N59">
+        <v>95923</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>734</v>
+      </c>
+      <c r="S59">
+        <v>3005</v>
+      </c>
+      <c r="T59">
+        <v>12016</v>
+      </c>
+      <c r="U59">
+        <v>47850</v>
+      </c>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
-      <c r="F60" s="10">
+      <c r="F60" s="7">
         <v>57</v>
       </c>
       <c r="G60" s="1">
@@ -1779,10 +3709,43 @@
       <c r="H60">
         <v>1529</v>
       </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>3035</v>
+      </c>
+      <c r="J60">
+        <v>6280</v>
+      </c>
+      <c r="K60">
+        <v>12850</v>
+      </c>
+      <c r="L60">
+        <v>25037</v>
+      </c>
+      <c r="M60">
+        <v>47380</v>
+      </c>
+      <c r="N60">
+        <v>95205</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>57</v>
+      </c>
+      <c r="R60">
+        <v>737</v>
+      </c>
+      <c r="S60">
+        <v>3005</v>
+      </c>
+      <c r="T60">
+        <v>12005</v>
+      </c>
+      <c r="U60">
+        <v>48381</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
-      <c r="F61" s="10">
+      <c r="F61" s="7">
         <v>58</v>
       </c>
       <c r="G61" s="1">
@@ -1791,10 +3754,43 @@
       <c r="H61">
         <v>1523</v>
       </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>3035</v>
+      </c>
+      <c r="J61">
+        <v>6219</v>
+      </c>
+      <c r="K61">
+        <v>12707</v>
+      </c>
+      <c r="L61">
+        <v>25219</v>
+      </c>
+      <c r="M61">
+        <v>47558</v>
+      </c>
+      <c r="N61">
+        <v>94762</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>58</v>
+      </c>
+      <c r="R61">
+        <v>742</v>
+      </c>
+      <c r="S61">
+        <v>3002</v>
+      </c>
+      <c r="T61">
+        <v>12004</v>
+      </c>
+      <c r="U61">
+        <v>48301</v>
+      </c>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
-      <c r="F62" s="10">
+      <c r="F62" s="7">
         <v>59</v>
       </c>
       <c r="G62" s="1">
@@ -1803,10 +3799,43 @@
       <c r="H62">
         <v>1528</v>
       </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>3045</v>
+      </c>
+      <c r="J62">
+        <v>6013</v>
+      </c>
+      <c r="K62">
+        <v>12749</v>
+      </c>
+      <c r="L62">
+        <v>24243</v>
+      </c>
+      <c r="M62">
+        <v>47104</v>
+      </c>
+      <c r="N62">
+        <v>95718</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>59</v>
+      </c>
+      <c r="R62">
+        <v>733</v>
+      </c>
+      <c r="S62">
+        <v>3110</v>
+      </c>
+      <c r="T62">
+        <v>11829</v>
+      </c>
+      <c r="U62">
+        <v>47508</v>
+      </c>
+    </row>
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
-      <c r="F63" s="10">
+      <c r="F63" s="7">
         <v>60</v>
       </c>
       <c r="G63" s="1">
@@ -1815,10 +3844,43 @@
       <c r="H63">
         <v>1556</v>
       </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>3062</v>
+      </c>
+      <c r="J63">
+        <v>6189</v>
+      </c>
+      <c r="K63">
+        <v>12993</v>
+      </c>
+      <c r="L63">
+        <v>24649</v>
+      </c>
+      <c r="M63">
+        <v>47501</v>
+      </c>
+      <c r="N63">
+        <v>94812</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>60</v>
+      </c>
+      <c r="R63">
+        <v>736</v>
+      </c>
+      <c r="S63">
+        <v>3122</v>
+      </c>
+      <c r="T63">
+        <v>11868</v>
+      </c>
+      <c r="U63">
+        <v>48207</v>
+      </c>
+    </row>
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
-      <c r="F64" s="10">
+      <c r="F64" s="7">
         <v>61</v>
       </c>
       <c r="G64" s="1">
@@ -1827,10 +3889,43 @@
       <c r="H64">
         <v>1524</v>
       </c>
-    </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>3050</v>
+      </c>
+      <c r="J64">
+        <v>6326</v>
+      </c>
+      <c r="K64">
+        <v>12060</v>
+      </c>
+      <c r="L64">
+        <v>23899</v>
+      </c>
+      <c r="M64">
+        <v>48085</v>
+      </c>
+      <c r="N64">
+        <v>95090</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>61</v>
+      </c>
+      <c r="R64">
+        <v>746</v>
+      </c>
+      <c r="S64">
+        <v>3070</v>
+      </c>
+      <c r="T64">
+        <v>11894</v>
+      </c>
+      <c r="U64">
+        <v>47641</v>
+      </c>
+    </row>
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
-      <c r="F65" s="10">
+      <c r="F65" s="7">
         <v>62</v>
       </c>
       <c r="G65" s="1">
@@ -1839,10 +3934,43 @@
       <c r="H65">
         <v>1525</v>
       </c>
-    </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>3155</v>
+      </c>
+      <c r="J65">
+        <v>6340</v>
+      </c>
+      <c r="K65">
+        <v>12506</v>
+      </c>
+      <c r="L65">
+        <v>24951</v>
+      </c>
+      <c r="M65">
+        <v>48115</v>
+      </c>
+      <c r="N65">
+        <v>96286</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>62</v>
+      </c>
+      <c r="R65">
+        <v>734</v>
+      </c>
+      <c r="S65">
+        <v>3021</v>
+      </c>
+      <c r="T65">
+        <v>11716</v>
+      </c>
+      <c r="U65">
+        <v>48195</v>
+      </c>
+    </row>
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
-      <c r="F66" s="10">
+      <c r="F66" s="7">
         <v>63</v>
       </c>
       <c r="G66" s="1">
@@ -1851,10 +3979,43 @@
       <c r="H66">
         <v>1543</v>
       </c>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>3134</v>
+      </c>
+      <c r="J66">
+        <v>6448</v>
+      </c>
+      <c r="K66">
+        <v>12612</v>
+      </c>
+      <c r="L66">
+        <v>25245</v>
+      </c>
+      <c r="M66">
+        <v>48726</v>
+      </c>
+      <c r="N66">
+        <v>94947</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>63</v>
+      </c>
+      <c r="R66">
+        <v>735</v>
+      </c>
+      <c r="S66">
+        <v>3083</v>
+      </c>
+      <c r="T66">
+        <v>11976</v>
+      </c>
+      <c r="U66">
+        <v>48249</v>
+      </c>
+    </row>
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
-      <c r="F67" s="10">
+      <c r="F67" s="7">
         <v>64</v>
       </c>
       <c r="G67" s="1">
@@ -1863,10 +4024,43 @@
       <c r="H67">
         <v>1532</v>
       </c>
-    </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>3118</v>
+      </c>
+      <c r="J67">
+        <v>6495</v>
+      </c>
+      <c r="K67">
+        <v>12079</v>
+      </c>
+      <c r="L67">
+        <v>23934</v>
+      </c>
+      <c r="M67">
+        <v>47494</v>
+      </c>
+      <c r="N67">
+        <v>95522</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>64</v>
+      </c>
+      <c r="R67">
+        <v>737</v>
+      </c>
+      <c r="S67">
+        <v>3069</v>
+      </c>
+      <c r="T67">
+        <v>12004</v>
+      </c>
+      <c r="U67">
+        <v>47353</v>
+      </c>
+    </row>
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
-      <c r="F68" s="10">
+      <c r="F68" s="7">
         <v>65</v>
       </c>
       <c r="G68" s="1">
@@ -1875,10 +4069,43 @@
       <c r="H68">
         <v>1514</v>
       </c>
-    </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>3068</v>
+      </c>
+      <c r="J68">
+        <v>5953</v>
+      </c>
+      <c r="K68">
+        <v>12655</v>
+      </c>
+      <c r="L68">
+        <v>24500</v>
+      </c>
+      <c r="M68">
+        <v>48943</v>
+      </c>
+      <c r="N68">
+        <v>95246</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>65</v>
+      </c>
+      <c r="R68">
+        <v>743</v>
+      </c>
+      <c r="S68">
+        <v>3018</v>
+      </c>
+      <c r="T68">
+        <v>11735</v>
+      </c>
+      <c r="U68">
+        <v>47671</v>
+      </c>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
-      <c r="F69" s="10">
+      <c r="F69" s="7">
         <v>66</v>
       </c>
       <c r="G69" s="1">
@@ -1887,10 +4114,43 @@
       <c r="H69">
         <v>1527</v>
       </c>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>3039</v>
+      </c>
+      <c r="J69">
+        <v>6366</v>
+      </c>
+      <c r="K69">
+        <v>12361</v>
+      </c>
+      <c r="L69">
+        <v>24568</v>
+      </c>
+      <c r="M69">
+        <v>47114</v>
+      </c>
+      <c r="N69">
+        <v>95666</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>66</v>
+      </c>
+      <c r="R69">
+        <v>742</v>
+      </c>
+      <c r="S69">
+        <v>2984</v>
+      </c>
+      <c r="T69">
+        <v>11760</v>
+      </c>
+      <c r="U69">
+        <v>47264</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
-      <c r="F70" s="10">
+      <c r="F70" s="7">
         <v>67</v>
       </c>
       <c r="G70" s="1">
@@ -1899,10 +4159,43 @@
       <c r="H70">
         <v>1521</v>
       </c>
-    </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>3055</v>
+      </c>
+      <c r="J70">
+        <v>6417</v>
+      </c>
+      <c r="K70">
+        <v>12162</v>
+      </c>
+      <c r="L70">
+        <v>24195</v>
+      </c>
+      <c r="M70">
+        <v>48878</v>
+      </c>
+      <c r="N70">
+        <v>95580</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>67</v>
+      </c>
+      <c r="R70">
+        <v>736</v>
+      </c>
+      <c r="S70">
+        <v>3098</v>
+      </c>
+      <c r="T70">
+        <v>11721</v>
+      </c>
+      <c r="U70">
+        <v>47631</v>
+      </c>
+    </row>
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
-      <c r="F71" s="10">
+      <c r="F71" s="7">
         <v>68</v>
       </c>
       <c r="G71" s="1">
@@ -1911,10 +4204,43 @@
       <c r="H71">
         <v>1530</v>
       </c>
-    </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>3105</v>
+      </c>
+      <c r="J71">
+        <v>6495</v>
+      </c>
+      <c r="K71">
+        <v>12581</v>
+      </c>
+      <c r="L71">
+        <v>23948</v>
+      </c>
+      <c r="M71">
+        <v>48730</v>
+      </c>
+      <c r="N71">
+        <v>95395</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>68</v>
+      </c>
+      <c r="R71">
+        <v>742</v>
+      </c>
+      <c r="S71">
+        <v>2990</v>
+      </c>
+      <c r="T71">
+        <v>11951</v>
+      </c>
+      <c r="U71">
+        <v>48478</v>
+      </c>
+    </row>
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
-      <c r="F72" s="10">
+      <c r="F72" s="7">
         <v>69</v>
       </c>
       <c r="G72" s="1">
@@ -1923,10 +4249,43 @@
       <c r="H72">
         <v>1517</v>
       </c>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>3021</v>
+      </c>
+      <c r="J72">
+        <v>6019</v>
+      </c>
+      <c r="K72">
+        <v>12852</v>
+      </c>
+      <c r="L72">
+        <v>24419</v>
+      </c>
+      <c r="M72">
+        <v>48492</v>
+      </c>
+      <c r="N72">
+        <v>95212</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>69</v>
+      </c>
+      <c r="R72">
+        <v>739</v>
+      </c>
+      <c r="S72">
+        <v>2952</v>
+      </c>
+      <c r="T72">
+        <v>11802</v>
+      </c>
+      <c r="U72">
+        <v>48404</v>
+      </c>
+    </row>
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
-      <c r="F73" s="10">
+      <c r="F73" s="7">
         <v>70</v>
       </c>
       <c r="G73" s="1">
@@ -1935,10 +4294,43 @@
       <c r="H73">
         <v>1532</v>
       </c>
-    </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>3022</v>
+      </c>
+      <c r="J73">
+        <v>6331</v>
+      </c>
+      <c r="K73">
+        <v>12331</v>
+      </c>
+      <c r="L73">
+        <v>24047</v>
+      </c>
+      <c r="M73">
+        <v>47712</v>
+      </c>
+      <c r="N73">
+        <v>95834</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>70</v>
+      </c>
+      <c r="R73">
+        <v>737</v>
+      </c>
+      <c r="S73">
+        <v>3124</v>
+      </c>
+      <c r="T73">
+        <v>11794</v>
+      </c>
+      <c r="U73">
+        <v>47389</v>
+      </c>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
-      <c r="F74" s="10">
+      <c r="F74" s="7">
         <v>71</v>
       </c>
       <c r="G74" s="1">
@@ -1947,10 +4339,43 @@
       <c r="H74">
         <v>1522</v>
       </c>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>3117</v>
+      </c>
+      <c r="J74">
+        <v>6093</v>
+      </c>
+      <c r="K74">
+        <v>12947</v>
+      </c>
+      <c r="L74">
+        <v>24030</v>
+      </c>
+      <c r="M74">
+        <v>48871</v>
+      </c>
+      <c r="N74">
+        <v>96090</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>741</v>
+      </c>
+      <c r="S74">
+        <v>3065</v>
+      </c>
+      <c r="T74">
+        <v>11736</v>
+      </c>
+      <c r="U74">
+        <v>48081</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
-      <c r="F75" s="10">
+      <c r="F75" s="7">
         <v>72</v>
       </c>
       <c r="G75" s="1">
@@ -1959,10 +4384,43 @@
       <c r="H75">
         <v>1529</v>
       </c>
-    </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>3242</v>
+      </c>
+      <c r="J75">
+        <v>6213</v>
+      </c>
+      <c r="K75">
+        <v>12984</v>
+      </c>
+      <c r="L75">
+        <v>24681</v>
+      </c>
+      <c r="M75">
+        <v>47373</v>
+      </c>
+      <c r="N75">
+        <v>95529</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>72</v>
+      </c>
+      <c r="R75">
+        <v>735</v>
+      </c>
+      <c r="S75">
+        <v>2981</v>
+      </c>
+      <c r="T75">
+        <v>12007</v>
+      </c>
+      <c r="U75">
+        <v>47604</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
-      <c r="F76" s="10">
+      <c r="F76" s="7">
         <v>73</v>
       </c>
       <c r="G76" s="1">
@@ -1971,10 +4429,43 @@
       <c r="H76">
         <v>1519</v>
       </c>
-    </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>3004</v>
+      </c>
+      <c r="J76">
+        <v>5992</v>
+      </c>
+      <c r="K76">
+        <v>12483</v>
+      </c>
+      <c r="L76">
+        <v>24231</v>
+      </c>
+      <c r="M76">
+        <v>48787</v>
+      </c>
+      <c r="N76">
+        <v>94736</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>73</v>
+      </c>
+      <c r="R76">
+        <v>737</v>
+      </c>
+      <c r="S76">
+        <v>3088</v>
+      </c>
+      <c r="T76">
+        <v>12030</v>
+      </c>
+      <c r="U76">
+        <v>47781</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
-      <c r="F77" s="10">
+      <c r="F77" s="7">
         <v>74</v>
       </c>
       <c r="G77" s="1">
@@ -1983,10 +4474,43 @@
       <c r="H77">
         <v>1515</v>
       </c>
-    </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>2974</v>
+      </c>
+      <c r="J77">
+        <v>6362</v>
+      </c>
+      <c r="K77">
+        <v>12553</v>
+      </c>
+      <c r="L77">
+        <v>24640</v>
+      </c>
+      <c r="M77">
+        <v>47894</v>
+      </c>
+      <c r="N77">
+        <v>95042</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>74</v>
+      </c>
+      <c r="R77">
+        <v>749</v>
+      </c>
+      <c r="S77">
+        <v>3072</v>
+      </c>
+      <c r="T77">
+        <v>11733</v>
+      </c>
+      <c r="U77">
+        <v>47262</v>
+      </c>
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
-      <c r="F78" s="10">
+      <c r="F78" s="7">
         <v>75</v>
       </c>
       <c r="G78" s="1">
@@ -1995,10 +4519,43 @@
       <c r="H78">
         <v>1512</v>
       </c>
-    </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>2968</v>
+      </c>
+      <c r="J78">
+        <v>5998</v>
+      </c>
+      <c r="K78">
+        <v>12977</v>
+      </c>
+      <c r="L78">
+        <v>24097</v>
+      </c>
+      <c r="M78">
+        <v>49056</v>
+      </c>
+      <c r="N78">
+        <v>95072</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>75</v>
+      </c>
+      <c r="R78">
+        <v>735</v>
+      </c>
+      <c r="S78">
+        <v>3038</v>
+      </c>
+      <c r="T78">
+        <v>11917</v>
+      </c>
+      <c r="U78">
+        <v>48146</v>
+      </c>
+    </row>
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
-      <c r="F79" s="10">
+      <c r="F79" s="7">
         <v>76</v>
       </c>
       <c r="G79" s="1">
@@ -2007,10 +4564,43 @@
       <c r="H79">
         <v>1523</v>
       </c>
-    </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>3018</v>
+      </c>
+      <c r="J79">
+        <v>6444</v>
+      </c>
+      <c r="K79">
+        <v>12357</v>
+      </c>
+      <c r="L79">
+        <v>24828</v>
+      </c>
+      <c r="M79">
+        <v>47360</v>
+      </c>
+      <c r="N79">
+        <v>94464</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>76</v>
+      </c>
+      <c r="R79">
+        <v>738</v>
+      </c>
+      <c r="S79">
+        <v>3047</v>
+      </c>
+      <c r="T79">
+        <v>12011</v>
+      </c>
+      <c r="U79">
+        <v>47933</v>
+      </c>
+    </row>
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
-      <c r="F80" s="10">
+      <c r="F80" s="7">
         <v>77</v>
       </c>
       <c r="G80" s="1">
@@ -2019,10 +4609,43 @@
       <c r="H80">
         <v>1522</v>
       </c>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>2991</v>
+      </c>
+      <c r="J80">
+        <v>6108</v>
+      </c>
+      <c r="K80">
+        <v>12483</v>
+      </c>
+      <c r="L80">
+        <v>24109</v>
+      </c>
+      <c r="M80">
+        <v>47824</v>
+      </c>
+      <c r="N80">
+        <v>96284</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>77</v>
+      </c>
+      <c r="R80">
+        <v>737</v>
+      </c>
+      <c r="S80">
+        <v>2986</v>
+      </c>
+      <c r="T80">
+        <v>11944</v>
+      </c>
+      <c r="U80">
+        <v>48160</v>
+      </c>
+    </row>
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
-      <c r="F81" s="10">
+      <c r="F81" s="7">
         <v>78</v>
       </c>
       <c r="G81" s="1">
@@ -2031,10 +4654,43 @@
       <c r="H81">
         <v>1525</v>
       </c>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>3026</v>
+      </c>
+      <c r="J81">
+        <v>6089</v>
+      </c>
+      <c r="K81">
+        <v>12555</v>
+      </c>
+      <c r="L81">
+        <v>24753</v>
+      </c>
+      <c r="M81">
+        <v>48336</v>
+      </c>
+      <c r="N81">
+        <v>94637</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>78</v>
+      </c>
+      <c r="R81">
+        <v>736</v>
+      </c>
+      <c r="S81">
+        <v>3027</v>
+      </c>
+      <c r="T81">
+        <v>11869</v>
+      </c>
+      <c r="U81">
+        <v>47269</v>
+      </c>
+    </row>
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
-      <c r="F82" s="10">
+      <c r="F82" s="7">
         <v>79</v>
       </c>
       <c r="G82" s="1">
@@ -2043,10 +4699,43 @@
       <c r="H82">
         <v>1523</v>
       </c>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>2960</v>
+      </c>
+      <c r="J82">
+        <v>6270</v>
+      </c>
+      <c r="K82">
+        <v>12597</v>
+      </c>
+      <c r="L82">
+        <v>24320</v>
+      </c>
+      <c r="M82">
+        <v>47951</v>
+      </c>
+      <c r="N82">
+        <v>96284</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>79</v>
+      </c>
+      <c r="R82">
+        <v>735</v>
+      </c>
+      <c r="S82">
+        <v>2990</v>
+      </c>
+      <c r="T82">
+        <v>11968</v>
+      </c>
+      <c r="U82">
+        <v>48190</v>
+      </c>
+    </row>
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
-      <c r="F83" s="10">
+      <c r="F83" s="7">
         <v>80</v>
       </c>
       <c r="G83" s="1">
@@ -2055,10 +4744,43 @@
       <c r="H83">
         <v>1533</v>
       </c>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>2955</v>
+      </c>
+      <c r="J83">
+        <v>5951</v>
+      </c>
+      <c r="K83">
+        <v>12916</v>
+      </c>
+      <c r="L83">
+        <v>24182</v>
+      </c>
+      <c r="M83">
+        <v>48297</v>
+      </c>
+      <c r="N83">
+        <v>94588</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>80</v>
+      </c>
+      <c r="R83">
+        <v>735</v>
+      </c>
+      <c r="S83">
+        <v>3071</v>
+      </c>
+      <c r="T83">
+        <v>11891</v>
+      </c>
+      <c r="U83">
+        <v>47709</v>
+      </c>
+    </row>
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
-      <c r="F84" s="10">
+      <c r="F84" s="7">
         <v>81</v>
       </c>
       <c r="G84" s="1">
@@ -2067,10 +4789,43 @@
       <c r="H84">
         <v>1518</v>
       </c>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>3016</v>
+      </c>
+      <c r="J84">
+        <v>6236</v>
+      </c>
+      <c r="K84">
+        <v>12971</v>
+      </c>
+      <c r="L84">
+        <v>24311</v>
+      </c>
+      <c r="M84">
+        <v>47805</v>
+      </c>
+      <c r="N84">
+        <v>95297</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>81</v>
+      </c>
+      <c r="R84">
+        <v>742</v>
+      </c>
+      <c r="S84">
+        <v>3108</v>
+      </c>
+      <c r="T84">
+        <v>11849</v>
+      </c>
+      <c r="U84">
+        <v>47595</v>
+      </c>
+    </row>
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
-      <c r="F85" s="10">
+      <c r="F85" s="7">
         <v>82</v>
       </c>
       <c r="G85" s="1">
@@ -2079,10 +4834,43 @@
       <c r="H85">
         <v>1527</v>
       </c>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>3036</v>
+      </c>
+      <c r="J85">
+        <v>6367</v>
+      </c>
+      <c r="K85">
+        <v>12212</v>
+      </c>
+      <c r="L85">
+        <v>25088</v>
+      </c>
+      <c r="M85">
+        <v>49104</v>
+      </c>
+      <c r="N85">
+        <v>96121</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>82</v>
+      </c>
+      <c r="R85">
+        <v>740</v>
+      </c>
+      <c r="S85">
+        <v>3053</v>
+      </c>
+      <c r="T85">
+        <v>11737</v>
+      </c>
+      <c r="U85">
+        <v>48090</v>
+      </c>
+    </row>
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
-      <c r="F86" s="10">
+      <c r="F86" s="7">
         <v>83</v>
       </c>
       <c r="G86" s="1">
@@ -2091,10 +4879,43 @@
       <c r="H86">
         <v>1510</v>
       </c>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>3110</v>
+      </c>
+      <c r="J86">
+        <v>6227</v>
+      </c>
+      <c r="K86">
+        <v>12246</v>
+      </c>
+      <c r="L86">
+        <v>24005</v>
+      </c>
+      <c r="M86">
+        <v>48001</v>
+      </c>
+      <c r="N86">
+        <v>94407</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>83</v>
+      </c>
+      <c r="R86">
+        <v>739</v>
+      </c>
+      <c r="S86">
+        <v>3041</v>
+      </c>
+      <c r="T86">
+        <v>11877</v>
+      </c>
+      <c r="U86">
+        <v>47868</v>
+      </c>
+    </row>
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
-      <c r="F87" s="10">
+      <c r="F87" s="7">
         <v>84</v>
       </c>
       <c r="G87" s="1">
@@ -2103,10 +4924,43 @@
       <c r="H87">
         <v>1533</v>
       </c>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>3088</v>
+      </c>
+      <c r="J87">
+        <v>6275</v>
+      </c>
+      <c r="K87">
+        <v>12499</v>
+      </c>
+      <c r="L87">
+        <v>25081</v>
+      </c>
+      <c r="M87">
+        <v>48047</v>
+      </c>
+      <c r="N87">
+        <v>95448</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>84</v>
+      </c>
+      <c r="R87">
+        <v>737</v>
+      </c>
+      <c r="S87">
+        <v>3006</v>
+      </c>
+      <c r="T87">
+        <v>12046</v>
+      </c>
+      <c r="U87">
+        <v>47292</v>
+      </c>
+    </row>
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
-      <c r="F88" s="10">
+      <c r="F88" s="7">
         <v>85</v>
       </c>
       <c r="G88" s="1">
@@ -2115,10 +4969,43 @@
       <c r="H88">
         <v>1527</v>
       </c>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>3061</v>
+      </c>
+      <c r="J88">
+        <v>5980</v>
+      </c>
+      <c r="K88">
+        <v>12267</v>
+      </c>
+      <c r="L88">
+        <v>24649</v>
+      </c>
+      <c r="M88">
+        <v>48929</v>
+      </c>
+      <c r="N88">
+        <v>94502</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>85</v>
+      </c>
+      <c r="R88">
+        <v>743</v>
+      </c>
+      <c r="S88">
+        <v>3093</v>
+      </c>
+      <c r="T88">
+        <v>11971</v>
+      </c>
+      <c r="U88">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
-      <c r="F89" s="10">
+      <c r="F89" s="7">
         <v>86</v>
       </c>
       <c r="G89" s="1">
@@ -2127,10 +5014,43 @@
       <c r="H89">
         <v>1519</v>
       </c>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>3071</v>
+      </c>
+      <c r="J89">
+        <v>6451</v>
+      </c>
+      <c r="K89">
+        <v>12262</v>
+      </c>
+      <c r="L89">
+        <v>24784</v>
+      </c>
+      <c r="M89">
+        <v>48670</v>
+      </c>
+      <c r="N89">
+        <v>94096</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>86</v>
+      </c>
+      <c r="R89">
+        <v>735</v>
+      </c>
+      <c r="S89">
+        <v>2951</v>
+      </c>
+      <c r="T89">
+        <v>11908</v>
+      </c>
+      <c r="U89">
+        <v>48474</v>
+      </c>
+    </row>
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
-      <c r="F90" s="10">
+      <c r="F90" s="7">
         <v>87</v>
       </c>
       <c r="G90" s="1">
@@ -2139,10 +5059,43 @@
       <c r="H90">
         <v>1513</v>
       </c>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>3045</v>
+      </c>
+      <c r="J90">
+        <v>6189</v>
+      </c>
+      <c r="K90">
+        <v>12344</v>
+      </c>
+      <c r="L90">
+        <v>24715</v>
+      </c>
+      <c r="M90">
+        <v>47911</v>
+      </c>
+      <c r="N90">
+        <v>96255</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>87</v>
+      </c>
+      <c r="R90">
+        <v>755</v>
+      </c>
+      <c r="S90">
+        <v>3059</v>
+      </c>
+      <c r="T90">
+        <v>11805</v>
+      </c>
+      <c r="U90">
+        <v>47595</v>
+      </c>
+    </row>
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
-      <c r="F91" s="10">
+      <c r="F91" s="7">
         <v>88</v>
       </c>
       <c r="G91" s="1">
@@ -2151,10 +5104,43 @@
       <c r="H91">
         <v>1514</v>
       </c>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>3003</v>
+      </c>
+      <c r="J91">
+        <v>6260</v>
+      </c>
+      <c r="K91">
+        <v>12516</v>
+      </c>
+      <c r="L91">
+        <v>24480</v>
+      </c>
+      <c r="M91">
+        <v>48124</v>
+      </c>
+      <c r="N91">
+        <v>96314</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>88</v>
+      </c>
+      <c r="R91">
+        <v>744</v>
+      </c>
+      <c r="S91">
+        <v>3077</v>
+      </c>
+      <c r="T91">
+        <v>11817</v>
+      </c>
+      <c r="U91">
+        <v>48026</v>
+      </c>
+    </row>
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
-      <c r="F92" s="10">
+      <c r="F92" s="7">
         <v>89</v>
       </c>
       <c r="G92" s="1">
@@ -2163,10 +5149,43 @@
       <c r="H92">
         <v>1531</v>
       </c>
-    </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>3012</v>
+      </c>
+      <c r="J92">
+        <v>6375</v>
+      </c>
+      <c r="K92">
+        <v>12612</v>
+      </c>
+      <c r="L92">
+        <v>24551</v>
+      </c>
+      <c r="M92">
+        <v>48438</v>
+      </c>
+      <c r="N92">
+        <v>94630</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>89</v>
+      </c>
+      <c r="R92">
+        <v>738</v>
+      </c>
+      <c r="S92">
+        <v>3058</v>
+      </c>
+      <c r="T92">
+        <v>12003</v>
+      </c>
+      <c r="U92">
+        <v>48330</v>
+      </c>
+    </row>
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
-      <c r="F93" s="10">
+      <c r="F93" s="7">
         <v>90</v>
       </c>
       <c r="G93" s="1">
@@ -2175,10 +5194,43 @@
       <c r="H93">
         <v>1525</v>
       </c>
-    </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>3125</v>
+      </c>
+      <c r="J93">
+        <v>6281</v>
+      </c>
+      <c r="K93">
+        <v>12143</v>
+      </c>
+      <c r="L93">
+        <v>25004</v>
+      </c>
+      <c r="M93">
+        <v>47488</v>
+      </c>
+      <c r="N93">
+        <v>94494</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>90</v>
+      </c>
+      <c r="R93">
+        <v>752</v>
+      </c>
+      <c r="S93">
+        <v>2976</v>
+      </c>
+      <c r="T93">
+        <v>12007</v>
+      </c>
+      <c r="U93">
+        <v>48474</v>
+      </c>
+    </row>
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
-      <c r="F94" s="10">
+      <c r="F94" s="7">
         <v>91</v>
       </c>
       <c r="G94" s="1">
@@ -2187,10 +5239,43 @@
       <c r="H94">
         <v>1522</v>
       </c>
-    </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>3162</v>
+      </c>
+      <c r="J94">
+        <v>6207</v>
+      </c>
+      <c r="K94">
+        <v>12425</v>
+      </c>
+      <c r="L94">
+        <v>24217</v>
+      </c>
+      <c r="M94">
+        <v>48018</v>
+      </c>
+      <c r="N94">
+        <v>95385</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>91</v>
+      </c>
+      <c r="R94">
+        <v>798</v>
+      </c>
+      <c r="S94">
+        <v>3059</v>
+      </c>
+      <c r="T94">
+        <v>11702</v>
+      </c>
+      <c r="U94">
+        <v>48072</v>
+      </c>
+    </row>
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
-      <c r="F95" s="10">
+      <c r="F95" s="7">
         <v>92</v>
       </c>
       <c r="G95" s="1">
@@ -2199,10 +5284,43 @@
       <c r="H95">
         <v>1530</v>
       </c>
-    </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>3161</v>
+      </c>
+      <c r="J95">
+        <v>6168</v>
+      </c>
+      <c r="K95">
+        <v>12867</v>
+      </c>
+      <c r="L95">
+        <v>23934</v>
+      </c>
+      <c r="M95">
+        <v>48811</v>
+      </c>
+      <c r="N95">
+        <v>94613</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>92</v>
+      </c>
+      <c r="R95">
+        <v>766</v>
+      </c>
+      <c r="S95">
+        <v>2982</v>
+      </c>
+      <c r="T95">
+        <v>11827</v>
+      </c>
+      <c r="U95">
+        <v>48427</v>
+      </c>
+    </row>
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
-      <c r="F96" s="10">
+      <c r="F96" s="7">
         <v>93</v>
       </c>
       <c r="G96" s="1">
@@ -2211,10 +5329,43 @@
       <c r="H96">
         <v>1541</v>
       </c>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>3137</v>
+      </c>
+      <c r="J96">
+        <v>6266</v>
+      </c>
+      <c r="K96">
+        <v>12449</v>
+      </c>
+      <c r="L96">
+        <v>24999</v>
+      </c>
+      <c r="M96">
+        <v>48922</v>
+      </c>
+      <c r="N96">
+        <v>95623</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>93</v>
+      </c>
+      <c r="R96">
+        <v>758</v>
+      </c>
+      <c r="S96">
+        <v>2959</v>
+      </c>
+      <c r="T96">
+        <v>11837</v>
+      </c>
+      <c r="U96">
+        <v>48187</v>
+      </c>
+    </row>
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
-      <c r="F97" s="10">
+      <c r="F97" s="7">
         <v>94</v>
       </c>
       <c r="G97" s="1">
@@ -2223,10 +5374,43 @@
       <c r="H97">
         <v>1533</v>
       </c>
-    </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>3134</v>
+      </c>
+      <c r="J97">
+        <v>6480</v>
+      </c>
+      <c r="K97">
+        <v>12436</v>
+      </c>
+      <c r="L97">
+        <v>24943</v>
+      </c>
+      <c r="M97">
+        <v>47254</v>
+      </c>
+      <c r="N97">
+        <v>95330</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>94</v>
+      </c>
+      <c r="R97">
+        <v>753</v>
+      </c>
+      <c r="S97">
+        <v>3112</v>
+      </c>
+      <c r="T97">
+        <v>11832</v>
+      </c>
+      <c r="U97">
+        <v>48456</v>
+      </c>
+    </row>
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
-      <c r="F98" s="10">
+      <c r="F98" s="7">
         <v>95</v>
       </c>
       <c r="G98" s="1">
@@ -2235,10 +5419,43 @@
       <c r="H98">
         <v>1524</v>
       </c>
-    </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>3137</v>
+      </c>
+      <c r="J98">
+        <v>6001</v>
+      </c>
+      <c r="K98">
+        <v>12038</v>
+      </c>
+      <c r="L98">
+        <v>23917</v>
+      </c>
+      <c r="M98">
+        <v>47752</v>
+      </c>
+      <c r="N98">
+        <v>95381</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>95</v>
+      </c>
+      <c r="R98">
+        <v>760</v>
+      </c>
+      <c r="S98">
+        <v>2976</v>
+      </c>
+      <c r="T98">
+        <v>12011</v>
+      </c>
+      <c r="U98">
+        <v>47612</v>
+      </c>
+    </row>
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
-      <c r="F99" s="10">
+      <c r="F99" s="7">
         <v>96</v>
       </c>
       <c r="G99" s="1">
@@ -2247,10 +5464,43 @@
       <c r="H99">
         <v>1519</v>
       </c>
-    </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>3153</v>
+      </c>
+      <c r="J99">
+        <v>6287</v>
+      </c>
+      <c r="K99">
+        <v>12651</v>
+      </c>
+      <c r="L99">
+        <v>24271</v>
+      </c>
+      <c r="M99">
+        <v>47541</v>
+      </c>
+      <c r="N99">
+        <v>95238</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>96</v>
+      </c>
+      <c r="R99">
+        <v>750</v>
+      </c>
+      <c r="S99">
+        <v>2976</v>
+      </c>
+      <c r="T99">
+        <v>11950</v>
+      </c>
+      <c r="U99">
+        <v>48014</v>
+      </c>
+    </row>
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
-      <c r="F100" s="10">
+      <c r="F100" s="7">
         <v>97</v>
       </c>
       <c r="G100" s="1">
@@ -2259,10 +5509,43 @@
       <c r="H100">
         <v>1521</v>
       </c>
-    </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>3157</v>
+      </c>
+      <c r="J100">
+        <v>6393</v>
+      </c>
+      <c r="K100">
+        <v>12175</v>
+      </c>
+      <c r="L100">
+        <v>23878</v>
+      </c>
+      <c r="M100">
+        <v>48652</v>
+      </c>
+      <c r="N100">
+        <v>94306</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>97</v>
+      </c>
+      <c r="R100">
+        <v>753</v>
+      </c>
+      <c r="S100">
+        <v>3091</v>
+      </c>
+      <c r="T100">
+        <v>11858</v>
+      </c>
+      <c r="U100">
+        <v>48008</v>
+      </c>
+    </row>
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
-      <c r="F101" s="10">
+      <c r="F101" s="7">
         <v>98</v>
       </c>
       <c r="G101" s="1">
@@ -2271,10 +5554,43 @@
       <c r="H101">
         <v>1524</v>
       </c>
-    </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>3121</v>
+      </c>
+      <c r="J101">
+        <v>6431</v>
+      </c>
+      <c r="K101">
+        <v>12082</v>
+      </c>
+      <c r="L101">
+        <v>25118</v>
+      </c>
+      <c r="M101">
+        <v>48524</v>
+      </c>
+      <c r="N101">
+        <v>95065</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>98</v>
+      </c>
+      <c r="R101">
+        <v>761</v>
+      </c>
+      <c r="S101">
+        <v>3019</v>
+      </c>
+      <c r="T101">
+        <v>11769</v>
+      </c>
+      <c r="U101">
+        <v>48075</v>
+      </c>
+    </row>
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
-      <c r="F102" s="10">
+      <c r="F102" s="7">
         <v>99</v>
       </c>
       <c r="G102" s="1">
@@ -2283,10 +5599,43 @@
       <c r="H102">
         <v>1515</v>
       </c>
-    </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>3220</v>
+      </c>
+      <c r="J102">
+        <v>6065</v>
+      </c>
+      <c r="K102">
+        <v>12065</v>
+      </c>
+      <c r="L102">
+        <v>25128</v>
+      </c>
+      <c r="M102">
+        <v>49044</v>
+      </c>
+      <c r="N102">
+        <v>95133</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>99</v>
+      </c>
+      <c r="R102">
+        <v>755</v>
+      </c>
+      <c r="S102">
+        <v>3099</v>
+      </c>
+      <c r="T102">
+        <v>11751</v>
+      </c>
+      <c r="U102">
+        <v>48422</v>
+      </c>
+    </row>
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
-      <c r="F103" s="10">
+      <c r="F103" s="7">
         <v>100</v>
       </c>
       <c r="G103" s="1">
@@ -2295,12 +5644,48 @@
       <c r="H103">
         <v>1520</v>
       </c>
+      <c r="I103">
+        <v>3227</v>
+      </c>
+      <c r="J103">
+        <v>6005</v>
+      </c>
+      <c r="K103">
+        <v>12872</v>
+      </c>
+      <c r="L103">
+        <v>24071</v>
+      </c>
+      <c r="M103">
+        <v>48549</v>
+      </c>
+      <c r="N103">
+        <v>94759</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <v>758</v>
+      </c>
+      <c r="S103">
+        <v>3090</v>
+      </c>
+      <c r="T103">
+        <v>11952</v>
+      </c>
+      <c r="U103">
+        <v>48406</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="sequential results" sheetId="1" r:id="rId1"/>
+    <sheet name="parallel results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -606,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,9 +633,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,6 +643,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,26 +993,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1044,16 +1054,16 @@
       <c r="Q2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>128</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <v>256</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>512</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>1024</v>
       </c>
     </row>
@@ -1061,7 +1071,7 @@
       <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="16">
         <f>AVERAGE(G4:G103)</f>
         <v>762.57</v>
       </c>
@@ -1069,32 +1079,32 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="16">
         <f>AVERAGE(H4:H103)</f>
         <v>1536.27</v>
       </c>
@@ -1146,7 +1156,7 @@
       <c r="A5" s="7">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="16">
         <f>AVERAGE(I4:I103)</f>
         <v>3059.91</v>
       </c>
@@ -1198,7 +1208,7 @@
       <c r="A6" s="7">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="16">
         <f>AVERAGE(J4:J103)</f>
         <v>6223.33</v>
       </c>
@@ -1250,7 +1260,7 @@
       <c r="A7" s="7">
         <v>64</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="16">
         <f>AVERAGE(K4:K103)</f>
         <v>12510.68</v>
       </c>
@@ -1302,7 +1312,7 @@
       <c r="A8" s="7">
         <v>128</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="16">
         <f>AVERAGE(L4:L103)</f>
         <v>24544.85</v>
       </c>
@@ -1354,7 +1364,7 @@
       <c r="A9" s="7">
         <v>256</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="16">
         <f>AVERAGE(M4:M103)</f>
         <v>48129.36</v>
       </c>
@@ -1406,7 +1416,7 @@
       <c r="A10" s="7">
         <v>512</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="16">
         <f>AVERAGE(N4:N103)</f>
         <v>95256.72</v>
       </c>
@@ -1546,10 +1556,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -1649,7 +1659,7 @@
       <c r="A15" s="7">
         <v>128</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="16">
         <f>AVERAGE(R4:R103)</f>
         <v>746.34</v>
       </c>
@@ -1701,7 +1711,7 @@
       <c r="A16" s="7">
         <v>256</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="16">
         <f>AVERAGE(S4:S103)</f>
         <v>3012.15</v>
       </c>
@@ -1753,7 +1763,7 @@
       <c r="A17" s="7">
         <v>512</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="16">
         <f>AVERAGE(T4:T103)</f>
         <v>11881.24</v>
       </c>
@@ -1805,7 +1815,7 @@
       <c r="A18" s="7">
         <v>1024</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="16">
         <f>AVERAGE(U4:U103)</f>
         <v>47855.7</v>
       </c>
@@ -5690,4 +5700,4730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W93" sqref="W93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="R1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2">
+        <v>256</v>
+      </c>
+      <c r="N2" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>128</v>
+      </c>
+      <c r="S2" s="12">
+        <v>256</v>
+      </c>
+      <c r="T2" s="12">
+        <v>512</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16">
+        <f>AVERAGE(G4:G103)</f>
+        <v>187.13</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16">
+        <f>AVERAGE(H4:H103)</f>
+        <v>372.96</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>225</v>
+      </c>
+      <c r="H4">
+        <v>431</v>
+      </c>
+      <c r="I4">
+        <v>840</v>
+      </c>
+      <c r="J4">
+        <v>1591</v>
+      </c>
+      <c r="K4">
+        <v>2991</v>
+      </c>
+      <c r="L4">
+        <v>5801</v>
+      </c>
+      <c r="M4">
+        <v>11195</v>
+      </c>
+      <c r="N4">
+        <v>22247</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>251</v>
+      </c>
+      <c r="S4">
+        <v>886</v>
+      </c>
+      <c r="T4">
+        <v>2990</v>
+      </c>
+      <c r="U4">
+        <v>11326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16">
+        <f>AVERAGE(I4:I103)</f>
+        <v>728.1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>216</v>
+      </c>
+      <c r="H5">
+        <v>425</v>
+      </c>
+      <c r="I5">
+        <v>760</v>
+      </c>
+      <c r="J5">
+        <v>1434</v>
+      </c>
+      <c r="K5">
+        <v>2812</v>
+      </c>
+      <c r="L5">
+        <v>5600</v>
+      </c>
+      <c r="M5">
+        <v>11041</v>
+      </c>
+      <c r="N5">
+        <v>22217</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>782</v>
+      </c>
+      <c r="T5">
+        <v>2808</v>
+      </c>
+      <c r="U5">
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16">
+        <f>AVERAGE(J4:J103)</f>
+        <v>1427.95</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <v>404</v>
+      </c>
+      <c r="I6">
+        <v>719</v>
+      </c>
+      <c r="J6">
+        <v>1440</v>
+      </c>
+      <c r="K6">
+        <v>2798</v>
+      </c>
+      <c r="L6">
+        <v>5586</v>
+      </c>
+      <c r="M6">
+        <v>11159</v>
+      </c>
+      <c r="N6">
+        <v>21963</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>204</v>
+      </c>
+      <c r="S6">
+        <v>729</v>
+      </c>
+      <c r="T6">
+        <v>2823</v>
+      </c>
+      <c r="U6">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16">
+        <f>AVERAGE(K4:K103)</f>
+        <v>2804.45</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>214</v>
+      </c>
+      <c r="H7">
+        <v>373</v>
+      </c>
+      <c r="I7">
+        <v>716</v>
+      </c>
+      <c r="J7">
+        <v>1431</v>
+      </c>
+      <c r="K7">
+        <v>2800</v>
+      </c>
+      <c r="L7">
+        <v>5587</v>
+      </c>
+      <c r="M7">
+        <v>11053</v>
+      </c>
+      <c r="N7">
+        <v>22028</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>216</v>
+      </c>
+      <c r="S7">
+        <v>724</v>
+      </c>
+      <c r="T7">
+        <v>2826</v>
+      </c>
+      <c r="U7">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>128</v>
+      </c>
+      <c r="B8" s="16">
+        <f>AVERAGE(L4:L103)</f>
+        <v>5589.91</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>194</v>
+      </c>
+      <c r="H8">
+        <v>377</v>
+      </c>
+      <c r="I8">
+        <v>723</v>
+      </c>
+      <c r="J8">
+        <v>1419</v>
+      </c>
+      <c r="K8">
+        <v>2785</v>
+      </c>
+      <c r="L8">
+        <v>5595</v>
+      </c>
+      <c r="M8">
+        <v>11150</v>
+      </c>
+      <c r="N8">
+        <v>22022</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>208</v>
+      </c>
+      <c r="S8">
+        <v>721</v>
+      </c>
+      <c r="T8">
+        <v>2824</v>
+      </c>
+      <c r="U8">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>256</v>
+      </c>
+      <c r="B9" s="16">
+        <f>AVERAGE(M4:M103)</f>
+        <v>11119.07</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>186</v>
+      </c>
+      <c r="H9">
+        <v>367</v>
+      </c>
+      <c r="I9">
+        <v>715</v>
+      </c>
+      <c r="J9">
+        <v>1422</v>
+      </c>
+      <c r="K9">
+        <v>2801</v>
+      </c>
+      <c r="L9">
+        <v>5557</v>
+      </c>
+      <c r="M9">
+        <v>11121</v>
+      </c>
+      <c r="N9">
+        <v>22191</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>190</v>
+      </c>
+      <c r="S9">
+        <v>724</v>
+      </c>
+      <c r="T9">
+        <v>2788</v>
+      </c>
+      <c r="U9">
+        <v>11144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>512</v>
+      </c>
+      <c r="B10" s="16">
+        <f>AVERAGE(N4:N103)</f>
+        <v>22138.99</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>186</v>
+      </c>
+      <c r="H10">
+        <v>373</v>
+      </c>
+      <c r="I10">
+        <v>726</v>
+      </c>
+      <c r="J10">
+        <v>1428</v>
+      </c>
+      <c r="K10">
+        <v>2804</v>
+      </c>
+      <c r="L10">
+        <v>5570</v>
+      </c>
+      <c r="M10">
+        <v>11166</v>
+      </c>
+      <c r="N10">
+        <v>22188</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>186</v>
+      </c>
+      <c r="S10">
+        <v>757</v>
+      </c>
+      <c r="T10">
+        <v>2789</v>
+      </c>
+      <c r="U10">
+        <v>11033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>185</v>
+      </c>
+      <c r="H11">
+        <v>375</v>
+      </c>
+      <c r="I11">
+        <v>725</v>
+      </c>
+      <c r="J11">
+        <v>1426</v>
+      </c>
+      <c r="K11">
+        <v>2797</v>
+      </c>
+      <c r="L11">
+        <v>5598</v>
+      </c>
+      <c r="M11">
+        <v>11141</v>
+      </c>
+      <c r="N11">
+        <v>22226</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>187</v>
+      </c>
+      <c r="S11">
+        <v>729</v>
+      </c>
+      <c r="T11">
+        <v>2785</v>
+      </c>
+      <c r="U11">
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>188</v>
+      </c>
+      <c r="H12">
+        <v>379</v>
+      </c>
+      <c r="I12">
+        <v>726</v>
+      </c>
+      <c r="J12">
+        <v>1412</v>
+      </c>
+      <c r="K12">
+        <v>2797</v>
+      </c>
+      <c r="L12">
+        <v>5545</v>
+      </c>
+      <c r="M12">
+        <v>11038</v>
+      </c>
+      <c r="N12">
+        <v>22256</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>187</v>
+      </c>
+      <c r="S12">
+        <v>731</v>
+      </c>
+      <c r="T12">
+        <v>2835</v>
+      </c>
+      <c r="U12">
+        <v>11124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>187</v>
+      </c>
+      <c r="H13">
+        <v>368</v>
+      </c>
+      <c r="I13">
+        <v>728</v>
+      </c>
+      <c r="J13">
+        <v>1414</v>
+      </c>
+      <c r="K13">
+        <v>2802</v>
+      </c>
+      <c r="L13">
+        <v>5525</v>
+      </c>
+      <c r="M13">
+        <v>11188</v>
+      </c>
+      <c r="N13">
+        <v>22194</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>187</v>
+      </c>
+      <c r="S13">
+        <v>728</v>
+      </c>
+      <c r="T13">
+        <v>2814</v>
+      </c>
+      <c r="U13">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>186</v>
+      </c>
+      <c r="H14">
+        <v>380</v>
+      </c>
+      <c r="I14">
+        <v>731</v>
+      </c>
+      <c r="J14">
+        <v>1431</v>
+      </c>
+      <c r="K14">
+        <v>2805</v>
+      </c>
+      <c r="L14">
+        <v>5610</v>
+      </c>
+      <c r="M14">
+        <v>11055</v>
+      </c>
+      <c r="N14">
+        <v>22215</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>194</v>
+      </c>
+      <c r="S14">
+        <v>740</v>
+      </c>
+      <c r="T14">
+        <v>2806</v>
+      </c>
+      <c r="U14">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>128</v>
+      </c>
+      <c r="B15" s="16">
+        <f>AVERAGE(R4:R103)</f>
+        <v>187.23</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>185</v>
+      </c>
+      <c r="H15">
+        <v>371</v>
+      </c>
+      <c r="I15">
+        <v>717</v>
+      </c>
+      <c r="J15">
+        <v>1423</v>
+      </c>
+      <c r="K15">
+        <v>2787</v>
+      </c>
+      <c r="L15">
+        <v>5587</v>
+      </c>
+      <c r="M15">
+        <v>11149</v>
+      </c>
+      <c r="N15">
+        <v>22266</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>184</v>
+      </c>
+      <c r="S15">
+        <v>723</v>
+      </c>
+      <c r="T15">
+        <v>2813</v>
+      </c>
+      <c r="U15">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>256</v>
+      </c>
+      <c r="B16" s="16">
+        <f>AVERAGE(S4:S103)</f>
+        <v>728.84</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>185</v>
+      </c>
+      <c r="H16">
+        <v>381</v>
+      </c>
+      <c r="I16">
+        <v>726</v>
+      </c>
+      <c r="J16">
+        <v>1416</v>
+      </c>
+      <c r="K16">
+        <v>2780</v>
+      </c>
+      <c r="L16">
+        <v>5587</v>
+      </c>
+      <c r="M16">
+        <v>11055</v>
+      </c>
+      <c r="N16">
+        <v>22458</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>183</v>
+      </c>
+      <c r="S16">
+        <v>722</v>
+      </c>
+      <c r="T16">
+        <v>2821</v>
+      </c>
+      <c r="U16">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>512</v>
+      </c>
+      <c r="B17" s="16">
+        <f>AVERAGE(T4:T103)</f>
+        <v>2817.64</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>188</v>
+      </c>
+      <c r="H17">
+        <v>377</v>
+      </c>
+      <c r="I17">
+        <v>723</v>
+      </c>
+      <c r="J17">
+        <v>1417</v>
+      </c>
+      <c r="K17">
+        <v>2795</v>
+      </c>
+      <c r="L17">
+        <v>5573</v>
+      </c>
+      <c r="M17">
+        <v>11118</v>
+      </c>
+      <c r="N17">
+        <v>22028</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>183</v>
+      </c>
+      <c r="S17">
+        <v>733</v>
+      </c>
+      <c r="T17">
+        <v>2834</v>
+      </c>
+      <c r="U17">
+        <v>11072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B18" s="16">
+        <f>AVERAGE(U4:U103)</f>
+        <v>11098.78</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>184</v>
+      </c>
+      <c r="H18">
+        <v>369</v>
+      </c>
+      <c r="I18">
+        <v>727</v>
+      </c>
+      <c r="J18">
+        <v>1416</v>
+      </c>
+      <c r="K18">
+        <v>2793</v>
+      </c>
+      <c r="L18">
+        <v>5599</v>
+      </c>
+      <c r="M18">
+        <v>11026</v>
+      </c>
+      <c r="N18">
+        <v>22011</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>187</v>
+      </c>
+      <c r="S18">
+        <v>721</v>
+      </c>
+      <c r="T18">
+        <v>2819</v>
+      </c>
+      <c r="U18">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>184</v>
+      </c>
+      <c r="H19">
+        <v>366</v>
+      </c>
+      <c r="I19">
+        <v>730</v>
+      </c>
+      <c r="J19">
+        <v>1451</v>
+      </c>
+      <c r="K19">
+        <v>2860</v>
+      </c>
+      <c r="L19">
+        <v>5582</v>
+      </c>
+      <c r="M19">
+        <v>11126</v>
+      </c>
+      <c r="N19">
+        <v>22203</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>185</v>
+      </c>
+      <c r="S19">
+        <v>713</v>
+      </c>
+      <c r="T19">
+        <v>2823</v>
+      </c>
+      <c r="U19">
+        <v>11062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>185</v>
+      </c>
+      <c r="H20">
+        <v>378</v>
+      </c>
+      <c r="I20">
+        <v>731</v>
+      </c>
+      <c r="J20">
+        <v>1418</v>
+      </c>
+      <c r="K20">
+        <v>2799</v>
+      </c>
+      <c r="L20">
+        <v>5564</v>
+      </c>
+      <c r="M20">
+        <v>11044</v>
+      </c>
+      <c r="N20">
+        <v>22152</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>190</v>
+      </c>
+      <c r="S20">
+        <v>739</v>
+      </c>
+      <c r="T20">
+        <v>2826</v>
+      </c>
+      <c r="U20">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="7">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>186</v>
+      </c>
+      <c r="H21">
+        <v>369</v>
+      </c>
+      <c r="I21">
+        <v>724</v>
+      </c>
+      <c r="J21">
+        <v>1440</v>
+      </c>
+      <c r="K21">
+        <v>2801</v>
+      </c>
+      <c r="L21">
+        <v>5727</v>
+      </c>
+      <c r="M21">
+        <v>11058</v>
+      </c>
+      <c r="N21">
+        <v>22201</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>186</v>
+      </c>
+      <c r="S21">
+        <v>717</v>
+      </c>
+      <c r="T21">
+        <v>2777</v>
+      </c>
+      <c r="U21">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="7">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>187</v>
+      </c>
+      <c r="H22">
+        <v>367</v>
+      </c>
+      <c r="I22">
+        <v>730</v>
+      </c>
+      <c r="J22">
+        <v>1424</v>
+      </c>
+      <c r="K22">
+        <v>2806</v>
+      </c>
+      <c r="L22">
+        <v>5582</v>
+      </c>
+      <c r="M22">
+        <v>11135</v>
+      </c>
+      <c r="N22">
+        <v>22149</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>182</v>
+      </c>
+      <c r="S22">
+        <v>720</v>
+      </c>
+      <c r="T22">
+        <v>2801</v>
+      </c>
+      <c r="U22">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>183</v>
+      </c>
+      <c r="H23">
+        <v>372</v>
+      </c>
+      <c r="I23">
+        <v>720</v>
+      </c>
+      <c r="J23">
+        <v>1414</v>
+      </c>
+      <c r="K23">
+        <v>2817</v>
+      </c>
+      <c r="L23">
+        <v>5569</v>
+      </c>
+      <c r="M23">
+        <v>11008</v>
+      </c>
+      <c r="N23">
+        <v>22078</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>187</v>
+      </c>
+      <c r="S23">
+        <v>742</v>
+      </c>
+      <c r="T23">
+        <v>2883</v>
+      </c>
+      <c r="U23">
+        <v>11058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="7">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>190</v>
+      </c>
+      <c r="H24">
+        <v>370</v>
+      </c>
+      <c r="I24">
+        <v>728</v>
+      </c>
+      <c r="J24">
+        <v>1414</v>
+      </c>
+      <c r="K24">
+        <v>2808</v>
+      </c>
+      <c r="L24">
+        <v>5586</v>
+      </c>
+      <c r="M24">
+        <v>11051</v>
+      </c>
+      <c r="N24">
+        <v>21989</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>188</v>
+      </c>
+      <c r="S24">
+        <v>722</v>
+      </c>
+      <c r="T24">
+        <v>2909</v>
+      </c>
+      <c r="U24">
+        <v>11066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="7">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>183</v>
+      </c>
+      <c r="H25">
+        <v>372</v>
+      </c>
+      <c r="I25">
+        <v>732</v>
+      </c>
+      <c r="J25">
+        <v>1405</v>
+      </c>
+      <c r="K25">
+        <v>2819</v>
+      </c>
+      <c r="L25">
+        <v>5609</v>
+      </c>
+      <c r="M25">
+        <v>11280</v>
+      </c>
+      <c r="N25">
+        <v>22077</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>185</v>
+      </c>
+      <c r="S25">
+        <v>725</v>
+      </c>
+      <c r="T25">
+        <v>2898</v>
+      </c>
+      <c r="U25">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="7">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1">
+        <v>185</v>
+      </c>
+      <c r="H26">
+        <v>376</v>
+      </c>
+      <c r="I26">
+        <v>719</v>
+      </c>
+      <c r="J26">
+        <v>1425</v>
+      </c>
+      <c r="K26">
+        <v>2796</v>
+      </c>
+      <c r="L26">
+        <v>5560</v>
+      </c>
+      <c r="M26">
+        <v>11224</v>
+      </c>
+      <c r="N26">
+        <v>22375</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>185</v>
+      </c>
+      <c r="S26">
+        <v>732</v>
+      </c>
+      <c r="T26">
+        <v>2828</v>
+      </c>
+      <c r="U26">
+        <v>11065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="7">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
+        <v>185</v>
+      </c>
+      <c r="H27">
+        <v>379</v>
+      </c>
+      <c r="I27">
+        <v>733</v>
+      </c>
+      <c r="J27">
+        <v>1429</v>
+      </c>
+      <c r="K27">
+        <v>2817</v>
+      </c>
+      <c r="L27">
+        <v>5558</v>
+      </c>
+      <c r="M27">
+        <v>11114</v>
+      </c>
+      <c r="N27">
+        <v>22219</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>186</v>
+      </c>
+      <c r="S27">
+        <v>741</v>
+      </c>
+      <c r="T27">
+        <v>2845</v>
+      </c>
+      <c r="U27">
+        <v>11218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1">
+        <v>186</v>
+      </c>
+      <c r="H28">
+        <v>370</v>
+      </c>
+      <c r="I28">
+        <v>733</v>
+      </c>
+      <c r="J28">
+        <v>1434</v>
+      </c>
+      <c r="K28">
+        <v>2795</v>
+      </c>
+      <c r="L28">
+        <v>5597</v>
+      </c>
+      <c r="M28">
+        <v>11061</v>
+      </c>
+      <c r="N28">
+        <v>22050</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <v>186</v>
+      </c>
+      <c r="S28">
+        <v>725</v>
+      </c>
+      <c r="T28">
+        <v>2800</v>
+      </c>
+      <c r="U28">
+        <v>11151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="7">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1">
+        <v>185</v>
+      </c>
+      <c r="H29">
+        <v>372</v>
+      </c>
+      <c r="I29">
+        <v>734</v>
+      </c>
+      <c r="J29">
+        <v>1443</v>
+      </c>
+      <c r="K29">
+        <v>2826</v>
+      </c>
+      <c r="L29">
+        <v>5576</v>
+      </c>
+      <c r="M29">
+        <v>11023</v>
+      </c>
+      <c r="N29">
+        <v>22287</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>188</v>
+      </c>
+      <c r="S29">
+        <v>725</v>
+      </c>
+      <c r="T29">
+        <v>2799</v>
+      </c>
+      <c r="U29">
+        <v>11074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="7">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1">
+        <v>184</v>
+      </c>
+      <c r="H30">
+        <v>375</v>
+      </c>
+      <c r="I30">
+        <v>736</v>
+      </c>
+      <c r="J30">
+        <v>1429</v>
+      </c>
+      <c r="K30">
+        <v>2809</v>
+      </c>
+      <c r="L30">
+        <v>5559</v>
+      </c>
+      <c r="M30">
+        <v>11080</v>
+      </c>
+      <c r="N30">
+        <v>22209</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>185</v>
+      </c>
+      <c r="S30">
+        <v>726</v>
+      </c>
+      <c r="T30">
+        <v>2808</v>
+      </c>
+      <c r="U30">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="7">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>183</v>
+      </c>
+      <c r="H31">
+        <v>371</v>
+      </c>
+      <c r="I31">
+        <v>722</v>
+      </c>
+      <c r="J31">
+        <v>1417</v>
+      </c>
+      <c r="K31">
+        <v>2814</v>
+      </c>
+      <c r="L31">
+        <v>5603</v>
+      </c>
+      <c r="M31">
+        <v>11025</v>
+      </c>
+      <c r="N31">
+        <v>22174</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <v>188</v>
+      </c>
+      <c r="S31">
+        <v>716</v>
+      </c>
+      <c r="T31">
+        <v>2852</v>
+      </c>
+      <c r="U31">
+        <v>11146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1">
+        <v>188</v>
+      </c>
+      <c r="H32">
+        <v>371</v>
+      </c>
+      <c r="I32">
+        <v>724</v>
+      </c>
+      <c r="J32">
+        <v>1410</v>
+      </c>
+      <c r="K32">
+        <v>2807</v>
+      </c>
+      <c r="L32">
+        <v>5563</v>
+      </c>
+      <c r="M32">
+        <v>11135</v>
+      </c>
+      <c r="N32">
+        <v>22091</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>186</v>
+      </c>
+      <c r="S32">
+        <v>724</v>
+      </c>
+      <c r="T32">
+        <v>2823</v>
+      </c>
+      <c r="U32">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="7">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>180</v>
+      </c>
+      <c r="H33">
+        <v>367</v>
+      </c>
+      <c r="I33">
+        <v>743</v>
+      </c>
+      <c r="J33">
+        <v>1425</v>
+      </c>
+      <c r="K33">
+        <v>2784</v>
+      </c>
+      <c r="L33">
+        <v>5579</v>
+      </c>
+      <c r="M33">
+        <v>11065</v>
+      </c>
+      <c r="N33">
+        <v>22027</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>187</v>
+      </c>
+      <c r="S33">
+        <v>728</v>
+      </c>
+      <c r="T33">
+        <v>2838</v>
+      </c>
+      <c r="U33">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="7">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1">
+        <v>189</v>
+      </c>
+      <c r="H34">
+        <v>370</v>
+      </c>
+      <c r="I34">
+        <v>726</v>
+      </c>
+      <c r="J34">
+        <v>1408</v>
+      </c>
+      <c r="K34">
+        <v>2805</v>
+      </c>
+      <c r="L34">
+        <v>5576</v>
+      </c>
+      <c r="M34">
+        <v>11072</v>
+      </c>
+      <c r="N34">
+        <v>22150</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>185</v>
+      </c>
+      <c r="S34">
+        <v>713</v>
+      </c>
+      <c r="T34">
+        <v>2813</v>
+      </c>
+      <c r="U34">
+        <v>11036</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="7">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1">
+        <v>186</v>
+      </c>
+      <c r="H35">
+        <v>381</v>
+      </c>
+      <c r="I35">
+        <v>731</v>
+      </c>
+      <c r="J35">
+        <v>1421</v>
+      </c>
+      <c r="K35">
+        <v>2794</v>
+      </c>
+      <c r="L35">
+        <v>5574</v>
+      </c>
+      <c r="M35">
+        <v>11118</v>
+      </c>
+      <c r="N35">
+        <v>22138</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>189</v>
+      </c>
+      <c r="S35">
+        <v>731</v>
+      </c>
+      <c r="T35">
+        <v>2805</v>
+      </c>
+      <c r="U35">
+        <v>11060</v>
+      </c>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="7">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1">
+        <v>181</v>
+      </c>
+      <c r="H36">
+        <v>368</v>
+      </c>
+      <c r="I36">
+        <v>738</v>
+      </c>
+      <c r="J36">
+        <v>1406</v>
+      </c>
+      <c r="K36">
+        <v>2813</v>
+      </c>
+      <c r="L36">
+        <v>5587</v>
+      </c>
+      <c r="M36">
+        <v>11158</v>
+      </c>
+      <c r="N36">
+        <v>22010</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>184</v>
+      </c>
+      <c r="S36">
+        <v>720</v>
+      </c>
+      <c r="T36">
+        <v>2827</v>
+      </c>
+      <c r="U36">
+        <v>11124</v>
+      </c>
+    </row>
+    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="7">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1">
+        <v>188</v>
+      </c>
+      <c r="H37">
+        <v>363</v>
+      </c>
+      <c r="I37">
+        <v>733</v>
+      </c>
+      <c r="J37">
+        <v>1434</v>
+      </c>
+      <c r="K37">
+        <v>2793</v>
+      </c>
+      <c r="L37">
+        <v>5598</v>
+      </c>
+      <c r="M37">
+        <v>11319</v>
+      </c>
+      <c r="N37">
+        <v>22218</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>184</v>
+      </c>
+      <c r="S37">
+        <v>732</v>
+      </c>
+      <c r="T37">
+        <v>2793</v>
+      </c>
+      <c r="U37">
+        <v>11216</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="7">
+        <v>35</v>
+      </c>
+      <c r="G38" s="1">
+        <v>189</v>
+      </c>
+      <c r="H38">
+        <v>369</v>
+      </c>
+      <c r="I38">
+        <v>731</v>
+      </c>
+      <c r="J38">
+        <v>1443</v>
+      </c>
+      <c r="K38">
+        <v>2797</v>
+      </c>
+      <c r="L38">
+        <v>5582</v>
+      </c>
+      <c r="M38">
+        <v>11233</v>
+      </c>
+      <c r="N38">
+        <v>22119</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>183</v>
+      </c>
+      <c r="S38">
+        <v>738</v>
+      </c>
+      <c r="T38">
+        <v>2835</v>
+      </c>
+      <c r="U38">
+        <v>11120</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="7">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>187</v>
+      </c>
+      <c r="H39">
+        <v>369</v>
+      </c>
+      <c r="I39">
+        <v>744</v>
+      </c>
+      <c r="J39">
+        <v>1424</v>
+      </c>
+      <c r="K39">
+        <v>2787</v>
+      </c>
+      <c r="L39">
+        <v>5567</v>
+      </c>
+      <c r="M39">
+        <v>11235</v>
+      </c>
+      <c r="N39">
+        <v>22148</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>36</v>
+      </c>
+      <c r="R39">
+        <v>183</v>
+      </c>
+      <c r="S39">
+        <v>739</v>
+      </c>
+      <c r="T39">
+        <v>2803</v>
+      </c>
+      <c r="U39">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="7">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1">
+        <v>192</v>
+      </c>
+      <c r="H40">
+        <v>365</v>
+      </c>
+      <c r="I40">
+        <v>725</v>
+      </c>
+      <c r="J40">
+        <v>1401</v>
+      </c>
+      <c r="K40">
+        <v>2811</v>
+      </c>
+      <c r="L40">
+        <v>5530</v>
+      </c>
+      <c r="M40">
+        <v>11207</v>
+      </c>
+      <c r="N40">
+        <v>22238</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>37</v>
+      </c>
+      <c r="R40">
+        <v>183</v>
+      </c>
+      <c r="S40">
+        <v>715</v>
+      </c>
+      <c r="T40">
+        <v>2819</v>
+      </c>
+      <c r="U40">
+        <v>11099</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="7">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1">
+        <v>185</v>
+      </c>
+      <c r="H41">
+        <v>369</v>
+      </c>
+      <c r="I41">
+        <v>728</v>
+      </c>
+      <c r="J41">
+        <v>1433</v>
+      </c>
+      <c r="K41">
+        <v>2798</v>
+      </c>
+      <c r="L41">
+        <v>5537</v>
+      </c>
+      <c r="M41">
+        <v>11256</v>
+      </c>
+      <c r="N41">
+        <v>22090</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>38</v>
+      </c>
+      <c r="R41">
+        <v>189</v>
+      </c>
+      <c r="S41">
+        <v>718</v>
+      </c>
+      <c r="T41">
+        <v>2817</v>
+      </c>
+      <c r="U41">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="7">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1">
+        <v>183</v>
+      </c>
+      <c r="H42">
+        <v>370</v>
+      </c>
+      <c r="I42">
+        <v>716</v>
+      </c>
+      <c r="J42">
+        <v>1436</v>
+      </c>
+      <c r="K42">
+        <v>2798</v>
+      </c>
+      <c r="L42">
+        <v>5594</v>
+      </c>
+      <c r="M42">
+        <v>11538</v>
+      </c>
+      <c r="N42">
+        <v>22100</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>39</v>
+      </c>
+      <c r="R42">
+        <v>183</v>
+      </c>
+      <c r="S42">
+        <v>727</v>
+      </c>
+      <c r="T42">
+        <v>2821</v>
+      </c>
+      <c r="U42">
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="7">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1">
+        <v>187</v>
+      </c>
+      <c r="H43">
+        <v>378</v>
+      </c>
+      <c r="I43">
+        <v>721</v>
+      </c>
+      <c r="J43">
+        <v>1470</v>
+      </c>
+      <c r="K43">
+        <v>2812</v>
+      </c>
+      <c r="L43">
+        <v>5569</v>
+      </c>
+      <c r="M43">
+        <v>11196</v>
+      </c>
+      <c r="N43">
+        <v>22029</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>182</v>
+      </c>
+      <c r="S43">
+        <v>731</v>
+      </c>
+      <c r="T43">
+        <v>2810</v>
+      </c>
+      <c r="U43">
+        <v>11047</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="7">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1">
+        <v>187</v>
+      </c>
+      <c r="H44">
+        <v>364</v>
+      </c>
+      <c r="I44">
+        <v>721</v>
+      </c>
+      <c r="J44">
+        <v>1429</v>
+      </c>
+      <c r="K44">
+        <v>2795</v>
+      </c>
+      <c r="L44">
+        <v>5604</v>
+      </c>
+      <c r="M44">
+        <v>11125</v>
+      </c>
+      <c r="N44">
+        <v>22109</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>41</v>
+      </c>
+      <c r="R44">
+        <v>186</v>
+      </c>
+      <c r="S44">
+        <v>719</v>
+      </c>
+      <c r="T44">
+        <v>2826</v>
+      </c>
+      <c r="U44">
+        <v>11048</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="7">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1">
+        <v>186</v>
+      </c>
+      <c r="H45">
+        <v>370</v>
+      </c>
+      <c r="I45">
+        <v>726</v>
+      </c>
+      <c r="J45">
+        <v>1423</v>
+      </c>
+      <c r="K45">
+        <v>2781</v>
+      </c>
+      <c r="L45">
+        <v>5624</v>
+      </c>
+      <c r="M45">
+        <v>11032</v>
+      </c>
+      <c r="N45">
+        <v>22305</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>42</v>
+      </c>
+      <c r="R45">
+        <v>182</v>
+      </c>
+      <c r="S45">
+        <v>732</v>
+      </c>
+      <c r="T45">
+        <v>2799</v>
+      </c>
+      <c r="U45">
+        <v>11036</v>
+      </c>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="7">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1">
+        <v>187</v>
+      </c>
+      <c r="H46">
+        <v>371</v>
+      </c>
+      <c r="I46">
+        <v>718</v>
+      </c>
+      <c r="J46">
+        <v>1417</v>
+      </c>
+      <c r="K46">
+        <v>2799</v>
+      </c>
+      <c r="L46">
+        <v>5588</v>
+      </c>
+      <c r="M46">
+        <v>11137</v>
+      </c>
+      <c r="N46">
+        <v>22118</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>183</v>
+      </c>
+      <c r="S46">
+        <v>718</v>
+      </c>
+      <c r="T46">
+        <v>2820</v>
+      </c>
+      <c r="U46">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="7">
+        <v>44</v>
+      </c>
+      <c r="G47" s="1">
+        <v>185</v>
+      </c>
+      <c r="H47">
+        <v>374</v>
+      </c>
+      <c r="I47">
+        <v>738</v>
+      </c>
+      <c r="J47">
+        <v>1424</v>
+      </c>
+      <c r="K47">
+        <v>2804</v>
+      </c>
+      <c r="L47">
+        <v>5599</v>
+      </c>
+      <c r="M47">
+        <v>11038</v>
+      </c>
+      <c r="N47">
+        <v>22225</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>192</v>
+      </c>
+      <c r="S47">
+        <v>733</v>
+      </c>
+      <c r="T47">
+        <v>2818</v>
+      </c>
+      <c r="U47">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="7">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1">
+        <v>186</v>
+      </c>
+      <c r="H48">
+        <v>372</v>
+      </c>
+      <c r="I48">
+        <v>720</v>
+      </c>
+      <c r="J48">
+        <v>1422</v>
+      </c>
+      <c r="K48">
+        <v>2798</v>
+      </c>
+      <c r="L48">
+        <v>5546</v>
+      </c>
+      <c r="M48">
+        <v>11069</v>
+      </c>
+      <c r="N48">
+        <v>22142</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>45</v>
+      </c>
+      <c r="R48">
+        <v>182</v>
+      </c>
+      <c r="S48">
+        <v>737</v>
+      </c>
+      <c r="T48">
+        <v>2825</v>
+      </c>
+      <c r="U48">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="7">
+        <v>46</v>
+      </c>
+      <c r="G49" s="1">
+        <v>188</v>
+      </c>
+      <c r="H49">
+        <v>376</v>
+      </c>
+      <c r="I49">
+        <v>713</v>
+      </c>
+      <c r="J49">
+        <v>1434</v>
+      </c>
+      <c r="K49">
+        <v>2798</v>
+      </c>
+      <c r="L49">
+        <v>5619</v>
+      </c>
+      <c r="M49">
+        <v>11153</v>
+      </c>
+      <c r="N49">
+        <v>21983</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>46</v>
+      </c>
+      <c r="R49">
+        <v>187</v>
+      </c>
+      <c r="S49">
+        <v>719</v>
+      </c>
+      <c r="T49">
+        <v>2836</v>
+      </c>
+      <c r="U49">
+        <v>11148</v>
+      </c>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="7">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1">
+        <v>195</v>
+      </c>
+      <c r="H50">
+        <v>369</v>
+      </c>
+      <c r="I50">
+        <v>719</v>
+      </c>
+      <c r="J50">
+        <v>1425</v>
+      </c>
+      <c r="K50">
+        <v>2802</v>
+      </c>
+      <c r="L50">
+        <v>5584</v>
+      </c>
+      <c r="M50">
+        <v>11147</v>
+      </c>
+      <c r="N50">
+        <v>22030</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>47</v>
+      </c>
+      <c r="R50">
+        <v>184</v>
+      </c>
+      <c r="S50">
+        <v>733</v>
+      </c>
+      <c r="T50">
+        <v>2802</v>
+      </c>
+      <c r="U50">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="7">
+        <v>48</v>
+      </c>
+      <c r="G51" s="1">
+        <v>186</v>
+      </c>
+      <c r="H51">
+        <v>372</v>
+      </c>
+      <c r="I51">
+        <v>725</v>
+      </c>
+      <c r="J51">
+        <v>1422</v>
+      </c>
+      <c r="K51">
+        <v>2817</v>
+      </c>
+      <c r="L51">
+        <v>5613</v>
+      </c>
+      <c r="M51">
+        <v>11135</v>
+      </c>
+      <c r="N51">
+        <v>22078</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>48</v>
+      </c>
+      <c r="R51">
+        <v>191</v>
+      </c>
+      <c r="S51">
+        <v>740</v>
+      </c>
+      <c r="T51">
+        <v>2795</v>
+      </c>
+      <c r="U51">
+        <v>11051</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="7">
+        <v>49</v>
+      </c>
+      <c r="G52" s="1">
+        <v>185</v>
+      </c>
+      <c r="H52">
+        <v>375</v>
+      </c>
+      <c r="I52">
+        <v>724</v>
+      </c>
+      <c r="J52">
+        <v>1439</v>
+      </c>
+      <c r="K52">
+        <v>2803</v>
+      </c>
+      <c r="L52">
+        <v>5552</v>
+      </c>
+      <c r="M52">
+        <v>11032</v>
+      </c>
+      <c r="N52">
+        <v>22035</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>49</v>
+      </c>
+      <c r="R52">
+        <v>187</v>
+      </c>
+      <c r="S52">
+        <v>723</v>
+      </c>
+      <c r="T52">
+        <v>2878</v>
+      </c>
+      <c r="U52">
+        <v>11033</v>
+      </c>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="7">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1">
+        <v>184</v>
+      </c>
+      <c r="H53">
+        <v>364</v>
+      </c>
+      <c r="I53">
+        <v>738</v>
+      </c>
+      <c r="J53">
+        <v>1413</v>
+      </c>
+      <c r="K53">
+        <v>2793</v>
+      </c>
+      <c r="L53">
+        <v>5585</v>
+      </c>
+      <c r="M53">
+        <v>11041</v>
+      </c>
+      <c r="N53">
+        <v>22112</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>187</v>
+      </c>
+      <c r="S53">
+        <v>739</v>
+      </c>
+      <c r="T53">
+        <v>2812</v>
+      </c>
+      <c r="U53">
+        <v>11029</v>
+      </c>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="7">
+        <v>51</v>
+      </c>
+      <c r="G54" s="1">
+        <v>187</v>
+      </c>
+      <c r="H54">
+        <v>382</v>
+      </c>
+      <c r="I54">
+        <v>727</v>
+      </c>
+      <c r="J54">
+        <v>1428</v>
+      </c>
+      <c r="K54">
+        <v>2793</v>
+      </c>
+      <c r="L54">
+        <v>5564</v>
+      </c>
+      <c r="M54">
+        <v>11178</v>
+      </c>
+      <c r="N54">
+        <v>22260</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>51</v>
+      </c>
+      <c r="R54">
+        <v>185</v>
+      </c>
+      <c r="S54">
+        <v>746</v>
+      </c>
+      <c r="T54">
+        <v>2813</v>
+      </c>
+      <c r="U54">
+        <v>11143</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="7">
+        <v>52</v>
+      </c>
+      <c r="G55" s="1">
+        <v>189</v>
+      </c>
+      <c r="H55">
+        <v>369</v>
+      </c>
+      <c r="I55">
+        <v>728</v>
+      </c>
+      <c r="J55">
+        <v>1424</v>
+      </c>
+      <c r="K55">
+        <v>2820</v>
+      </c>
+      <c r="L55">
+        <v>5658</v>
+      </c>
+      <c r="M55">
+        <v>11171</v>
+      </c>
+      <c r="N55">
+        <v>22231</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>52</v>
+      </c>
+      <c r="R55">
+        <v>183</v>
+      </c>
+      <c r="S55">
+        <v>729</v>
+      </c>
+      <c r="T55">
+        <v>2801</v>
+      </c>
+      <c r="U55">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="7">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1">
+        <v>185</v>
+      </c>
+      <c r="H56">
+        <v>364</v>
+      </c>
+      <c r="I56">
+        <v>724</v>
+      </c>
+      <c r="J56">
+        <v>1405</v>
+      </c>
+      <c r="K56">
+        <v>2818</v>
+      </c>
+      <c r="L56">
+        <v>5578</v>
+      </c>
+      <c r="M56">
+        <v>11100</v>
+      </c>
+      <c r="N56">
+        <v>22211</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>53</v>
+      </c>
+      <c r="R56">
+        <v>184</v>
+      </c>
+      <c r="S56">
+        <v>716</v>
+      </c>
+      <c r="T56">
+        <v>2832</v>
+      </c>
+      <c r="U56">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="7">
+        <v>54</v>
+      </c>
+      <c r="G57" s="1">
+        <v>184</v>
+      </c>
+      <c r="H57">
+        <v>371</v>
+      </c>
+      <c r="I57">
+        <v>721</v>
+      </c>
+      <c r="J57">
+        <v>1433</v>
+      </c>
+      <c r="K57">
+        <v>2784</v>
+      </c>
+      <c r="L57">
+        <v>5559</v>
+      </c>
+      <c r="M57">
+        <v>11046</v>
+      </c>
+      <c r="N57">
+        <v>22182</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>54</v>
+      </c>
+      <c r="R57">
+        <v>181</v>
+      </c>
+      <c r="S57">
+        <v>738</v>
+      </c>
+      <c r="T57">
+        <v>2818</v>
+      </c>
+      <c r="U57">
+        <v>11138</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="7">
+        <v>55</v>
+      </c>
+      <c r="G58" s="1">
+        <v>187</v>
+      </c>
+      <c r="H58">
+        <v>373</v>
+      </c>
+      <c r="I58">
+        <v>724</v>
+      </c>
+      <c r="J58">
+        <v>1420</v>
+      </c>
+      <c r="K58">
+        <v>2802</v>
+      </c>
+      <c r="L58">
+        <v>5562</v>
+      </c>
+      <c r="M58">
+        <v>11064</v>
+      </c>
+      <c r="N58">
+        <v>22193</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>55</v>
+      </c>
+      <c r="R58">
+        <v>206</v>
+      </c>
+      <c r="S58">
+        <v>724</v>
+      </c>
+      <c r="T58">
+        <v>2805</v>
+      </c>
+      <c r="U58">
+        <v>11178</v>
+      </c>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="7">
+        <v>56</v>
+      </c>
+      <c r="G59" s="1">
+        <v>186</v>
+      </c>
+      <c r="H59">
+        <v>371</v>
+      </c>
+      <c r="I59">
+        <v>722</v>
+      </c>
+      <c r="J59">
+        <v>1418</v>
+      </c>
+      <c r="K59">
+        <v>2791</v>
+      </c>
+      <c r="L59">
+        <v>5569</v>
+      </c>
+      <c r="M59">
+        <v>11071</v>
+      </c>
+      <c r="N59">
+        <v>22112</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>185</v>
+      </c>
+      <c r="S59">
+        <v>725</v>
+      </c>
+      <c r="T59">
+        <v>2813</v>
+      </c>
+      <c r="U59">
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="7">
+        <v>57</v>
+      </c>
+      <c r="G60" s="1">
+        <v>188</v>
+      </c>
+      <c r="H60">
+        <v>369</v>
+      </c>
+      <c r="I60">
+        <v>722</v>
+      </c>
+      <c r="J60">
+        <v>1413</v>
+      </c>
+      <c r="K60">
+        <v>2793</v>
+      </c>
+      <c r="L60">
+        <v>5558</v>
+      </c>
+      <c r="M60">
+        <v>11140</v>
+      </c>
+      <c r="N60">
+        <v>22095</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>57</v>
+      </c>
+      <c r="R60">
+        <v>183</v>
+      </c>
+      <c r="S60">
+        <v>731</v>
+      </c>
+      <c r="T60">
+        <v>2808</v>
+      </c>
+      <c r="U60">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="7">
+        <v>58</v>
+      </c>
+      <c r="G61" s="1">
+        <v>185</v>
+      </c>
+      <c r="H61">
+        <v>368</v>
+      </c>
+      <c r="I61">
+        <v>720</v>
+      </c>
+      <c r="J61">
+        <v>1419</v>
+      </c>
+      <c r="K61">
+        <v>2791</v>
+      </c>
+      <c r="L61">
+        <v>5555</v>
+      </c>
+      <c r="M61">
+        <v>11147</v>
+      </c>
+      <c r="N61">
+        <v>22114</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>58</v>
+      </c>
+      <c r="R61">
+        <v>184</v>
+      </c>
+      <c r="S61">
+        <v>715</v>
+      </c>
+      <c r="T61">
+        <v>2848</v>
+      </c>
+      <c r="U61">
+        <v>11131</v>
+      </c>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="7">
+        <v>59</v>
+      </c>
+      <c r="G62" s="1">
+        <v>187</v>
+      </c>
+      <c r="H62">
+        <v>369</v>
+      </c>
+      <c r="I62">
+        <v>721</v>
+      </c>
+      <c r="J62">
+        <v>1435</v>
+      </c>
+      <c r="K62">
+        <v>2829</v>
+      </c>
+      <c r="L62">
+        <v>5573</v>
+      </c>
+      <c r="M62">
+        <v>11073</v>
+      </c>
+      <c r="N62">
+        <v>22172</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>59</v>
+      </c>
+      <c r="R62">
+        <v>183</v>
+      </c>
+      <c r="S62">
+        <v>729</v>
+      </c>
+      <c r="T62">
+        <v>2810</v>
+      </c>
+      <c r="U62">
+        <v>11103</v>
+      </c>
+    </row>
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="7">
+        <v>60</v>
+      </c>
+      <c r="G63" s="1">
+        <v>186</v>
+      </c>
+      <c r="H63">
+        <v>371</v>
+      </c>
+      <c r="I63">
+        <v>726</v>
+      </c>
+      <c r="J63">
+        <v>1436</v>
+      </c>
+      <c r="K63">
+        <v>2782</v>
+      </c>
+      <c r="L63">
+        <v>5570</v>
+      </c>
+      <c r="M63">
+        <v>11066</v>
+      </c>
+      <c r="N63">
+        <v>22017</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>60</v>
+      </c>
+      <c r="R63">
+        <v>184</v>
+      </c>
+      <c r="S63">
+        <v>720</v>
+      </c>
+      <c r="T63">
+        <v>2815</v>
+      </c>
+      <c r="U63">
+        <v>11066</v>
+      </c>
+    </row>
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="F64" s="7">
+        <v>61</v>
+      </c>
+      <c r="G64" s="1">
+        <v>183</v>
+      </c>
+      <c r="H64">
+        <v>370</v>
+      </c>
+      <c r="I64">
+        <v>736</v>
+      </c>
+      <c r="J64">
+        <v>1424</v>
+      </c>
+      <c r="K64">
+        <v>2808</v>
+      </c>
+      <c r="L64">
+        <v>5578</v>
+      </c>
+      <c r="M64">
+        <v>11169</v>
+      </c>
+      <c r="N64">
+        <v>22210</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>61</v>
+      </c>
+      <c r="R64">
+        <v>187</v>
+      </c>
+      <c r="S64">
+        <v>726</v>
+      </c>
+      <c r="T64">
+        <v>2815</v>
+      </c>
+      <c r="U64">
+        <v>11045</v>
+      </c>
+    </row>
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="7">
+        <v>62</v>
+      </c>
+      <c r="G65" s="1">
+        <v>186</v>
+      </c>
+      <c r="H65">
+        <v>371</v>
+      </c>
+      <c r="I65">
+        <v>725</v>
+      </c>
+      <c r="J65">
+        <v>1400</v>
+      </c>
+      <c r="K65">
+        <v>2790</v>
+      </c>
+      <c r="L65">
+        <v>5555</v>
+      </c>
+      <c r="M65">
+        <v>11112</v>
+      </c>
+      <c r="N65">
+        <v>22029</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>62</v>
+      </c>
+      <c r="R65">
+        <v>184</v>
+      </c>
+      <c r="S65">
+        <v>726</v>
+      </c>
+      <c r="T65">
+        <v>2791</v>
+      </c>
+      <c r="U65">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="F66" s="7">
+        <v>63</v>
+      </c>
+      <c r="G66" s="1">
+        <v>195</v>
+      </c>
+      <c r="H66">
+        <v>372</v>
+      </c>
+      <c r="I66">
+        <v>710</v>
+      </c>
+      <c r="J66">
+        <v>1428</v>
+      </c>
+      <c r="K66">
+        <v>2780</v>
+      </c>
+      <c r="L66">
+        <v>5585</v>
+      </c>
+      <c r="M66">
+        <v>11052</v>
+      </c>
+      <c r="N66">
+        <v>22094</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>63</v>
+      </c>
+      <c r="R66">
+        <v>187</v>
+      </c>
+      <c r="S66">
+        <v>714</v>
+      </c>
+      <c r="T66">
+        <v>2785</v>
+      </c>
+      <c r="U66">
+        <v>11031</v>
+      </c>
+    </row>
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="F67" s="7">
+        <v>64</v>
+      </c>
+      <c r="G67" s="1">
+        <v>193</v>
+      </c>
+      <c r="H67">
+        <v>375</v>
+      </c>
+      <c r="I67">
+        <v>753</v>
+      </c>
+      <c r="J67">
+        <v>1422</v>
+      </c>
+      <c r="K67">
+        <v>2779</v>
+      </c>
+      <c r="L67">
+        <v>5587</v>
+      </c>
+      <c r="M67">
+        <v>11137</v>
+      </c>
+      <c r="N67">
+        <v>22233</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>64</v>
+      </c>
+      <c r="R67">
+        <v>191</v>
+      </c>
+      <c r="S67">
+        <v>732</v>
+      </c>
+      <c r="T67">
+        <v>2813</v>
+      </c>
+      <c r="U67">
+        <v>11033</v>
+      </c>
+    </row>
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="7">
+        <v>65</v>
+      </c>
+      <c r="G68" s="1">
+        <v>184</v>
+      </c>
+      <c r="H68">
+        <v>372</v>
+      </c>
+      <c r="I68">
+        <v>725</v>
+      </c>
+      <c r="J68">
+        <v>1433</v>
+      </c>
+      <c r="K68">
+        <v>2828</v>
+      </c>
+      <c r="L68">
+        <v>5579</v>
+      </c>
+      <c r="M68">
+        <v>11091</v>
+      </c>
+      <c r="N68">
+        <v>22016</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>65</v>
+      </c>
+      <c r="R68">
+        <v>187</v>
+      </c>
+      <c r="S68">
+        <v>714</v>
+      </c>
+      <c r="T68">
+        <v>2811</v>
+      </c>
+      <c r="U68">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="7">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1">
+        <v>186</v>
+      </c>
+      <c r="H69">
+        <v>376</v>
+      </c>
+      <c r="I69">
+        <v>725</v>
+      </c>
+      <c r="J69">
+        <v>1423</v>
+      </c>
+      <c r="K69">
+        <v>2833</v>
+      </c>
+      <c r="L69">
+        <v>5589</v>
+      </c>
+      <c r="M69">
+        <v>11136</v>
+      </c>
+      <c r="N69">
+        <v>22033</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>66</v>
+      </c>
+      <c r="R69">
+        <v>188</v>
+      </c>
+      <c r="S69">
+        <v>726</v>
+      </c>
+      <c r="T69">
+        <v>2791</v>
+      </c>
+      <c r="U69">
+        <v>11058</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="7">
+        <v>67</v>
+      </c>
+      <c r="G70" s="1">
+        <v>184</v>
+      </c>
+      <c r="H70">
+        <v>389</v>
+      </c>
+      <c r="I70">
+        <v>731</v>
+      </c>
+      <c r="J70">
+        <v>1424</v>
+      </c>
+      <c r="K70">
+        <v>2797</v>
+      </c>
+      <c r="L70">
+        <v>5548</v>
+      </c>
+      <c r="M70">
+        <v>11140</v>
+      </c>
+      <c r="N70">
+        <v>22129</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>67</v>
+      </c>
+      <c r="R70">
+        <v>183</v>
+      </c>
+      <c r="S70">
+        <v>729</v>
+      </c>
+      <c r="T70">
+        <v>2800</v>
+      </c>
+      <c r="U70">
+        <v>11108</v>
+      </c>
+    </row>
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="7">
+        <v>68</v>
+      </c>
+      <c r="G71" s="1">
+        <v>190</v>
+      </c>
+      <c r="H71">
+        <v>375</v>
+      </c>
+      <c r="I71">
+        <v>725</v>
+      </c>
+      <c r="J71">
+        <v>1423</v>
+      </c>
+      <c r="K71">
+        <v>2790</v>
+      </c>
+      <c r="L71">
+        <v>5549</v>
+      </c>
+      <c r="M71">
+        <v>11148</v>
+      </c>
+      <c r="N71">
+        <v>22170</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>68</v>
+      </c>
+      <c r="R71">
+        <v>184</v>
+      </c>
+      <c r="S71">
+        <v>724</v>
+      </c>
+      <c r="T71">
+        <v>2803</v>
+      </c>
+      <c r="U71">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" s="7">
+        <v>69</v>
+      </c>
+      <c r="G72" s="1">
+        <v>183</v>
+      </c>
+      <c r="H72">
+        <v>363</v>
+      </c>
+      <c r="I72">
+        <v>726</v>
+      </c>
+      <c r="J72">
+        <v>1444</v>
+      </c>
+      <c r="K72">
+        <v>2810</v>
+      </c>
+      <c r="L72">
+        <v>5561</v>
+      </c>
+      <c r="M72">
+        <v>11052</v>
+      </c>
+      <c r="N72">
+        <v>22038</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>69</v>
+      </c>
+      <c r="R72">
+        <v>188</v>
+      </c>
+      <c r="S72">
+        <v>720</v>
+      </c>
+      <c r="T72">
+        <v>2799</v>
+      </c>
+      <c r="U72">
+        <v>11254</v>
+      </c>
+    </row>
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" s="7">
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <v>184</v>
+      </c>
+      <c r="H73">
+        <v>378</v>
+      </c>
+      <c r="I73">
+        <v>732</v>
+      </c>
+      <c r="J73">
+        <v>1406</v>
+      </c>
+      <c r="K73">
+        <v>2812</v>
+      </c>
+      <c r="L73">
+        <v>5569</v>
+      </c>
+      <c r="M73">
+        <v>11146</v>
+      </c>
+      <c r="N73">
+        <v>22025</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>70</v>
+      </c>
+      <c r="R73">
+        <v>186</v>
+      </c>
+      <c r="S73">
+        <v>713</v>
+      </c>
+      <c r="T73">
+        <v>2826</v>
+      </c>
+      <c r="U73">
+        <v>11048</v>
+      </c>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="F74" s="7">
+        <v>71</v>
+      </c>
+      <c r="G74" s="1">
+        <v>188</v>
+      </c>
+      <c r="H74">
+        <v>368</v>
+      </c>
+      <c r="I74">
+        <v>739</v>
+      </c>
+      <c r="J74">
+        <v>1418</v>
+      </c>
+      <c r="K74">
+        <v>2804</v>
+      </c>
+      <c r="L74">
+        <v>5579</v>
+      </c>
+      <c r="M74">
+        <v>11052</v>
+      </c>
+      <c r="N74">
+        <v>22141</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>183</v>
+      </c>
+      <c r="S74">
+        <v>715</v>
+      </c>
+      <c r="T74">
+        <v>2817</v>
+      </c>
+      <c r="U74">
+        <v>11183</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="F75" s="7">
+        <v>72</v>
+      </c>
+      <c r="G75" s="1">
+        <v>186</v>
+      </c>
+      <c r="H75">
+        <v>363</v>
+      </c>
+      <c r="I75">
+        <v>722</v>
+      </c>
+      <c r="J75">
+        <v>1441</v>
+      </c>
+      <c r="K75">
+        <v>2821</v>
+      </c>
+      <c r="L75">
+        <v>5581</v>
+      </c>
+      <c r="M75">
+        <v>11178</v>
+      </c>
+      <c r="N75">
+        <v>22233</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>72</v>
+      </c>
+      <c r="R75">
+        <v>183</v>
+      </c>
+      <c r="S75">
+        <v>731</v>
+      </c>
+      <c r="T75">
+        <v>2863</v>
+      </c>
+      <c r="U75">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" s="7">
+        <v>73</v>
+      </c>
+      <c r="G76" s="1">
+        <v>186</v>
+      </c>
+      <c r="H76">
+        <v>371</v>
+      </c>
+      <c r="I76">
+        <v>731</v>
+      </c>
+      <c r="J76">
+        <v>1430</v>
+      </c>
+      <c r="K76">
+        <v>2792</v>
+      </c>
+      <c r="L76">
+        <v>5584</v>
+      </c>
+      <c r="M76">
+        <v>11087</v>
+      </c>
+      <c r="N76">
+        <v>22067</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>73</v>
+      </c>
+      <c r="R76">
+        <v>183</v>
+      </c>
+      <c r="S76">
+        <v>718</v>
+      </c>
+      <c r="T76">
+        <v>2791</v>
+      </c>
+      <c r="U76">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="F77" s="7">
+        <v>74</v>
+      </c>
+      <c r="G77" s="1">
+        <v>184</v>
+      </c>
+      <c r="H77">
+        <v>367</v>
+      </c>
+      <c r="I77">
+        <v>724</v>
+      </c>
+      <c r="J77">
+        <v>1421</v>
+      </c>
+      <c r="K77">
+        <v>2804</v>
+      </c>
+      <c r="L77">
+        <v>5583</v>
+      </c>
+      <c r="M77">
+        <v>11076</v>
+      </c>
+      <c r="N77">
+        <v>22266</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>74</v>
+      </c>
+      <c r="R77">
+        <v>185</v>
+      </c>
+      <c r="S77">
+        <v>730</v>
+      </c>
+      <c r="T77">
+        <v>2834</v>
+      </c>
+      <c r="U77">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="F78" s="7">
+        <v>75</v>
+      </c>
+      <c r="G78" s="1">
+        <v>187</v>
+      </c>
+      <c r="H78">
+        <v>370</v>
+      </c>
+      <c r="I78">
+        <v>737</v>
+      </c>
+      <c r="J78">
+        <v>1407</v>
+      </c>
+      <c r="K78">
+        <v>2801</v>
+      </c>
+      <c r="L78">
+        <v>5545</v>
+      </c>
+      <c r="M78">
+        <v>11122</v>
+      </c>
+      <c r="N78">
+        <v>22090</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>75</v>
+      </c>
+      <c r="R78">
+        <v>183</v>
+      </c>
+      <c r="S78">
+        <v>725</v>
+      </c>
+      <c r="T78">
+        <v>2798</v>
+      </c>
+      <c r="U78">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="F79" s="7">
+        <v>76</v>
+      </c>
+      <c r="G79" s="1">
+        <v>187</v>
+      </c>
+      <c r="H79">
+        <v>378</v>
+      </c>
+      <c r="I79">
+        <v>729</v>
+      </c>
+      <c r="J79">
+        <v>1432</v>
+      </c>
+      <c r="K79">
+        <v>2804</v>
+      </c>
+      <c r="L79">
+        <v>5565</v>
+      </c>
+      <c r="M79">
+        <v>11256</v>
+      </c>
+      <c r="N79">
+        <v>22020</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>76</v>
+      </c>
+      <c r="R79">
+        <v>183</v>
+      </c>
+      <c r="S79">
+        <v>725</v>
+      </c>
+      <c r="T79">
+        <v>2815</v>
+      </c>
+      <c r="U79">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="F80" s="7">
+        <v>77</v>
+      </c>
+      <c r="G80" s="1">
+        <v>185</v>
+      </c>
+      <c r="H80">
+        <v>369</v>
+      </c>
+      <c r="I80">
+        <v>735</v>
+      </c>
+      <c r="J80">
+        <v>1432</v>
+      </c>
+      <c r="K80">
+        <v>2786</v>
+      </c>
+      <c r="L80">
+        <v>5599</v>
+      </c>
+      <c r="M80">
+        <v>11135</v>
+      </c>
+      <c r="N80">
+        <v>22040</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>77</v>
+      </c>
+      <c r="R80">
+        <v>185</v>
+      </c>
+      <c r="S80">
+        <v>722</v>
+      </c>
+      <c r="T80">
+        <v>2793</v>
+      </c>
+      <c r="U80">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="F81" s="7">
+        <v>78</v>
+      </c>
+      <c r="G81" s="1">
+        <v>184</v>
+      </c>
+      <c r="H81">
+        <v>375</v>
+      </c>
+      <c r="I81">
+        <v>725</v>
+      </c>
+      <c r="J81">
+        <v>1438</v>
+      </c>
+      <c r="K81">
+        <v>2819</v>
+      </c>
+      <c r="L81">
+        <v>5570</v>
+      </c>
+      <c r="M81">
+        <v>11121</v>
+      </c>
+      <c r="N81">
+        <v>22268</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>78</v>
+      </c>
+      <c r="R81">
+        <v>192</v>
+      </c>
+      <c r="S81">
+        <v>720</v>
+      </c>
+      <c r="T81">
+        <v>2802</v>
+      </c>
+      <c r="U81">
+        <v>11041</v>
+      </c>
+    </row>
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="F82" s="7">
+        <v>79</v>
+      </c>
+      <c r="G82" s="1">
+        <v>186</v>
+      </c>
+      <c r="H82">
+        <v>366</v>
+      </c>
+      <c r="I82">
+        <v>718</v>
+      </c>
+      <c r="J82">
+        <v>1441</v>
+      </c>
+      <c r="K82">
+        <v>2805</v>
+      </c>
+      <c r="L82">
+        <v>5582</v>
+      </c>
+      <c r="M82">
+        <v>11065</v>
+      </c>
+      <c r="N82">
+        <v>22038</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>79</v>
+      </c>
+      <c r="R82">
+        <v>197</v>
+      </c>
+      <c r="S82">
+        <v>731</v>
+      </c>
+      <c r="T82">
+        <v>2819</v>
+      </c>
+      <c r="U82">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="F83" s="7">
+        <v>80</v>
+      </c>
+      <c r="G83" s="1">
+        <v>185</v>
+      </c>
+      <c r="H83">
+        <v>372</v>
+      </c>
+      <c r="I83">
+        <v>732</v>
+      </c>
+      <c r="J83">
+        <v>1432</v>
+      </c>
+      <c r="K83">
+        <v>2809</v>
+      </c>
+      <c r="L83">
+        <v>5575</v>
+      </c>
+      <c r="M83">
+        <v>11059</v>
+      </c>
+      <c r="N83">
+        <v>22079</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>80</v>
+      </c>
+      <c r="R83">
+        <v>187</v>
+      </c>
+      <c r="S83">
+        <v>726</v>
+      </c>
+      <c r="T83">
+        <v>2821</v>
+      </c>
+      <c r="U83">
+        <v>11099</v>
+      </c>
+    </row>
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="F84" s="7">
+        <v>81</v>
+      </c>
+      <c r="G84" s="1">
+        <v>186</v>
+      </c>
+      <c r="H84">
+        <v>375</v>
+      </c>
+      <c r="I84">
+        <v>744</v>
+      </c>
+      <c r="J84">
+        <v>1432</v>
+      </c>
+      <c r="K84">
+        <v>2806</v>
+      </c>
+      <c r="L84">
+        <v>5520</v>
+      </c>
+      <c r="M84">
+        <v>11076</v>
+      </c>
+      <c r="N84">
+        <v>22197</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>81</v>
+      </c>
+      <c r="R84">
+        <v>185</v>
+      </c>
+      <c r="S84">
+        <v>729</v>
+      </c>
+      <c r="T84">
+        <v>2800</v>
+      </c>
+      <c r="U84">
+        <v>11079</v>
+      </c>
+    </row>
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="F85" s="7">
+        <v>82</v>
+      </c>
+      <c r="G85" s="1">
+        <v>184</v>
+      </c>
+      <c r="H85">
+        <v>374</v>
+      </c>
+      <c r="I85">
+        <v>718</v>
+      </c>
+      <c r="J85">
+        <v>1436</v>
+      </c>
+      <c r="K85">
+        <v>2787</v>
+      </c>
+      <c r="L85">
+        <v>5644</v>
+      </c>
+      <c r="M85">
+        <v>11080</v>
+      </c>
+      <c r="N85">
+        <v>22233</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>82</v>
+      </c>
+      <c r="R85">
+        <v>188</v>
+      </c>
+      <c r="S85">
+        <v>727</v>
+      </c>
+      <c r="T85">
+        <v>2797</v>
+      </c>
+      <c r="U85">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+      <c r="F86" s="7">
+        <v>83</v>
+      </c>
+      <c r="G86" s="1">
+        <v>186</v>
+      </c>
+      <c r="H86">
+        <v>367</v>
+      </c>
+      <c r="I86">
+        <v>720</v>
+      </c>
+      <c r="J86">
+        <v>1447</v>
+      </c>
+      <c r="K86">
+        <v>2793</v>
+      </c>
+      <c r="L86">
+        <v>5559</v>
+      </c>
+      <c r="M86">
+        <v>11137</v>
+      </c>
+      <c r="N86">
+        <v>22082</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>83</v>
+      </c>
+      <c r="R86">
+        <v>183</v>
+      </c>
+      <c r="S86">
+        <v>744</v>
+      </c>
+      <c r="T86">
+        <v>2796</v>
+      </c>
+      <c r="U86">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="F87" s="7">
+        <v>84</v>
+      </c>
+      <c r="G87" s="1">
+        <v>186</v>
+      </c>
+      <c r="H87">
+        <v>368</v>
+      </c>
+      <c r="I87">
+        <v>723</v>
+      </c>
+      <c r="J87">
+        <v>1420</v>
+      </c>
+      <c r="K87">
+        <v>2788</v>
+      </c>
+      <c r="L87">
+        <v>5566</v>
+      </c>
+      <c r="M87">
+        <v>11108</v>
+      </c>
+      <c r="N87">
+        <v>22043</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>84</v>
+      </c>
+      <c r="R87">
+        <v>181</v>
+      </c>
+      <c r="S87">
+        <v>723</v>
+      </c>
+      <c r="T87">
+        <v>2782</v>
+      </c>
+      <c r="U87">
+        <v>11167</v>
+      </c>
+    </row>
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="F88" s="7">
+        <v>85</v>
+      </c>
+      <c r="G88" s="1">
+        <v>185</v>
+      </c>
+      <c r="H88">
+        <v>368</v>
+      </c>
+      <c r="I88">
+        <v>732</v>
+      </c>
+      <c r="J88">
+        <v>1432</v>
+      </c>
+      <c r="K88">
+        <v>2821</v>
+      </c>
+      <c r="L88">
+        <v>5585</v>
+      </c>
+      <c r="M88">
+        <v>11136</v>
+      </c>
+      <c r="N88">
+        <v>22168</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>85</v>
+      </c>
+      <c r="R88">
+        <v>181</v>
+      </c>
+      <c r="S88">
+        <v>724</v>
+      </c>
+      <c r="T88">
+        <v>2816</v>
+      </c>
+      <c r="U88">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="F89" s="7">
+        <v>86</v>
+      </c>
+      <c r="G89" s="1">
+        <v>186</v>
+      </c>
+      <c r="H89">
+        <v>370</v>
+      </c>
+      <c r="I89">
+        <v>721</v>
+      </c>
+      <c r="J89">
+        <v>1422</v>
+      </c>
+      <c r="K89">
+        <v>2802</v>
+      </c>
+      <c r="L89">
+        <v>5522</v>
+      </c>
+      <c r="M89">
+        <v>11153</v>
+      </c>
+      <c r="N89">
+        <v>22150</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>86</v>
+      </c>
+      <c r="R89">
+        <v>187</v>
+      </c>
+      <c r="S89">
+        <v>723</v>
+      </c>
+      <c r="T89">
+        <v>2826</v>
+      </c>
+      <c r="U89">
+        <v>11103</v>
+      </c>
+    </row>
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="F90" s="7">
+        <v>87</v>
+      </c>
+      <c r="G90" s="1">
+        <v>183</v>
+      </c>
+      <c r="H90">
+        <v>369</v>
+      </c>
+      <c r="I90">
+        <v>719</v>
+      </c>
+      <c r="J90">
+        <v>1430</v>
+      </c>
+      <c r="K90">
+        <v>2808</v>
+      </c>
+      <c r="L90">
+        <v>5583</v>
+      </c>
+      <c r="M90">
+        <v>11142</v>
+      </c>
+      <c r="N90">
+        <v>22094</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>87</v>
+      </c>
+      <c r="R90">
+        <v>183</v>
+      </c>
+      <c r="S90">
+        <v>718</v>
+      </c>
+      <c r="T90">
+        <v>2783</v>
+      </c>
+      <c r="U90">
+        <v>11093</v>
+      </c>
+    </row>
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="F91" s="7">
+        <v>88</v>
+      </c>
+      <c r="G91" s="1">
+        <v>185</v>
+      </c>
+      <c r="H91">
+        <v>367</v>
+      </c>
+      <c r="I91">
+        <v>715</v>
+      </c>
+      <c r="J91">
+        <v>1407</v>
+      </c>
+      <c r="K91">
+        <v>2796</v>
+      </c>
+      <c r="L91">
+        <v>5531</v>
+      </c>
+      <c r="M91">
+        <v>11064</v>
+      </c>
+      <c r="N91">
+        <v>22034</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>88</v>
+      </c>
+      <c r="R91">
+        <v>184</v>
+      </c>
+      <c r="S91">
+        <v>725</v>
+      </c>
+      <c r="T91">
+        <v>2821</v>
+      </c>
+      <c r="U91">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="F92" s="7">
+        <v>89</v>
+      </c>
+      <c r="G92" s="1">
+        <v>186</v>
+      </c>
+      <c r="H92">
+        <v>371</v>
+      </c>
+      <c r="I92">
+        <v>734</v>
+      </c>
+      <c r="J92">
+        <v>1431</v>
+      </c>
+      <c r="K92">
+        <v>2807</v>
+      </c>
+      <c r="L92">
+        <v>5658</v>
+      </c>
+      <c r="M92">
+        <v>11047</v>
+      </c>
+      <c r="N92">
+        <v>22194</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>89</v>
+      </c>
+      <c r="R92">
+        <v>188</v>
+      </c>
+      <c r="S92">
+        <v>719</v>
+      </c>
+      <c r="T92">
+        <v>2799</v>
+      </c>
+      <c r="U92">
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+      <c r="F93" s="7">
+        <v>90</v>
+      </c>
+      <c r="G93" s="1">
+        <v>185</v>
+      </c>
+      <c r="H93">
+        <v>377</v>
+      </c>
+      <c r="I93">
+        <v>727</v>
+      </c>
+      <c r="J93">
+        <v>1462</v>
+      </c>
+      <c r="K93">
+        <v>2812</v>
+      </c>
+      <c r="L93">
+        <v>5606</v>
+      </c>
+      <c r="M93">
+        <v>11144</v>
+      </c>
+      <c r="N93">
+        <v>22135</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>90</v>
+      </c>
+      <c r="R93">
+        <v>183</v>
+      </c>
+      <c r="S93">
+        <v>725</v>
+      </c>
+      <c r="T93">
+        <v>2804</v>
+      </c>
+      <c r="U93">
+        <v>11126</v>
+      </c>
+    </row>
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="7">
+        <v>91</v>
+      </c>
+      <c r="G94" s="1">
+        <v>185</v>
+      </c>
+      <c r="H94">
+        <v>371</v>
+      </c>
+      <c r="I94">
+        <v>719</v>
+      </c>
+      <c r="J94">
+        <v>1425</v>
+      </c>
+      <c r="K94">
+        <v>2810</v>
+      </c>
+      <c r="L94">
+        <v>5604</v>
+      </c>
+      <c r="M94">
+        <v>11100</v>
+      </c>
+      <c r="N94">
+        <v>22187</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>91</v>
+      </c>
+      <c r="R94">
+        <v>183</v>
+      </c>
+      <c r="S94">
+        <v>732</v>
+      </c>
+      <c r="T94">
+        <v>2788</v>
+      </c>
+      <c r="U94">
+        <v>11077</v>
+      </c>
+    </row>
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="7">
+        <v>92</v>
+      </c>
+      <c r="G95" s="1">
+        <v>184</v>
+      </c>
+      <c r="H95">
+        <v>366</v>
+      </c>
+      <c r="I95">
+        <v>735</v>
+      </c>
+      <c r="J95">
+        <v>1436</v>
+      </c>
+      <c r="K95">
+        <v>2816</v>
+      </c>
+      <c r="L95">
+        <v>5646</v>
+      </c>
+      <c r="M95">
+        <v>11089</v>
+      </c>
+      <c r="N95">
+        <v>22196</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>92</v>
+      </c>
+      <c r="R95">
+        <v>185</v>
+      </c>
+      <c r="S95">
+        <v>717</v>
+      </c>
+      <c r="T95">
+        <v>2800</v>
+      </c>
+      <c r="U95">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+      <c r="F96" s="7">
+        <v>93</v>
+      </c>
+      <c r="G96" s="1">
+        <v>182</v>
+      </c>
+      <c r="H96">
+        <v>368</v>
+      </c>
+      <c r="I96">
+        <v>728</v>
+      </c>
+      <c r="J96">
+        <v>1465</v>
+      </c>
+      <c r="K96">
+        <v>2793</v>
+      </c>
+      <c r="L96">
+        <v>5699</v>
+      </c>
+      <c r="M96">
+        <v>11073</v>
+      </c>
+      <c r="N96">
+        <v>22042</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>93</v>
+      </c>
+      <c r="R96">
+        <v>184</v>
+      </c>
+      <c r="S96">
+        <v>724</v>
+      </c>
+      <c r="T96">
+        <v>2809</v>
+      </c>
+      <c r="U96">
+        <v>11264</v>
+      </c>
+    </row>
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="7">
+        <v>94</v>
+      </c>
+      <c r="G97" s="1">
+        <v>186</v>
+      </c>
+      <c r="H97">
+        <v>370</v>
+      </c>
+      <c r="I97">
+        <v>721</v>
+      </c>
+      <c r="J97">
+        <v>1414</v>
+      </c>
+      <c r="K97">
+        <v>2789</v>
+      </c>
+      <c r="L97">
+        <v>5787</v>
+      </c>
+      <c r="M97">
+        <v>11103</v>
+      </c>
+      <c r="N97">
+        <v>22270</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>94</v>
+      </c>
+      <c r="R97">
+        <v>184</v>
+      </c>
+      <c r="S97">
+        <v>722</v>
+      </c>
+      <c r="T97">
+        <v>2805</v>
+      </c>
+      <c r="U97">
+        <v>11196</v>
+      </c>
+    </row>
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+      <c r="F98" s="7">
+        <v>95</v>
+      </c>
+      <c r="G98" s="1">
+        <v>184</v>
+      </c>
+      <c r="H98">
+        <v>375</v>
+      </c>
+      <c r="I98">
+        <v>721</v>
+      </c>
+      <c r="J98">
+        <v>1417</v>
+      </c>
+      <c r="K98">
+        <v>2794</v>
+      </c>
+      <c r="L98">
+        <v>5693</v>
+      </c>
+      <c r="M98">
+        <v>11044</v>
+      </c>
+      <c r="N98">
+        <v>22127</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>95</v>
+      </c>
+      <c r="R98">
+        <v>190</v>
+      </c>
+      <c r="S98">
+        <v>744</v>
+      </c>
+      <c r="T98">
+        <v>2813</v>
+      </c>
+      <c r="U98">
+        <v>11120</v>
+      </c>
+    </row>
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+      <c r="F99" s="7">
+        <v>96</v>
+      </c>
+      <c r="G99" s="1">
+        <v>185</v>
+      </c>
+      <c r="H99">
+        <v>370</v>
+      </c>
+      <c r="I99">
+        <v>724</v>
+      </c>
+      <c r="J99">
+        <v>1426</v>
+      </c>
+      <c r="K99">
+        <v>2814</v>
+      </c>
+      <c r="L99">
+        <v>5747</v>
+      </c>
+      <c r="M99">
+        <v>11121</v>
+      </c>
+      <c r="N99">
+        <v>22179</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>96</v>
+      </c>
+      <c r="R99">
+        <v>183</v>
+      </c>
+      <c r="S99">
+        <v>725</v>
+      </c>
+      <c r="T99">
+        <v>2839</v>
+      </c>
+      <c r="U99">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+      <c r="F100" s="7">
+        <v>97</v>
+      </c>
+      <c r="G100" s="1">
+        <v>188</v>
+      </c>
+      <c r="H100">
+        <v>367</v>
+      </c>
+      <c r="I100">
+        <v>725</v>
+      </c>
+      <c r="J100">
+        <v>1435</v>
+      </c>
+      <c r="K100">
+        <v>2815</v>
+      </c>
+      <c r="L100">
+        <v>5651</v>
+      </c>
+      <c r="M100">
+        <v>11145</v>
+      </c>
+      <c r="N100">
+        <v>22146</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>97</v>
+      </c>
+      <c r="R100">
+        <v>185</v>
+      </c>
+      <c r="S100">
+        <v>726</v>
+      </c>
+      <c r="T100">
+        <v>2850</v>
+      </c>
+      <c r="U100">
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+      <c r="F101" s="7">
+        <v>98</v>
+      </c>
+      <c r="G101" s="1">
+        <v>186</v>
+      </c>
+      <c r="H101">
+        <v>379</v>
+      </c>
+      <c r="I101">
+        <v>721</v>
+      </c>
+      <c r="J101">
+        <v>1425</v>
+      </c>
+      <c r="K101">
+        <v>2802</v>
+      </c>
+      <c r="L101">
+        <v>5614</v>
+      </c>
+      <c r="M101">
+        <v>11163</v>
+      </c>
+      <c r="N101">
+        <v>22195</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>98</v>
+      </c>
+      <c r="R101">
+        <v>184</v>
+      </c>
+      <c r="S101">
+        <v>730</v>
+      </c>
+      <c r="T101">
+        <v>2812</v>
+      </c>
+      <c r="U101">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+      <c r="F102" s="7">
+        <v>99</v>
+      </c>
+      <c r="G102" s="1">
+        <v>188</v>
+      </c>
+      <c r="H102">
+        <v>372</v>
+      </c>
+      <c r="I102">
+        <v>720</v>
+      </c>
+      <c r="J102">
+        <v>1426</v>
+      </c>
+      <c r="K102">
+        <v>2804</v>
+      </c>
+      <c r="L102">
+        <v>5525</v>
+      </c>
+      <c r="M102">
+        <v>11099</v>
+      </c>
+      <c r="N102">
+        <v>22080</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>99</v>
+      </c>
+      <c r="R102">
+        <v>183</v>
+      </c>
+      <c r="S102">
+        <v>732</v>
+      </c>
+      <c r="T102">
+        <v>2829</v>
+      </c>
+      <c r="U102">
+        <v>11122</v>
+      </c>
+    </row>
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="F103" s="7">
+        <v>100</v>
+      </c>
+      <c r="G103" s="1">
+        <v>183</v>
+      </c>
+      <c r="H103">
+        <v>371</v>
+      </c>
+      <c r="I103">
+        <v>752</v>
+      </c>
+      <c r="J103">
+        <v>1435</v>
+      </c>
+      <c r="K103">
+        <v>2810</v>
+      </c>
+      <c r="L103">
+        <v>5680</v>
+      </c>
+      <c r="M103">
+        <v>11168</v>
+      </c>
+      <c r="N103">
+        <v>22173</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <v>188</v>
+      </c>
+      <c r="S103">
+        <v>733</v>
+      </c>
+      <c r="T103">
+        <v>2806</v>
+      </c>
+      <c r="U103">
+        <v>11050</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -9,18 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="sequential results" sheetId="1" r:id="rId1"/>
-    <sheet name="parallel results" sheetId="2" r:id="rId2"/>
+    <sheet name="Seq. Graph 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Seq. Graph 2" sheetId="4" r:id="rId3"/>
+    <sheet name="parallel results" sheetId="2" r:id="rId4"/>
+    <sheet name="Par. Graph 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Par. Graph 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Seq. vs Par. Graph 1" sheetId="7" r:id="rId7"/>
+    <sheet name="Seq. vs Par. Graph 2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -48,12 +54,24 @@
   <si>
     <t>Avg. Time / ms</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Image area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +202,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -562,6 +589,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -607,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +727,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,7 +742,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,6 +816,6596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t>Time to Generate a 256x256 Image Sequentially</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential results'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Time / ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sequential results'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sequential results'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>762.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3059.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6223.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12510.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24544.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48129.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95256.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25A1-46E5-B816-3B47A57A7904}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500401648"/>
+        <c:axId val="500396728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500401648"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Samples Per Pixel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500396728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="500396728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500401648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Generate Images of Varying Size using 16spp Sequentially</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential results'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Time / ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sequential results'!$A$15:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sequential results'!$B$15:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>746.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3012.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11881.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47855.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F832-4049-8D40-04879C3FA6FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514608856"/>
+        <c:axId val="514606560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514608856"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Image Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514606560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514606560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Time / ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514608856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Generate a 256x256 Image Using OpenMP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'parallel results'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Time / ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'parallel results'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'parallel results'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>187.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>372.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1427.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2804.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5589.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11119.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22138.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F952-4848-80DE-2FC0C9B1B7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="504226856"/>
+        <c:axId val="504229808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="504226856"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Samples Per Pixel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504229808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504229808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504226856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Generate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Images of Varying Size using 16spp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Using OpenMP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'parallel results'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. Time / ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'parallel results'!$A$15:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'parallel results'!$B$15:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>187.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2817.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11098.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AF-4558-A470-7C66B2BB6DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515322048"/>
+        <c:axId val="515320080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515322048"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Image Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515320080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515320080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515322048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:t>Sequential vs OpenMP: 256x256 Image Generation Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sequential results'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sequential results'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>762.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3059.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6223.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12510.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24544.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48129.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95256.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6618-40BE-AAE2-1A3FCAFBF47A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'parallel results'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'parallel results'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>187.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>372.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1427.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2804.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5589.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11119.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22138.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6618-40BE-AAE2-1A3FCAFBF47A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507077544"/>
+        <c:axId val="507078200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507077544"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Samples Per Pixel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507078200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507078200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507077544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sequential vs OpenMP: 16spp Image Generation Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sequential results'!$A$15:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sequential results'!$B$15:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>746.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3012.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11881.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47855.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2837-465A-9533-E55837E9C094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'parallel results'!$A$15:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'parallel results'!$B$15:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>187.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2817.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11098.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2837-465A-9533-E55837E9C094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571737000"/>
+        <c:axId val="571738312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571737000"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Image Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571738312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571738312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571737000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,26 +7686,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1071,7 +7764,7 @@
       <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <f>AVERAGE(G4:G103)</f>
         <v>762.57</v>
       </c>
@@ -1079,32 +7772,32 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>AVERAGE(H4:H103)</f>
         <v>1536.27</v>
       </c>
@@ -1156,7 +7849,7 @@
       <c r="A5" s="7">
         <v>16</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <f>AVERAGE(I4:I103)</f>
         <v>3059.91</v>
       </c>
@@ -1208,7 +7901,7 @@
       <c r="A6" s="7">
         <v>32</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <f>AVERAGE(J4:J103)</f>
         <v>6223.33</v>
       </c>
@@ -1260,7 +7953,7 @@
       <c r="A7" s="7">
         <v>64</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <f>AVERAGE(K4:K103)</f>
         <v>12510.68</v>
       </c>
@@ -1312,7 +8005,7 @@
       <c r="A8" s="7">
         <v>128</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>AVERAGE(L4:L103)</f>
         <v>24544.85</v>
       </c>
@@ -1364,7 +8057,7 @@
       <c r="A9" s="7">
         <v>256</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>AVERAGE(M4:M103)</f>
         <v>48129.36</v>
       </c>
@@ -1416,7 +8109,7 @@
       <c r="A10" s="7">
         <v>512</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>AVERAGE(N4:N103)</f>
         <v>95256.72</v>
       </c>
@@ -1556,10 +8249,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -1659,7 +8352,7 @@
       <c r="A15" s="7">
         <v>128</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <f>AVERAGE(R4:R103)</f>
         <v>746.34</v>
       </c>
@@ -1711,7 +8404,7 @@
       <c r="A16" s="7">
         <v>256</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>AVERAGE(S4:S103)</f>
         <v>3012.15</v>
       </c>
@@ -1763,7 +8456,7 @@
       <c r="A17" s="7">
         <v>512</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f>AVERAGE(T4:T103)</f>
         <v>11881.24</v>
       </c>
@@ -1815,7 +8508,7 @@
       <c r="A18" s="7">
         <v>1024</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f>AVERAGE(U4:U103)</f>
         <v>47855.7</v>
       </c>
@@ -1909,6 +8602,9 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="7">
         <v>17</v>
@@ -1954,6 +8650,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A15^2</f>
+        <v>16384</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -1999,6 +8699,14 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:A24" si="0">A16^2</f>
+        <v>65536</v>
+      </c>
+      <c r="B22">
+        <f>A22/A21</f>
+        <v>4</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -2044,6 +8752,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="7">
         <v>20</v>
@@ -2089,6 +8801,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="7">
         <v>21</v>
@@ -5706,39 +12422,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W93" sqref="W93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5797,7 +12514,7 @@
       <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <f>AVERAGE(G4:G103)</f>
         <v>187.13</v>
       </c>
@@ -5805,32 +12522,32 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>AVERAGE(H4:H103)</f>
         <v>372.96</v>
       </c>
@@ -5882,7 +12599,7 @@
       <c r="A5" s="7">
         <v>16</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <f>AVERAGE(I4:I103)</f>
         <v>728.1</v>
       </c>
@@ -5934,7 +12651,7 @@
       <c r="A6" s="7">
         <v>32</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <f>AVERAGE(J4:J103)</f>
         <v>1427.95</v>
       </c>
@@ -5986,7 +12703,7 @@
       <c r="A7" s="7">
         <v>64</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <f>AVERAGE(K4:K103)</f>
         <v>2804.45</v>
       </c>
@@ -6038,7 +12755,7 @@
       <c r="A8" s="7">
         <v>128</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>AVERAGE(L4:L103)</f>
         <v>5589.91</v>
       </c>
@@ -6090,7 +12807,7 @@
       <c r="A9" s="7">
         <v>256</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>AVERAGE(M4:M103)</f>
         <v>11119.07</v>
       </c>
@@ -6142,7 +12859,7 @@
       <c r="A10" s="7">
         <v>512</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>AVERAGE(N4:N103)</f>
         <v>22138.99</v>
       </c>
@@ -6282,10 +12999,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -6385,7 +13102,7 @@
       <c r="A15" s="7">
         <v>128</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <f>AVERAGE(R4:R103)</f>
         <v>187.23</v>
       </c>
@@ -6437,7 +13154,7 @@
       <c r="A16" s="7">
         <v>256</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>AVERAGE(S4:S103)</f>
         <v>728.84</v>
       </c>
@@ -6489,7 +13206,7 @@
       <c r="A17" s="7">
         <v>512</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f>AVERAGE(T4:T103)</f>
         <v>2817.64</v>
       </c>
@@ -6541,7 +13258,7 @@
       <c r="A18" s="7">
         <v>1024</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f>AVERAGE(U4:U103)</f>
         <v>11098.78</v>
       </c>
@@ -6635,6 +13352,12 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="7">
         <v>17</v>
@@ -6725,6 +13448,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -6770,6 +13498,15 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="7">
         <v>20</v>
@@ -6815,6 +13552,17 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <f>'sequential results'!B3/'parallel results'!B3</f>
+        <v>4.0750814941484537</v>
+      </c>
+      <c r="C24" s="20">
+        <f>B24/B20</f>
+        <v>0.50938518676855671</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="7">
         <v>21</v>
@@ -6860,6 +13608,17 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <f>'sequential results'!B4/'parallel results'!B4</f>
+        <v>4.1191280566280568</v>
+      </c>
+      <c r="C25" s="21">
+        <f>B25/B20</f>
+        <v>0.5148910070785071</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="7">
         <v>22</v>
@@ -6905,6 +13664,17 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <f>'sequential results'!B5/'parallel results'!B5</f>
+        <v>4.2025957972805932</v>
+      </c>
+      <c r="C26" s="21">
+        <f>B26/B20</f>
+        <v>0.52532447466007415</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="7">
         <v>23</v>
@@ -6950,6 +13720,17 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <f>'sequential results'!B6/'parallel results'!B6</f>
+        <v>4.3582268286704711</v>
+      </c>
+      <c r="C27" s="21">
+        <f>B27/B20</f>
+        <v>0.54477835358380888</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="7">
         <v>24</v>
@@ -6995,6 +13776,17 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <f>'sequential results'!B7/'parallel results'!B7</f>
+        <v>4.4610101802492474</v>
+      </c>
+      <c r="C28" s="21">
+        <f>B28/B20</f>
+        <v>0.55762627253115593</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="7">
         <v>25</v>
@@ -7040,6 +13832,17 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1">
+        <f>'sequential results'!B8/'parallel results'!B8</f>
+        <v>4.3909204262680435</v>
+      </c>
+      <c r="C29" s="21">
+        <f>B29/B20</f>
+        <v>0.54886505328350543</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="7">
         <v>26</v>
@@ -7085,6 +13888,17 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>256</v>
+      </c>
+      <c r="B30" s="1">
+        <f>'sequential results'!B9/'parallel results'!B9</f>
+        <v>4.3285418654617702</v>
+      </c>
+      <c r="C30" s="21">
+        <f>B30/B20</f>
+        <v>0.54106773318272128</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="7">
         <v>27</v>
@@ -7130,6 +13944,17 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1">
+        <f>'sequential results'!B10/'parallel results'!B10</f>
+        <v>4.302667827213436</v>
+      </c>
+      <c r="C31" s="21">
+        <f>B31/B20</f>
+        <v>0.5378334784016795</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="7">
         <v>28</v>
@@ -7219,7 +14044,12 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -7264,7 +14094,16 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="7">
         <v>31</v>
@@ -7309,7 +14148,18 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>128</v>
+      </c>
+      <c r="B35" s="22">
+        <f>'sequential results'!B15/'parallel results'!B15</f>
+        <v>3.9862201570261182</v>
+      </c>
+      <c r="C35" s="1">
+        <f>B35/B20</f>
+        <v>0.49827751962826478</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="7">
         <v>32</v>
@@ -7354,7 +14204,18 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>256</v>
+      </c>
+      <c r="B36" s="23">
+        <f>'sequential results'!B16/'parallel results'!B16</f>
+        <v>4.1328000658580759</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B36/B20</f>
+        <v>0.51660000823225949</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="7">
         <v>33</v>
@@ -7399,7 +14260,18 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>512</v>
+      </c>
+      <c r="B37" s="23">
+        <f>'sequential results'!B17/'parallel results'!B17</f>
+        <v>4.2167345721951701</v>
+      </c>
+      <c r="C37" s="1">
+        <f>B37/B20</f>
+        <v>0.52709182152439626</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="7">
         <v>34</v>
@@ -7444,7 +14316,18 @@
         <v>11216</v>
       </c>
     </row>
-    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B38" s="23">
+        <f>'sequential results'!B18/'parallel results'!B18</f>
+        <v>4.3117982336797374</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38/B20</f>
+        <v>0.53897477920996717</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="7">
         <v>35</v>
@@ -7489,7 +14372,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -7534,7 +14417,7 @@
         <v>11069</v>
       </c>
     </row>
-    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -7579,7 +14462,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -7624,7 +14507,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -7669,7 +14552,7 @@
         <v>11061</v>
       </c>
     </row>
-    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -7714,7 +14597,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -7759,7 +14642,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -7804,7 +14687,7 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -7849,7 +14732,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -7894,7 +14777,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -10415,7 +17298,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:N1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\cps\Concurrent-And-Parallel-Systems-CW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\C&amp;PS\Concurrent-And-Parallel-Systems-CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sequential results" sheetId="1" r:id="rId1"/>
     <sheet name="Seq. Graph 1" sheetId="3" r:id="rId2"/>
     <sheet name="Seq. Graph 2" sheetId="4" r:id="rId3"/>
     <sheet name="parallel results" sheetId="2" r:id="rId4"/>
-    <sheet name="Par. Graph 1" sheetId="5" r:id="rId5"/>
-    <sheet name="Par. Graph 2" sheetId="6" r:id="rId6"/>
-    <sheet name="Seq. vs Par. Graph 1" sheetId="7" r:id="rId7"/>
-    <sheet name="Seq. vs Par. Graph 2" sheetId="8" r:id="rId8"/>
+    <sheet name="parallel comparisons" sheetId="9" r:id="rId5"/>
+    <sheet name="Par. Graph 1" sheetId="5" r:id="rId6"/>
+    <sheet name="Par. Graph 2" sheetId="6" r:id="rId7"/>
+    <sheet name="Seq. vs Par. Graph 1" sheetId="7" r:id="rId8"/>
+    <sheet name="Seq. vs Par. Graph 2" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -68,6 +69,81 @@
   </si>
   <si>
     <t>Extremes</t>
+  </si>
+  <si>
+    <t>Samples Per Pixel = 64</t>
+  </si>
+  <si>
+    <t>Parallelisation Method</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Testing:</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samples Per Pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Average =</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average = </t>
+  </si>
+  <si>
+    <t>Manual 1 Thread</t>
+  </si>
+  <si>
+    <t>1 Thread</t>
+  </si>
+  <si>
+    <t>2 Thread</t>
+  </si>
+  <si>
+    <t>4 Thread</t>
+  </si>
+  <si>
+    <t>6 Thread</t>
+  </si>
+  <si>
+    <t>8 Thread</t>
+  </si>
+  <si>
+    <t>Average Time / ms</t>
+  </si>
+  <si>
+    <t>Imaga Dimensions = 256x256</t>
   </si>
 </sst>
 </file>
@@ -400,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -647,6 +723,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -692,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +848,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,11 +867,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2727,6 +2844,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3028,6 +3146,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3145,6 +3264,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3225,6 +3345,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3326,6 +3447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3579,6 +3701,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3700,6 +3823,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3780,6 +3904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7665,8 +7790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,27 +7807,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="R1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="W1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7783,25 +7908,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="11"/>
       <c r="W3" s="7">
         <v>1</v>
@@ -8035,6 +8160,18 @@
       <c r="U7" s="1">
         <v>48115</v>
       </c>
+      <c r="W7" s="33">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>190442</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -8087,6 +8224,18 @@
       <c r="U8" s="1">
         <v>48483</v>
       </c>
+      <c r="W8" s="33">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>191293</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -8139,6 +8288,18 @@
       <c r="U9" s="1">
         <v>47987</v>
       </c>
+      <c r="W9" s="33">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>189282</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -8191,10 +8352,10 @@
       <c r="U10" s="1">
         <v>48089</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -8241,7 +8402,7 @@
       <c r="U11" s="1">
         <v>48173</v>
       </c>
-      <c r="W11" s="27"/>
+      <c r="W11" s="25"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -8290,16 +8451,16 @@
       <c r="U12" s="1">
         <v>47788</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="30"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -8343,10 +8504,10 @@
       <c r="U13" s="1">
         <v>47748</v>
       </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -12473,8 +12634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14:X15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12490,27 +12651,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="R1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="W1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12566,7 +12727,7 @@
       <c r="U2" s="12">
         <v>1024</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="X2" s="15" t="s">
@@ -12591,25 +12752,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -13091,10 +13252,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="30"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -13445,10 +13606,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="7">
@@ -13540,11 +13701,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -13653,7 +13814,7 @@
       </c>
       <c r="C24" s="18">
         <f>B24/B20</f>
-        <v>0.50938518676855671</v>
+        <v>1.0187703735371134</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="7">
@@ -13709,7 +13870,7 @@
       </c>
       <c r="C25" s="19">
         <f>B25/B20</f>
-        <v>0.5148910070785071</v>
+        <v>1.0297820141570142</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="7">
@@ -13765,7 +13926,7 @@
       </c>
       <c r="C26" s="19">
         <f>B26/B20</f>
-        <v>0.52532447466007415</v>
+        <v>1.0506489493201483</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="7">
@@ -13821,7 +13982,7 @@
       </c>
       <c r="C27" s="19">
         <f>B27/B20</f>
-        <v>0.54477835358380888</v>
+        <v>1.0895567071676178</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="7">
@@ -13877,7 +14038,7 @@
       </c>
       <c r="C28" s="19">
         <f>B28/B20</f>
-        <v>0.55762627253115593</v>
+        <v>1.1152525450623119</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="7">
@@ -13933,7 +14094,7 @@
       </c>
       <c r="C29" s="19">
         <f>B29/B20</f>
-        <v>0.54886505328350543</v>
+        <v>1.0977301065670109</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="7">
@@ -13989,7 +14150,7 @@
       </c>
       <c r="C30" s="19">
         <f>B30/B20</f>
-        <v>0.54106773318272128</v>
+        <v>1.0821354663654426</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="7">
@@ -14045,7 +14206,7 @@
       </c>
       <c r="C31" s="19">
         <f>B31/B20</f>
-        <v>0.5378334784016795</v>
+        <v>1.075666956803359</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="7">
@@ -14137,11 +14298,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -14250,7 +14411,7 @@
       </c>
       <c r="C35" s="1">
         <f>B35/B20</f>
-        <v>0.49827751962826478</v>
+        <v>0.99655503925652955</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="7">
@@ -14306,7 +14467,7 @@
       </c>
       <c r="C36" s="1">
         <f>B36/B20</f>
-        <v>0.51660000823225949</v>
+        <v>1.033200016464519</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="7">
@@ -14362,7 +14523,7 @@
       </c>
       <c r="C37" s="1">
         <f>B37/B20</f>
-        <v>0.52709182152439626</v>
+        <v>1.0541836430487925</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="7">
@@ -14418,7 +14579,7 @@
       </c>
       <c r="C38" s="1">
         <f>B38/B20</f>
-        <v>0.53897477920996717</v>
+        <v>1.0779495584199343</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="7">
@@ -17403,4 +17564,7675 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BB161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="34">
+        <v>8</v>
+      </c>
+      <c r="D3" s="38">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="36">
+        <f>AVERAGE(N5:N54)</f>
+        <v>2809.38</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(N111:N160)</f>
+        <v>2603.88</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>256</v>
+      </c>
+      <c r="M5" s="1">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3038</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>256</v>
+      </c>
+      <c r="R5" s="1">
+        <v>64</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2748</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>256</v>
+      </c>
+      <c r="W5" s="1">
+        <v>64</v>
+      </c>
+      <c r="X5" s="1">
+        <v>8836</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>11907</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>12001</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>5905</v>
+      </c>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>3504</v>
+      </c>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>3037</v>
+      </c>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>256</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2816</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>256</v>
+      </c>
+      <c r="R6" s="1">
+        <v>64</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2567</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>256</v>
+      </c>
+      <c r="W6" s="1">
+        <v>64</v>
+      </c>
+      <c r="X6" s="1">
+        <v>8796</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>11807</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>11916</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>5802</v>
+      </c>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>3357</v>
+      </c>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2941</v>
+      </c>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>256</v>
+      </c>
+      <c r="M7" s="1">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2781</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>256</v>
+      </c>
+      <c r="R7" s="1">
+        <v>64</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2573</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>256</v>
+      </c>
+      <c r="W7" s="1">
+        <v>64</v>
+      </c>
+      <c r="X7" s="1">
+        <v>8755</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>11767</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>11931</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>5798</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>3315</v>
+      </c>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>2931</v>
+      </c>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>256</v>
+      </c>
+      <c r="M8" s="1">
+        <v>64</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2785</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>256</v>
+      </c>
+      <c r="R8" s="1">
+        <v>64</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2561</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>256</v>
+      </c>
+      <c r="W8" s="1">
+        <v>64</v>
+      </c>
+      <c r="X8" s="1">
+        <v>8758</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>11774</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>11929</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>5753</v>
+      </c>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>3282</v>
+      </c>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>2911</v>
+      </c>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>256</v>
+      </c>
+      <c r="M9" s="1">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2789</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>256</v>
+      </c>
+      <c r="R9" s="1">
+        <v>64</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2566</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>256</v>
+      </c>
+      <c r="W9" s="1">
+        <v>64</v>
+      </c>
+      <c r="X9" s="1">
+        <v>8776</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>11768</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>11930</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>5766</v>
+      </c>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>3316</v>
+      </c>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>2904</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>256</v>
+      </c>
+      <c r="M10" s="1">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2811</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>256</v>
+      </c>
+      <c r="R10" s="1">
+        <v>64</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2576</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
+        <v>6</v>
+      </c>
+      <c r="V10" s="1">
+        <v>256</v>
+      </c>
+      <c r="W10" s="1">
+        <v>64</v>
+      </c>
+      <c r="X10" s="1">
+        <v>8796</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>11739</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>11928</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>5778</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>3340</v>
+      </c>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>2931</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>256</v>
+      </c>
+      <c r="M11" s="1">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2797</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>256</v>
+      </c>
+      <c r="R11" s="1">
+        <v>64</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2566</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
+        <v>7</v>
+      </c>
+      <c r="V11" s="1">
+        <v>256</v>
+      </c>
+      <c r="W11" s="1">
+        <v>64</v>
+      </c>
+      <c r="X11" s="1">
+        <v>8803</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>11789</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>11959</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>5792</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>3306</v>
+      </c>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>2947</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>256</v>
+      </c>
+      <c r="M12" s="1">
+        <v>64</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2807</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>256</v>
+      </c>
+      <c r="R12" s="1">
+        <v>64</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2575</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
+        <v>8</v>
+      </c>
+      <c r="V12" s="1">
+        <v>256</v>
+      </c>
+      <c r="W12" s="1">
+        <v>64</v>
+      </c>
+      <c r="X12" s="1">
+        <v>8786</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>11771</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>11971</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>5813</v>
+      </c>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>3361</v>
+      </c>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>2931</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1">
+        <v>256</v>
+      </c>
+      <c r="M13" s="1">
+        <v>64</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2816</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>256</v>
+      </c>
+      <c r="R13" s="1">
+        <v>64</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2565</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
+        <v>9</v>
+      </c>
+      <c r="V13" s="1">
+        <v>256</v>
+      </c>
+      <c r="W13" s="1">
+        <v>64</v>
+      </c>
+      <c r="X13" s="1">
+        <v>8793</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>11773</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>11979</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>5758</v>
+      </c>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>3327</v>
+      </c>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>2916</v>
+      </c>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <v>256</v>
+      </c>
+      <c r="M14" s="1">
+        <v>64</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2813</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>256</v>
+      </c>
+      <c r="R14" s="1">
+        <v>64</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2582</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>256</v>
+      </c>
+      <c r="W14" s="1">
+        <v>64</v>
+      </c>
+      <c r="X14" s="1">
+        <v>8815</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>11774</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>11960</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>5750</v>
+      </c>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>3346</v>
+      </c>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>2937</v>
+      </c>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>256</v>
+      </c>
+      <c r="M15" s="1">
+        <v>64</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2806</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>256</v>
+      </c>
+      <c r="R15" s="1">
+        <v>64</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2595</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <v>11</v>
+      </c>
+      <c r="V15" s="1">
+        <v>256</v>
+      </c>
+      <c r="W15" s="1">
+        <v>64</v>
+      </c>
+      <c r="X15" s="1">
+        <v>8772</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>11747</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>11942</v>
+      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>3324</v>
+      </c>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>2915</v>
+      </c>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1">
+        <v>256</v>
+      </c>
+      <c r="M16" s="1">
+        <v>64</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2810</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>256</v>
+      </c>
+      <c r="R16" s="1">
+        <v>64</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2571</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
+        <v>12</v>
+      </c>
+      <c r="V16" s="1">
+        <v>256</v>
+      </c>
+      <c r="W16" s="1">
+        <v>64</v>
+      </c>
+      <c r="X16" s="1">
+        <v>8780</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>11774</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>11946</v>
+      </c>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>5766</v>
+      </c>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>3317</v>
+      </c>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>2916</v>
+      </c>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="17" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>13</v>
+      </c>
+      <c r="L17" s="1">
+        <v>256</v>
+      </c>
+      <c r="M17" s="1">
+        <v>64</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2789</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>256</v>
+      </c>
+      <c r="R17" s="1">
+        <v>64</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2585</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
+        <v>13</v>
+      </c>
+      <c r="V17" s="1">
+        <v>256</v>
+      </c>
+      <c r="W17" s="1">
+        <v>64</v>
+      </c>
+      <c r="X17" s="1">
+        <v>8782</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>11773</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>11962</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>5767</v>
+      </c>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>3382</v>
+      </c>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>2928</v>
+      </c>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="18" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1">
+        <v>256</v>
+      </c>
+      <c r="M18" s="1">
+        <v>64</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2797</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>256</v>
+      </c>
+      <c r="R18" s="1">
+        <v>64</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2576</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
+        <v>14</v>
+      </c>
+      <c r="V18" s="1">
+        <v>256</v>
+      </c>
+      <c r="W18" s="1">
+        <v>64</v>
+      </c>
+      <c r="X18" s="1">
+        <v>8817</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>11742</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>11971</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>5957</v>
+      </c>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>3380</v>
+      </c>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>2937</v>
+      </c>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="19" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1">
+        <v>256</v>
+      </c>
+      <c r="M19" s="1">
+        <v>64</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2793</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>256</v>
+      </c>
+      <c r="R19" s="1">
+        <v>64</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2584</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
+        <v>15</v>
+      </c>
+      <c r="V19" s="1">
+        <v>256</v>
+      </c>
+      <c r="W19" s="1">
+        <v>64</v>
+      </c>
+      <c r="X19" s="1">
+        <v>8779</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>11775</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>11944</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>5774</v>
+      </c>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>3307</v>
+      </c>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>2938</v>
+      </c>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="20" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1">
+        <v>256</v>
+      </c>
+      <c r="M20" s="1">
+        <v>64</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2849</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>256</v>
+      </c>
+      <c r="R20" s="1">
+        <v>64</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2575</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
+        <v>16</v>
+      </c>
+      <c r="V20" s="1">
+        <v>256</v>
+      </c>
+      <c r="W20" s="1">
+        <v>64</v>
+      </c>
+      <c r="X20" s="1">
+        <v>8782</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>11773</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>11958</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>5765</v>
+      </c>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>3319</v>
+      </c>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>2939</v>
+      </c>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="21" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1">
+        <v>256</v>
+      </c>
+      <c r="M21" s="1">
+        <v>64</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2810</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>256</v>
+      </c>
+      <c r="R21" s="1">
+        <v>64</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2586</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <v>17</v>
+      </c>
+      <c r="V21" s="1">
+        <v>256</v>
+      </c>
+      <c r="W21" s="1">
+        <v>64</v>
+      </c>
+      <c r="X21" s="1">
+        <v>8773</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>11766</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>11955</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>5753</v>
+      </c>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>3333</v>
+      </c>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>2926</v>
+      </c>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="22" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1">
+        <v>256</v>
+      </c>
+      <c r="M22" s="1">
+        <v>64</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2785</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>256</v>
+      </c>
+      <c r="R22" s="1">
+        <v>64</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2560</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
+        <v>18</v>
+      </c>
+      <c r="V22" s="1">
+        <v>256</v>
+      </c>
+      <c r="W22" s="1">
+        <v>64</v>
+      </c>
+      <c r="X22" s="1">
+        <v>8768</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>11794</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>11974</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>5766</v>
+      </c>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>3364</v>
+      </c>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>2923</v>
+      </c>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="23" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1">
+        <v>256</v>
+      </c>
+      <c r="M23" s="1">
+        <v>64</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2803</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>256</v>
+      </c>
+      <c r="R23" s="1">
+        <v>64</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2590</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
+        <v>19</v>
+      </c>
+      <c r="V23" s="1">
+        <v>256</v>
+      </c>
+      <c r="W23" s="1">
+        <v>64</v>
+      </c>
+      <c r="X23" s="1">
+        <v>8804</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>11744</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>11946</v>
+      </c>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>5782</v>
+      </c>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>3373</v>
+      </c>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>2915</v>
+      </c>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="24" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>20</v>
+      </c>
+      <c r="L24" s="1">
+        <v>256</v>
+      </c>
+      <c r="M24" s="1">
+        <v>64</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2794</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>256</v>
+      </c>
+      <c r="R24" s="1">
+        <v>64</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2570</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
+        <v>20</v>
+      </c>
+      <c r="V24" s="1">
+        <v>256</v>
+      </c>
+      <c r="W24" s="1">
+        <v>64</v>
+      </c>
+      <c r="X24" s="1">
+        <v>8813</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>11754</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>11954</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>5760</v>
+      </c>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>3329</v>
+      </c>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>2938</v>
+      </c>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="25" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1">
+        <v>256</v>
+      </c>
+      <c r="M25" s="1">
+        <v>64</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2816</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>256</v>
+      </c>
+      <c r="R25" s="1">
+        <v>64</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2573</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
+        <v>21</v>
+      </c>
+      <c r="V25" s="1">
+        <v>256</v>
+      </c>
+      <c r="W25" s="1">
+        <v>64</v>
+      </c>
+      <c r="X25" s="1">
+        <v>8760</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>11791</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>11952</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>5775</v>
+      </c>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>3317</v>
+      </c>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>2920</v>
+      </c>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1">
+        <v>21</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="26" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1">
+        <v>256</v>
+      </c>
+      <c r="M26" s="1">
+        <v>64</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2806</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>256</v>
+      </c>
+      <c r="R26" s="1">
+        <v>64</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2582</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1">
+        <v>22</v>
+      </c>
+      <c r="V26" s="1">
+        <v>256</v>
+      </c>
+      <c r="W26" s="1">
+        <v>64</v>
+      </c>
+      <c r="X26" s="1">
+        <v>8759</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>11742</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>11974</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>5749</v>
+      </c>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>3320</v>
+      </c>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>2917</v>
+      </c>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1">
+        <v>22</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="27" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>23</v>
+      </c>
+      <c r="L27" s="1">
+        <v>256</v>
+      </c>
+      <c r="M27" s="1">
+        <v>64</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2818</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>256</v>
+      </c>
+      <c r="R27" s="1">
+        <v>64</v>
+      </c>
+      <c r="S27" s="1">
+        <v>2573</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1">
+        <v>23</v>
+      </c>
+      <c r="V27" s="1">
+        <v>256</v>
+      </c>
+      <c r="W27" s="1">
+        <v>64</v>
+      </c>
+      <c r="X27" s="1">
+        <v>8770</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>11777</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>11964</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>5744</v>
+      </c>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>3355</v>
+      </c>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>2945</v>
+      </c>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="28" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1">
+        <v>256</v>
+      </c>
+      <c r="M28" s="1">
+        <v>64</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2777</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>256</v>
+      </c>
+      <c r="R28" s="1">
+        <v>64</v>
+      </c>
+      <c r="S28" s="1">
+        <v>2579</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
+        <v>24</v>
+      </c>
+      <c r="V28" s="1">
+        <v>256</v>
+      </c>
+      <c r="W28" s="1">
+        <v>64</v>
+      </c>
+      <c r="X28" s="1">
+        <v>8804</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>11780</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>11959</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>5754</v>
+      </c>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>3390</v>
+      </c>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>2938</v>
+      </c>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="29" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1">
+        <v>256</v>
+      </c>
+      <c r="M29" s="1">
+        <v>64</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2798</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>256</v>
+      </c>
+      <c r="R29" s="1">
+        <v>64</v>
+      </c>
+      <c r="S29" s="1">
+        <v>2570</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1">
+        <v>25</v>
+      </c>
+      <c r="V29" s="1">
+        <v>256</v>
+      </c>
+      <c r="W29" s="1">
+        <v>64</v>
+      </c>
+      <c r="X29" s="1">
+        <v>8790</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>11768</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>11959</v>
+      </c>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>5784</v>
+      </c>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>3315</v>
+      </c>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>2927</v>
+      </c>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="30" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>26</v>
+      </c>
+      <c r="L30" s="1">
+        <v>256</v>
+      </c>
+      <c r="M30" s="1">
+        <v>64</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2768</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>256</v>
+      </c>
+      <c r="R30" s="1">
+        <v>64</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2570</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1">
+        <v>26</v>
+      </c>
+      <c r="V30" s="1">
+        <v>256</v>
+      </c>
+      <c r="W30" s="1">
+        <v>64</v>
+      </c>
+      <c r="X30" s="1">
+        <v>8790</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>11749</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>11950</v>
+      </c>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>5771</v>
+      </c>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>3348</v>
+      </c>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>2919</v>
+      </c>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1">
+        <v>26</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="31" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <v>27</v>
+      </c>
+      <c r="L31" s="1">
+        <v>256</v>
+      </c>
+      <c r="M31" s="1">
+        <v>64</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2805</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>256</v>
+      </c>
+      <c r="R31" s="1">
+        <v>64</v>
+      </c>
+      <c r="S31" s="1">
+        <v>2566</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
+        <v>27</v>
+      </c>
+      <c r="V31" s="1">
+        <v>256</v>
+      </c>
+      <c r="W31" s="1">
+        <v>64</v>
+      </c>
+      <c r="X31" s="1">
+        <v>8810</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>11749</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>11987</v>
+      </c>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>5795</v>
+      </c>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>3302</v>
+      </c>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>2937</v>
+      </c>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="32" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <v>28</v>
+      </c>
+      <c r="L32" s="1">
+        <v>256</v>
+      </c>
+      <c r="M32" s="1">
+        <v>64</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2786</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>256</v>
+      </c>
+      <c r="R32" s="1">
+        <v>64</v>
+      </c>
+      <c r="S32" s="1">
+        <v>2574</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
+        <v>28</v>
+      </c>
+      <c r="V32" s="1">
+        <v>256</v>
+      </c>
+      <c r="W32" s="1">
+        <v>64</v>
+      </c>
+      <c r="X32" s="1">
+        <v>8780</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>11772</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>11979</v>
+      </c>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>5783</v>
+      </c>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>3334</v>
+      </c>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>2921</v>
+      </c>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1">
+        <v>28</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="33" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <v>29</v>
+      </c>
+      <c r="L33" s="1">
+        <v>256</v>
+      </c>
+      <c r="M33" s="1">
+        <v>64</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2799</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>256</v>
+      </c>
+      <c r="R33" s="1">
+        <v>64</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2584</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1">
+        <v>29</v>
+      </c>
+      <c r="V33" s="1">
+        <v>256</v>
+      </c>
+      <c r="W33" s="1">
+        <v>64</v>
+      </c>
+      <c r="X33" s="1">
+        <v>8777</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>11774</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>11952</v>
+      </c>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>5754</v>
+      </c>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>3306</v>
+      </c>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>2927</v>
+      </c>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="34" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1">
+        <v>256</v>
+      </c>
+      <c r="M34" s="1">
+        <v>64</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2793</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>256</v>
+      </c>
+      <c r="R34" s="1">
+        <v>64</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2571</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1">
+        <v>30</v>
+      </c>
+      <c r="V34" s="1">
+        <v>256</v>
+      </c>
+      <c r="W34" s="1">
+        <v>64</v>
+      </c>
+      <c r="X34" s="1">
+        <v>8784</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>11761</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>11962</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>5765</v>
+      </c>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>3340</v>
+      </c>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>2948</v>
+      </c>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="35" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>31</v>
+      </c>
+      <c r="L35" s="1">
+        <v>256</v>
+      </c>
+      <c r="M35" s="1">
+        <v>64</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2808</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>256</v>
+      </c>
+      <c r="R35" s="1">
+        <v>64</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2582</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1">
+        <v>31</v>
+      </c>
+      <c r="V35" s="1">
+        <v>256</v>
+      </c>
+      <c r="W35" s="1">
+        <v>64</v>
+      </c>
+      <c r="X35" s="1">
+        <v>8773</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>11770</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>11948</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>5787</v>
+      </c>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>3361</v>
+      </c>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>2931</v>
+      </c>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1">
+        <v>31</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="36" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <v>32</v>
+      </c>
+      <c r="L36" s="1">
+        <v>256</v>
+      </c>
+      <c r="M36" s="1">
+        <v>64</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2804</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>256</v>
+      </c>
+      <c r="R36" s="1">
+        <v>64</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2570</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <v>32</v>
+      </c>
+      <c r="V36" s="1">
+        <v>256</v>
+      </c>
+      <c r="W36" s="1">
+        <v>64</v>
+      </c>
+      <c r="X36" s="1">
+        <v>8818</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>11791</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>11949</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>5730</v>
+      </c>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>3321</v>
+      </c>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>2913</v>
+      </c>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1">
+        <v>32</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="37" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1">
+        <v>256</v>
+      </c>
+      <c r="M37" s="1">
+        <v>64</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2784</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>256</v>
+      </c>
+      <c r="R37" s="1">
+        <v>64</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2577</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
+        <v>33</v>
+      </c>
+      <c r="V37" s="1">
+        <v>256</v>
+      </c>
+      <c r="W37" s="1">
+        <v>64</v>
+      </c>
+      <c r="X37" s="1">
+        <v>8834</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>11770</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>11938</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>5750</v>
+      </c>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>3359</v>
+      </c>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>2915</v>
+      </c>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1">
+        <v>33</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="38" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <v>34</v>
+      </c>
+      <c r="L38" s="1">
+        <v>256</v>
+      </c>
+      <c r="M38" s="1">
+        <v>64</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2799</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>256</v>
+      </c>
+      <c r="R38" s="1">
+        <v>64</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2579</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
+        <v>34</v>
+      </c>
+      <c r="V38" s="1">
+        <v>256</v>
+      </c>
+      <c r="W38" s="1">
+        <v>64</v>
+      </c>
+      <c r="X38" s="1">
+        <v>8762</v>
+      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>11762</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>11978</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>5753</v>
+      </c>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>3322</v>
+      </c>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>2924</v>
+      </c>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1">
+        <v>34</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="39" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <v>35</v>
+      </c>
+      <c r="L39" s="1">
+        <v>256</v>
+      </c>
+      <c r="M39" s="1">
+        <v>64</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2839</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>256</v>
+      </c>
+      <c r="R39" s="1">
+        <v>64</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2598</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
+        <v>35</v>
+      </c>
+      <c r="V39" s="1">
+        <v>256</v>
+      </c>
+      <c r="W39" s="1">
+        <v>64</v>
+      </c>
+      <c r="X39" s="1">
+        <v>8781</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>11761</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>11968</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>5746</v>
+      </c>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>3341</v>
+      </c>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>2908</v>
+      </c>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1">
+        <v>35</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="40" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <v>36</v>
+      </c>
+      <c r="L40" s="1">
+        <v>256</v>
+      </c>
+      <c r="M40" s="1">
+        <v>64</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2808</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>256</v>
+      </c>
+      <c r="R40" s="1">
+        <v>64</v>
+      </c>
+      <c r="S40" s="1">
+        <v>2589</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1">
+        <v>36</v>
+      </c>
+      <c r="V40" s="1">
+        <v>256</v>
+      </c>
+      <c r="W40" s="1">
+        <v>64</v>
+      </c>
+      <c r="X40" s="1">
+        <v>8767</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>11745</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>11947</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>5761</v>
+      </c>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>3390</v>
+      </c>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>2934</v>
+      </c>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1">
+        <v>36</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="41" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <v>37</v>
+      </c>
+      <c r="L41" s="1">
+        <v>256</v>
+      </c>
+      <c r="M41" s="1">
+        <v>64</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2846</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>256</v>
+      </c>
+      <c r="R41" s="1">
+        <v>64</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2580</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1">
+        <v>37</v>
+      </c>
+      <c r="V41" s="1">
+        <v>256</v>
+      </c>
+      <c r="W41" s="1">
+        <v>64</v>
+      </c>
+      <c r="X41" s="1">
+        <v>8802</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>11755</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>11942</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>5739</v>
+      </c>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>3338</v>
+      </c>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>2941</v>
+      </c>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1">
+        <v>37</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="42" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <v>38</v>
+      </c>
+      <c r="L42" s="1">
+        <v>256</v>
+      </c>
+      <c r="M42" s="1">
+        <v>64</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2819</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>256</v>
+      </c>
+      <c r="R42" s="1">
+        <v>64</v>
+      </c>
+      <c r="S42" s="1">
+        <v>2601</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1">
+        <v>38</v>
+      </c>
+      <c r="V42" s="1">
+        <v>256</v>
+      </c>
+      <c r="W42" s="1">
+        <v>64</v>
+      </c>
+      <c r="X42" s="1">
+        <v>8794</v>
+      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>11800</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>11969</v>
+      </c>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>5764</v>
+      </c>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>3323</v>
+      </c>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>2945</v>
+      </c>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1">
+        <v>38</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="43" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <v>39</v>
+      </c>
+      <c r="L43" s="1">
+        <v>256</v>
+      </c>
+      <c r="M43" s="1">
+        <v>64</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2841</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>256</v>
+      </c>
+      <c r="R43" s="1">
+        <v>64</v>
+      </c>
+      <c r="S43" s="1">
+        <v>2566</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1">
+        <v>39</v>
+      </c>
+      <c r="V43" s="1">
+        <v>256</v>
+      </c>
+      <c r="W43" s="1">
+        <v>64</v>
+      </c>
+      <c r="X43" s="1">
+        <v>8795</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>11749</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>11973</v>
+      </c>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>5752</v>
+      </c>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>3432</v>
+      </c>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>2943</v>
+      </c>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1">
+        <v>39</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="44" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K44" s="1">
+        <v>40</v>
+      </c>
+      <c r="L44" s="1">
+        <v>256</v>
+      </c>
+      <c r="M44" s="1">
+        <v>64</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2807</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>256</v>
+      </c>
+      <c r="R44" s="1">
+        <v>64</v>
+      </c>
+      <c r="S44" s="1">
+        <v>2576</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
+        <v>40</v>
+      </c>
+      <c r="V44" s="1">
+        <v>256</v>
+      </c>
+      <c r="W44" s="1">
+        <v>64</v>
+      </c>
+      <c r="X44" s="1">
+        <v>8818</v>
+      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>11775</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>11951</v>
+      </c>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>5767</v>
+      </c>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>3394</v>
+      </c>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>2945</v>
+      </c>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1">
+        <v>40</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="45" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <v>41</v>
+      </c>
+      <c r="L45" s="1">
+        <v>256</v>
+      </c>
+      <c r="M45" s="1">
+        <v>64</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2794</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>256</v>
+      </c>
+      <c r="R45" s="1">
+        <v>64</v>
+      </c>
+      <c r="S45" s="1">
+        <v>2571</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
+        <v>41</v>
+      </c>
+      <c r="V45" s="1">
+        <v>256</v>
+      </c>
+      <c r="W45" s="1">
+        <v>64</v>
+      </c>
+      <c r="X45" s="1">
+        <v>8759</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>11743</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>11949</v>
+      </c>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>5743</v>
+      </c>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>3361</v>
+      </c>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>2951</v>
+      </c>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1">
+        <v>41</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="46" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <v>42</v>
+      </c>
+      <c r="L46" s="1">
+        <v>256</v>
+      </c>
+      <c r="M46" s="1">
+        <v>64</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2809</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>256</v>
+      </c>
+      <c r="R46" s="1">
+        <v>64</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2575</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1">
+        <v>42</v>
+      </c>
+      <c r="V46" s="1">
+        <v>256</v>
+      </c>
+      <c r="W46" s="1">
+        <v>64</v>
+      </c>
+      <c r="X46" s="1">
+        <v>8781</v>
+      </c>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>11773</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>11964</v>
+      </c>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>5776</v>
+      </c>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>3355</v>
+      </c>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>2925</v>
+      </c>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1">
+        <v>42</v>
+      </c>
+      <c r="AZ46" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB46" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="47" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <v>43</v>
+      </c>
+      <c r="L47" s="1">
+        <v>256</v>
+      </c>
+      <c r="M47" s="1">
+        <v>64</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2783</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>256</v>
+      </c>
+      <c r="R47" s="1">
+        <v>64</v>
+      </c>
+      <c r="S47" s="1">
+        <v>2577</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1">
+        <v>43</v>
+      </c>
+      <c r="V47" s="1">
+        <v>256</v>
+      </c>
+      <c r="W47" s="1">
+        <v>64</v>
+      </c>
+      <c r="X47" s="1">
+        <v>8767</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>11758</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>11965</v>
+      </c>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>5791</v>
+      </c>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>3313</v>
+      </c>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV47" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>2922</v>
+      </c>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1">
+        <v>43</v>
+      </c>
+      <c r="AZ47" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB47" s="1">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="48" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <v>44</v>
+      </c>
+      <c r="L48" s="1">
+        <v>256</v>
+      </c>
+      <c r="M48" s="1">
+        <v>64</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2808</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>256</v>
+      </c>
+      <c r="R48" s="1">
+        <v>64</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2564</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1">
+        <v>44</v>
+      </c>
+      <c r="V48" s="1">
+        <v>256</v>
+      </c>
+      <c r="W48" s="1">
+        <v>64</v>
+      </c>
+      <c r="X48" s="1">
+        <v>8793</v>
+      </c>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>11756</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>11977</v>
+      </c>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>5781</v>
+      </c>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>3396</v>
+      </c>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV48" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>2913</v>
+      </c>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1">
+        <v>44</v>
+      </c>
+      <c r="AZ48" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB48" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="49" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <v>45</v>
+      </c>
+      <c r="L49" s="1">
+        <v>256</v>
+      </c>
+      <c r="M49" s="1">
+        <v>64</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2799</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>256</v>
+      </c>
+      <c r="R49" s="1">
+        <v>64</v>
+      </c>
+      <c r="S49" s="1">
+        <v>2591</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
+        <v>45</v>
+      </c>
+      <c r="V49" s="1">
+        <v>256</v>
+      </c>
+      <c r="W49" s="1">
+        <v>64</v>
+      </c>
+      <c r="X49" s="1">
+        <v>8781</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>11777</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>11969</v>
+      </c>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>5762</v>
+      </c>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>3406</v>
+      </c>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV49" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW49" s="1">
+        <v>2926</v>
+      </c>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1">
+        <v>45</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB49" s="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="50" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K50" s="1">
+        <v>46</v>
+      </c>
+      <c r="L50" s="1">
+        <v>256</v>
+      </c>
+      <c r="M50" s="1">
+        <v>64</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2820</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>256</v>
+      </c>
+      <c r="R50" s="1">
+        <v>64</v>
+      </c>
+      <c r="S50" s="1">
+        <v>2567</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1">
+        <v>46</v>
+      </c>
+      <c r="V50" s="1">
+        <v>256</v>
+      </c>
+      <c r="W50" s="1">
+        <v>64</v>
+      </c>
+      <c r="X50" s="1">
+        <v>8813</v>
+      </c>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>11768</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>11976</v>
+      </c>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>5758</v>
+      </c>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>3320</v>
+      </c>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV50" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW50" s="1">
+        <v>2914</v>
+      </c>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1">
+        <v>46</v>
+      </c>
+      <c r="AZ50" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB50" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="51" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <v>47</v>
+      </c>
+      <c r="L51" s="1">
+        <v>256</v>
+      </c>
+      <c r="M51" s="1">
+        <v>64</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2833</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>256</v>
+      </c>
+      <c r="R51" s="1">
+        <v>64</v>
+      </c>
+      <c r="S51" s="1">
+        <v>2568</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1">
+        <v>47</v>
+      </c>
+      <c r="V51" s="1">
+        <v>256</v>
+      </c>
+      <c r="W51" s="1">
+        <v>64</v>
+      </c>
+      <c r="X51" s="1">
+        <v>8791</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>11763</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>11945</v>
+      </c>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>5747</v>
+      </c>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>3315</v>
+      </c>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV51" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW51" s="1">
+        <v>2943</v>
+      </c>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1">
+        <v>47</v>
+      </c>
+      <c r="AZ51" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB51" s="1">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="52" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K52" s="1">
+        <v>48</v>
+      </c>
+      <c r="L52" s="1">
+        <v>256</v>
+      </c>
+      <c r="M52" s="1">
+        <v>64</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2811</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>256</v>
+      </c>
+      <c r="R52" s="1">
+        <v>64</v>
+      </c>
+      <c r="S52" s="1">
+        <v>2585</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
+        <v>48</v>
+      </c>
+      <c r="V52" s="1">
+        <v>256</v>
+      </c>
+      <c r="W52" s="1">
+        <v>64</v>
+      </c>
+      <c r="X52" s="1">
+        <v>8766</v>
+      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>11782</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>11960</v>
+      </c>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>5765</v>
+      </c>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>3300</v>
+      </c>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV52" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW52" s="1">
+        <v>2951</v>
+      </c>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ52" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB52" s="1">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="53" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K53" s="1">
+        <v>49</v>
+      </c>
+      <c r="L53" s="1">
+        <v>256</v>
+      </c>
+      <c r="M53" s="1">
+        <v>64</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2792</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>256</v>
+      </c>
+      <c r="R53" s="1">
+        <v>64</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2574</v>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1">
+        <v>49</v>
+      </c>
+      <c r="V53" s="1">
+        <v>256</v>
+      </c>
+      <c r="W53" s="1">
+        <v>64</v>
+      </c>
+      <c r="X53" s="1">
+        <v>8774</v>
+      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>11771</v>
+      </c>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>11976</v>
+      </c>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>5732</v>
+      </c>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>3320</v>
+      </c>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV53" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW53" s="1">
+        <v>2911</v>
+      </c>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ53" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="54" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <v>50</v>
+      </c>
+      <c r="L54" s="1">
+        <v>256</v>
+      </c>
+      <c r="M54" s="1">
+        <v>64</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2810</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>256</v>
+      </c>
+      <c r="R54" s="1">
+        <v>64</v>
+      </c>
+      <c r="S54" s="1">
+        <v>2577</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1">
+        <v>50</v>
+      </c>
+      <c r="V54" s="1">
+        <v>256</v>
+      </c>
+      <c r="W54" s="1">
+        <v>64</v>
+      </c>
+      <c r="X54" s="1">
+        <v>8854</v>
+      </c>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>11760</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>11952</v>
+      </c>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>5765</v>
+      </c>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>3357</v>
+      </c>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV54" s="1">
+        <v>64</v>
+      </c>
+      <c r="AW54" s="1">
+        <v>2930</v>
+      </c>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ54" s="1">
+        <v>256</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="55" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <f>AVERAGE(N1:N54)</f>
+        <v>2809.38</v>
+      </c>
+      <c r="R55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55">
+        <f>AVERAGE(S5:S54)</f>
+        <v>2579.6</v>
+      </c>
+      <c r="X55">
+        <f>AVERAGE(X5:X54)</f>
+        <v>8788.6200000000008</v>
+      </c>
+      <c r="AC55">
+        <f>AVERAGE(AC5:AC54)</f>
+        <v>11770.06</v>
+      </c>
+      <c r="AH55">
+        <f>AVERAGE(AH5:AH54)</f>
+        <v>11957.8</v>
+      </c>
+    </row>
+    <row r="56" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>256</v>
+      </c>
+      <c r="M58">
+        <v>64</v>
+      </c>
+      <c r="N58">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="59" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>256</v>
+      </c>
+      <c r="M59">
+        <v>64</v>
+      </c>
+      <c r="N59">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="60" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>256</v>
+      </c>
+      <c r="M60">
+        <v>64</v>
+      </c>
+      <c r="N60">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="61" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>256</v>
+      </c>
+      <c r="M61">
+        <v>64</v>
+      </c>
+      <c r="N61">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="62" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>256</v>
+      </c>
+      <c r="M62">
+        <v>64</v>
+      </c>
+      <c r="N62">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="63" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>256</v>
+      </c>
+      <c r="M63">
+        <v>64</v>
+      </c>
+      <c r="N63">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="64" spans="11:54" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>256</v>
+      </c>
+      <c r="M64">
+        <v>64</v>
+      </c>
+      <c r="N64">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <v>256</v>
+      </c>
+      <c r="M65">
+        <v>64</v>
+      </c>
+      <c r="N65">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <v>256</v>
+      </c>
+      <c r="M66">
+        <v>64</v>
+      </c>
+      <c r="N66">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>256</v>
+      </c>
+      <c r="M67">
+        <v>64</v>
+      </c>
+      <c r="N67">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>256</v>
+      </c>
+      <c r="M68">
+        <v>64</v>
+      </c>
+      <c r="N68">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>256</v>
+      </c>
+      <c r="M69">
+        <v>64</v>
+      </c>
+      <c r="N69">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="70" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>13</v>
+      </c>
+      <c r="L70">
+        <v>256</v>
+      </c>
+      <c r="M70">
+        <v>64</v>
+      </c>
+      <c r="N70">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="L71">
+        <v>256</v>
+      </c>
+      <c r="M71">
+        <v>64</v>
+      </c>
+      <c r="N71">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="72" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>15</v>
+      </c>
+      <c r="L72">
+        <v>256</v>
+      </c>
+      <c r="M72">
+        <v>64</v>
+      </c>
+      <c r="N72">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="73" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>16</v>
+      </c>
+      <c r="L73">
+        <v>256</v>
+      </c>
+      <c r="M73">
+        <v>64</v>
+      </c>
+      <c r="N73">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="74" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>256</v>
+      </c>
+      <c r="M74">
+        <v>64</v>
+      </c>
+      <c r="N74">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="75" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>18</v>
+      </c>
+      <c r="L75">
+        <v>256</v>
+      </c>
+      <c r="M75">
+        <v>64</v>
+      </c>
+      <c r="N75">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="76" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>19</v>
+      </c>
+      <c r="L76">
+        <v>256</v>
+      </c>
+      <c r="M76">
+        <v>64</v>
+      </c>
+      <c r="N76">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>20</v>
+      </c>
+      <c r="L77">
+        <v>256</v>
+      </c>
+      <c r="M77">
+        <v>64</v>
+      </c>
+      <c r="N77">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="78" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>21</v>
+      </c>
+      <c r="L78">
+        <v>256</v>
+      </c>
+      <c r="M78">
+        <v>64</v>
+      </c>
+      <c r="N78">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="79" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>22</v>
+      </c>
+      <c r="L79">
+        <v>256</v>
+      </c>
+      <c r="M79">
+        <v>64</v>
+      </c>
+      <c r="N79">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="80" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>23</v>
+      </c>
+      <c r="L80">
+        <v>256</v>
+      </c>
+      <c r="M80">
+        <v>64</v>
+      </c>
+      <c r="N80">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>24</v>
+      </c>
+      <c r="L81">
+        <v>256</v>
+      </c>
+      <c r="M81">
+        <v>64</v>
+      </c>
+      <c r="N81">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <v>256</v>
+      </c>
+      <c r="M82">
+        <v>64</v>
+      </c>
+      <c r="N82">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>26</v>
+      </c>
+      <c r="L83">
+        <v>256</v>
+      </c>
+      <c r="M83">
+        <v>64</v>
+      </c>
+      <c r="N83">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="84" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>27</v>
+      </c>
+      <c r="L84">
+        <v>256</v>
+      </c>
+      <c r="M84">
+        <v>64</v>
+      </c>
+      <c r="N84">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="85" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>28</v>
+      </c>
+      <c r="L85">
+        <v>256</v>
+      </c>
+      <c r="M85">
+        <v>64</v>
+      </c>
+      <c r="N85">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>29</v>
+      </c>
+      <c r="L86">
+        <v>256</v>
+      </c>
+      <c r="M86">
+        <v>64</v>
+      </c>
+      <c r="N86">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>30</v>
+      </c>
+      <c r="L87">
+        <v>256</v>
+      </c>
+      <c r="M87">
+        <v>64</v>
+      </c>
+      <c r="N87">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>31</v>
+      </c>
+      <c r="L88">
+        <v>256</v>
+      </c>
+      <c r="M88">
+        <v>64</v>
+      </c>
+      <c r="N88">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>32</v>
+      </c>
+      <c r="L89">
+        <v>256</v>
+      </c>
+      <c r="M89">
+        <v>64</v>
+      </c>
+      <c r="N89">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>33</v>
+      </c>
+      <c r="L90">
+        <v>256</v>
+      </c>
+      <c r="M90">
+        <v>64</v>
+      </c>
+      <c r="N90">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>34</v>
+      </c>
+      <c r="L91">
+        <v>256</v>
+      </c>
+      <c r="M91">
+        <v>64</v>
+      </c>
+      <c r="N91">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>35</v>
+      </c>
+      <c r="L92">
+        <v>256</v>
+      </c>
+      <c r="M92">
+        <v>64</v>
+      </c>
+      <c r="N92">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>36</v>
+      </c>
+      <c r="L93">
+        <v>256</v>
+      </c>
+      <c r="M93">
+        <v>64</v>
+      </c>
+      <c r="N93">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>37</v>
+      </c>
+      <c r="L94">
+        <v>256</v>
+      </c>
+      <c r="M94">
+        <v>64</v>
+      </c>
+      <c r="N94">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>38</v>
+      </c>
+      <c r="L95">
+        <v>256</v>
+      </c>
+      <c r="M95">
+        <v>64</v>
+      </c>
+      <c r="N95">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="96" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>39</v>
+      </c>
+      <c r="L96">
+        <v>256</v>
+      </c>
+      <c r="M96">
+        <v>64</v>
+      </c>
+      <c r="N96">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="97" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>40</v>
+      </c>
+      <c r="L97">
+        <v>256</v>
+      </c>
+      <c r="M97">
+        <v>64</v>
+      </c>
+      <c r="N97">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="98" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>41</v>
+      </c>
+      <c r="L98">
+        <v>256</v>
+      </c>
+      <c r="M98">
+        <v>64</v>
+      </c>
+      <c r="N98">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="99" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>42</v>
+      </c>
+      <c r="L99">
+        <v>256</v>
+      </c>
+      <c r="M99">
+        <v>64</v>
+      </c>
+      <c r="N99">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="100" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>43</v>
+      </c>
+      <c r="L100">
+        <v>256</v>
+      </c>
+      <c r="M100">
+        <v>64</v>
+      </c>
+      <c r="N100">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="101" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>44</v>
+      </c>
+      <c r="L101">
+        <v>256</v>
+      </c>
+      <c r="M101">
+        <v>64</v>
+      </c>
+      <c r="N101">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="102" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>45</v>
+      </c>
+      <c r="L102">
+        <v>256</v>
+      </c>
+      <c r="M102">
+        <v>64</v>
+      </c>
+      <c r="N102">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="103" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>46</v>
+      </c>
+      <c r="L103">
+        <v>256</v>
+      </c>
+      <c r="M103">
+        <v>64</v>
+      </c>
+      <c r="N103">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="104" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>47</v>
+      </c>
+      <c r="L104">
+        <v>256</v>
+      </c>
+      <c r="M104">
+        <v>64</v>
+      </c>
+      <c r="N104">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="105" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>48</v>
+      </c>
+      <c r="L105">
+        <v>256</v>
+      </c>
+      <c r="M105">
+        <v>64</v>
+      </c>
+      <c r="N105">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="106" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>49</v>
+      </c>
+      <c r="L106">
+        <v>256</v>
+      </c>
+      <c r="M106">
+        <v>64</v>
+      </c>
+      <c r="N106">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="107" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>50</v>
+      </c>
+      <c r="L107">
+        <v>256</v>
+      </c>
+      <c r="M107">
+        <v>64</v>
+      </c>
+      <c r="N107">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="108" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108">
+        <f>AVERAGE(N58:N107)</f>
+        <v>2813.62</v>
+      </c>
+    </row>
+    <row r="109" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" t="s">
+        <v>21</v>
+      </c>
+      <c r="O110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>256</v>
+      </c>
+      <c r="M111">
+        <v>64</v>
+      </c>
+      <c r="N111">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="112" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>256</v>
+      </c>
+      <c r="M112">
+        <v>64</v>
+      </c>
+      <c r="N112">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="113" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>256</v>
+      </c>
+      <c r="M113">
+        <v>64</v>
+      </c>
+      <c r="N113">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="114" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>256</v>
+      </c>
+      <c r="M114">
+        <v>64</v>
+      </c>
+      <c r="N114">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="115" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115">
+        <v>256</v>
+      </c>
+      <c r="M115">
+        <v>64</v>
+      </c>
+      <c r="N115">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="116" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>6</v>
+      </c>
+      <c r="L116">
+        <v>256</v>
+      </c>
+      <c r="M116">
+        <v>64</v>
+      </c>
+      <c r="N116">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="117" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
+        <v>256</v>
+      </c>
+      <c r="M117">
+        <v>64</v>
+      </c>
+      <c r="N117">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="118" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>256</v>
+      </c>
+      <c r="M118">
+        <v>64</v>
+      </c>
+      <c r="N118">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="119" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>9</v>
+      </c>
+      <c r="L119">
+        <v>256</v>
+      </c>
+      <c r="M119">
+        <v>64</v>
+      </c>
+      <c r="N119">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="120" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>10</v>
+      </c>
+      <c r="L120">
+        <v>256</v>
+      </c>
+      <c r="M120">
+        <v>64</v>
+      </c>
+      <c r="N120">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="121" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>11</v>
+      </c>
+      <c r="L121">
+        <v>256</v>
+      </c>
+      <c r="M121">
+        <v>64</v>
+      </c>
+      <c r="N121">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="122" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>12</v>
+      </c>
+      <c r="L122">
+        <v>256</v>
+      </c>
+      <c r="M122">
+        <v>64</v>
+      </c>
+      <c r="N122">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="123" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>13</v>
+      </c>
+      <c r="L123">
+        <v>256</v>
+      </c>
+      <c r="M123">
+        <v>64</v>
+      </c>
+      <c r="N123">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="124" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>14</v>
+      </c>
+      <c r="L124">
+        <v>256</v>
+      </c>
+      <c r="M124">
+        <v>64</v>
+      </c>
+      <c r="N124">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="125" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>15</v>
+      </c>
+      <c r="L125">
+        <v>256</v>
+      </c>
+      <c r="M125">
+        <v>64</v>
+      </c>
+      <c r="N125">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="126" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <v>256</v>
+      </c>
+      <c r="M126">
+        <v>64</v>
+      </c>
+      <c r="N126">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="127" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>17</v>
+      </c>
+      <c r="L127">
+        <v>256</v>
+      </c>
+      <c r="M127">
+        <v>64</v>
+      </c>
+      <c r="N127">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="128" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>18</v>
+      </c>
+      <c r="L128">
+        <v>256</v>
+      </c>
+      <c r="M128">
+        <v>64</v>
+      </c>
+      <c r="N128">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="129" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>19</v>
+      </c>
+      <c r="L129">
+        <v>256</v>
+      </c>
+      <c r="M129">
+        <v>64</v>
+      </c>
+      <c r="N129">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="130" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>20</v>
+      </c>
+      <c r="L130">
+        <v>256</v>
+      </c>
+      <c r="M130">
+        <v>64</v>
+      </c>
+      <c r="N130">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="131" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>21</v>
+      </c>
+      <c r="L131">
+        <v>256</v>
+      </c>
+      <c r="M131">
+        <v>64</v>
+      </c>
+      <c r="N131">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="132" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>22</v>
+      </c>
+      <c r="L132">
+        <v>256</v>
+      </c>
+      <c r="M132">
+        <v>64</v>
+      </c>
+      <c r="N132">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="133" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>256</v>
+      </c>
+      <c r="M133">
+        <v>64</v>
+      </c>
+      <c r="N133">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="134" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>24</v>
+      </c>
+      <c r="L134">
+        <v>256</v>
+      </c>
+      <c r="M134">
+        <v>64</v>
+      </c>
+      <c r="N134">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="135" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>25</v>
+      </c>
+      <c r="L135">
+        <v>256</v>
+      </c>
+      <c r="M135">
+        <v>64</v>
+      </c>
+      <c r="N135">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="136" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>26</v>
+      </c>
+      <c r="L136">
+        <v>256</v>
+      </c>
+      <c r="M136">
+        <v>64</v>
+      </c>
+      <c r="N136">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="137" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>27</v>
+      </c>
+      <c r="L137">
+        <v>256</v>
+      </c>
+      <c r="M137">
+        <v>64</v>
+      </c>
+      <c r="N137">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="138" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>28</v>
+      </c>
+      <c r="L138">
+        <v>256</v>
+      </c>
+      <c r="M138">
+        <v>64</v>
+      </c>
+      <c r="N138">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="139" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>29</v>
+      </c>
+      <c r="L139">
+        <v>256</v>
+      </c>
+      <c r="M139">
+        <v>64</v>
+      </c>
+      <c r="N139">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="140" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>30</v>
+      </c>
+      <c r="L140">
+        <v>256</v>
+      </c>
+      <c r="M140">
+        <v>64</v>
+      </c>
+      <c r="N140">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="141" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>31</v>
+      </c>
+      <c r="L141">
+        <v>256</v>
+      </c>
+      <c r="M141">
+        <v>64</v>
+      </c>
+      <c r="N141">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="142" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>32</v>
+      </c>
+      <c r="L142">
+        <v>256</v>
+      </c>
+      <c r="M142">
+        <v>64</v>
+      </c>
+      <c r="N142">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="143" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>33</v>
+      </c>
+      <c r="L143">
+        <v>256</v>
+      </c>
+      <c r="M143">
+        <v>64</v>
+      </c>
+      <c r="N143">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="144" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>34</v>
+      </c>
+      <c r="L144">
+        <v>256</v>
+      </c>
+      <c r="M144">
+        <v>64</v>
+      </c>
+      <c r="N144">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="145" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>35</v>
+      </c>
+      <c r="L145">
+        <v>256</v>
+      </c>
+      <c r="M145">
+        <v>64</v>
+      </c>
+      <c r="N145">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="146" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>36</v>
+      </c>
+      <c r="L146">
+        <v>256</v>
+      </c>
+      <c r="M146">
+        <v>64</v>
+      </c>
+      <c r="N146">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="147" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>37</v>
+      </c>
+      <c r="L147">
+        <v>256</v>
+      </c>
+      <c r="M147">
+        <v>64</v>
+      </c>
+      <c r="N147">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="148" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>38</v>
+      </c>
+      <c r="L148">
+        <v>256</v>
+      </c>
+      <c r="M148">
+        <v>64</v>
+      </c>
+      <c r="N148">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="149" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>39</v>
+      </c>
+      <c r="L149">
+        <v>256</v>
+      </c>
+      <c r="M149">
+        <v>64</v>
+      </c>
+      <c r="N149">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="150" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>40</v>
+      </c>
+      <c r="L150">
+        <v>256</v>
+      </c>
+      <c r="M150">
+        <v>64</v>
+      </c>
+      <c r="N150">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="151" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>41</v>
+      </c>
+      <c r="L151">
+        <v>256</v>
+      </c>
+      <c r="M151">
+        <v>64</v>
+      </c>
+      <c r="N151">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="152" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>42</v>
+      </c>
+      <c r="L152">
+        <v>256</v>
+      </c>
+      <c r="M152">
+        <v>64</v>
+      </c>
+      <c r="N152">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="153" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>43</v>
+      </c>
+      <c r="L153">
+        <v>256</v>
+      </c>
+      <c r="M153">
+        <v>64</v>
+      </c>
+      <c r="N153">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="154" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>44</v>
+      </c>
+      <c r="L154">
+        <v>256</v>
+      </c>
+      <c r="M154">
+        <v>64</v>
+      </c>
+      <c r="N154">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="155" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>45</v>
+      </c>
+      <c r="L155">
+        <v>256</v>
+      </c>
+      <c r="M155">
+        <v>64</v>
+      </c>
+      <c r="N155">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="156" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>46</v>
+      </c>
+      <c r="L156">
+        <v>256</v>
+      </c>
+      <c r="M156">
+        <v>64</v>
+      </c>
+      <c r="N156">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="157" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>47</v>
+      </c>
+      <c r="L157">
+        <v>256</v>
+      </c>
+      <c r="M157">
+        <v>64</v>
+      </c>
+      <c r="N157">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="158" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>48</v>
+      </c>
+      <c r="L158">
+        <v>256</v>
+      </c>
+      <c r="M158">
+        <v>64</v>
+      </c>
+      <c r="N158">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="159" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>49</v>
+      </c>
+      <c r="L159">
+        <v>256</v>
+      </c>
+      <c r="M159">
+        <v>64</v>
+      </c>
+      <c r="N159">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="160" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>50</v>
+      </c>
+      <c r="L160">
+        <v>256</v>
+      </c>
+      <c r="M160">
+        <v>64</v>
+      </c>
+      <c r="N160">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>25</v>
+      </c>
+      <c r="N161">
+        <f>AVERAGE(N111:N160)</f>
+        <v>2603.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -9,25 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="sequential results" sheetId="1" r:id="rId1"/>
-    <sheet name="Seq. Graph 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Seq. Graph 2" sheetId="4" r:id="rId3"/>
-    <sheet name="parallel results" sheetId="2" r:id="rId4"/>
-    <sheet name="parallel comparisons" sheetId="9" r:id="rId5"/>
-    <sheet name="Par. Graph 1" sheetId="5" r:id="rId6"/>
-    <sheet name="Par. Graph 2" sheetId="6" r:id="rId7"/>
-    <sheet name="Seq. vs Par. Graph 1" sheetId="7" r:id="rId8"/>
-    <sheet name="Seq. vs Par. Graph 2" sheetId="8" r:id="rId9"/>
+    <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenMP Static" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenMP Dynamic" sheetId="10" r:id="rId3"/>
+    <sheet name="Manual Threading" sheetId="11" r:id="rId4"/>
+    <sheet name="Seq. Graph 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Seq. Graph 2" sheetId="4" r:id="rId6"/>
+    <sheet name="Par. Comparisons" sheetId="9" r:id="rId7"/>
+    <sheet name="Par. Graph 1" sheetId="5" r:id="rId8"/>
+    <sheet name="Par. Graph 2" sheetId="6" r:id="rId9"/>
+    <sheet name="Seq. vs Par. Graph 1" sheetId="7" r:id="rId10"/>
+    <sheet name="Seq. vs Par. Graph 2" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -783,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -888,6 +890,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1039,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential results'!$B$2</c:f>
+              <c:f>'Seq. Results'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,7 +1074,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'sequential results'!$A$3:$A$10</c:f>
+              <c:f>'Seq. Results'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1096,7 +1107,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sequential results'!$B$3:$B$10</c:f>
+              <c:f>'Seq. Results'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1501,7 +1512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential results'!$B$14</c:f>
+              <c:f>'Seq. Results'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1536,7 +1547,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'sequential results'!$A$15:$A$18</c:f>
+              <c:f>'Seq. Results'!$A$15:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1557,7 +1568,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sequential results'!$B$15:$B$18</c:f>
+              <c:f>'Seq. Results'!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1955,7 +1966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'parallel results'!$B$2</c:f>
+              <c:f>'OpenMP Static'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1990,7 +2001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'parallel results'!$A$3:$A$10</c:f>
+              <c:f>'OpenMP Static'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2023,7 +2034,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'parallel results'!$B$3:$B$10</c:f>
+              <c:f>'OpenMP Static'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2440,7 +2451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'parallel results'!$B$14</c:f>
+              <c:f>'OpenMP Static'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2475,7 +2486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'parallel results'!$A$15:$A$18</c:f>
+              <c:f>'OpenMP Static'!$A$15:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2496,7 +2507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'parallel results'!$B$15:$B$18</c:f>
+              <c:f>'OpenMP Static'!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2844,7 +2855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2912,7 +2922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'sequential results'!$A$3:$A$10</c:f>
+              <c:f>'Seq. Results'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2945,7 +2955,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sequential results'!$B$3:$B$10</c:f>
+              <c:f>'Seq. Results'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3015,7 +3025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'parallel results'!$A$3:$A$10</c:f>
+              <c:f>'OpenMP Static'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3048,7 +3058,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'parallel results'!$B$3:$B$10</c:f>
+              <c:f>'OpenMP Static'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3146,7 +3156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3264,7 +3273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3345,7 +3353,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3515,7 +3522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'sequential results'!$A$15:$A$18</c:f>
+              <c:f>'Seq. Results'!$A$15:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3536,7 +3543,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sequential results'!$B$15:$B$18</c:f>
+              <c:f>'Seq. Results'!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3594,7 +3601,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'parallel results'!$A$15:$A$18</c:f>
+              <c:f>'OpenMP Static'!$A$15:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3615,7 +3622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'parallel results'!$B$15:$B$18</c:f>
+              <c:f>'OpenMP Static'!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7807,26 +7814,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="R1" s="30" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
       <c r="W1" s="23" t="s">
         <v>13</v>
       </c>
@@ -7908,25 +7915,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="11"/>
       <c r="W3" s="7">
         <v>1</v>
@@ -8457,10 +8464,10 @@
       <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="42"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -12635,7 +12642,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12651,26 +12658,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="R1" s="30" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
       <c r="W1" s="23" t="s">
         <v>13</v>
       </c>
@@ -12752,25 +12759,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -13252,10 +13259,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="42"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -13701,11 +13708,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -13809,7 +13816,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <f>'sequential results'!B3/'parallel results'!B3</f>
+        <f>'Seq. Results'!B3/'OpenMP Static'!B3</f>
         <v>4.0750814941484537</v>
       </c>
       <c r="C24" s="18">
@@ -13865,7 +13872,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="1">
-        <f>'sequential results'!B4/'parallel results'!B4</f>
+        <f>'Seq. Results'!B4/'OpenMP Static'!B4</f>
         <v>4.1191280566280568</v>
       </c>
       <c r="C25" s="19">
@@ -13921,7 +13928,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1">
-        <f>'sequential results'!B5/'parallel results'!B5</f>
+        <f>'Seq. Results'!B5/'OpenMP Static'!B5</f>
         <v>4.2025957972805932</v>
       </c>
       <c r="C26" s="19">
@@ -13977,7 +13984,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1">
-        <f>'sequential results'!B6/'parallel results'!B6</f>
+        <f>'Seq. Results'!B6/'OpenMP Static'!B6</f>
         <v>4.3582268286704711</v>
       </c>
       <c r="C27" s="19">
@@ -14033,7 +14040,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="1">
-        <f>'sequential results'!B7/'parallel results'!B7</f>
+        <f>'Seq. Results'!B7/'OpenMP Static'!B7</f>
         <v>4.4610101802492474</v>
       </c>
       <c r="C28" s="19">
@@ -14089,7 +14096,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="1">
-        <f>'sequential results'!B8/'parallel results'!B8</f>
+        <f>'Seq. Results'!B8/'OpenMP Static'!B8</f>
         <v>4.3909204262680435</v>
       </c>
       <c r="C29" s="19">
@@ -14145,7 +14152,7 @@
         <v>256</v>
       </c>
       <c r="B30" s="1">
-        <f>'sequential results'!B9/'parallel results'!B9</f>
+        <f>'Seq. Results'!B9/'OpenMP Static'!B9</f>
         <v>4.3285418654617702</v>
       </c>
       <c r="C30" s="19">
@@ -14201,7 +14208,7 @@
         <v>512</v>
       </c>
       <c r="B31" s="1">
-        <f>'sequential results'!B10/'parallel results'!B10</f>
+        <f>'Seq. Results'!B10/'OpenMP Static'!B10</f>
         <v>4.302667827213436</v>
       </c>
       <c r="C31" s="19">
@@ -14298,11 +14305,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -14406,7 +14413,7 @@
         <v>128</v>
       </c>
       <c r="B35" s="20">
-        <f>'sequential results'!B15/'parallel results'!B15</f>
+        <f>'Seq. Results'!B15/'OpenMP Static'!B15</f>
         <v>3.9862201570261182</v>
       </c>
       <c r="C35" s="1">
@@ -14462,7 +14469,7 @@
         <v>256</v>
       </c>
       <c r="B36" s="21">
-        <f>'sequential results'!B16/'parallel results'!B16</f>
+        <f>'Seq. Results'!B16/'OpenMP Static'!B16</f>
         <v>4.1328000658580759</v>
       </c>
       <c r="C36" s="1">
@@ -14518,7 +14525,7 @@
         <v>512</v>
       </c>
       <c r="B37" s="21">
-        <f>'sequential results'!B17/'parallel results'!B17</f>
+        <f>'Seq. Results'!B17/'OpenMP Static'!B17</f>
         <v>4.2167345721951701</v>
       </c>
       <c r="C37" s="1">
@@ -14574,7 +14581,7 @@
         <v>1024</v>
       </c>
       <c r="B38" s="21">
-        <f>'sequential results'!B18/'parallel results'!B18</f>
+        <f>'Seq. Results'!B18/'OpenMP Static'!B18</f>
         <v>4.3117982336797374</v>
       </c>
       <c r="C38" s="1">
@@ -17568,10 +17575,8776 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="R1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="W1" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2">
+        <v>256</v>
+      </c>
+      <c r="N2" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>128</v>
+      </c>
+      <c r="S2" s="12">
+        <v>256</v>
+      </c>
+      <c r="T2" s="12">
+        <v>512</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1024</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
+        <f>AVERAGE(G4:G103)</f>
+        <v>163.98</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <f>AVERAGE(H4:H103)</f>
+        <v>328.74</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>190</v>
+      </c>
+      <c r="H4">
+        <v>396</v>
+      </c>
+      <c r="I4">
+        <v>732</v>
+      </c>
+      <c r="J4">
+        <v>1469</v>
+      </c>
+      <c r="K4">
+        <v>2794</v>
+      </c>
+      <c r="L4">
+        <v>5394</v>
+      </c>
+      <c r="M4">
+        <v>10541</v>
+      </c>
+      <c r="N4">
+        <v>20809</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>200</v>
+      </c>
+      <c r="S4">
+        <v>747</v>
+      </c>
+      <c r="T4">
+        <v>2744</v>
+      </c>
+      <c r="U4">
+        <v>10430</v>
+      </c>
+      <c r="W4" s="7">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14">
+        <f>AVERAGE(I4:I103)</f>
+        <v>655.39</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>185</v>
+      </c>
+      <c r="H5">
+        <v>349</v>
+      </c>
+      <c r="I5">
+        <v>720</v>
+      </c>
+      <c r="J5">
+        <v>1315</v>
+      </c>
+      <c r="K5">
+        <v>2622</v>
+      </c>
+      <c r="L5">
+        <v>5192</v>
+      </c>
+      <c r="M5">
+        <v>10335</v>
+      </c>
+      <c r="N5">
+        <v>20621</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>183</v>
+      </c>
+      <c r="S5">
+        <v>718</v>
+      </c>
+      <c r="T5">
+        <v>2591</v>
+      </c>
+      <c r="U5">
+        <v>10282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14">
+        <f>AVERAGE(J4:J103)</f>
+        <v>1308.69</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>177</v>
+      </c>
+      <c r="H6">
+        <v>378</v>
+      </c>
+      <c r="I6">
+        <v>654</v>
+      </c>
+      <c r="J6">
+        <v>1309</v>
+      </c>
+      <c r="K6">
+        <v>2611</v>
+      </c>
+      <c r="L6">
+        <v>5192</v>
+      </c>
+      <c r="M6">
+        <v>10360</v>
+      </c>
+      <c r="N6">
+        <v>20591</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>177</v>
+      </c>
+      <c r="S6">
+        <v>655</v>
+      </c>
+      <c r="T6">
+        <v>2574</v>
+      </c>
+      <c r="U6">
+        <v>10278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>64</v>
+      </c>
+      <c r="B7" s="14">
+        <f>AVERAGE(K4:K103)</f>
+        <v>2625.94</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>188</v>
+      </c>
+      <c r="H7">
+        <v>337</v>
+      </c>
+      <c r="I7">
+        <v>653</v>
+      </c>
+      <c r="J7">
+        <v>1309</v>
+      </c>
+      <c r="K7">
+        <v>2602</v>
+      </c>
+      <c r="L7">
+        <v>5187</v>
+      </c>
+      <c r="M7">
+        <v>10353</v>
+      </c>
+      <c r="N7">
+        <v>20669</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>194</v>
+      </c>
+      <c r="S7">
+        <v>651</v>
+      </c>
+      <c r="T7">
+        <v>2581</v>
+      </c>
+      <c r="U7">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>128</v>
+      </c>
+      <c r="B8" s="14">
+        <f>AVERAGE(L4:L103)</f>
+        <v>5206.2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>191</v>
+      </c>
+      <c r="H8">
+        <v>331</v>
+      </c>
+      <c r="I8">
+        <v>657</v>
+      </c>
+      <c r="J8">
+        <v>1310</v>
+      </c>
+      <c r="K8">
+        <v>2621</v>
+      </c>
+      <c r="L8">
+        <v>5190</v>
+      </c>
+      <c r="M8">
+        <v>10346</v>
+      </c>
+      <c r="N8">
+        <v>20650</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>188</v>
+      </c>
+      <c r="S8">
+        <v>656</v>
+      </c>
+      <c r="T8">
+        <v>2581</v>
+      </c>
+      <c r="U8">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>256</v>
+      </c>
+      <c r="B9" s="14">
+        <f>AVERAGE(M4:M103)</f>
+        <v>10354.040000000001</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>329</v>
+      </c>
+      <c r="I9">
+        <v>656</v>
+      </c>
+      <c r="J9">
+        <v>1306</v>
+      </c>
+      <c r="K9">
+        <v>2618</v>
+      </c>
+      <c r="L9">
+        <v>5191</v>
+      </c>
+      <c r="M9">
+        <v>10364</v>
+      </c>
+      <c r="N9">
+        <v>20637</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>171</v>
+      </c>
+      <c r="S9">
+        <v>648</v>
+      </c>
+      <c r="T9">
+        <v>2580</v>
+      </c>
+      <c r="U9">
+        <v>10285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>512</v>
+      </c>
+      <c r="B10" s="14">
+        <f>AVERAGE(N4:N103)</f>
+        <v>20634.72</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>173</v>
+      </c>
+      <c r="H10">
+        <v>328</v>
+      </c>
+      <c r="I10">
+        <v>656</v>
+      </c>
+      <c r="J10">
+        <v>1302</v>
+      </c>
+      <c r="K10">
+        <v>2631</v>
+      </c>
+      <c r="L10">
+        <v>5202</v>
+      </c>
+      <c r="M10">
+        <v>10344</v>
+      </c>
+      <c r="N10">
+        <v>20676</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>165</v>
+      </c>
+      <c r="S10">
+        <v>656</v>
+      </c>
+      <c r="T10">
+        <v>2580</v>
+      </c>
+      <c r="U10">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>325</v>
+      </c>
+      <c r="I11">
+        <v>655</v>
+      </c>
+      <c r="J11">
+        <v>1317</v>
+      </c>
+      <c r="K11">
+        <v>2626</v>
+      </c>
+      <c r="L11">
+        <v>5199</v>
+      </c>
+      <c r="M11">
+        <v>10323</v>
+      </c>
+      <c r="N11">
+        <v>20650</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>164</v>
+      </c>
+      <c r="S11">
+        <v>653</v>
+      </c>
+      <c r="T11">
+        <v>2573</v>
+      </c>
+      <c r="U11">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>188</v>
+      </c>
+      <c r="H12">
+        <v>333</v>
+      </c>
+      <c r="I12">
+        <v>652</v>
+      </c>
+      <c r="J12">
+        <v>1312</v>
+      </c>
+      <c r="K12">
+        <v>2616</v>
+      </c>
+      <c r="L12">
+        <v>5229</v>
+      </c>
+      <c r="M12">
+        <v>10328</v>
+      </c>
+      <c r="N12">
+        <v>20584</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>162</v>
+      </c>
+      <c r="S12">
+        <v>656</v>
+      </c>
+      <c r="T12">
+        <v>2577</v>
+      </c>
+      <c r="U12">
+        <v>10277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>174</v>
+      </c>
+      <c r="H13">
+        <v>328</v>
+      </c>
+      <c r="I13">
+        <v>650</v>
+      </c>
+      <c r="J13">
+        <v>1305</v>
+      </c>
+      <c r="K13">
+        <v>2628</v>
+      </c>
+      <c r="L13">
+        <v>5192</v>
+      </c>
+      <c r="M13">
+        <v>10349</v>
+      </c>
+      <c r="N13">
+        <v>20612</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>169</v>
+      </c>
+      <c r="S13">
+        <v>649</v>
+      </c>
+      <c r="T13">
+        <v>2584</v>
+      </c>
+      <c r="U13">
+        <v>10267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>168</v>
+      </c>
+      <c r="H14">
+        <v>327</v>
+      </c>
+      <c r="I14">
+        <v>652</v>
+      </c>
+      <c r="J14">
+        <v>1309</v>
+      </c>
+      <c r="K14">
+        <v>2619</v>
+      </c>
+      <c r="L14">
+        <v>5194</v>
+      </c>
+      <c r="M14">
+        <v>10339</v>
+      </c>
+      <c r="N14">
+        <v>20616</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>168</v>
+      </c>
+      <c r="S14">
+        <v>656</v>
+      </c>
+      <c r="T14">
+        <v>2585</v>
+      </c>
+      <c r="U14">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>128</v>
+      </c>
+      <c r="B15" s="14">
+        <f>AVERAGE(R4:R103)</f>
+        <v>165.81</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>162</v>
+      </c>
+      <c r="H15">
+        <v>330</v>
+      </c>
+      <c r="I15">
+        <v>655</v>
+      </c>
+      <c r="J15">
+        <v>1299</v>
+      </c>
+      <c r="K15">
+        <v>2633</v>
+      </c>
+      <c r="L15">
+        <v>5202</v>
+      </c>
+      <c r="M15">
+        <v>10363</v>
+      </c>
+      <c r="N15">
+        <v>20644</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>164</v>
+      </c>
+      <c r="S15">
+        <v>663</v>
+      </c>
+      <c r="T15">
+        <v>2585</v>
+      </c>
+      <c r="U15">
+        <v>10282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>256</v>
+      </c>
+      <c r="B16" s="14">
+        <f>AVERAGE(S4:S103)</f>
+        <v>654.27</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>164</v>
+      </c>
+      <c r="H16">
+        <v>328</v>
+      </c>
+      <c r="I16">
+        <v>651</v>
+      </c>
+      <c r="J16">
+        <v>1301</v>
+      </c>
+      <c r="K16">
+        <v>2624</v>
+      </c>
+      <c r="L16">
+        <v>5208</v>
+      </c>
+      <c r="M16">
+        <v>10347</v>
+      </c>
+      <c r="N16">
+        <v>20617</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>166</v>
+      </c>
+      <c r="S16">
+        <v>655</v>
+      </c>
+      <c r="T16">
+        <v>2579</v>
+      </c>
+      <c r="U16">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>512</v>
+      </c>
+      <c r="B17" s="14">
+        <f>AVERAGE(T4:T103)</f>
+        <v>2582.84</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>162</v>
+      </c>
+      <c r="H17">
+        <v>329</v>
+      </c>
+      <c r="I17">
+        <v>654</v>
+      </c>
+      <c r="J17">
+        <v>1306</v>
+      </c>
+      <c r="K17">
+        <v>2618</v>
+      </c>
+      <c r="L17">
+        <v>5190</v>
+      </c>
+      <c r="M17">
+        <v>10345</v>
+      </c>
+      <c r="N17">
+        <v>20631</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>166</v>
+      </c>
+      <c r="S17">
+        <v>655</v>
+      </c>
+      <c r="T17">
+        <v>2583</v>
+      </c>
+      <c r="U17">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B18" s="14">
+        <f>AVERAGE(U4:U103)</f>
+        <v>10282.719999999999</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>162</v>
+      </c>
+      <c r="H18">
+        <v>322</v>
+      </c>
+      <c r="I18">
+        <v>649</v>
+      </c>
+      <c r="J18">
+        <v>1305</v>
+      </c>
+      <c r="K18">
+        <v>2608</v>
+      </c>
+      <c r="L18">
+        <v>5201</v>
+      </c>
+      <c r="M18">
+        <v>10335</v>
+      </c>
+      <c r="N18">
+        <v>20633</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>162</v>
+      </c>
+      <c r="S18">
+        <v>650</v>
+      </c>
+      <c r="T18">
+        <v>2582</v>
+      </c>
+      <c r="U18">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>162</v>
+      </c>
+      <c r="H19">
+        <v>329</v>
+      </c>
+      <c r="I19">
+        <v>657</v>
+      </c>
+      <c r="J19">
+        <v>1297</v>
+      </c>
+      <c r="K19">
+        <v>2627</v>
+      </c>
+      <c r="L19">
+        <v>5196</v>
+      </c>
+      <c r="M19">
+        <v>10356</v>
+      </c>
+      <c r="N19">
+        <v>20654</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>165</v>
+      </c>
+      <c r="S19">
+        <v>652</v>
+      </c>
+      <c r="T19">
+        <v>2584</v>
+      </c>
+      <c r="U19">
+        <v>10272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>162</v>
+      </c>
+      <c r="H20">
+        <v>325</v>
+      </c>
+      <c r="I20">
+        <v>654</v>
+      </c>
+      <c r="J20">
+        <v>1299</v>
+      </c>
+      <c r="K20">
+        <v>2623</v>
+      </c>
+      <c r="L20">
+        <v>5194</v>
+      </c>
+      <c r="M20">
+        <v>10322</v>
+      </c>
+      <c r="N20">
+        <v>20609</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>164</v>
+      </c>
+      <c r="S20">
+        <v>650</v>
+      </c>
+      <c r="T20">
+        <v>2586</v>
+      </c>
+      <c r="U20">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="7">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>161</v>
+      </c>
+      <c r="H21">
+        <v>328</v>
+      </c>
+      <c r="I21">
+        <v>647</v>
+      </c>
+      <c r="J21">
+        <v>1303</v>
+      </c>
+      <c r="K21">
+        <v>2613</v>
+      </c>
+      <c r="L21">
+        <v>5201</v>
+      </c>
+      <c r="M21">
+        <v>10354</v>
+      </c>
+      <c r="N21">
+        <v>20621</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>166</v>
+      </c>
+      <c r="S21">
+        <v>644</v>
+      </c>
+      <c r="T21">
+        <v>2583</v>
+      </c>
+      <c r="U21">
+        <v>10253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>162</v>
+      </c>
+      <c r="H22">
+        <v>330</v>
+      </c>
+      <c r="I22">
+        <v>652</v>
+      </c>
+      <c r="J22">
+        <v>1312</v>
+      </c>
+      <c r="K22">
+        <v>2623</v>
+      </c>
+      <c r="L22">
+        <v>5201</v>
+      </c>
+      <c r="M22">
+        <v>10339</v>
+      </c>
+      <c r="N22">
+        <v>20658</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>163</v>
+      </c>
+      <c r="S22">
+        <v>662</v>
+      </c>
+      <c r="T22">
+        <v>2588</v>
+      </c>
+      <c r="U22">
+        <v>10264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>162</v>
+      </c>
+      <c r="H23">
+        <v>328</v>
+      </c>
+      <c r="I23">
+        <v>649</v>
+      </c>
+      <c r="J23">
+        <v>1303</v>
+      </c>
+      <c r="K23">
+        <v>2650</v>
+      </c>
+      <c r="L23">
+        <v>5192</v>
+      </c>
+      <c r="M23">
+        <v>10359</v>
+      </c>
+      <c r="N23">
+        <v>20609</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>166</v>
+      </c>
+      <c r="S23">
+        <v>671</v>
+      </c>
+      <c r="T23">
+        <v>2582</v>
+      </c>
+      <c r="U23">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <f>'Seq. Results'!B3/'OpenMP Static'!B3</f>
+        <v>4.0750814941484537</v>
+      </c>
+      <c r="C24" s="18">
+        <f>B24/B20</f>
+        <v>1.0187703735371134</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>164</v>
+      </c>
+      <c r="H24">
+        <v>325</v>
+      </c>
+      <c r="I24">
+        <v>654</v>
+      </c>
+      <c r="J24">
+        <v>1305</v>
+      </c>
+      <c r="K24">
+        <v>2618</v>
+      </c>
+      <c r="L24">
+        <v>5216</v>
+      </c>
+      <c r="M24">
+        <v>10348</v>
+      </c>
+      <c r="N24">
+        <v>20597</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>163</v>
+      </c>
+      <c r="S24">
+        <v>662</v>
+      </c>
+      <c r="T24">
+        <v>2583</v>
+      </c>
+      <c r="U24">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <f>'Seq. Results'!B4/'OpenMP Static'!B4</f>
+        <v>4.1191280566280568</v>
+      </c>
+      <c r="C25" s="19">
+        <f>B25/B20</f>
+        <v>1.0297820141570142</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>161</v>
+      </c>
+      <c r="H25">
+        <v>331</v>
+      </c>
+      <c r="I25">
+        <v>654</v>
+      </c>
+      <c r="J25">
+        <v>1301</v>
+      </c>
+      <c r="K25">
+        <v>2622</v>
+      </c>
+      <c r="L25">
+        <v>5210</v>
+      </c>
+      <c r="M25">
+        <v>10333</v>
+      </c>
+      <c r="N25">
+        <v>20653</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>166</v>
+      </c>
+      <c r="S25">
+        <v>656</v>
+      </c>
+      <c r="T25">
+        <v>2578</v>
+      </c>
+      <c r="U25">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <f>'Seq. Results'!B5/'OpenMP Static'!B5</f>
+        <v>4.2025957972805932</v>
+      </c>
+      <c r="C26" s="19">
+        <f>B26/B20</f>
+        <v>1.0506489493201483</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1">
+        <v>162</v>
+      </c>
+      <c r="H26">
+        <v>327</v>
+      </c>
+      <c r="I26">
+        <v>651</v>
+      </c>
+      <c r="J26">
+        <v>1299</v>
+      </c>
+      <c r="K26">
+        <v>2638</v>
+      </c>
+      <c r="L26">
+        <v>5195</v>
+      </c>
+      <c r="M26">
+        <v>10355</v>
+      </c>
+      <c r="N26">
+        <v>20605</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>163</v>
+      </c>
+      <c r="S26">
+        <v>650</v>
+      </c>
+      <c r="T26">
+        <v>2584</v>
+      </c>
+      <c r="U26">
+        <v>10282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <f>'Seq. Results'!B6/'OpenMP Static'!B6</f>
+        <v>4.3582268286704711</v>
+      </c>
+      <c r="C27" s="19">
+        <f>B27/B20</f>
+        <v>1.0895567071676178</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
+        <v>162</v>
+      </c>
+      <c r="H27">
+        <v>324</v>
+      </c>
+      <c r="I27">
+        <v>653</v>
+      </c>
+      <c r="J27">
+        <v>1313</v>
+      </c>
+      <c r="K27">
+        <v>2628</v>
+      </c>
+      <c r="L27">
+        <v>5198</v>
+      </c>
+      <c r="M27">
+        <v>10370</v>
+      </c>
+      <c r="N27">
+        <v>20604</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>166</v>
+      </c>
+      <c r="S27">
+        <v>656</v>
+      </c>
+      <c r="T27">
+        <v>2583</v>
+      </c>
+      <c r="U27">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <f>'Seq. Results'!B7/'OpenMP Static'!B7</f>
+        <v>4.4610101802492474</v>
+      </c>
+      <c r="C28" s="19">
+        <f>B28/B20</f>
+        <v>1.1152525450623119</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1">
+        <v>163</v>
+      </c>
+      <c r="H28">
+        <v>323</v>
+      </c>
+      <c r="I28">
+        <v>649</v>
+      </c>
+      <c r="J28">
+        <v>1305</v>
+      </c>
+      <c r="K28">
+        <v>2610</v>
+      </c>
+      <c r="L28">
+        <v>5197</v>
+      </c>
+      <c r="M28">
+        <v>10343</v>
+      </c>
+      <c r="N28">
+        <v>20618</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <v>167</v>
+      </c>
+      <c r="S28">
+        <v>648</v>
+      </c>
+      <c r="T28">
+        <v>2582</v>
+      </c>
+      <c r="U28">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1">
+        <f>'Seq. Results'!B8/'OpenMP Static'!B8</f>
+        <v>4.3909204262680435</v>
+      </c>
+      <c r="C29" s="19">
+        <f>B29/B20</f>
+        <v>1.0977301065670109</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1">
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>335</v>
+      </c>
+      <c r="I29">
+        <v>655</v>
+      </c>
+      <c r="J29">
+        <v>1310</v>
+      </c>
+      <c r="K29">
+        <v>2631</v>
+      </c>
+      <c r="L29">
+        <v>5188</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="7">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>163</v>
+      </c>
+      <c r="S29">
+        <v>654</v>
+      </c>
+      <c r="T29">
+        <v>2581</v>
+      </c>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>256</v>
+      </c>
+      <c r="B30" s="1">
+        <f>'Seq. Results'!B9/'OpenMP Static'!B9</f>
+        <v>4.3285418654617702</v>
+      </c>
+      <c r="C30" s="19">
+        <f>B30/B20</f>
+        <v>1.0821354663654426</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1">
+        <v>167</v>
+      </c>
+      <c r="H30">
+        <v>338</v>
+      </c>
+      <c r="I30">
+        <v>653</v>
+      </c>
+      <c r="J30">
+        <v>1303</v>
+      </c>
+      <c r="K30">
+        <v>2626</v>
+      </c>
+      <c r="L30">
+        <v>5204</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="Q30" s="7">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>165</v>
+      </c>
+      <c r="S30">
+        <v>650</v>
+      </c>
+      <c r="T30">
+        <v>2577</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1">
+        <f>'Seq. Results'!B10/'OpenMP Static'!B10</f>
+        <v>4.302667827213436</v>
+      </c>
+      <c r="C31" s="19">
+        <f>B31/B20</f>
+        <v>1.075666956803359</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>163</v>
+      </c>
+      <c r="H31">
+        <v>329</v>
+      </c>
+      <c r="I31">
+        <v>657</v>
+      </c>
+      <c r="J31">
+        <v>1308</v>
+      </c>
+      <c r="K31">
+        <v>2623</v>
+      </c>
+      <c r="L31">
+        <v>5189</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="7">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <v>166</v>
+      </c>
+      <c r="S31">
+        <v>660</v>
+      </c>
+      <c r="T31">
+        <v>2582</v>
+      </c>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1">
+        <v>161</v>
+      </c>
+      <c r="H32">
+        <v>328</v>
+      </c>
+      <c r="I32">
+        <v>655</v>
+      </c>
+      <c r="J32">
+        <v>1302</v>
+      </c>
+      <c r="K32">
+        <v>2617</v>
+      </c>
+      <c r="L32">
+        <v>5200</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="Q32" s="7">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>165</v>
+      </c>
+      <c r="S32">
+        <v>654</v>
+      </c>
+      <c r="T32">
+        <v>2584</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>164</v>
+      </c>
+      <c r="H33">
+        <v>327</v>
+      </c>
+      <c r="I33">
+        <v>647</v>
+      </c>
+      <c r="J33">
+        <v>1303</v>
+      </c>
+      <c r="K33">
+        <v>2624</v>
+      </c>
+      <c r="L33">
+        <v>5206</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="7">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>163</v>
+      </c>
+      <c r="S33">
+        <v>650</v>
+      </c>
+      <c r="T33">
+        <v>2574</v>
+      </c>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1">
+        <v>164</v>
+      </c>
+      <c r="H34">
+        <v>324</v>
+      </c>
+      <c r="I34">
+        <v>653</v>
+      </c>
+      <c r="J34">
+        <v>1303</v>
+      </c>
+      <c r="K34">
+        <v>2628</v>
+      </c>
+      <c r="L34">
+        <v>5198</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="7">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>168</v>
+      </c>
+      <c r="S34">
+        <v>648</v>
+      </c>
+      <c r="T34">
+        <v>2579</v>
+      </c>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>128</v>
+      </c>
+      <c r="B35" s="20">
+        <f>'Seq. Results'!B15/'OpenMP Static'!B15</f>
+        <v>3.9862201570261182</v>
+      </c>
+      <c r="C35" s="1">
+        <f>B35/B20</f>
+        <v>0.99655503925652955</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1">
+        <v>162</v>
+      </c>
+      <c r="H35">
+        <v>331</v>
+      </c>
+      <c r="I35">
+        <v>659</v>
+      </c>
+      <c r="J35">
+        <v>1311</v>
+      </c>
+      <c r="K35">
+        <v>2617</v>
+      </c>
+      <c r="L35">
+        <v>5228</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="7">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>165</v>
+      </c>
+      <c r="S35">
+        <v>651</v>
+      </c>
+      <c r="T35">
+        <v>2584</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>256</v>
+      </c>
+      <c r="B36" s="21">
+        <f>'Seq. Results'!B16/'OpenMP Static'!B16</f>
+        <v>4.1328000658580759</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B36/B20</f>
+        <v>1.033200016464519</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1">
+        <v>166</v>
+      </c>
+      <c r="H36">
+        <v>325</v>
+      </c>
+      <c r="I36">
+        <v>651</v>
+      </c>
+      <c r="J36">
+        <v>1309</v>
+      </c>
+      <c r="K36">
+        <v>2632</v>
+      </c>
+      <c r="L36">
+        <v>5200</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="7">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>162</v>
+      </c>
+      <c r="S36">
+        <v>644</v>
+      </c>
+      <c r="T36">
+        <v>2590</v>
+      </c>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>512</v>
+      </c>
+      <c r="B37" s="21">
+        <f>'Seq. Results'!B17/'OpenMP Static'!B17</f>
+        <v>4.2167345721951701</v>
+      </c>
+      <c r="C37" s="1">
+        <f>B37/B20</f>
+        <v>1.0541836430487925</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1">
+        <v>162</v>
+      </c>
+      <c r="H37">
+        <v>324</v>
+      </c>
+      <c r="I37">
+        <v>654</v>
+      </c>
+      <c r="J37">
+        <v>1303</v>
+      </c>
+      <c r="K37">
+        <v>2621</v>
+      </c>
+      <c r="L37">
+        <v>5197</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="Q37" s="7">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>166</v>
+      </c>
+      <c r="S37">
+        <v>658</v>
+      </c>
+      <c r="T37">
+        <v>2574</v>
+      </c>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B38" s="21">
+        <f>'Seq. Results'!B18/'OpenMP Static'!B18</f>
+        <v>4.3117982336797374</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38/B20</f>
+        <v>1.0779495584199343</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7">
+        <v>35</v>
+      </c>
+      <c r="G38" s="1">
+        <v>163</v>
+      </c>
+      <c r="H38">
+        <v>329</v>
+      </c>
+      <c r="I38">
+        <v>656</v>
+      </c>
+      <c r="J38">
+        <v>1304</v>
+      </c>
+      <c r="K38">
+        <v>2629</v>
+      </c>
+      <c r="L38">
+        <v>5184</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="Q38" s="7">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>163</v>
+      </c>
+      <c r="S38">
+        <v>649</v>
+      </c>
+      <c r="T38">
+        <v>2576</v>
+      </c>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="7">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>161</v>
+      </c>
+      <c r="H39">
+        <v>322</v>
+      </c>
+      <c r="I39">
+        <v>649</v>
+      </c>
+      <c r="J39">
+        <v>1302</v>
+      </c>
+      <c r="K39">
+        <v>2616</v>
+      </c>
+      <c r="L39">
+        <v>5193</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="Q39" s="7">
+        <v>36</v>
+      </c>
+      <c r="R39">
+        <v>164</v>
+      </c>
+      <c r="S39">
+        <v>653</v>
+      </c>
+      <c r="T39">
+        <v>2580</v>
+      </c>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="7">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1">
+        <v>163</v>
+      </c>
+      <c r="H40">
+        <v>326</v>
+      </c>
+      <c r="I40">
+        <v>656</v>
+      </c>
+      <c r="J40">
+        <v>1310</v>
+      </c>
+      <c r="K40">
+        <v>2626</v>
+      </c>
+      <c r="L40">
+        <v>5203</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="Q40" s="7">
+        <v>37</v>
+      </c>
+      <c r="R40">
+        <v>163</v>
+      </c>
+      <c r="S40">
+        <v>652</v>
+      </c>
+      <c r="T40">
+        <v>2576</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="7">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1">
+        <v>161</v>
+      </c>
+      <c r="H41">
+        <v>326</v>
+      </c>
+      <c r="I41">
+        <v>655</v>
+      </c>
+      <c r="J41">
+        <v>1302</v>
+      </c>
+      <c r="K41">
+        <v>2612</v>
+      </c>
+      <c r="L41">
+        <v>5196</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="Q41" s="7">
+        <v>38</v>
+      </c>
+      <c r="R41">
+        <v>169</v>
+      </c>
+      <c r="S41">
+        <v>657</v>
+      </c>
+      <c r="T41">
+        <v>2577</v>
+      </c>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="7">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1">
+        <v>165</v>
+      </c>
+      <c r="H42">
+        <v>327</v>
+      </c>
+      <c r="I42">
+        <v>655</v>
+      </c>
+      <c r="J42">
+        <v>1301</v>
+      </c>
+      <c r="K42">
+        <v>2624</v>
+      </c>
+      <c r="L42">
+        <v>5204</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="Q42" s="7">
+        <v>39</v>
+      </c>
+      <c r="R42">
+        <v>164</v>
+      </c>
+      <c r="S42">
+        <v>652</v>
+      </c>
+      <c r="T42">
+        <v>2574</v>
+      </c>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="7">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1">
+        <v>161</v>
+      </c>
+      <c r="H43">
+        <v>325</v>
+      </c>
+      <c r="I43">
+        <v>650</v>
+      </c>
+      <c r="J43">
+        <v>1308</v>
+      </c>
+      <c r="K43">
+        <v>2631</v>
+      </c>
+      <c r="L43">
+        <v>5195</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="Q43" s="7">
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>165</v>
+      </c>
+      <c r="S43">
+        <v>646</v>
+      </c>
+      <c r="T43">
+        <v>2580</v>
+      </c>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="7">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1">
+        <v>161</v>
+      </c>
+      <c r="H44">
+        <v>324</v>
+      </c>
+      <c r="I44">
+        <v>655</v>
+      </c>
+      <c r="J44">
+        <v>1309</v>
+      </c>
+      <c r="K44">
+        <v>2628</v>
+      </c>
+      <c r="L44">
+        <v>5194</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="Q44" s="7">
+        <v>41</v>
+      </c>
+      <c r="R44">
+        <v>162</v>
+      </c>
+      <c r="S44">
+        <v>654</v>
+      </c>
+      <c r="T44">
+        <v>2574</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="7">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1">
+        <v>161</v>
+      </c>
+      <c r="H45">
+        <v>330</v>
+      </c>
+      <c r="I45">
+        <v>652</v>
+      </c>
+      <c r="J45">
+        <v>1314</v>
+      </c>
+      <c r="K45">
+        <v>2636</v>
+      </c>
+      <c r="L45">
+        <v>5202</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="Q45" s="7">
+        <v>42</v>
+      </c>
+      <c r="R45">
+        <v>167</v>
+      </c>
+      <c r="S45">
+        <v>651</v>
+      </c>
+      <c r="T45">
+        <v>2570</v>
+      </c>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="7">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1">
+        <v>160</v>
+      </c>
+      <c r="H46">
+        <v>327</v>
+      </c>
+      <c r="I46">
+        <v>688</v>
+      </c>
+      <c r="J46">
+        <v>1308</v>
+      </c>
+      <c r="K46">
+        <v>2646</v>
+      </c>
+      <c r="L46">
+        <v>5184</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="Q46" s="7">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>168</v>
+      </c>
+      <c r="S46">
+        <v>660</v>
+      </c>
+      <c r="T46">
+        <v>2582</v>
+      </c>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="7">
+        <v>44</v>
+      </c>
+      <c r="G47" s="1">
+        <v>161</v>
+      </c>
+      <c r="H47">
+        <v>324</v>
+      </c>
+      <c r="I47">
+        <v>655</v>
+      </c>
+      <c r="J47">
+        <v>1311</v>
+      </c>
+      <c r="K47">
+        <v>2628</v>
+      </c>
+      <c r="L47">
+        <v>5230</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="Q47" s="7">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>167</v>
+      </c>
+      <c r="S47">
+        <v>649</v>
+      </c>
+      <c r="T47">
+        <v>2580</v>
+      </c>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="7">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1">
+        <v>163</v>
+      </c>
+      <c r="H48">
+        <v>328</v>
+      </c>
+      <c r="I48">
+        <v>651</v>
+      </c>
+      <c r="J48">
+        <v>1324</v>
+      </c>
+      <c r="K48">
+        <v>2624</v>
+      </c>
+      <c r="L48">
+        <v>5222</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="Q48" s="7">
+        <v>45</v>
+      </c>
+      <c r="R48">
+        <v>170</v>
+      </c>
+      <c r="S48">
+        <v>652</v>
+      </c>
+      <c r="T48">
+        <v>2575</v>
+      </c>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="7">
+        <v>46</v>
+      </c>
+      <c r="G49" s="1">
+        <v>160</v>
+      </c>
+      <c r="H49">
+        <v>326</v>
+      </c>
+      <c r="I49">
+        <v>661</v>
+      </c>
+      <c r="J49">
+        <v>1306</v>
+      </c>
+      <c r="K49">
+        <v>2639</v>
+      </c>
+      <c r="L49">
+        <v>5252</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="Q49" s="7">
+        <v>46</v>
+      </c>
+      <c r="R49">
+        <v>165</v>
+      </c>
+      <c r="S49">
+        <v>651</v>
+      </c>
+      <c r="T49">
+        <v>2573</v>
+      </c>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="7">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1">
+        <v>163</v>
+      </c>
+      <c r="H50">
+        <v>324</v>
+      </c>
+      <c r="I50">
+        <v>652</v>
+      </c>
+      <c r="J50">
+        <v>1312</v>
+      </c>
+      <c r="K50">
+        <v>2630</v>
+      </c>
+      <c r="L50">
+        <v>5249</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="Q50" s="7">
+        <v>47</v>
+      </c>
+      <c r="R50">
+        <v>167</v>
+      </c>
+      <c r="S50">
+        <v>657</v>
+      </c>
+      <c r="T50">
+        <v>2587</v>
+      </c>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="7">
+        <v>48</v>
+      </c>
+      <c r="G51" s="1">
+        <v>161</v>
+      </c>
+      <c r="H51">
+        <v>328</v>
+      </c>
+      <c r="I51">
+        <v>649</v>
+      </c>
+      <c r="J51">
+        <v>1305</v>
+      </c>
+      <c r="K51">
+        <v>2618</v>
+      </c>
+      <c r="L51">
+        <v>5227</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="Q51" s="7">
+        <v>48</v>
+      </c>
+      <c r="R51">
+        <v>164</v>
+      </c>
+      <c r="S51">
+        <v>652</v>
+      </c>
+      <c r="T51">
+        <v>2586</v>
+      </c>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="7">
+        <v>49</v>
+      </c>
+      <c r="G52" s="1">
+        <v>160</v>
+      </c>
+      <c r="H52">
+        <v>327</v>
+      </c>
+      <c r="I52">
+        <v>651</v>
+      </c>
+      <c r="J52">
+        <v>1316</v>
+      </c>
+      <c r="K52">
+        <v>2620</v>
+      </c>
+      <c r="L52">
+        <v>5201</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="Q52" s="7">
+        <v>49</v>
+      </c>
+      <c r="R52">
+        <v>163</v>
+      </c>
+      <c r="S52">
+        <v>648</v>
+      </c>
+      <c r="T52">
+        <v>2583</v>
+      </c>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="7">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1">
+        <v>160</v>
+      </c>
+      <c r="H53">
+        <v>324</v>
+      </c>
+      <c r="I53">
+        <v>657</v>
+      </c>
+      <c r="J53">
+        <v>1306</v>
+      </c>
+      <c r="K53">
+        <v>2623</v>
+      </c>
+      <c r="L53">
+        <v>5201</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="Q53" s="7">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>162</v>
+      </c>
+      <c r="S53">
+        <v>655</v>
+      </c>
+      <c r="T53">
+        <v>2578</v>
+      </c>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="7">
+        <v>51</v>
+      </c>
+      <c r="G54" s="1">
+        <v>160</v>
+      </c>
+      <c r="H54">
+        <v>323</v>
+      </c>
+      <c r="I54">
+        <v>654</v>
+      </c>
+      <c r="J54">
+        <v>1310</v>
+      </c>
+      <c r="K54">
+        <v>2638</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="Q54" s="7">
+        <v>51</v>
+      </c>
+      <c r="R54">
+        <v>168</v>
+      </c>
+      <c r="S54">
+        <v>646</v>
+      </c>
+      <c r="T54">
+        <v>2589</v>
+      </c>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="7">
+        <v>52</v>
+      </c>
+      <c r="G55" s="1">
+        <v>165</v>
+      </c>
+      <c r="H55">
+        <v>334</v>
+      </c>
+      <c r="I55">
+        <v>652</v>
+      </c>
+      <c r="J55">
+        <v>1300</v>
+      </c>
+      <c r="K55">
+        <v>2616</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="Q55" s="7">
+        <v>52</v>
+      </c>
+      <c r="R55">
+        <v>164</v>
+      </c>
+      <c r="S55">
+        <v>653</v>
+      </c>
+      <c r="T55">
+        <v>2580</v>
+      </c>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="7">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1">
+        <v>162</v>
+      </c>
+      <c r="H56">
+        <v>326</v>
+      </c>
+      <c r="I56">
+        <v>654</v>
+      </c>
+      <c r="J56">
+        <v>1308</v>
+      </c>
+      <c r="K56">
+        <v>2621</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="Q56" s="7">
+        <v>53</v>
+      </c>
+      <c r="R56">
+        <v>163</v>
+      </c>
+      <c r="S56">
+        <v>646</v>
+      </c>
+      <c r="T56">
+        <v>2576</v>
+      </c>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="7">
+        <v>54</v>
+      </c>
+      <c r="G57" s="1">
+        <v>160</v>
+      </c>
+      <c r="H57">
+        <v>326</v>
+      </c>
+      <c r="I57">
+        <v>648</v>
+      </c>
+      <c r="J57">
+        <v>1312</v>
+      </c>
+      <c r="K57">
+        <v>2637</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="Q57" s="7">
+        <v>54</v>
+      </c>
+      <c r="R57">
+        <v>164</v>
+      </c>
+      <c r="S57">
+        <v>654</v>
+      </c>
+      <c r="T57">
+        <v>2570</v>
+      </c>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="7">
+        <v>55</v>
+      </c>
+      <c r="G58" s="1">
+        <v>160</v>
+      </c>
+      <c r="H58">
+        <v>329</v>
+      </c>
+      <c r="I58">
+        <v>656</v>
+      </c>
+      <c r="J58">
+        <v>1304</v>
+      </c>
+      <c r="K58">
+        <v>2627</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="Q58" s="7">
+        <v>55</v>
+      </c>
+      <c r="R58">
+        <v>164</v>
+      </c>
+      <c r="S58">
+        <v>651</v>
+      </c>
+      <c r="T58">
+        <v>2577</v>
+      </c>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="7">
+        <v>56</v>
+      </c>
+      <c r="G59" s="1">
+        <v>162</v>
+      </c>
+      <c r="H59">
+        <v>324</v>
+      </c>
+      <c r="I59">
+        <v>652</v>
+      </c>
+      <c r="J59">
+        <v>1308</v>
+      </c>
+      <c r="K59">
+        <v>2625</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="Q59" s="7">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>162</v>
+      </c>
+      <c r="S59">
+        <v>658</v>
+      </c>
+      <c r="T59">
+        <v>2587</v>
+      </c>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="7">
+        <v>57</v>
+      </c>
+      <c r="G60" s="1">
+        <v>161</v>
+      </c>
+      <c r="H60">
+        <v>322</v>
+      </c>
+      <c r="I60">
+        <v>652</v>
+      </c>
+      <c r="J60">
+        <v>1304</v>
+      </c>
+      <c r="K60">
+        <v>2630</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="Q60" s="7">
+        <v>57</v>
+      </c>
+      <c r="R60">
+        <v>170</v>
+      </c>
+      <c r="S60">
+        <v>652</v>
+      </c>
+      <c r="T60">
+        <v>2582</v>
+      </c>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="7">
+        <v>58</v>
+      </c>
+      <c r="G61" s="1">
+        <v>163</v>
+      </c>
+      <c r="H61">
+        <v>326</v>
+      </c>
+      <c r="I61">
+        <v>657</v>
+      </c>
+      <c r="J61">
+        <v>1304</v>
+      </c>
+      <c r="K61">
+        <v>2619</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="Q61" s="7">
+        <v>58</v>
+      </c>
+      <c r="R61">
+        <v>164</v>
+      </c>
+      <c r="S61">
+        <v>668</v>
+      </c>
+      <c r="T61">
+        <v>2584</v>
+      </c>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="7">
+        <v>59</v>
+      </c>
+      <c r="G62" s="1">
+        <v>162</v>
+      </c>
+      <c r="H62">
+        <v>325</v>
+      </c>
+      <c r="I62">
+        <v>655</v>
+      </c>
+      <c r="J62">
+        <v>1310</v>
+      </c>
+      <c r="K62">
+        <v>2605</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="Q62" s="7">
+        <v>59</v>
+      </c>
+      <c r="R62">
+        <v>161</v>
+      </c>
+      <c r="S62">
+        <v>654</v>
+      </c>
+      <c r="T62">
+        <v>2580</v>
+      </c>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="7">
+        <v>60</v>
+      </c>
+      <c r="G63" s="1">
+        <v>161</v>
+      </c>
+      <c r="H63">
+        <v>324</v>
+      </c>
+      <c r="I63">
+        <v>653</v>
+      </c>
+      <c r="J63">
+        <v>1307</v>
+      </c>
+      <c r="K63">
+        <v>2606</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="Q63" s="7">
+        <v>60</v>
+      </c>
+      <c r="R63">
+        <v>164</v>
+      </c>
+      <c r="S63">
+        <v>655</v>
+      </c>
+      <c r="T63">
+        <v>2581</v>
+      </c>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="F64" s="7">
+        <v>61</v>
+      </c>
+      <c r="G64" s="1">
+        <v>161</v>
+      </c>
+      <c r="H64">
+        <v>331</v>
+      </c>
+      <c r="I64">
+        <v>654</v>
+      </c>
+      <c r="J64">
+        <v>1303</v>
+      </c>
+      <c r="K64">
+        <v>2637</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="Q64" s="7">
+        <v>61</v>
+      </c>
+      <c r="R64">
+        <v>162</v>
+      </c>
+      <c r="S64">
+        <v>652</v>
+      </c>
+      <c r="T64">
+        <v>2583</v>
+      </c>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="7">
+        <v>62</v>
+      </c>
+      <c r="G65" s="1">
+        <v>161</v>
+      </c>
+      <c r="H65">
+        <v>329</v>
+      </c>
+      <c r="I65">
+        <v>655</v>
+      </c>
+      <c r="J65">
+        <v>1309</v>
+      </c>
+      <c r="K65">
+        <v>2628</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="Q65" s="7">
+        <v>62</v>
+      </c>
+      <c r="R65">
+        <v>162</v>
+      </c>
+      <c r="S65">
+        <v>653</v>
+      </c>
+      <c r="T65">
+        <v>2573</v>
+      </c>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="F66" s="7">
+        <v>63</v>
+      </c>
+      <c r="G66" s="1">
+        <v>162</v>
+      </c>
+      <c r="H66">
+        <v>324</v>
+      </c>
+      <c r="I66">
+        <v>655</v>
+      </c>
+      <c r="J66">
+        <v>1308</v>
+      </c>
+      <c r="K66">
+        <v>2620</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="Q66" s="7">
+        <v>63</v>
+      </c>
+      <c r="R66">
+        <v>165</v>
+      </c>
+      <c r="S66">
+        <v>650</v>
+      </c>
+      <c r="T66">
+        <v>2584</v>
+      </c>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="F67" s="7">
+        <v>64</v>
+      </c>
+      <c r="G67" s="1">
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>324</v>
+      </c>
+      <c r="I67">
+        <v>659</v>
+      </c>
+      <c r="J67">
+        <v>1302</v>
+      </c>
+      <c r="K67">
+        <v>2629</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="Q67" s="7">
+        <v>64</v>
+      </c>
+      <c r="R67">
+        <v>165</v>
+      </c>
+      <c r="S67">
+        <v>651</v>
+      </c>
+      <c r="T67">
+        <v>2575</v>
+      </c>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="7">
+        <v>65</v>
+      </c>
+      <c r="G68" s="1">
+        <v>165</v>
+      </c>
+      <c r="H68">
+        <v>329</v>
+      </c>
+      <c r="I68">
+        <v>654</v>
+      </c>
+      <c r="J68">
+        <v>1305</v>
+      </c>
+      <c r="K68">
+        <v>2629</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="Q68" s="7">
+        <v>65</v>
+      </c>
+      <c r="R68">
+        <v>163</v>
+      </c>
+      <c r="S68">
+        <v>660</v>
+      </c>
+      <c r="T68">
+        <v>2584</v>
+      </c>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="7">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1">
+        <v>163</v>
+      </c>
+      <c r="H69">
+        <v>330</v>
+      </c>
+      <c r="I69">
+        <v>651</v>
+      </c>
+      <c r="J69">
+        <v>1304</v>
+      </c>
+      <c r="K69">
+        <v>2639</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="Q69" s="7">
+        <v>66</v>
+      </c>
+      <c r="R69">
+        <v>167</v>
+      </c>
+      <c r="S69">
+        <v>648</v>
+      </c>
+      <c r="T69">
+        <v>2575</v>
+      </c>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="7">
+        <v>67</v>
+      </c>
+      <c r="G70" s="1">
+        <v>162</v>
+      </c>
+      <c r="H70">
+        <v>326</v>
+      </c>
+      <c r="I70">
+        <v>655</v>
+      </c>
+      <c r="J70">
+        <v>1310</v>
+      </c>
+      <c r="K70">
+        <v>2618</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="Q70" s="7">
+        <v>67</v>
+      </c>
+      <c r="R70">
+        <v>162</v>
+      </c>
+      <c r="S70">
+        <v>656</v>
+      </c>
+      <c r="T70">
+        <v>2596</v>
+      </c>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="7">
+        <v>68</v>
+      </c>
+      <c r="G71" s="1">
+        <v>162</v>
+      </c>
+      <c r="H71">
+        <v>326</v>
+      </c>
+      <c r="I71">
+        <v>650</v>
+      </c>
+      <c r="J71">
+        <v>1308</v>
+      </c>
+      <c r="K71">
+        <v>2610</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="Q71" s="7">
+        <v>68</v>
+      </c>
+      <c r="R71">
+        <v>163</v>
+      </c>
+      <c r="S71">
+        <v>646</v>
+      </c>
+      <c r="T71">
+        <v>2595</v>
+      </c>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" s="7">
+        <v>69</v>
+      </c>
+      <c r="G72" s="1">
+        <v>161</v>
+      </c>
+      <c r="H72">
+        <v>325</v>
+      </c>
+      <c r="I72">
+        <v>647</v>
+      </c>
+      <c r="J72">
+        <v>1309</v>
+      </c>
+      <c r="K72">
+        <v>2622</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="Q72" s="7">
+        <v>69</v>
+      </c>
+      <c r="R72">
+        <v>163</v>
+      </c>
+      <c r="S72">
+        <v>651</v>
+      </c>
+      <c r="T72">
+        <v>2583</v>
+      </c>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" s="7">
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <v>160</v>
+      </c>
+      <c r="H73">
+        <v>329</v>
+      </c>
+      <c r="I73">
+        <v>654</v>
+      </c>
+      <c r="J73">
+        <v>1314</v>
+      </c>
+      <c r="K73">
+        <v>2630</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="Q73" s="7">
+        <v>70</v>
+      </c>
+      <c r="R73">
+        <v>163</v>
+      </c>
+      <c r="S73">
+        <v>647</v>
+      </c>
+      <c r="T73">
+        <v>2584</v>
+      </c>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="F74" s="7">
+        <v>71</v>
+      </c>
+      <c r="G74" s="1">
+        <v>165</v>
+      </c>
+      <c r="H74">
+        <v>327</v>
+      </c>
+      <c r="I74">
+        <v>656</v>
+      </c>
+      <c r="J74">
+        <v>1303</v>
+      </c>
+      <c r="K74">
+        <v>2626</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="Q74" s="7">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>166</v>
+      </c>
+      <c r="S74">
+        <v>651</v>
+      </c>
+      <c r="T74">
+        <v>2576</v>
+      </c>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="F75" s="7">
+        <v>72</v>
+      </c>
+      <c r="G75" s="1">
+        <v>161</v>
+      </c>
+      <c r="H75">
+        <v>330</v>
+      </c>
+      <c r="I75">
+        <v>659</v>
+      </c>
+      <c r="J75">
+        <v>1304</v>
+      </c>
+      <c r="K75">
+        <v>2628</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="Q75" s="7">
+        <v>72</v>
+      </c>
+      <c r="R75">
+        <v>162</v>
+      </c>
+      <c r="S75">
+        <v>652</v>
+      </c>
+      <c r="T75">
+        <v>2578</v>
+      </c>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" s="7">
+        <v>73</v>
+      </c>
+      <c r="G76" s="1">
+        <v>162</v>
+      </c>
+      <c r="H76">
+        <v>323</v>
+      </c>
+      <c r="I76">
+        <v>665</v>
+      </c>
+      <c r="J76">
+        <v>1308</v>
+      </c>
+      <c r="K76">
+        <v>2626</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="Q76" s="7">
+        <v>73</v>
+      </c>
+      <c r="R76">
+        <v>163</v>
+      </c>
+      <c r="S76">
+        <v>651</v>
+      </c>
+      <c r="T76">
+        <v>2576</v>
+      </c>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="F77" s="7">
+        <v>74</v>
+      </c>
+      <c r="G77" s="1">
+        <v>162</v>
+      </c>
+      <c r="H77">
+        <v>331</v>
+      </c>
+      <c r="I77">
+        <v>658</v>
+      </c>
+      <c r="J77">
+        <v>1308</v>
+      </c>
+      <c r="K77">
+        <v>2621</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="Q77" s="7">
+        <v>74</v>
+      </c>
+      <c r="R77">
+        <v>163</v>
+      </c>
+      <c r="S77">
+        <v>651</v>
+      </c>
+      <c r="T77">
+        <v>2573</v>
+      </c>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="F78" s="7">
+        <v>75</v>
+      </c>
+      <c r="G78" s="1">
+        <v>160</v>
+      </c>
+      <c r="H78">
+        <v>335</v>
+      </c>
+      <c r="I78">
+        <v>651</v>
+      </c>
+      <c r="J78">
+        <v>1303</v>
+      </c>
+      <c r="K78">
+        <v>2628</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="Q78" s="7">
+        <v>75</v>
+      </c>
+      <c r="R78">
+        <v>163</v>
+      </c>
+      <c r="S78">
+        <v>649</v>
+      </c>
+      <c r="T78">
+        <v>2583</v>
+      </c>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="F79" s="7">
+        <v>76</v>
+      </c>
+      <c r="G79" s="1">
+        <v>161</v>
+      </c>
+      <c r="H79">
+        <v>328</v>
+      </c>
+      <c r="I79">
+        <v>654</v>
+      </c>
+      <c r="J79">
+        <v>1304</v>
+      </c>
+      <c r="K79">
+        <v>2626</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="Q79" s="7">
+        <v>76</v>
+      </c>
+      <c r="R79">
+        <v>163</v>
+      </c>
+      <c r="S79">
+        <v>657</v>
+      </c>
+      <c r="T79">
+        <v>2578</v>
+      </c>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="F80" s="7">
+        <v>77</v>
+      </c>
+      <c r="G80" s="1">
+        <v>166</v>
+      </c>
+      <c r="H80">
+        <v>328</v>
+      </c>
+      <c r="I80">
+        <v>653</v>
+      </c>
+      <c r="J80">
+        <v>1308</v>
+      </c>
+      <c r="K80">
+        <v>2634</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="Q80" s="7">
+        <v>77</v>
+      </c>
+      <c r="R80">
+        <v>170</v>
+      </c>
+      <c r="S80">
+        <v>648</v>
+      </c>
+      <c r="T80">
+        <v>2584</v>
+      </c>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="F81" s="7">
+        <v>78</v>
+      </c>
+      <c r="G81" s="1">
+        <v>161</v>
+      </c>
+      <c r="H81">
+        <v>329</v>
+      </c>
+      <c r="I81">
+        <v>649</v>
+      </c>
+      <c r="J81">
+        <v>1303</v>
+      </c>
+      <c r="K81">
+        <v>2626</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="Q81" s="7">
+        <v>78</v>
+      </c>
+      <c r="R81">
+        <v>162</v>
+      </c>
+      <c r="S81">
+        <v>650</v>
+      </c>
+      <c r="T81">
+        <v>2581</v>
+      </c>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="F82" s="7">
+        <v>79</v>
+      </c>
+      <c r="G82" s="1">
+        <v>160</v>
+      </c>
+      <c r="H82">
+        <v>327</v>
+      </c>
+      <c r="I82">
+        <v>656</v>
+      </c>
+      <c r="J82">
+        <v>1308</v>
+      </c>
+      <c r="K82">
+        <v>2639</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="Q82" s="7">
+        <v>79</v>
+      </c>
+      <c r="R82">
+        <v>163</v>
+      </c>
+      <c r="S82">
+        <v>653</v>
+      </c>
+      <c r="T82">
+        <v>2580</v>
+      </c>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="F83" s="7">
+        <v>80</v>
+      </c>
+      <c r="G83" s="1">
+        <v>166</v>
+      </c>
+      <c r="H83">
+        <v>326</v>
+      </c>
+      <c r="I83">
+        <v>649</v>
+      </c>
+      <c r="J83">
+        <v>1304</v>
+      </c>
+      <c r="K83">
+        <v>2641</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="Q83" s="7">
+        <v>80</v>
+      </c>
+      <c r="R83">
+        <v>163</v>
+      </c>
+      <c r="S83">
+        <v>652</v>
+      </c>
+      <c r="T83">
+        <v>2585</v>
+      </c>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="F84" s="7">
+        <v>81</v>
+      </c>
+      <c r="G84" s="1">
+        <v>162</v>
+      </c>
+      <c r="H84">
+        <v>327</v>
+      </c>
+      <c r="I84">
+        <v>658</v>
+      </c>
+      <c r="J84">
+        <v>1311</v>
+      </c>
+      <c r="K84">
+        <v>2632</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="Q84" s="7">
+        <v>81</v>
+      </c>
+      <c r="R84">
+        <v>164</v>
+      </c>
+      <c r="S84">
+        <v>644</v>
+      </c>
+      <c r="T84">
+        <v>2578</v>
+      </c>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="F85" s="7">
+        <v>82</v>
+      </c>
+      <c r="G85" s="1">
+        <v>162</v>
+      </c>
+      <c r="H85">
+        <v>327</v>
+      </c>
+      <c r="I85">
+        <v>649</v>
+      </c>
+      <c r="J85">
+        <v>1306</v>
+      </c>
+      <c r="K85">
+        <v>2620</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="Q85" s="7">
+        <v>82</v>
+      </c>
+      <c r="R85">
+        <v>163</v>
+      </c>
+      <c r="S85">
+        <v>654</v>
+      </c>
+      <c r="T85">
+        <v>2576</v>
+      </c>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+      <c r="F86" s="7">
+        <v>83</v>
+      </c>
+      <c r="G86" s="1">
+        <v>160</v>
+      </c>
+      <c r="H86">
+        <v>328</v>
+      </c>
+      <c r="I86">
+        <v>658</v>
+      </c>
+      <c r="J86">
+        <v>1307</v>
+      </c>
+      <c r="K86">
+        <v>2618</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="Q86" s="7">
+        <v>83</v>
+      </c>
+      <c r="R86">
+        <v>167</v>
+      </c>
+      <c r="S86">
+        <v>651</v>
+      </c>
+      <c r="T86">
+        <v>2572</v>
+      </c>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="F87" s="7">
+        <v>84</v>
+      </c>
+      <c r="G87" s="1">
+        <v>163</v>
+      </c>
+      <c r="H87">
+        <v>325</v>
+      </c>
+      <c r="I87">
+        <v>652</v>
+      </c>
+      <c r="J87">
+        <v>1304</v>
+      </c>
+      <c r="K87">
+        <v>2625</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="Q87" s="7">
+        <v>84</v>
+      </c>
+      <c r="R87">
+        <v>164</v>
+      </c>
+      <c r="S87">
+        <v>651</v>
+      </c>
+      <c r="T87">
+        <v>2585</v>
+      </c>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="F88" s="7">
+        <v>85</v>
+      </c>
+      <c r="G88" s="1">
+        <v>163</v>
+      </c>
+      <c r="H88">
+        <v>329</v>
+      </c>
+      <c r="I88">
+        <v>658</v>
+      </c>
+      <c r="J88">
+        <v>1311</v>
+      </c>
+      <c r="K88">
+        <v>2620</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="Q88" s="7">
+        <v>85</v>
+      </c>
+      <c r="R88">
+        <v>166</v>
+      </c>
+      <c r="S88">
+        <v>650</v>
+      </c>
+      <c r="T88">
+        <v>2579</v>
+      </c>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="F89" s="7">
+        <v>86</v>
+      </c>
+      <c r="G89" s="1">
+        <v>161</v>
+      </c>
+      <c r="H89">
+        <v>325</v>
+      </c>
+      <c r="I89">
+        <v>658</v>
+      </c>
+      <c r="J89">
+        <v>1309</v>
+      </c>
+      <c r="K89">
+        <v>2637</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="Q89" s="7">
+        <v>86</v>
+      </c>
+      <c r="R89">
+        <v>166</v>
+      </c>
+      <c r="S89">
+        <v>652</v>
+      </c>
+      <c r="T89">
+        <v>2596</v>
+      </c>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="F90" s="7">
+        <v>87</v>
+      </c>
+      <c r="G90" s="1">
+        <v>160</v>
+      </c>
+      <c r="H90">
+        <v>324</v>
+      </c>
+      <c r="I90">
+        <v>648</v>
+      </c>
+      <c r="J90">
+        <v>1308</v>
+      </c>
+      <c r="K90">
+        <v>2621</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="Q90" s="7">
+        <v>87</v>
+      </c>
+      <c r="R90">
+        <v>163</v>
+      </c>
+      <c r="S90">
+        <v>653</v>
+      </c>
+      <c r="T90">
+        <v>2579</v>
+      </c>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="F91" s="7">
+        <v>88</v>
+      </c>
+      <c r="G91" s="1">
+        <v>163</v>
+      </c>
+      <c r="H91">
+        <v>336</v>
+      </c>
+      <c r="I91">
+        <v>655</v>
+      </c>
+      <c r="J91">
+        <v>1310</v>
+      </c>
+      <c r="K91">
+        <v>2619</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="Q91" s="7">
+        <v>88</v>
+      </c>
+      <c r="R91">
+        <v>163</v>
+      </c>
+      <c r="S91">
+        <v>648</v>
+      </c>
+      <c r="T91">
+        <v>2577</v>
+      </c>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="F92" s="7">
+        <v>89</v>
+      </c>
+      <c r="G92" s="1">
+        <v>162</v>
+      </c>
+      <c r="H92">
+        <v>324</v>
+      </c>
+      <c r="I92">
+        <v>652</v>
+      </c>
+      <c r="J92">
+        <v>1303</v>
+      </c>
+      <c r="K92">
+        <v>2632</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="Q92" s="7">
+        <v>89</v>
+      </c>
+      <c r="R92">
+        <v>166</v>
+      </c>
+      <c r="S92">
+        <v>653</v>
+      </c>
+      <c r="T92">
+        <v>2577</v>
+      </c>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+      <c r="F93" s="7">
+        <v>90</v>
+      </c>
+      <c r="G93" s="1">
+        <v>160</v>
+      </c>
+      <c r="H93">
+        <v>328</v>
+      </c>
+      <c r="I93">
+        <v>655</v>
+      </c>
+      <c r="J93">
+        <v>1307</v>
+      </c>
+      <c r="K93">
+        <v>2614</v>
+      </c>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="Q93" s="7">
+        <v>90</v>
+      </c>
+      <c r="R93">
+        <v>168</v>
+      </c>
+      <c r="S93">
+        <v>653</v>
+      </c>
+      <c r="T93">
+        <v>2600</v>
+      </c>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="7">
+        <v>91</v>
+      </c>
+      <c r="G94" s="1">
+        <v>161</v>
+      </c>
+      <c r="H94">
+        <v>328</v>
+      </c>
+      <c r="I94">
+        <v>658</v>
+      </c>
+      <c r="J94">
+        <v>1328</v>
+      </c>
+      <c r="K94">
+        <v>2619</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="Q94" s="7">
+        <v>91</v>
+      </c>
+      <c r="R94">
+        <v>161</v>
+      </c>
+      <c r="S94">
+        <v>659</v>
+      </c>
+      <c r="T94">
+        <v>2587</v>
+      </c>
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="7">
+        <v>92</v>
+      </c>
+      <c r="G95" s="1">
+        <v>162</v>
+      </c>
+      <c r="H95">
+        <v>330</v>
+      </c>
+      <c r="I95">
+        <v>655</v>
+      </c>
+      <c r="J95">
+        <v>1308</v>
+      </c>
+      <c r="K95">
+        <v>2625</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="Q95" s="7">
+        <v>92</v>
+      </c>
+      <c r="R95">
+        <v>165</v>
+      </c>
+      <c r="S95">
+        <v>648</v>
+      </c>
+      <c r="T95">
+        <v>2587</v>
+      </c>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+      <c r="F96" s="7">
+        <v>93</v>
+      </c>
+      <c r="G96" s="1">
+        <v>161</v>
+      </c>
+      <c r="H96">
+        <v>325</v>
+      </c>
+      <c r="I96">
+        <v>655</v>
+      </c>
+      <c r="J96">
+        <v>1312</v>
+      </c>
+      <c r="K96">
+        <v>2628</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="Q96" s="7">
+        <v>93</v>
+      </c>
+      <c r="R96">
+        <v>162</v>
+      </c>
+      <c r="S96">
+        <v>655</v>
+      </c>
+      <c r="T96">
+        <v>2590</v>
+      </c>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="7">
+        <v>94</v>
+      </c>
+      <c r="G97" s="1">
+        <v>161</v>
+      </c>
+      <c r="H97">
+        <v>324</v>
+      </c>
+      <c r="I97">
+        <v>650</v>
+      </c>
+      <c r="J97">
+        <v>1309</v>
+      </c>
+      <c r="K97">
+        <v>2612</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="Q97" s="7">
+        <v>94</v>
+      </c>
+      <c r="R97">
+        <v>167</v>
+      </c>
+      <c r="S97">
+        <v>656</v>
+      </c>
+      <c r="T97">
+        <v>2577</v>
+      </c>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+      <c r="F98" s="7">
+        <v>95</v>
+      </c>
+      <c r="G98" s="1">
+        <v>164</v>
+      </c>
+      <c r="H98">
+        <v>330</v>
+      </c>
+      <c r="I98">
+        <v>657</v>
+      </c>
+      <c r="J98">
+        <v>1304</v>
+      </c>
+      <c r="K98">
+        <v>2622</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="Q98" s="7">
+        <v>95</v>
+      </c>
+      <c r="R98">
+        <v>163</v>
+      </c>
+      <c r="S98">
+        <v>648</v>
+      </c>
+      <c r="T98">
+        <v>2578</v>
+      </c>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+      <c r="F99" s="7">
+        <v>96</v>
+      </c>
+      <c r="G99" s="1">
+        <v>163</v>
+      </c>
+      <c r="H99">
+        <v>325</v>
+      </c>
+      <c r="I99">
+        <v>654</v>
+      </c>
+      <c r="J99">
+        <v>1304</v>
+      </c>
+      <c r="K99">
+        <v>2618</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="Q99" s="7">
+        <v>96</v>
+      </c>
+      <c r="R99">
+        <v>166</v>
+      </c>
+      <c r="S99">
+        <v>660</v>
+      </c>
+      <c r="T99">
+        <v>2581</v>
+      </c>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+      <c r="F100" s="7">
+        <v>97</v>
+      </c>
+      <c r="G100" s="1">
+        <v>160</v>
+      </c>
+      <c r="H100">
+        <v>330</v>
+      </c>
+      <c r="I100">
+        <v>650</v>
+      </c>
+      <c r="J100">
+        <v>1318</v>
+      </c>
+      <c r="K100">
+        <v>2622</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="Q100" s="7">
+        <v>97</v>
+      </c>
+      <c r="R100">
+        <v>165</v>
+      </c>
+      <c r="S100">
+        <v>647</v>
+      </c>
+      <c r="T100">
+        <v>2601</v>
+      </c>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+      <c r="F101" s="7">
+        <v>98</v>
+      </c>
+      <c r="G101" s="1">
+        <v>160</v>
+      </c>
+      <c r="H101">
+        <v>329</v>
+      </c>
+      <c r="I101">
+        <v>651</v>
+      </c>
+      <c r="J101">
+        <v>1307</v>
+      </c>
+      <c r="K101">
+        <v>2620</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="Q101" s="7">
+        <v>98</v>
+      </c>
+      <c r="R101">
+        <v>164</v>
+      </c>
+      <c r="S101">
+        <v>653</v>
+      </c>
+      <c r="T101">
+        <v>2583</v>
+      </c>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+      <c r="F102" s="7">
+        <v>99</v>
+      </c>
+      <c r="G102" s="1">
+        <v>163</v>
+      </c>
+      <c r="H102">
+        <v>323</v>
+      </c>
+      <c r="I102">
+        <v>649</v>
+      </c>
+      <c r="J102">
+        <v>1306</v>
+      </c>
+      <c r="K102">
+        <v>2612</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="Q102" s="7">
+        <v>99</v>
+      </c>
+      <c r="R102">
+        <v>161</v>
+      </c>
+      <c r="S102">
+        <v>651</v>
+      </c>
+      <c r="T102">
+        <v>2574</v>
+      </c>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="F103" s="7">
+        <v>100</v>
+      </c>
+      <c r="G103" s="1">
+        <v>162</v>
+      </c>
+      <c r="H103">
+        <v>323</v>
+      </c>
+      <c r="I103">
+        <v>658</v>
+      </c>
+      <c r="J103">
+        <v>1304</v>
+      </c>
+      <c r="K103">
+        <v>2625</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="Q103" s="7">
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <v>166</v>
+      </c>
+      <c r="S103">
+        <v>650</v>
+      </c>
+      <c r="T103">
+        <v>2587</v>
+      </c>
+      <c r="U103" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z103"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="R1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="W1" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2">
+        <v>256</v>
+      </c>
+      <c r="N2" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>128</v>
+      </c>
+      <c r="S2" s="12">
+        <v>256</v>
+      </c>
+      <c r="T2" s="12">
+        <v>512</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1024</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
+        <f>AVERAGE(G4:G103)</f>
+        <v>168.87</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Z3">
+        <v>651456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <f>AVERAGE(H4:H103)</f>
+        <v>333.76</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>209</v>
+      </c>
+      <c r="H4">
+        <v>388</v>
+      </c>
+      <c r="I4">
+        <v>733</v>
+      </c>
+      <c r="J4">
+        <v>1411</v>
+      </c>
+      <c r="K4">
+        <v>2736</v>
+      </c>
+      <c r="L4">
+        <v>5321</v>
+      </c>
+      <c r="M4">
+        <v>10295</v>
+      </c>
+      <c r="N4">
+        <v>20464</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>206</v>
+      </c>
+      <c r="S4">
+        <v>729</v>
+      </c>
+      <c r="T4">
+        <v>2774</v>
+      </c>
+      <c r="U4">
+        <v>10372</v>
+      </c>
+      <c r="W4" s="7">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Z4">
+        <v>647313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14">
+        <f>AVERAGE(I4:I103)</f>
+        <v>649.57000000000005</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>221</v>
+      </c>
+      <c r="H5">
+        <v>391</v>
+      </c>
+      <c r="I5">
+        <v>725</v>
+      </c>
+      <c r="J5">
+        <v>1352</v>
+      </c>
+      <c r="K5">
+        <v>2560</v>
+      </c>
+      <c r="L5">
+        <v>5087</v>
+      </c>
+      <c r="M5">
+        <v>10105</v>
+      </c>
+      <c r="N5">
+        <v>20377</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>229</v>
+      </c>
+      <c r="S5">
+        <v>741</v>
+      </c>
+      <c r="T5">
+        <v>2582</v>
+      </c>
+      <c r="U5">
+        <v>10164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14">
+        <f>AVERAGE(J4:J103)</f>
+        <v>1283.3499999999999</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>212</v>
+      </c>
+      <c r="H6">
+        <v>379</v>
+      </c>
+      <c r="I6">
+        <v>652</v>
+      </c>
+      <c r="J6">
+        <v>1283</v>
+      </c>
+      <c r="K6">
+        <v>2554</v>
+      </c>
+      <c r="L6">
+        <v>5095</v>
+      </c>
+      <c r="M6">
+        <v>10079</v>
+      </c>
+      <c r="N6">
+        <v>20364</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>210</v>
+      </c>
+      <c r="S6">
+        <v>649</v>
+      </c>
+      <c r="T6">
+        <v>2566</v>
+      </c>
+      <c r="U6">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>64</v>
+      </c>
+      <c r="B7" s="14">
+        <f>AVERAGE(K4:K103)</f>
+        <v>2570.4499999999998</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>203</v>
+      </c>
+      <c r="H7">
+        <v>334</v>
+      </c>
+      <c r="I7">
+        <v>644</v>
+      </c>
+      <c r="J7">
+        <v>1276</v>
+      </c>
+      <c r="K7">
+        <v>2556</v>
+      </c>
+      <c r="L7">
+        <v>5100</v>
+      </c>
+      <c r="M7">
+        <v>10169</v>
+      </c>
+      <c r="N7">
+        <v>20365</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>209</v>
+      </c>
+      <c r="S7">
+        <v>641</v>
+      </c>
+      <c r="T7">
+        <v>2580</v>
+      </c>
+      <c r="U7">
+        <v>10195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>128</v>
+      </c>
+      <c r="B8" s="14">
+        <f>AVERAGE(L4:L103)</f>
+        <v>5100.7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>171</v>
+      </c>
+      <c r="H8">
+        <v>340</v>
+      </c>
+      <c r="I8">
+        <v>647</v>
+      </c>
+      <c r="J8">
+        <v>1276</v>
+      </c>
+      <c r="K8">
+        <v>2567</v>
+      </c>
+      <c r="L8">
+        <v>5086</v>
+      </c>
+      <c r="M8">
+        <v>10071</v>
+      </c>
+      <c r="N8">
+        <v>20362</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>168</v>
+      </c>
+      <c r="S8">
+        <v>656</v>
+      </c>
+      <c r="T8">
+        <v>2574</v>
+      </c>
+      <c r="U8">
+        <v>10186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>256</v>
+      </c>
+      <c r="B9" s="14">
+        <f>AVERAGE(M4:M103)</f>
+        <v>10108.84</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>331</v>
+      </c>
+      <c r="I9">
+        <v>660</v>
+      </c>
+      <c r="J9">
+        <v>1279</v>
+      </c>
+      <c r="K9">
+        <v>2579</v>
+      </c>
+      <c r="L9">
+        <v>5079</v>
+      </c>
+      <c r="M9">
+        <v>10092</v>
+      </c>
+      <c r="N9">
+        <v>20339</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>166</v>
+      </c>
+      <c r="S9">
+        <v>648</v>
+      </c>
+      <c r="T9">
+        <v>2565</v>
+      </c>
+      <c r="U9">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>512</v>
+      </c>
+      <c r="B10" s="14">
+        <f>AVERAGE(N4:N103)</f>
+        <v>20348.64</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>172</v>
+      </c>
+      <c r="H10">
+        <v>330</v>
+      </c>
+      <c r="I10">
+        <v>648</v>
+      </c>
+      <c r="J10">
+        <v>1274</v>
+      </c>
+      <c r="K10">
+        <v>2576</v>
+      </c>
+      <c r="L10">
+        <v>5067</v>
+      </c>
+      <c r="M10">
+        <v>10099</v>
+      </c>
+      <c r="N10">
+        <v>20373</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>165</v>
+      </c>
+      <c r="S10">
+        <v>645</v>
+      </c>
+      <c r="T10">
+        <v>2569</v>
+      </c>
+      <c r="U10">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>163</v>
+      </c>
+      <c r="H11">
+        <v>331</v>
+      </c>
+      <c r="I11">
+        <v>650</v>
+      </c>
+      <c r="J11">
+        <v>1283</v>
+      </c>
+      <c r="K11">
+        <v>2560</v>
+      </c>
+      <c r="L11">
+        <v>5092</v>
+      </c>
+      <c r="M11">
+        <v>10108</v>
+      </c>
+      <c r="N11">
+        <v>20375</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>168</v>
+      </c>
+      <c r="S11">
+        <v>643</v>
+      </c>
+      <c r="T11">
+        <v>2581</v>
+      </c>
+      <c r="U11">
+        <v>10228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>175</v>
+      </c>
+      <c r="H12">
+        <v>329</v>
+      </c>
+      <c r="I12">
+        <v>651</v>
+      </c>
+      <c r="J12">
+        <v>1277</v>
+      </c>
+      <c r="K12">
+        <v>2571</v>
+      </c>
+      <c r="L12">
+        <v>5109</v>
+      </c>
+      <c r="M12">
+        <v>10083</v>
+      </c>
+      <c r="N12">
+        <v>20324</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>166</v>
+      </c>
+      <c r="S12">
+        <v>651</v>
+      </c>
+      <c r="T12">
+        <v>2571</v>
+      </c>
+      <c r="U12">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>168</v>
+      </c>
+      <c r="H13">
+        <v>340</v>
+      </c>
+      <c r="I13">
+        <v>647</v>
+      </c>
+      <c r="J13">
+        <v>1277</v>
+      </c>
+      <c r="K13">
+        <v>2572</v>
+      </c>
+      <c r="L13">
+        <v>5083</v>
+      </c>
+      <c r="M13">
+        <v>10101</v>
+      </c>
+      <c r="N13">
+        <v>20335</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>173</v>
+      </c>
+      <c r="S13">
+        <v>634</v>
+      </c>
+      <c r="T13">
+        <v>2570</v>
+      </c>
+      <c r="U13">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>163</v>
+      </c>
+      <c r="H14">
+        <v>329</v>
+      </c>
+      <c r="I14">
+        <v>655</v>
+      </c>
+      <c r="J14">
+        <v>1280</v>
+      </c>
+      <c r="K14">
+        <v>2555</v>
+      </c>
+      <c r="L14">
+        <v>5087</v>
+      </c>
+      <c r="M14">
+        <v>10090</v>
+      </c>
+      <c r="N14">
+        <v>20346</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>173</v>
+      </c>
+      <c r="S14">
+        <v>653</v>
+      </c>
+      <c r="T14">
+        <v>2573</v>
+      </c>
+      <c r="U14">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>128</v>
+      </c>
+      <c r="B15" s="14">
+        <f>AVERAGE(R4:R103)</f>
+        <v>168.42</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>171</v>
+      </c>
+      <c r="H15">
+        <v>329</v>
+      </c>
+      <c r="I15">
+        <v>653</v>
+      </c>
+      <c r="J15">
+        <v>1276</v>
+      </c>
+      <c r="K15">
+        <v>2572</v>
+      </c>
+      <c r="L15">
+        <v>5087</v>
+      </c>
+      <c r="M15">
+        <v>10089</v>
+      </c>
+      <c r="N15">
+        <v>20280</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>165</v>
+      </c>
+      <c r="S15">
+        <v>639</v>
+      </c>
+      <c r="T15">
+        <v>2580</v>
+      </c>
+      <c r="U15">
+        <v>10175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>256</v>
+      </c>
+      <c r="B16" s="14">
+        <f>AVERAGE(S4:S103)</f>
+        <v>645.84</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>167</v>
+      </c>
+      <c r="H16">
+        <v>330</v>
+      </c>
+      <c r="I16">
+        <v>648</v>
+      </c>
+      <c r="J16">
+        <v>1287</v>
+      </c>
+      <c r="K16">
+        <v>2566</v>
+      </c>
+      <c r="L16">
+        <v>5101</v>
+      </c>
+      <c r="M16">
+        <v>10114</v>
+      </c>
+      <c r="N16">
+        <v>20315</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>168</v>
+      </c>
+      <c r="S16">
+        <v>651</v>
+      </c>
+      <c r="T16">
+        <v>2564</v>
+      </c>
+      <c r="U16">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>512</v>
+      </c>
+      <c r="B17" s="14">
+        <f>AVERAGE(T4:T103)</f>
+        <v>2581.12</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>164</v>
+      </c>
+      <c r="H17">
+        <v>338</v>
+      </c>
+      <c r="I17">
+        <v>646</v>
+      </c>
+      <c r="J17">
+        <v>1278</v>
+      </c>
+      <c r="K17">
+        <v>2567</v>
+      </c>
+      <c r="L17">
+        <v>5097</v>
+      </c>
+      <c r="M17">
+        <v>10108</v>
+      </c>
+      <c r="N17">
+        <v>20439</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>162</v>
+      </c>
+      <c r="S17">
+        <v>633</v>
+      </c>
+      <c r="T17">
+        <v>2576</v>
+      </c>
+      <c r="U17">
+        <v>10174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B18" s="14">
+        <f>AVERAGE(U4:U103)</f>
+        <v>10190.959999999999</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>166</v>
+      </c>
+      <c r="H18">
+        <v>329</v>
+      </c>
+      <c r="I18">
+        <v>652</v>
+      </c>
+      <c r="J18">
+        <v>1296</v>
+      </c>
+      <c r="K18">
+        <v>2578</v>
+      </c>
+      <c r="L18">
+        <v>5099</v>
+      </c>
+      <c r="M18">
+        <v>10098</v>
+      </c>
+      <c r="N18">
+        <v>20306</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>164</v>
+      </c>
+      <c r="S18">
+        <v>638</v>
+      </c>
+      <c r="T18">
+        <v>2585</v>
+      </c>
+      <c r="U18">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>165</v>
+      </c>
+      <c r="H19">
+        <v>328</v>
+      </c>
+      <c r="I19">
+        <v>651</v>
+      </c>
+      <c r="J19">
+        <v>1278</v>
+      </c>
+      <c r="K19">
+        <v>2564</v>
+      </c>
+      <c r="L19">
+        <v>5100</v>
+      </c>
+      <c r="M19">
+        <v>10116</v>
+      </c>
+      <c r="N19">
+        <v>20344</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>166</v>
+      </c>
+      <c r="S19">
+        <v>643</v>
+      </c>
+      <c r="T19">
+        <v>2573</v>
+      </c>
+      <c r="U19">
+        <v>10149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>167</v>
+      </c>
+      <c r="H20">
+        <v>325</v>
+      </c>
+      <c r="I20">
+        <v>640</v>
+      </c>
+      <c r="J20">
+        <v>1298</v>
+      </c>
+      <c r="K20">
+        <v>2571</v>
+      </c>
+      <c r="L20">
+        <v>5119</v>
+      </c>
+      <c r="M20">
+        <v>10081</v>
+      </c>
+      <c r="N20">
+        <v>20372</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>173</v>
+      </c>
+      <c r="S20">
+        <v>639</v>
+      </c>
+      <c r="T20">
+        <v>2589</v>
+      </c>
+      <c r="U20">
+        <v>10165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="7">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>170</v>
+      </c>
+      <c r="H21">
+        <v>339</v>
+      </c>
+      <c r="I21">
+        <v>644</v>
+      </c>
+      <c r="J21">
+        <v>1274</v>
+      </c>
+      <c r="K21">
+        <v>2565</v>
+      </c>
+      <c r="L21">
+        <v>5069</v>
+      </c>
+      <c r="M21">
+        <v>10072</v>
+      </c>
+      <c r="N21">
+        <v>20383</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>162</v>
+      </c>
+      <c r="S21">
+        <v>643</v>
+      </c>
+      <c r="T21">
+        <v>2609</v>
+      </c>
+      <c r="U21">
+        <v>10186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>164</v>
+      </c>
+      <c r="H22">
+        <v>338</v>
+      </c>
+      <c r="I22">
+        <v>639</v>
+      </c>
+      <c r="J22">
+        <v>1284</v>
+      </c>
+      <c r="K22">
+        <v>2563</v>
+      </c>
+      <c r="L22">
+        <v>5095</v>
+      </c>
+      <c r="M22">
+        <v>10087</v>
+      </c>
+      <c r="N22">
+        <v>20343</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>168</v>
+      </c>
+      <c r="S22">
+        <v>639</v>
+      </c>
+      <c r="T22">
+        <v>2586</v>
+      </c>
+      <c r="U22">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>162</v>
+      </c>
+      <c r="H23">
+        <v>328</v>
+      </c>
+      <c r="I23">
+        <v>649</v>
+      </c>
+      <c r="J23">
+        <v>1277</v>
+      </c>
+      <c r="K23">
+        <v>2572</v>
+      </c>
+      <c r="L23">
+        <v>5088</v>
+      </c>
+      <c r="M23">
+        <v>10098</v>
+      </c>
+      <c r="N23">
+        <v>20365</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>169</v>
+      </c>
+      <c r="S23">
+        <v>647</v>
+      </c>
+      <c r="T23">
+        <v>2576</v>
+      </c>
+      <c r="U23">
+        <v>10165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <f>'Seq. Results'!B3/'OpenMP Static'!B3</f>
+        <v>4.0750814941484537</v>
+      </c>
+      <c r="C24" s="18">
+        <f>B24/B20</f>
+        <v>1.0187703735371134</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>167</v>
+      </c>
+      <c r="H24">
+        <v>333</v>
+      </c>
+      <c r="I24">
+        <v>650</v>
+      </c>
+      <c r="J24">
+        <v>1271</v>
+      </c>
+      <c r="K24">
+        <v>2559</v>
+      </c>
+      <c r="L24">
+        <v>5090</v>
+      </c>
+      <c r="M24">
+        <v>10065</v>
+      </c>
+      <c r="N24">
+        <v>20279</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>167</v>
+      </c>
+      <c r="S24">
+        <v>635</v>
+      </c>
+      <c r="T24">
+        <v>2561</v>
+      </c>
+      <c r="U24">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <f>'Seq. Results'!B4/'OpenMP Static'!B4</f>
+        <v>4.1191280566280568</v>
+      </c>
+      <c r="C25" s="19">
+        <f>B25/B20</f>
+        <v>1.0297820141570142</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>166</v>
+      </c>
+      <c r="H25">
+        <v>329</v>
+      </c>
+      <c r="I25">
+        <v>650</v>
+      </c>
+      <c r="J25">
+        <v>1283</v>
+      </c>
+      <c r="K25">
+        <v>2574</v>
+      </c>
+      <c r="L25">
+        <v>5102</v>
+      </c>
+      <c r="M25">
+        <v>10109</v>
+      </c>
+      <c r="N25">
+        <v>20287</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>169</v>
+      </c>
+      <c r="S25">
+        <v>643</v>
+      </c>
+      <c r="T25">
+        <v>2583</v>
+      </c>
+      <c r="U25">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <f>'Seq. Results'!B5/'OpenMP Static'!B5</f>
+        <v>4.2025957972805932</v>
+      </c>
+      <c r="C26" s="19">
+        <f>B26/B20</f>
+        <v>1.0506489493201483</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>167</v>
+      </c>
+      <c r="H26">
+        <v>335</v>
+      </c>
+      <c r="I26">
+        <v>644</v>
+      </c>
+      <c r="J26">
+        <v>1292</v>
+      </c>
+      <c r="K26">
+        <v>2561</v>
+      </c>
+      <c r="L26">
+        <v>5079</v>
+      </c>
+      <c r="M26">
+        <v>10149</v>
+      </c>
+      <c r="N26">
+        <v>20322</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>166</v>
+      </c>
+      <c r="S26">
+        <v>638</v>
+      </c>
+      <c r="T26">
+        <v>2585</v>
+      </c>
+      <c r="U26">
+        <v>10162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <f>'Seq. Results'!B6/'OpenMP Static'!B6</f>
+        <v>4.3582268286704711</v>
+      </c>
+      <c r="C27" s="19">
+        <f>B27/B20</f>
+        <v>1.0895567071676178</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>167</v>
+      </c>
+      <c r="H27">
+        <v>337</v>
+      </c>
+      <c r="I27">
+        <v>651</v>
+      </c>
+      <c r="J27">
+        <v>1289</v>
+      </c>
+      <c r="K27">
+        <v>2569</v>
+      </c>
+      <c r="L27">
+        <v>5101</v>
+      </c>
+      <c r="M27">
+        <v>10096</v>
+      </c>
+      <c r="N27">
+        <v>20311</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>165</v>
+      </c>
+      <c r="S27">
+        <v>646</v>
+      </c>
+      <c r="T27">
+        <v>2579</v>
+      </c>
+      <c r="U27">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <f>'Seq. Results'!B7/'OpenMP Static'!B7</f>
+        <v>4.4610101802492474</v>
+      </c>
+      <c r="C28" s="19">
+        <f>B28/B20</f>
+        <v>1.1152525450623119</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>163</v>
+      </c>
+      <c r="H28">
+        <v>339</v>
+      </c>
+      <c r="I28">
+        <v>641</v>
+      </c>
+      <c r="J28">
+        <v>1280</v>
+      </c>
+      <c r="K28">
+        <v>2568</v>
+      </c>
+      <c r="L28">
+        <v>5109</v>
+      </c>
+      <c r="M28">
+        <v>10147</v>
+      </c>
+      <c r="N28">
+        <v>20346</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <v>164</v>
+      </c>
+      <c r="S28">
+        <v>633</v>
+      </c>
+      <c r="T28">
+        <v>2571</v>
+      </c>
+      <c r="U28">
+        <v>10180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1">
+        <f>'Seq. Results'!B8/'OpenMP Static'!B8</f>
+        <v>4.3909204262680435</v>
+      </c>
+      <c r="C29" s="19">
+        <f>B29/B20</f>
+        <v>1.0977301065670109</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>161</v>
+      </c>
+      <c r="H29">
+        <v>329</v>
+      </c>
+      <c r="I29">
+        <v>651</v>
+      </c>
+      <c r="J29">
+        <v>1288</v>
+      </c>
+      <c r="K29">
+        <v>2556</v>
+      </c>
+      <c r="L29">
+        <v>5102</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="7">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>163</v>
+      </c>
+      <c r="S29">
+        <v>646</v>
+      </c>
+      <c r="T29">
+        <v>2589</v>
+      </c>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>256</v>
+      </c>
+      <c r="B30" s="1">
+        <f>'Seq. Results'!B9/'OpenMP Static'!B9</f>
+        <v>4.3285418654617702</v>
+      </c>
+      <c r="C30" s="19">
+        <f>B30/B20</f>
+        <v>1.0821354663654426</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>179</v>
+      </c>
+      <c r="H30">
+        <v>326</v>
+      </c>
+      <c r="I30">
+        <v>639</v>
+      </c>
+      <c r="J30">
+        <v>1273</v>
+      </c>
+      <c r="K30">
+        <v>2575</v>
+      </c>
+      <c r="L30">
+        <v>5091</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="Q30" s="7">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>166</v>
+      </c>
+      <c r="S30">
+        <v>642</v>
+      </c>
+      <c r="T30">
+        <v>2582</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1">
+        <f>'Seq. Results'!B10/'OpenMP Static'!B10</f>
+        <v>4.302667827213436</v>
+      </c>
+      <c r="C31" s="19">
+        <f>B31/B20</f>
+        <v>1.075666956803359</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>169</v>
+      </c>
+      <c r="H31">
+        <v>344</v>
+      </c>
+      <c r="I31">
+        <v>652</v>
+      </c>
+      <c r="J31">
+        <v>1277</v>
+      </c>
+      <c r="K31">
+        <v>2563</v>
+      </c>
+      <c r="L31">
+        <v>5102</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="7">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <v>168</v>
+      </c>
+      <c r="S31">
+        <v>643</v>
+      </c>
+      <c r="T31">
+        <v>2593</v>
+      </c>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>167</v>
+      </c>
+      <c r="H32">
+        <v>334</v>
+      </c>
+      <c r="I32">
+        <v>650</v>
+      </c>
+      <c r="J32">
+        <v>1288</v>
+      </c>
+      <c r="K32">
+        <v>2580</v>
+      </c>
+      <c r="L32">
+        <v>5108</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="Q32" s="7">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>163</v>
+      </c>
+      <c r="S32">
+        <v>647</v>
+      </c>
+      <c r="T32">
+        <v>2588</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>165</v>
+      </c>
+      <c r="H33">
+        <v>336</v>
+      </c>
+      <c r="I33">
+        <v>641</v>
+      </c>
+      <c r="J33">
+        <v>1274</v>
+      </c>
+      <c r="K33">
+        <v>2590</v>
+      </c>
+      <c r="L33">
+        <v>5107</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="7">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>181</v>
+      </c>
+      <c r="S33">
+        <v>645</v>
+      </c>
+      <c r="T33">
+        <v>2588</v>
+      </c>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>332</v>
+      </c>
+      <c r="I34">
+        <v>655</v>
+      </c>
+      <c r="J34">
+        <v>1269</v>
+      </c>
+      <c r="K34">
+        <v>2563</v>
+      </c>
+      <c r="L34">
+        <v>5081</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="7">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>163</v>
+      </c>
+      <c r="S34">
+        <v>653</v>
+      </c>
+      <c r="T34">
+        <v>2574</v>
+      </c>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>128</v>
+      </c>
+      <c r="B35" s="20">
+        <f>'Seq. Results'!B15/'OpenMP Static'!B15</f>
+        <v>3.9862201570261182</v>
+      </c>
+      <c r="C35" s="1">
+        <f>B35/B20</f>
+        <v>0.99655503925652955</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>166</v>
+      </c>
+      <c r="H35">
+        <v>335</v>
+      </c>
+      <c r="I35">
+        <v>647</v>
+      </c>
+      <c r="J35">
+        <v>1280</v>
+      </c>
+      <c r="K35">
+        <v>2565</v>
+      </c>
+      <c r="L35">
+        <v>5074</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="7">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>167</v>
+      </c>
+      <c r="S35">
+        <v>641</v>
+      </c>
+      <c r="T35">
+        <v>2580</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>256</v>
+      </c>
+      <c r="B36" s="21">
+        <f>'Seq. Results'!B16/'OpenMP Static'!B16</f>
+        <v>4.1328000658580759</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B36/B20</f>
+        <v>1.033200016464519</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>168</v>
+      </c>
+      <c r="H36">
+        <v>330</v>
+      </c>
+      <c r="I36">
+        <v>649</v>
+      </c>
+      <c r="J36">
+        <v>1283</v>
+      </c>
+      <c r="K36">
+        <v>2556</v>
+      </c>
+      <c r="L36">
+        <v>5089</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="7">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>164</v>
+      </c>
+      <c r="S36">
+        <v>642</v>
+      </c>
+      <c r="T36">
+        <v>2594</v>
+      </c>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>512</v>
+      </c>
+      <c r="B37" s="21">
+        <f>'Seq. Results'!B17/'OpenMP Static'!B17</f>
+        <v>4.2167345721951701</v>
+      </c>
+      <c r="C37" s="1">
+        <f>B37/B20</f>
+        <v>1.0541836430487925</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>175</v>
+      </c>
+      <c r="H37">
+        <v>326</v>
+      </c>
+      <c r="I37">
+        <v>646</v>
+      </c>
+      <c r="J37">
+        <v>1307</v>
+      </c>
+      <c r="K37">
+        <v>2569</v>
+      </c>
+      <c r="L37">
+        <v>5091</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="Q37" s="7">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>167</v>
+      </c>
+      <c r="S37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>2572</v>
+      </c>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B38" s="21">
+        <f>'Seq. Results'!B18/'OpenMP Static'!B18</f>
+        <v>4.3117982336797374</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38/B20</f>
+        <v>1.0779495584199343</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>166</v>
+      </c>
+      <c r="H38">
+        <v>327</v>
+      </c>
+      <c r="I38">
+        <v>649</v>
+      </c>
+      <c r="J38">
+        <v>1280</v>
+      </c>
+      <c r="K38">
+        <v>2562</v>
+      </c>
+      <c r="L38">
+        <v>5103</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="Q38" s="7">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>164</v>
+      </c>
+      <c r="S38">
+        <v>640</v>
+      </c>
+      <c r="T38">
+        <v>2579</v>
+      </c>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="7">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>172</v>
+      </c>
+      <c r="H39">
+        <v>328</v>
+      </c>
+      <c r="I39">
+        <v>643</v>
+      </c>
+      <c r="J39">
+        <v>1276</v>
+      </c>
+      <c r="K39">
+        <v>2575</v>
+      </c>
+      <c r="L39">
+        <v>5090</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="Q39" s="7">
+        <v>36</v>
+      </c>
+      <c r="R39">
+        <v>167</v>
+      </c>
+      <c r="S39">
+        <v>638</v>
+      </c>
+      <c r="T39">
+        <v>2571</v>
+      </c>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="7">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>165</v>
+      </c>
+      <c r="H40">
+        <v>336</v>
+      </c>
+      <c r="I40">
+        <v>649</v>
+      </c>
+      <c r="J40">
+        <v>1270</v>
+      </c>
+      <c r="K40">
+        <v>2567</v>
+      </c>
+      <c r="L40">
+        <v>5092</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="Q40" s="7">
+        <v>37</v>
+      </c>
+      <c r="R40">
+        <v>172</v>
+      </c>
+      <c r="S40">
+        <v>646</v>
+      </c>
+      <c r="T40">
+        <v>2585</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="7">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>166</v>
+      </c>
+      <c r="H41">
+        <v>325</v>
+      </c>
+      <c r="I41">
+        <v>657</v>
+      </c>
+      <c r="J41">
+        <v>1285</v>
+      </c>
+      <c r="K41">
+        <v>2585</v>
+      </c>
+      <c r="L41">
+        <v>5098</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="Q41" s="7">
+        <v>38</v>
+      </c>
+      <c r="R41">
+        <v>164</v>
+      </c>
+      <c r="S41">
+        <v>648</v>
+      </c>
+      <c r="T41">
+        <v>2583</v>
+      </c>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="7">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>167</v>
+      </c>
+      <c r="H42">
+        <v>323</v>
+      </c>
+      <c r="I42">
+        <v>646</v>
+      </c>
+      <c r="J42">
+        <v>1278</v>
+      </c>
+      <c r="K42">
+        <v>2576</v>
+      </c>
+      <c r="L42">
+        <v>5093</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="Q42" s="7">
+        <v>39</v>
+      </c>
+      <c r="R42">
+        <v>165</v>
+      </c>
+      <c r="S42">
+        <v>644</v>
+      </c>
+      <c r="T42">
+        <v>2597</v>
+      </c>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="7">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>165</v>
+      </c>
+      <c r="H43">
+        <v>339</v>
+      </c>
+      <c r="I43">
+        <v>641</v>
+      </c>
+      <c r="J43">
+        <v>1281</v>
+      </c>
+      <c r="K43">
+        <v>2565</v>
+      </c>
+      <c r="L43">
+        <v>5117</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="Q43" s="7">
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>175</v>
+      </c>
+      <c r="S43">
+        <v>647</v>
+      </c>
+      <c r="T43">
+        <v>2583</v>
+      </c>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="7">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>171</v>
+      </c>
+      <c r="H44">
+        <v>336</v>
+      </c>
+      <c r="I44">
+        <v>643</v>
+      </c>
+      <c r="J44">
+        <v>1287</v>
+      </c>
+      <c r="K44">
+        <v>2567</v>
+      </c>
+      <c r="L44">
+        <v>5099</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="Q44" s="7">
+        <v>41</v>
+      </c>
+      <c r="R44">
+        <v>165</v>
+      </c>
+      <c r="S44">
+        <v>649</v>
+      </c>
+      <c r="T44">
+        <v>2604</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="7">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>167</v>
+      </c>
+      <c r="H45">
+        <v>326</v>
+      </c>
+      <c r="I45">
+        <v>651</v>
+      </c>
+      <c r="J45">
+        <v>1285</v>
+      </c>
+      <c r="K45">
+        <v>2566</v>
+      </c>
+      <c r="L45">
+        <v>5095</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="Q45" s="7">
+        <v>42</v>
+      </c>
+      <c r="R45">
+        <v>166</v>
+      </c>
+      <c r="S45">
+        <v>640</v>
+      </c>
+      <c r="T45">
+        <v>2576</v>
+      </c>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="7">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>164</v>
+      </c>
+      <c r="H46">
+        <v>328</v>
+      </c>
+      <c r="I46">
+        <v>647</v>
+      </c>
+      <c r="J46">
+        <v>1288</v>
+      </c>
+      <c r="K46">
+        <v>2573</v>
+      </c>
+      <c r="L46">
+        <v>5095</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="Q46" s="7">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>166</v>
+      </c>
+      <c r="S46">
+        <v>634</v>
+      </c>
+      <c r="T46">
+        <v>2583</v>
+      </c>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="7">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>168</v>
+      </c>
+      <c r="H47">
+        <v>345</v>
+      </c>
+      <c r="I47">
+        <v>654</v>
+      </c>
+      <c r="J47">
+        <v>1286</v>
+      </c>
+      <c r="K47">
+        <v>2567</v>
+      </c>
+      <c r="L47">
+        <v>5098</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="Q47" s="7">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>166</v>
+      </c>
+      <c r="S47">
+        <v>647</v>
+      </c>
+      <c r="T47">
+        <v>2581</v>
+      </c>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="7">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>166</v>
+      </c>
+      <c r="H48">
+        <v>336</v>
+      </c>
+      <c r="I48">
+        <v>641</v>
+      </c>
+      <c r="J48">
+        <v>1283</v>
+      </c>
+      <c r="K48">
+        <v>2559</v>
+      </c>
+      <c r="L48">
+        <v>5098</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="Q48" s="7">
+        <v>45</v>
+      </c>
+      <c r="R48">
+        <v>166</v>
+      </c>
+      <c r="S48">
+        <v>638</v>
+      </c>
+      <c r="T48">
+        <v>2595</v>
+      </c>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="7">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>168</v>
+      </c>
+      <c r="H49">
+        <v>343</v>
+      </c>
+      <c r="I49">
+        <v>655</v>
+      </c>
+      <c r="J49">
+        <v>1296</v>
+      </c>
+      <c r="K49">
+        <v>2573</v>
+      </c>
+      <c r="L49">
+        <v>5121</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="Q49" s="7">
+        <v>46</v>
+      </c>
+      <c r="R49">
+        <v>162</v>
+      </c>
+      <c r="S49">
+        <v>650</v>
+      </c>
+      <c r="T49">
+        <v>2577</v>
+      </c>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="7">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>168</v>
+      </c>
+      <c r="H50">
+        <v>332</v>
+      </c>
+      <c r="I50">
+        <v>643</v>
+      </c>
+      <c r="J50">
+        <v>1276</v>
+      </c>
+      <c r="K50">
+        <v>2552</v>
+      </c>
+      <c r="L50">
+        <v>5103</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="Q50" s="7">
+        <v>47</v>
+      </c>
+      <c r="R50">
+        <v>161</v>
+      </c>
+      <c r="S50">
+        <v>636</v>
+      </c>
+      <c r="T50">
+        <v>2579</v>
+      </c>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="7">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>168</v>
+      </c>
+      <c r="H51">
+        <v>332</v>
+      </c>
+      <c r="I51">
+        <v>658</v>
+      </c>
+      <c r="J51">
+        <v>1279</v>
+      </c>
+      <c r="K51">
+        <v>2577</v>
+      </c>
+      <c r="L51">
+        <v>5129</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="Q51" s="7">
+        <v>48</v>
+      </c>
+      <c r="R51">
+        <v>165</v>
+      </c>
+      <c r="S51">
+        <v>653</v>
+      </c>
+      <c r="T51">
+        <v>2572</v>
+      </c>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="7">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>164</v>
+      </c>
+      <c r="H52">
+        <v>327</v>
+      </c>
+      <c r="I52">
+        <v>652</v>
+      </c>
+      <c r="J52">
+        <v>1293</v>
+      </c>
+      <c r="K52">
+        <v>2566</v>
+      </c>
+      <c r="L52">
+        <v>5107</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="Q52" s="7">
+        <v>49</v>
+      </c>
+      <c r="R52">
+        <v>165</v>
+      </c>
+      <c r="S52">
+        <v>640</v>
+      </c>
+      <c r="T52">
+        <v>2570</v>
+      </c>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="7">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>166</v>
+      </c>
+      <c r="H53">
+        <v>323</v>
+      </c>
+      <c r="I53">
+        <v>652</v>
+      </c>
+      <c r="J53">
+        <v>1277</v>
+      </c>
+      <c r="K53">
+        <v>2569</v>
+      </c>
+      <c r="L53">
+        <v>5110</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="Q53" s="7">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>180</v>
+      </c>
+      <c r="S53">
+        <v>644</v>
+      </c>
+      <c r="T53">
+        <v>2584</v>
+      </c>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="7">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>168</v>
+      </c>
+      <c r="H54">
+        <v>350</v>
+      </c>
+      <c r="I54">
+        <v>642</v>
+      </c>
+      <c r="J54">
+        <v>1289</v>
+      </c>
+      <c r="K54">
+        <v>2553</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="Q54" s="7">
+        <v>51</v>
+      </c>
+      <c r="R54">
+        <v>164</v>
+      </c>
+      <c r="S54">
+        <v>652</v>
+      </c>
+      <c r="T54">
+        <v>2573</v>
+      </c>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="7">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>167</v>
+      </c>
+      <c r="H55">
+        <v>350</v>
+      </c>
+      <c r="I55">
+        <v>652</v>
+      </c>
+      <c r="J55">
+        <v>1269</v>
+      </c>
+      <c r="K55">
+        <v>2557</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="Q55" s="7">
+        <v>52</v>
+      </c>
+      <c r="R55">
+        <v>166</v>
+      </c>
+      <c r="S55">
+        <v>640</v>
+      </c>
+      <c r="T55">
+        <v>2587</v>
+      </c>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="7">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>166</v>
+      </c>
+      <c r="H56">
+        <v>321</v>
+      </c>
+      <c r="I56">
+        <v>643</v>
+      </c>
+      <c r="J56">
+        <v>1285</v>
+      </c>
+      <c r="K56">
+        <v>2567</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="Q56" s="7">
+        <v>53</v>
+      </c>
+      <c r="R56">
+        <v>165</v>
+      </c>
+      <c r="S56">
+        <v>646</v>
+      </c>
+      <c r="T56">
+        <v>2574</v>
+      </c>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="7">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>172</v>
+      </c>
+      <c r="H57">
+        <v>331</v>
+      </c>
+      <c r="I57">
+        <v>650</v>
+      </c>
+      <c r="J57">
+        <v>1284</v>
+      </c>
+      <c r="K57">
+        <v>2594</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="Q57" s="7">
+        <v>54</v>
+      </c>
+      <c r="R57">
+        <v>165</v>
+      </c>
+      <c r="S57">
+        <v>643</v>
+      </c>
+      <c r="T57">
+        <v>2587</v>
+      </c>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="7">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>170</v>
+      </c>
+      <c r="H58">
+        <v>332</v>
+      </c>
+      <c r="I58">
+        <v>643</v>
+      </c>
+      <c r="J58">
+        <v>1278</v>
+      </c>
+      <c r="K58">
+        <v>2579</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="Q58" s="7">
+        <v>55</v>
+      </c>
+      <c r="R58">
+        <v>163</v>
+      </c>
+      <c r="S58">
+        <v>646</v>
+      </c>
+      <c r="T58">
+        <v>2578</v>
+      </c>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="7">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>163</v>
+      </c>
+      <c r="H59">
+        <v>326</v>
+      </c>
+      <c r="I59">
+        <v>654</v>
+      </c>
+      <c r="J59">
+        <v>1278</v>
+      </c>
+      <c r="K59">
+        <v>2546</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="Q59" s="7">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>167</v>
+      </c>
+      <c r="S59">
+        <v>638</v>
+      </c>
+      <c r="T59">
+        <v>2573</v>
+      </c>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="7">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>169</v>
+      </c>
+      <c r="H60">
+        <v>328</v>
+      </c>
+      <c r="I60">
+        <v>648</v>
+      </c>
+      <c r="J60">
+        <v>1281</v>
+      </c>
+      <c r="K60">
+        <v>2568</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="Q60" s="7">
+        <v>57</v>
+      </c>
+      <c r="R60">
+        <v>167</v>
+      </c>
+      <c r="S60">
+        <v>653</v>
+      </c>
+      <c r="T60">
+        <v>2572</v>
+      </c>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="7">
+        <v>58</v>
+      </c>
+      <c r="G61">
+        <v>168</v>
+      </c>
+      <c r="H61">
+        <v>328</v>
+      </c>
+      <c r="I61">
+        <v>647</v>
+      </c>
+      <c r="J61">
+        <v>1284</v>
+      </c>
+      <c r="K61">
+        <v>2569</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="Q61" s="7">
+        <v>58</v>
+      </c>
+      <c r="R61">
+        <v>170</v>
+      </c>
+      <c r="S61">
+        <v>644</v>
+      </c>
+      <c r="T61">
+        <v>2580</v>
+      </c>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="7">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>172</v>
+      </c>
+      <c r="H62">
+        <v>340</v>
+      </c>
+      <c r="I62">
+        <v>650</v>
+      </c>
+      <c r="J62">
+        <v>1281</v>
+      </c>
+      <c r="K62">
+        <v>2557</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="Q62" s="7">
+        <v>59</v>
+      </c>
+      <c r="R62">
+        <v>165</v>
+      </c>
+      <c r="S62">
+        <v>643</v>
+      </c>
+      <c r="T62">
+        <v>2582</v>
+      </c>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="7">
+        <v>60</v>
+      </c>
+      <c r="G63">
+        <v>165</v>
+      </c>
+      <c r="H63">
+        <v>325</v>
+      </c>
+      <c r="I63">
+        <v>648</v>
+      </c>
+      <c r="J63">
+        <v>1274</v>
+      </c>
+      <c r="K63">
+        <v>2580</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="Q63" s="7">
+        <v>60</v>
+      </c>
+      <c r="R63">
+        <v>166</v>
+      </c>
+      <c r="S63">
+        <v>641</v>
+      </c>
+      <c r="T63">
+        <v>2571</v>
+      </c>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="F64" s="7">
+        <v>61</v>
+      </c>
+      <c r="G64">
+        <v>166</v>
+      </c>
+      <c r="H64">
+        <v>326</v>
+      </c>
+      <c r="I64">
+        <v>668</v>
+      </c>
+      <c r="J64">
+        <v>1283</v>
+      </c>
+      <c r="K64">
+        <v>2573</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="Q64" s="7">
+        <v>61</v>
+      </c>
+      <c r="R64">
+        <v>165</v>
+      </c>
+      <c r="S64">
+        <v>649</v>
+      </c>
+      <c r="T64">
+        <v>2577</v>
+      </c>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="7">
+        <v>62</v>
+      </c>
+      <c r="G65">
+        <v>165</v>
+      </c>
+      <c r="H65">
+        <v>338</v>
+      </c>
+      <c r="I65">
+        <v>647</v>
+      </c>
+      <c r="J65">
+        <v>1287</v>
+      </c>
+      <c r="K65">
+        <v>2578</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="Q65" s="7">
+        <v>62</v>
+      </c>
+      <c r="R65">
+        <v>164</v>
+      </c>
+      <c r="S65">
+        <v>643</v>
+      </c>
+      <c r="T65">
+        <v>2578</v>
+      </c>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="F66" s="7">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <v>175</v>
+      </c>
+      <c r="H66">
+        <v>340</v>
+      </c>
+      <c r="I66">
+        <v>646</v>
+      </c>
+      <c r="J66">
+        <v>1276</v>
+      </c>
+      <c r="K66">
+        <v>2573</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="Q66" s="7">
+        <v>63</v>
+      </c>
+      <c r="R66">
+        <v>167</v>
+      </c>
+      <c r="S66">
+        <v>648</v>
+      </c>
+      <c r="T66">
+        <v>2568</v>
+      </c>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="F67" s="7">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>168</v>
+      </c>
+      <c r="H67">
+        <v>331</v>
+      </c>
+      <c r="I67">
+        <v>644</v>
+      </c>
+      <c r="J67">
+        <v>1279</v>
+      </c>
+      <c r="K67">
+        <v>2572</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="Q67" s="7">
+        <v>64</v>
+      </c>
+      <c r="R67">
+        <v>161</v>
+      </c>
+      <c r="S67">
+        <v>637</v>
+      </c>
+      <c r="T67">
+        <v>2597</v>
+      </c>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="7">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <v>168</v>
+      </c>
+      <c r="H68">
+        <v>331</v>
+      </c>
+      <c r="I68">
+        <v>645</v>
+      </c>
+      <c r="J68">
+        <v>1283</v>
+      </c>
+      <c r="K68">
+        <v>2570</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="Q68" s="7">
+        <v>65</v>
+      </c>
+      <c r="R68">
+        <v>163</v>
+      </c>
+      <c r="S68">
+        <v>648</v>
+      </c>
+      <c r="T68">
+        <v>2584</v>
+      </c>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="7">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <v>169</v>
+      </c>
+      <c r="H69">
+        <v>329</v>
+      </c>
+      <c r="I69">
+        <v>644</v>
+      </c>
+      <c r="J69">
+        <v>1280</v>
+      </c>
+      <c r="K69">
+        <v>2569</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="Q69" s="7">
+        <v>66</v>
+      </c>
+      <c r="R69">
+        <v>166</v>
+      </c>
+      <c r="S69">
+        <v>641</v>
+      </c>
+      <c r="T69">
+        <v>2584</v>
+      </c>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="7">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <v>165</v>
+      </c>
+      <c r="H70">
+        <v>339</v>
+      </c>
+      <c r="I70">
+        <v>653</v>
+      </c>
+      <c r="J70">
+        <v>1284</v>
+      </c>
+      <c r="K70">
+        <v>2570</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="Q70" s="7">
+        <v>67</v>
+      </c>
+      <c r="R70">
+        <v>162</v>
+      </c>
+      <c r="S70">
+        <v>650</v>
+      </c>
+      <c r="T70">
+        <v>2573</v>
+      </c>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="7">
+        <v>68</v>
+      </c>
+      <c r="G71">
+        <v>166</v>
+      </c>
+      <c r="H71">
+        <v>326</v>
+      </c>
+      <c r="I71">
+        <v>637</v>
+      </c>
+      <c r="J71">
+        <v>1284</v>
+      </c>
+      <c r="K71">
+        <v>2568</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="Q71" s="7">
+        <v>68</v>
+      </c>
+      <c r="R71">
+        <v>177</v>
+      </c>
+      <c r="S71">
+        <v>643</v>
+      </c>
+      <c r="T71">
+        <v>2585</v>
+      </c>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" s="7">
+        <v>69</v>
+      </c>
+      <c r="G72">
+        <v>169</v>
+      </c>
+      <c r="H72">
+        <v>337</v>
+      </c>
+      <c r="I72">
+        <v>653</v>
+      </c>
+      <c r="J72">
+        <v>1285</v>
+      </c>
+      <c r="K72">
+        <v>2569</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="Q72" s="7">
+        <v>69</v>
+      </c>
+      <c r="R72">
+        <v>165</v>
+      </c>
+      <c r="S72">
+        <v>649</v>
+      </c>
+      <c r="T72">
+        <v>2584</v>
+      </c>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" s="7">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <v>167</v>
+      </c>
+      <c r="H73">
+        <v>330</v>
+      </c>
+      <c r="I73">
+        <v>644</v>
+      </c>
+      <c r="J73">
+        <v>1284</v>
+      </c>
+      <c r="K73">
+        <v>2567</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="Q73" s="7">
+        <v>70</v>
+      </c>
+      <c r="R73">
+        <v>174</v>
+      </c>
+      <c r="S73">
+        <v>661</v>
+      </c>
+      <c r="T73">
+        <v>2569</v>
+      </c>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="F74" s="7">
+        <v>71</v>
+      </c>
+      <c r="G74">
+        <v>170</v>
+      </c>
+      <c r="H74">
+        <v>337</v>
+      </c>
+      <c r="I74">
+        <v>651</v>
+      </c>
+      <c r="J74">
+        <v>1283</v>
+      </c>
+      <c r="K74">
+        <v>2570</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="Q74" s="7">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>163</v>
+      </c>
+      <c r="S74">
+        <v>642</v>
+      </c>
+      <c r="T74">
+        <v>2579</v>
+      </c>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="F75" s="7">
+        <v>72</v>
+      </c>
+      <c r="G75">
+        <v>167</v>
+      </c>
+      <c r="H75">
+        <v>335</v>
+      </c>
+      <c r="I75">
+        <v>642</v>
+      </c>
+      <c r="J75">
+        <v>1276</v>
+      </c>
+      <c r="K75">
+        <v>2589</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="Q75" s="7">
+        <v>72</v>
+      </c>
+      <c r="R75">
+        <v>165</v>
+      </c>
+      <c r="S75">
+        <v>642</v>
+      </c>
+      <c r="T75">
+        <v>2573</v>
+      </c>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" s="7">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <v>162</v>
+      </c>
+      <c r="H76">
+        <v>326</v>
+      </c>
+      <c r="I76">
+        <v>644</v>
+      </c>
+      <c r="J76">
+        <v>1276</v>
+      </c>
+      <c r="K76">
+        <v>2572</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="Q76" s="7">
+        <v>73</v>
+      </c>
+      <c r="R76">
+        <v>163</v>
+      </c>
+      <c r="S76">
+        <v>642</v>
+      </c>
+      <c r="T76">
+        <v>2571</v>
+      </c>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="F77" s="7">
+        <v>74</v>
+      </c>
+      <c r="G77">
+        <v>163</v>
+      </c>
+      <c r="H77">
+        <v>326</v>
+      </c>
+      <c r="I77">
+        <v>648</v>
+      </c>
+      <c r="J77">
+        <v>1278</v>
+      </c>
+      <c r="K77">
+        <v>2564</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="Q77" s="7">
+        <v>74</v>
+      </c>
+      <c r="R77">
+        <v>165</v>
+      </c>
+      <c r="S77">
+        <v>643</v>
+      </c>
+      <c r="T77">
+        <v>2582</v>
+      </c>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="F78" s="7">
+        <v>75</v>
+      </c>
+      <c r="G78">
+        <v>169</v>
+      </c>
+      <c r="H78">
+        <v>328</v>
+      </c>
+      <c r="I78">
+        <v>640</v>
+      </c>
+      <c r="J78">
+        <v>1281</v>
+      </c>
+      <c r="K78">
+        <v>2564</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="Q78" s="7">
+        <v>75</v>
+      </c>
+      <c r="R78">
+        <v>161</v>
+      </c>
+      <c r="S78">
+        <v>647</v>
+      </c>
+      <c r="T78">
+        <v>2581</v>
+      </c>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="F79" s="7">
+        <v>76</v>
+      </c>
+      <c r="G79">
+        <v>165</v>
+      </c>
+      <c r="H79">
+        <v>344</v>
+      </c>
+      <c r="I79">
+        <v>653</v>
+      </c>
+      <c r="J79">
+        <v>1283</v>
+      </c>
+      <c r="K79">
+        <v>2571</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="Q79" s="7">
+        <v>76</v>
+      </c>
+      <c r="R79">
+        <v>166</v>
+      </c>
+      <c r="S79">
+        <v>650</v>
+      </c>
+      <c r="T79">
+        <v>2579</v>
+      </c>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="F80" s="7">
+        <v>77</v>
+      </c>
+      <c r="G80">
+        <v>168</v>
+      </c>
+      <c r="H80">
+        <v>324</v>
+      </c>
+      <c r="I80">
+        <v>643</v>
+      </c>
+      <c r="J80">
+        <v>1281</v>
+      </c>
+      <c r="K80">
+        <v>2576</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="Q80" s="7">
+        <v>77</v>
+      </c>
+      <c r="R80">
+        <v>166</v>
+      </c>
+      <c r="S80">
+        <v>642</v>
+      </c>
+      <c r="T80">
+        <v>2564</v>
+      </c>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="F81" s="7">
+        <v>78</v>
+      </c>
+      <c r="G81">
+        <v>163</v>
+      </c>
+      <c r="H81">
+        <v>329</v>
+      </c>
+      <c r="I81">
+        <v>644</v>
+      </c>
+      <c r="J81">
+        <v>1281</v>
+      </c>
+      <c r="K81">
+        <v>2578</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="Q81" s="7">
+        <v>78</v>
+      </c>
+      <c r="R81">
+        <v>172</v>
+      </c>
+      <c r="S81">
+        <v>637</v>
+      </c>
+      <c r="T81">
+        <v>2584</v>
+      </c>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="F82" s="7">
+        <v>79</v>
+      </c>
+      <c r="G82">
+        <v>163</v>
+      </c>
+      <c r="H82">
+        <v>327</v>
+      </c>
+      <c r="I82">
+        <v>640</v>
+      </c>
+      <c r="J82">
+        <v>1273</v>
+      </c>
+      <c r="K82">
+        <v>2583</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="Q82" s="7">
+        <v>79</v>
+      </c>
+      <c r="R82">
+        <v>166</v>
+      </c>
+      <c r="S82">
+        <v>650</v>
+      </c>
+      <c r="T82">
+        <v>2574</v>
+      </c>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="F83" s="7">
+        <v>80</v>
+      </c>
+      <c r="G83">
+        <v>167</v>
+      </c>
+      <c r="H83">
+        <v>325</v>
+      </c>
+      <c r="I83">
+        <v>657</v>
+      </c>
+      <c r="J83">
+        <v>1279</v>
+      </c>
+      <c r="K83">
+        <v>2569</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="Q83" s="7">
+        <v>80</v>
+      </c>
+      <c r="R83">
+        <v>170</v>
+      </c>
+      <c r="S83">
+        <v>647</v>
+      </c>
+      <c r="T83">
+        <v>2582</v>
+      </c>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="F84" s="7">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <v>168</v>
+      </c>
+      <c r="H84">
+        <v>335</v>
+      </c>
+      <c r="I84">
+        <v>652</v>
+      </c>
+      <c r="J84">
+        <v>1291</v>
+      </c>
+      <c r="K84">
+        <v>2568</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="Q84" s="7">
+        <v>81</v>
+      </c>
+      <c r="R84">
+        <v>165</v>
+      </c>
+      <c r="S84">
+        <v>640</v>
+      </c>
+      <c r="T84">
+        <v>2571</v>
+      </c>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="F85" s="7">
+        <v>82</v>
+      </c>
+      <c r="G85">
+        <v>170</v>
+      </c>
+      <c r="H85">
+        <v>341</v>
+      </c>
+      <c r="I85">
+        <v>648</v>
+      </c>
+      <c r="J85">
+        <v>1297</v>
+      </c>
+      <c r="K85">
+        <v>2561</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="Q85" s="7">
+        <v>82</v>
+      </c>
+      <c r="R85">
+        <v>163</v>
+      </c>
+      <c r="S85">
+        <v>637</v>
+      </c>
+      <c r="T85">
+        <v>2580</v>
+      </c>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+      <c r="F86" s="7">
+        <v>83</v>
+      </c>
+      <c r="G86">
+        <v>167</v>
+      </c>
+      <c r="H86">
+        <v>327</v>
+      </c>
+      <c r="I86">
+        <v>641</v>
+      </c>
+      <c r="J86">
+        <v>1275</v>
+      </c>
+      <c r="K86">
+        <v>2573</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="Q86" s="7">
+        <v>83</v>
+      </c>
+      <c r="R86">
+        <v>171</v>
+      </c>
+      <c r="S86">
+        <v>644</v>
+      </c>
+      <c r="T86">
+        <v>2567</v>
+      </c>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="F87" s="7">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <v>166</v>
+      </c>
+      <c r="H87">
+        <v>326</v>
+      </c>
+      <c r="I87">
+        <v>653</v>
+      </c>
+      <c r="J87">
+        <v>1278</v>
+      </c>
+      <c r="K87">
+        <v>2559</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="Q87" s="7">
+        <v>84</v>
+      </c>
+      <c r="R87">
+        <v>164</v>
+      </c>
+      <c r="S87">
+        <v>644</v>
+      </c>
+      <c r="T87">
+        <v>2570</v>
+      </c>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="F88" s="7">
+        <v>85</v>
+      </c>
+      <c r="G88">
+        <v>164</v>
+      </c>
+      <c r="H88">
+        <v>342</v>
+      </c>
+      <c r="I88">
+        <v>648</v>
+      </c>
+      <c r="J88">
+        <v>1285</v>
+      </c>
+      <c r="K88">
+        <v>2562</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="Q88" s="7">
+        <v>85</v>
+      </c>
+      <c r="R88">
+        <v>161</v>
+      </c>
+      <c r="S88">
+        <v>655</v>
+      </c>
+      <c r="T88">
+        <v>2599</v>
+      </c>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="F89" s="7">
+        <v>86</v>
+      </c>
+      <c r="G89">
+        <v>167</v>
+      </c>
+      <c r="H89">
+        <v>328</v>
+      </c>
+      <c r="I89">
+        <v>654</v>
+      </c>
+      <c r="J89">
+        <v>1276</v>
+      </c>
+      <c r="K89">
+        <v>2571</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="Q89" s="7">
+        <v>86</v>
+      </c>
+      <c r="R89">
+        <v>166</v>
+      </c>
+      <c r="S89">
+        <v>641</v>
+      </c>
+      <c r="T89">
+        <v>2569</v>
+      </c>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="F90" s="7">
+        <v>87</v>
+      </c>
+      <c r="G90">
+        <v>166</v>
+      </c>
+      <c r="H90">
+        <v>327</v>
+      </c>
+      <c r="I90">
+        <v>645</v>
+      </c>
+      <c r="J90">
+        <v>1281</v>
+      </c>
+      <c r="K90">
+        <v>2590</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="Q90" s="7">
+        <v>87</v>
+      </c>
+      <c r="R90">
+        <v>168</v>
+      </c>
+      <c r="S90">
+        <v>648</v>
+      </c>
+      <c r="T90">
+        <v>2590</v>
+      </c>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="F91" s="7">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>163</v>
+      </c>
+      <c r="H91">
+        <v>331</v>
+      </c>
+      <c r="I91">
+        <v>643</v>
+      </c>
+      <c r="J91">
+        <v>1272</v>
+      </c>
+      <c r="K91">
+        <v>2565</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="Q91" s="7">
+        <v>88</v>
+      </c>
+      <c r="R91">
+        <v>171</v>
+      </c>
+      <c r="S91">
+        <v>644</v>
+      </c>
+      <c r="T91">
+        <v>2566</v>
+      </c>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="F92" s="7">
+        <v>89</v>
+      </c>
+      <c r="G92">
+        <v>170</v>
+      </c>
+      <c r="H92">
+        <v>325</v>
+      </c>
+      <c r="I92">
+        <v>657</v>
+      </c>
+      <c r="J92">
+        <v>1279</v>
+      </c>
+      <c r="K92">
+        <v>2563</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="Q92" s="7">
+        <v>89</v>
+      </c>
+      <c r="R92">
+        <v>175</v>
+      </c>
+      <c r="S92">
+        <v>652</v>
+      </c>
+      <c r="T92">
+        <v>2580</v>
+      </c>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+      <c r="F93" s="7">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>172</v>
+      </c>
+      <c r="H93">
+        <v>335</v>
+      </c>
+      <c r="I93">
+        <v>646</v>
+      </c>
+      <c r="J93">
+        <v>1282</v>
+      </c>
+      <c r="K93">
+        <v>2577</v>
+      </c>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="Q93" s="7">
+        <v>90</v>
+      </c>
+      <c r="R93">
+        <v>165</v>
+      </c>
+      <c r="S93">
+        <v>637</v>
+      </c>
+      <c r="T93">
+        <v>2574</v>
+      </c>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="7">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <v>164</v>
+      </c>
+      <c r="H94">
+        <v>333</v>
+      </c>
+      <c r="I94">
+        <v>653</v>
+      </c>
+      <c r="J94">
+        <v>1279</v>
+      </c>
+      <c r="K94">
+        <v>2566</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="Q94" s="7">
+        <v>91</v>
+      </c>
+      <c r="R94">
+        <v>162</v>
+      </c>
+      <c r="S94">
+        <v>649</v>
+      </c>
+      <c r="T94">
+        <v>2575</v>
+      </c>
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="7">
+        <v>92</v>
+      </c>
+      <c r="G95">
+        <v>161</v>
+      </c>
+      <c r="H95">
+        <v>337</v>
+      </c>
+      <c r="I95">
+        <v>643</v>
+      </c>
+      <c r="J95">
+        <v>1277</v>
+      </c>
+      <c r="K95">
+        <v>2558</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="Q95" s="7">
+        <v>92</v>
+      </c>
+      <c r="R95">
+        <v>165</v>
+      </c>
+      <c r="S95">
+        <v>637</v>
+      </c>
+      <c r="T95">
+        <v>2597</v>
+      </c>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+      <c r="F96" s="7">
+        <v>93</v>
+      </c>
+      <c r="G96">
+        <v>165</v>
+      </c>
+      <c r="H96">
+        <v>327</v>
+      </c>
+      <c r="I96">
+        <v>645</v>
+      </c>
+      <c r="J96">
+        <v>1278</v>
+      </c>
+      <c r="K96">
+        <v>2567</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="Q96" s="7">
+        <v>93</v>
+      </c>
+      <c r="R96">
+        <v>164</v>
+      </c>
+      <c r="S96">
+        <v>646</v>
+      </c>
+      <c r="T96">
+        <v>2580</v>
+      </c>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="7">
+        <v>94</v>
+      </c>
+      <c r="G97">
+        <v>167</v>
+      </c>
+      <c r="H97">
+        <v>325</v>
+      </c>
+      <c r="I97">
+        <v>647</v>
+      </c>
+      <c r="J97">
+        <v>1281</v>
+      </c>
+      <c r="K97">
+        <v>2570</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="Q97" s="7">
+        <v>94</v>
+      </c>
+      <c r="R97">
+        <v>168</v>
+      </c>
+      <c r="S97">
+        <v>644</v>
+      </c>
+      <c r="T97">
+        <v>2573</v>
+      </c>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+      <c r="F98" s="7">
+        <v>95</v>
+      </c>
+      <c r="G98">
+        <v>167</v>
+      </c>
+      <c r="H98">
+        <v>346</v>
+      </c>
+      <c r="I98">
+        <v>647</v>
+      </c>
+      <c r="J98">
+        <v>1288</v>
+      </c>
+      <c r="K98">
+        <v>2569</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="Q98" s="7">
+        <v>95</v>
+      </c>
+      <c r="R98">
+        <v>165</v>
+      </c>
+      <c r="S98">
+        <v>651</v>
+      </c>
+      <c r="T98">
+        <v>2565</v>
+      </c>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+      <c r="F99" s="7">
+        <v>96</v>
+      </c>
+      <c r="G99">
+        <v>164</v>
+      </c>
+      <c r="H99">
+        <v>332</v>
+      </c>
+      <c r="I99">
+        <v>645</v>
+      </c>
+      <c r="J99">
+        <v>1279</v>
+      </c>
+      <c r="K99">
+        <v>2569</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="Q99" s="7">
+        <v>96</v>
+      </c>
+      <c r="R99">
+        <v>167</v>
+      </c>
+      <c r="S99">
+        <v>638</v>
+      </c>
+      <c r="T99">
+        <v>2592</v>
+      </c>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+      <c r="F100" s="7">
+        <v>97</v>
+      </c>
+      <c r="G100">
+        <v>164</v>
+      </c>
+      <c r="H100">
+        <v>325</v>
+      </c>
+      <c r="I100">
+        <v>648</v>
+      </c>
+      <c r="J100">
+        <v>1282</v>
+      </c>
+      <c r="K100">
+        <v>2570</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="Q100" s="7">
+        <v>97</v>
+      </c>
+      <c r="R100">
+        <v>165</v>
+      </c>
+      <c r="S100">
+        <v>642</v>
+      </c>
+      <c r="T100">
+        <v>2584</v>
+      </c>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+      <c r="F101" s="7">
+        <v>98</v>
+      </c>
+      <c r="G101">
+        <v>165</v>
+      </c>
+      <c r="H101">
+        <v>334</v>
+      </c>
+      <c r="I101">
+        <v>641</v>
+      </c>
+      <c r="J101">
+        <v>1280</v>
+      </c>
+      <c r="K101">
+        <v>2577</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="Q101" s="7">
+        <v>98</v>
+      </c>
+      <c r="R101">
+        <v>177</v>
+      </c>
+      <c r="S101">
+        <v>643</v>
+      </c>
+      <c r="T101">
+        <v>2569</v>
+      </c>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+      <c r="F102" s="7">
+        <v>99</v>
+      </c>
+      <c r="G102">
+        <v>173</v>
+      </c>
+      <c r="H102">
+        <v>336</v>
+      </c>
+      <c r="I102">
+        <v>654</v>
+      </c>
+      <c r="J102">
+        <v>1280</v>
+      </c>
+      <c r="K102">
+        <v>2574</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="Q102" s="7">
+        <v>99</v>
+      </c>
+      <c r="R102">
+        <v>163</v>
+      </c>
+      <c r="S102">
+        <v>639</v>
+      </c>
+      <c r="T102">
+        <v>2589</v>
+      </c>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="F103" s="7">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>173</v>
+      </c>
+      <c r="H103">
+        <v>328</v>
+      </c>
+      <c r="I103">
+        <v>646</v>
+      </c>
+      <c r="J103">
+        <v>1286</v>
+      </c>
+      <c r="K103">
+        <v>2570</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="Q103" s="7">
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <v>166</v>
+      </c>
+      <c r="S103">
+        <v>646</v>
+      </c>
+      <c r="T103">
+        <v>2576</v>
+      </c>
+      <c r="U103" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40183743\Documents\C&amp;PS\Concurrent-And-Parallel-Systems-CW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beej\Documents\Work\C&amp;PS\Coursework\Concurrent-And-Parallel-Systems-CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Seq. Results" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Comparison 3" sheetId="12" r:id="rId8"/>
     <sheet name="Comparison 4" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -886,15 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,6 +903,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,13 +1006,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t>256x256 Image Generation Performance Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1044,7 +1043,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.253226288333459E-2"/>
+          <c:y val="0.10236975533648379"/>
+          <c:w val="0.90746773711666529"/>
+          <c:h val="0.7010473522718641"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1361,7 +1370,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1374,13 +1383,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t>Samples Per Pixel</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1394,7 +1402,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1432,7 +1440,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1483,7 +1491,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1496,13 +1504,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t>Average Time / ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1516,7 +1523,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1554,7 +1561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1582,8 +1589,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1597,7 +1603,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1661,7 +1667,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1674,18 +1680,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>16spp Image Generation Performance Comparison</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
+            <a:endParaRPr lang="en-GB" sz="2400" baseline="0">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1699,7 +1704,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1717,7 +1722,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0948845315018831E-2"/>
+          <c:y val="0.10236975533648379"/>
+          <c:w val="0.90905115468498121"/>
+          <c:h val="0.70423241911415901"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1962,7 +1977,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1975,13 +1990,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t>Image Dimensions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1995,7 +2009,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2033,7 +2047,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2084,7 +2098,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2097,17 +2111,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Time / ms</a:t>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+                  <a:t>Average Time / ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2121,7 +2130,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2159,7 +2168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2187,8 +2196,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2202,7 +2210,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2266,7 +2274,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2279,18 +2287,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Single Thread</a:t>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t>Single Thread Performance Comparison</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Performance Comparison</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2304,7 +2306,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2367,7 +2369,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2392,7 +2394,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2501,7 +2502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2551,7 +2552,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2564,13 +2565,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t>Average Time / ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2584,7 +2584,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2616,7 +2616,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2652,12 +2652,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2720,7 +2715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2813,7 +2807,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2929,7 +2922,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3101,7 +3093,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3176,7 +3167,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5440,10 +5430,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5451,7 +5442,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5462,7 +5453,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5473,7 +5464,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5484,10 +5475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8662276" cy="6279931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5511,10 +5508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8662276" cy="6279931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5538,10 +5541,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8662276" cy="6279931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5565,10 +5574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8659091" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5857,44 +5872,44 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5959,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -5971,25 +5986,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="V3" s="11"/>
       <c r="W3" s="7">
         <v>1</v>
@@ -6004,7 +6019,7 @@
         <v>3002631</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>3001927</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -6120,7 +6135,7 @@
         <v>47465</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -6172,7 +6187,7 @@
         <v>48176</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -6236,7 +6251,7 @@
         <v>190442</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>191293</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -6364,7 +6379,7 @@
         <v>189282</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -6420,7 +6435,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -6470,7 +6485,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -6519,11 +6534,11 @@
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -6572,7 +6587,7 @@
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -6623,7 +6638,7 @@
         <v>47312</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -6675,7 +6690,7 @@
         <v>47275</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -6727,7 +6742,7 @@
         <v>47226</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -6779,7 +6794,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -6831,7 +6846,7 @@
         <v>47553</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -6876,7 +6891,7 @@
         <v>47356</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -6924,7 +6939,7 @@
         <v>47303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>A15^2</f>
         <v>16384</v>
@@ -6973,7 +6988,7 @@
         <v>47255</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ref="A22:A24" si="0">A16^2</f>
         <v>65536</v>
@@ -7026,7 +7041,7 @@
         <v>47308</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -7075,7 +7090,7 @@
         <v>47751</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -7124,7 +7139,7 @@
         <v>48053</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
       <c r="F25" s="7">
         <v>22</v>
@@ -7169,7 +7184,7 @@
         <v>47531</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="7">
         <v>23</v>
@@ -7214,7 +7229,7 @@
         <v>47674</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="7">
         <v>24</v>
@@ -7259,7 +7274,7 @@
         <v>47219</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="7">
         <v>25</v>
@@ -7304,7 +7319,7 @@
         <v>47242</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="7">
         <v>26</v>
@@ -7349,7 +7364,7 @@
         <v>47567</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="7">
         <v>27</v>
@@ -7394,7 +7409,7 @@
         <v>47724</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="7">
         <v>28</v>
@@ -7439,7 +7454,7 @@
         <v>48229</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -7484,7 +7499,7 @@
         <v>48258</v>
       </c>
     </row>
-    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -7529,7 +7544,7 @@
         <v>48450</v>
       </c>
     </row>
-    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="7">
         <v>31</v>
@@ -7574,7 +7589,7 @@
         <v>47473</v>
       </c>
     </row>
-    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="7">
         <v>32</v>
@@ -7619,7 +7634,7 @@
         <v>47598</v>
       </c>
     </row>
-    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="7">
         <v>33</v>
@@ -7664,7 +7679,7 @@
         <v>47484</v>
       </c>
     </row>
-    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="7">
         <v>34</v>
@@ -7709,7 +7724,7 @@
         <v>48072</v>
       </c>
     </row>
-    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="7">
         <v>35</v>
@@ -7754,7 +7769,7 @@
         <v>47923</v>
       </c>
     </row>
-    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -7799,7 +7814,7 @@
         <v>47829</v>
       </c>
     </row>
-    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -7844,7 +7859,7 @@
         <v>48392</v>
       </c>
     </row>
-    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -7889,7 +7904,7 @@
         <v>47935</v>
       </c>
     </row>
-    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -7934,7 +7949,7 @@
         <v>48443</v>
       </c>
     </row>
-    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -7979,7 +7994,7 @@
         <v>47404</v>
       </c>
     </row>
-    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -8024,7 +8039,7 @@
         <v>47731</v>
       </c>
     </row>
-    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -8069,7 +8084,7 @@
         <v>48272</v>
       </c>
     </row>
-    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -8114,7 +8129,7 @@
         <v>47408</v>
       </c>
     </row>
-    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -8159,7 +8174,7 @@
         <v>47818</v>
       </c>
     </row>
-    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -8204,7 +8219,7 @@
         <v>48075</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -8249,7 +8264,7 @@
         <v>47949</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -8294,7 +8309,7 @@
         <v>48394</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -8339,7 +8354,7 @@
         <v>47668</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -8384,7 +8399,7 @@
         <v>47545</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -8429,7 +8444,7 @@
         <v>47806</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -8474,7 +8489,7 @@
         <v>47524</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -8519,7 +8534,7 @@
         <v>48476</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -8564,7 +8579,7 @@
         <v>47374</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -8609,7 +8624,7 @@
         <v>47937</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -8654,7 +8669,7 @@
         <v>48027</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -8699,7 +8714,7 @@
         <v>47850</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -8744,7 +8759,7 @@
         <v>48381</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -8789,7 +8804,7 @@
         <v>48301</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -8834,7 +8849,7 @@
         <v>47508</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -8879,7 +8894,7 @@
         <v>48207</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -8924,7 +8939,7 @@
         <v>47641</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -8969,7 +8984,7 @@
         <v>48195</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -9014,7 +9029,7 @@
         <v>48249</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -9059,7 +9074,7 @@
         <v>47353</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -9104,7 +9119,7 @@
         <v>47671</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -9149,7 +9164,7 @@
         <v>47264</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -9194,7 +9209,7 @@
         <v>47631</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -9239,7 +9254,7 @@
         <v>48478</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -9284,7 +9299,7 @@
         <v>48404</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -9329,7 +9344,7 @@
         <v>47389</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -9374,7 +9389,7 @@
         <v>48081</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -9419,7 +9434,7 @@
         <v>47604</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -9464,7 +9479,7 @@
         <v>47781</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -9509,7 +9524,7 @@
         <v>47262</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -9554,7 +9569,7 @@
         <v>48146</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -9599,7 +9614,7 @@
         <v>47933</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -9644,7 +9659,7 @@
         <v>48160</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -9689,7 +9704,7 @@
         <v>47269</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -9734,7 +9749,7 @@
         <v>48190</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -9779,7 +9794,7 @@
         <v>47709</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -9824,7 +9839,7 @@
         <v>47595</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -9869,7 +9884,7 @@
         <v>48090</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -9914,7 +9929,7 @@
         <v>47868</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -9959,7 +9974,7 @@
         <v>47292</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -10004,7 +10019,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -10049,7 +10064,7 @@
         <v>48474</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -10094,7 +10109,7 @@
         <v>47595</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -10139,7 +10154,7 @@
         <v>48026</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -10184,7 +10199,7 @@
         <v>48330</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -10229,7 +10244,7 @@
         <v>48474</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -10274,7 +10289,7 @@
         <v>48072</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -10319,7 +10334,7 @@
         <v>48427</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -10364,7 +10379,7 @@
         <v>48187</v>
       </c>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -10409,7 +10424,7 @@
         <v>48456</v>
       </c>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -10454,7 +10469,7 @@
         <v>47612</v>
       </c>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -10499,7 +10514,7 @@
         <v>48014</v>
       </c>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -10544,7 +10559,7 @@
         <v>48008</v>
       </c>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -10589,7 +10604,7 @@
         <v>48075</v>
       </c>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -10634,7 +10649,7 @@
         <v>48422</v>
       </c>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -10697,48 +10712,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -10803,7 +10818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -10815,25 +10830,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -10847,7 +10862,7 @@
         <v>709916</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -10911,7 +10926,7 @@
         <v>708573</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -10963,7 +10978,7 @@
         <v>11059</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -11015,7 +11030,7 @@
         <v>11040</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -11067,7 +11082,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -11119,7 +11134,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -11171,7 +11186,7 @@
         <v>11144</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -11223,7 +11238,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -11269,7 +11284,7 @@
         <v>11043</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -11314,11 +11329,11 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -11363,7 +11378,7 @@
         <v>11078</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -11414,7 +11429,7 @@
         <v>11128</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -11466,7 +11481,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -11518,7 +11533,7 @@
         <v>11141</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -11570,7 +11585,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -11622,7 +11637,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -11667,7 +11682,7 @@
         <v>11062</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -11718,7 +11733,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -11763,12 +11778,12 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -11813,7 +11828,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>1</v>
       </c>
@@ -11867,7 +11882,7 @@
         <v>11058</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -11923,7 +11938,7 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>8</v>
       </c>
@@ -11979,7 +11994,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>16</v>
       </c>
@@ -12035,7 +12050,7 @@
         <v>11065</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>32</v>
       </c>
@@ -12091,7 +12106,7 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>64</v>
       </c>
@@ -12147,7 +12162,7 @@
         <v>11151</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>128</v>
       </c>
@@ -12203,7 +12218,7 @@
         <v>11074</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>256</v>
       </c>
@@ -12259,7 +12274,7 @@
         <v>11081</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>512</v>
       </c>
@@ -12315,7 +12330,7 @@
         <v>11146</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -12360,12 +12375,12 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -12410,7 +12425,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -12464,7 +12479,7 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>128</v>
       </c>
@@ -12520,7 +12535,7 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>256</v>
       </c>
@@ -12576,7 +12591,7 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>512</v>
       </c>
@@ -12632,7 +12647,7 @@
         <v>11216</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
@@ -12688,7 +12703,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -12733,7 +12748,7 @@
         <v>11069</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -12778,7 +12793,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -12823,7 +12838,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -12868,7 +12883,7 @@
         <v>11061</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -12913,7 +12928,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -12958,7 +12973,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -13003,7 +13018,7 @@
         <v>11036</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -13048,7 +13063,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -13093,7 +13108,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -13138,7 +13153,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -13183,7 +13198,7 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -13228,7 +13243,7 @@
         <v>11097</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -13273,7 +13288,7 @@
         <v>11051</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -13318,7 +13333,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -13363,7 +13378,7 @@
         <v>11029</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -13408,7 +13423,7 @@
         <v>11143</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -13453,7 +13468,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -13498,7 +13513,7 @@
         <v>11069</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -13543,7 +13558,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -13588,7 +13603,7 @@
         <v>11178</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -13633,7 +13648,7 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -13678,7 +13693,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -13723,7 +13738,7 @@
         <v>11131</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -13768,7 +13783,7 @@
         <v>11103</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -13813,7 +13828,7 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -13858,7 +13873,7 @@
         <v>11045</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -13903,7 +13918,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -13948,7 +13963,7 @@
         <v>11031</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -13993,7 +14008,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -14038,7 +14053,7 @@
         <v>11129</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -14083,7 +14098,7 @@
         <v>11058</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -14128,7 +14143,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -14173,7 +14188,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -14218,7 +14233,7 @@
         <v>11254</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -14263,7 +14278,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -14308,7 +14323,7 @@
         <v>11183</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -14353,7 +14368,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -14398,7 +14413,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -14443,7 +14458,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -14488,7 +14503,7 @@
         <v>11078</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -14533,7 +14548,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -14578,7 +14593,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -14623,7 +14638,7 @@
         <v>11041</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -14668,7 +14683,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -14713,7 +14728,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -14758,7 +14773,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -14803,7 +14818,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -14848,7 +14863,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -14893,7 +14908,7 @@
         <v>11167</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -14938,7 +14953,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -14983,7 +14998,7 @@
         <v>11103</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -15028,7 +15043,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -15073,7 +15088,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -15118,7 +15133,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -15163,7 +15178,7 @@
         <v>11126</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -15208,7 +15223,7 @@
         <v>11077</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -15253,7 +15268,7 @@
         <v>11096</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -15298,7 +15313,7 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -15343,7 +15358,7 @@
         <v>11196</v>
       </c>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -15388,7 +15403,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -15433,7 +15448,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -15478,7 +15493,7 @@
         <v>11059</v>
       </c>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -15523,7 +15538,7 @@
         <v>11089</v>
       </c>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -15568,7 +15583,7 @@
         <v>11122</v>
       </c>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -15637,44 +15652,44 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -15739,7 +15754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -15751,25 +15766,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -15783,7 +15798,7 @@
         <v>659067</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -15847,7 +15862,7 @@
         <v>658709</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -15899,7 +15914,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -15951,7 +15966,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -16003,7 +16018,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -16055,7 +16070,7 @@
         <v>10269</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -16107,7 +16122,7 @@
         <v>10285</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -16159,7 +16174,7 @@
         <v>10271</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -16205,7 +16220,7 @@
         <v>10311</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -16250,11 +16265,11 @@
         <v>10277</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -16299,7 +16314,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -16350,7 +16365,7 @@
         <v>10295</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -16402,7 +16417,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -16454,7 +16469,7 @@
         <v>10283</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -16506,7 +16521,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -16558,7 +16573,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -16603,7 +16618,7 @@
         <v>10272</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -16654,7 +16669,7 @@
         <v>10263</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -16699,12 +16714,12 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -16749,7 +16764,7 @@
         <v>10264</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>1</v>
       </c>
@@ -16803,7 +16818,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -16859,7 +16874,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>8</v>
       </c>
@@ -16915,7 +16930,7 @@
         <v>10274</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>16</v>
       </c>
@@ -16971,7 +16986,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>32</v>
       </c>
@@ -17027,7 +17042,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>64</v>
       </c>
@@ -17083,7 +17098,7 @@
         <v>10275</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>128</v>
       </c>
@@ -17133,7 +17148,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>256</v>
       </c>
@@ -17183,7 +17198,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>512</v>
       </c>
@@ -17233,7 +17248,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -17272,12 +17287,12 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -17316,7 +17331,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -17364,7 +17379,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>128</v>
       </c>
@@ -17414,7 +17429,7 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>256</v>
       </c>
@@ -17464,7 +17479,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>512</v>
       </c>
@@ -17514,7 +17529,7 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
@@ -17564,7 +17579,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -17603,7 +17618,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -17642,7 +17657,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -17681,7 +17696,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -17720,7 +17735,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -17759,7 +17774,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -17798,7 +17813,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -17837,7 +17852,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -17876,7 +17891,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -17915,7 +17930,7 @@
       </c>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -17954,7 +17969,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -17993,7 +18008,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -18032,7 +18047,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -18071,7 +18086,7 @@
       </c>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -18110,7 +18125,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -18149,7 +18164,7 @@
       </c>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -18186,7 +18201,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -18223,7 +18238,7 @@
       </c>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -18260,7 +18275,7 @@
       </c>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -18297,7 +18312,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -18334,7 +18349,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -18371,7 +18386,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -18408,7 +18423,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -18445,7 +18460,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -18482,7 +18497,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -18519,7 +18534,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -18556,7 +18571,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -18593,7 +18608,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -18630,7 +18645,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -18667,7 +18682,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -18704,7 +18719,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -18741,7 +18756,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -18778,7 +18793,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -18815,7 +18830,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -18852,7 +18867,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -18889,7 +18904,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -18926,7 +18941,7 @@
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -18963,7 +18978,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -19000,7 +19015,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -19037,7 +19052,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -19074,7 +19089,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -19111,7 +19126,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -19148,7 +19163,7 @@
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -19185,7 +19200,7 @@
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -19222,7 +19237,7 @@
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -19259,7 +19274,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -19296,7 +19311,7 @@
       </c>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -19333,7 +19348,7 @@
       </c>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -19370,7 +19385,7 @@
       </c>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -19407,7 +19422,7 @@
       </c>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -19444,7 +19459,7 @@
       </c>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -19481,7 +19496,7 @@
       </c>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -19518,7 +19533,7 @@
       </c>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -19555,7 +19570,7 @@
       </c>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -19592,7 +19607,7 @@
       </c>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -19629,7 +19644,7 @@
       </c>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -19666,7 +19681,7 @@
       </c>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -19703,7 +19718,7 @@
       </c>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -19740,7 +19755,7 @@
       </c>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -19777,7 +19792,7 @@
       </c>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -19814,7 +19829,7 @@
       </c>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -19851,7 +19866,7 @@
       </c>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -19888,7 +19903,7 @@
       </c>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -19925,7 +19940,7 @@
       </c>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -19962,7 +19977,7 @@
       </c>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -20018,48 +20033,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -20124,7 +20139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4</v>
       </c>
@@ -20136,25 +20151,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -20168,7 +20183,7 @@
         <v>651456</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -20232,7 +20247,7 @@
         <v>647313</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -20284,7 +20299,7 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>32</v>
       </c>
@@ -20336,7 +20351,7 @@
         <v>10182</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>64</v>
       </c>
@@ -20388,7 +20403,7 @@
         <v>10195</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>128</v>
       </c>
@@ -20440,7 +20455,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>256</v>
       </c>
@@ -20492,7 +20507,7 @@
         <v>10194</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>512</v>
       </c>
@@ -20544,7 +20559,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
@@ -20590,7 +20605,7 @@
         <v>10228</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>9</v>
@@ -20635,11 +20650,11 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -20684,7 +20699,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -20735,7 +20750,7 @@
         <v>10198</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>128</v>
       </c>
@@ -20787,7 +20802,7 @@
         <v>10175</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>256</v>
       </c>
@@ -20839,7 +20854,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>512</v>
       </c>
@@ -20891,7 +20906,7 @@
         <v>10174</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1024</v>
       </c>
@@ -20943,7 +20958,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>16</v>
@@ -20988,7 +21003,7 @@
         <v>10149</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -21039,7 +21054,7 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>18</v>
@@ -21084,12 +21099,12 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -21134,7 +21149,7 @@
         <v>10166</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>1</v>
       </c>
@@ -21188,7 +21203,7 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -21244,7 +21259,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>8</v>
       </c>
@@ -21300,7 +21315,7 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>16</v>
       </c>
@@ -21356,7 +21371,7 @@
         <v>10162</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>32</v>
       </c>
@@ -21412,7 +21427,7 @@
         <v>10211</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>64</v>
       </c>
@@ -21468,7 +21483,7 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>128</v>
       </c>
@@ -21518,7 +21533,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>256</v>
       </c>
@@ -21568,7 +21583,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>512</v>
       </c>
@@ -21618,7 +21633,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="7">
         <v>29</v>
@@ -21657,12 +21672,12 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -21701,11 +21716,11 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -21749,7 +21764,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>128</v>
       </c>
@@ -21799,7 +21814,7 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>256</v>
       </c>
@@ -21849,7 +21864,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>512</v>
       </c>
@@ -21899,7 +21914,7 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1024</v>
       </c>
@@ -21949,7 +21964,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="7">
         <v>36</v>
@@ -21988,7 +22003,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="7">
         <v>37</v>
@@ -22027,7 +22042,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="7">
         <v>38</v>
@@ -22066,7 +22081,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="7">
         <v>39</v>
@@ -22105,7 +22120,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="7">
         <v>40</v>
@@ -22144,7 +22159,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="7">
         <v>41</v>
@@ -22183,7 +22198,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="7">
         <v>42</v>
@@ -22222,7 +22237,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="7">
         <v>43</v>
@@ -22261,7 +22276,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="7">
         <v>44</v>
@@ -22300,7 +22315,7 @@
       </c>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="7">
         <v>45</v>
@@ -22339,7 +22354,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="7">
         <v>46</v>
@@ -22378,7 +22393,7 @@
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="7">
         <v>47</v>
@@ -22417,7 +22432,7 @@
       </c>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="7">
         <v>48</v>
@@ -22456,7 +22471,7 @@
       </c>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="7">
         <v>49</v>
@@ -22495,7 +22510,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="7">
         <v>50</v>
@@ -22534,7 +22549,7 @@
       </c>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="7">
         <v>51</v>
@@ -22571,7 +22586,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="7">
         <v>52</v>
@@ -22608,7 +22623,7 @@
       </c>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="7">
         <v>53</v>
@@ -22645,7 +22660,7 @@
       </c>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="7">
         <v>54</v>
@@ -22682,7 +22697,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="7">
         <v>55</v>
@@ -22719,7 +22734,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="7">
         <v>56</v>
@@ -22756,7 +22771,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="7">
         <v>57</v>
@@ -22793,7 +22808,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="7">
         <v>58</v>
@@ -22830,7 +22845,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="7">
         <v>59</v>
@@ -22867,7 +22882,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="7">
         <v>60</v>
@@ -22904,7 +22919,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="7">
         <v>61</v>
@@ -22941,7 +22956,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="7">
         <v>62</v>
@@ -22978,7 +22993,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="7">
         <v>63</v>
@@ -23015,7 +23030,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="7">
         <v>64</v>
@@ -23052,7 +23067,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="7">
         <v>65</v>
@@ -23089,7 +23104,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="7">
         <v>66</v>
@@ -23126,7 +23141,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="7">
         <v>67</v>
@@ -23163,7 +23178,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="7">
         <v>68</v>
@@ -23200,7 +23215,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="7">
         <v>69</v>
@@ -23237,7 +23252,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="7">
         <v>70</v>
@@ -23274,7 +23289,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="7">
         <v>71</v>
@@ -23311,7 +23326,7 @@
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="7">
         <v>72</v>
@@ -23348,7 +23363,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="7">
         <v>73</v>
@@ -23385,7 +23400,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="7">
         <v>74</v>
@@ -23422,7 +23437,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="7">
         <v>75</v>
@@ -23459,7 +23474,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="7">
         <v>76</v>
@@ -23496,7 +23511,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="7">
         <v>77</v>
@@ -23533,7 +23548,7 @@
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="7">
         <v>78</v>
@@ -23570,7 +23585,7 @@
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="7">
         <v>79</v>
@@ -23607,7 +23622,7 @@
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="7">
         <v>80</v>
@@ -23644,7 +23659,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="7">
         <v>81</v>
@@ -23681,7 +23696,7 @@
       </c>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="7">
         <v>82</v>
@@ -23718,7 +23733,7 @@
       </c>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="7">
         <v>83</v>
@@ -23755,7 +23770,7 @@
       </c>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="7">
         <v>84</v>
@@ -23792,7 +23807,7 @@
       </c>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="7">
         <v>85</v>
@@ -23829,7 +23844,7 @@
       </c>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="7">
         <v>86</v>
@@ -23866,7 +23881,7 @@
       </c>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="7">
         <v>87</v>
@@ -23903,7 +23918,7 @@
       </c>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="7">
         <v>88</v>
@@ -23940,7 +23955,7 @@
       </c>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="7">
         <v>89</v>
@@ -23977,7 +23992,7 @@
       </c>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="7">
         <v>90</v>
@@ -24014,7 +24029,7 @@
       </c>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="7">
         <v>91</v>
@@ -24051,7 +24066,7 @@
       </c>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="7">
         <v>92</v>
@@ -24088,7 +24103,7 @@
       </c>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="7">
         <v>93</v>
@@ -24125,7 +24140,7 @@
       </c>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E97" s="1"/>
       <c r="F97" s="7">
         <v>94</v>
@@ -24162,7 +24177,7 @@
       </c>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
       <c r="F98" s="7">
         <v>95</v>
@@ -24199,7 +24214,7 @@
       </c>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="7">
         <v>96</v>
@@ -24236,7 +24251,7 @@
       </c>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="7">
         <v>97</v>
@@ -24273,7 +24288,7 @@
       </c>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="7">
         <v>98</v>
@@ -24310,7 +24325,7 @@
       </c>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="7">
         <v>99</v>
@@ -24347,7 +24362,7 @@
       </c>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="7">
         <v>100</v>
@@ -24403,35 +24418,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="38"/>
+      <c r="D2" s="35"/>
       <c r="K2" t="s">
         <v>25</v>
       </c>
@@ -24481,7 +24496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
@@ -24511,11 +24526,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="39">
         <f>AVERAGE('Seq. Results'!K4:K103)</f>
         <v>12510.68</v>
       </c>
@@ -24656,11 +24671,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="39">
         <f>AVERAGE(AH5:AH54)</f>
         <v>11957.8</v>
       </c>
@@ -24781,11 +24796,11 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="40">
         <f>AVERAGE(AC5:AC54)</f>
         <v>11770.06</v>
       </c>
@@ -24906,11 +24921,11 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="39">
         <f>AVERAGE(X5:X54)</f>
         <v>8788.6200000000008</v>
       </c>
@@ -25031,7 +25046,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="K8" s="1">
@@ -25151,7 +25166,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="K9" s="1">
         <v>5</v>
       </c>
@@ -25269,13 +25284,13 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38"/>
       <c r="K10" s="1">
         <v>6</v>
       </c>
@@ -25393,7 +25408,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -25403,7 +25418,7 @@
       <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="35"/>
       <c r="K11" s="1">
         <v>7</v>
       </c>
@@ -25521,15 +25536,15 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="38"/>
       <c r="K12" s="1">
         <v>8</v>
       </c>
@@ -25647,8 +25662,8 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1">
@@ -25777,8 +25792,8 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1">
@@ -25907,8 +25922,8 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1">
@@ -26036,7 +26051,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="K16" s="1">
         <v>12</v>
       </c>
@@ -26154,7 +26169,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="17" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K17" s="1">
         <v>13</v>
       </c>
@@ -26272,7 +26287,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="18" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K18" s="1">
         <v>14</v>
       </c>
@@ -26390,7 +26405,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="19" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K19" s="1">
         <v>15</v>
       </c>
@@ -26508,7 +26523,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="20" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K20" s="1">
         <v>16</v>
       </c>
@@ -26626,7 +26641,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="21" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K21" s="1">
         <v>17</v>
       </c>
@@ -26744,7 +26759,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="22" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K22" s="1">
         <v>18</v>
       </c>
@@ -26862,7 +26877,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="23" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K23" s="1">
         <v>19</v>
       </c>
@@ -26980,7 +26995,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K24" s="1">
         <v>20</v>
       </c>
@@ -27098,7 +27113,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="25" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K25" s="1">
         <v>21</v>
       </c>
@@ -27216,7 +27231,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="26" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K26" s="1">
         <v>22</v>
       </c>
@@ -27334,7 +27349,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="27" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K27" s="1">
         <v>23</v>
       </c>
@@ -27452,7 +27467,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K28" s="1">
         <v>24</v>
       </c>
@@ -27570,7 +27585,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="29" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K29" s="1">
         <v>25</v>
       </c>
@@ -27688,7 +27703,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="30" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K30" s="1">
         <v>26</v>
       </c>
@@ -27806,7 +27821,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="31" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K31" s="1">
         <v>27</v>
       </c>
@@ -27924,7 +27939,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="32" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K32" s="1">
         <v>28</v>
       </c>
@@ -28042,7 +28057,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="33" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K33" s="1">
         <v>29</v>
       </c>
@@ -28160,7 +28175,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="34" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K34" s="1">
         <v>30</v>
       </c>
@@ -28278,7 +28293,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="35" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K35" s="1">
         <v>31</v>
       </c>
@@ -28396,7 +28411,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="36" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K36" s="1">
         <v>32</v>
       </c>
@@ -28514,7 +28529,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="37" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K37" s="1">
         <v>33</v>
       </c>
@@ -28632,7 +28647,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="38" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K38" s="1">
         <v>34</v>
       </c>
@@ -28750,7 +28765,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="39" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K39" s="1">
         <v>35</v>
       </c>
@@ -28868,7 +28883,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="40" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K40" s="1">
         <v>36</v>
       </c>
@@ -28986,7 +29001,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="41" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K41" s="1">
         <v>37</v>
       </c>
@@ -29104,7 +29119,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="42" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K42" s="1">
         <v>38</v>
       </c>
@@ -29222,7 +29237,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="43" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K43" s="1">
         <v>39</v>
       </c>
@@ -29340,7 +29355,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="44" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K44" s="1">
         <v>40</v>
       </c>
@@ -29458,7 +29473,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="45" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K45" s="1">
         <v>41</v>
       </c>
@@ -29576,7 +29591,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="46" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K46" s="1">
         <v>42</v>
       </c>
@@ -29694,7 +29709,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="47" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K47" s="1">
         <v>43</v>
       </c>
@@ -29812,7 +29827,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="48" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K48" s="1">
         <v>44</v>
       </c>
@@ -29930,7 +29945,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="49" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K49" s="1">
         <v>45</v>
       </c>
@@ -30048,7 +30063,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="50" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K50" s="1">
         <v>46</v>
       </c>
@@ -30166,7 +30181,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="51" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K51" s="1">
         <v>47</v>
       </c>
@@ -30284,7 +30299,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="52" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K52" s="1">
         <v>48</v>
       </c>
@@ -30402,7 +30417,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="53" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K53" s="1">
         <v>49</v>
       </c>
@@ -30520,7 +30535,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="54" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K54" s="1">
         <v>50</v>
       </c>
@@ -30638,7 +30653,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="55" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:54" x14ac:dyDescent="0.3">
       <c r="M55" t="s">
         <v>22</v>
       </c>
@@ -30666,7 +30681,7 @@
         <v>11957.8</v>
       </c>
     </row>
-    <row r="56" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
         <v>19</v>
       </c>
@@ -30683,7 +30698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K57" t="s">
         <v>15</v>
       </c>
@@ -30706,7 +30721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K58">
         <v>1</v>
       </c>
@@ -30747,7 +30762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K59">
         <v>2</v>
       </c>
@@ -30785,7 +30800,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="60" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K60">
         <v>3</v>
       </c>
@@ -30823,7 +30838,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="61" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K61">
         <v>4</v>
       </c>
@@ -30861,7 +30876,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="62" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K62">
         <v>5</v>
       </c>
@@ -30899,7 +30914,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="63" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K63">
         <v>6</v>
       </c>
@@ -30937,7 +30952,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="64" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K64">
         <v>7</v>
       </c>
@@ -30975,7 +30990,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="65" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K65">
         <v>8</v>
       </c>
@@ -31013,7 +31028,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="66" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K66">
         <v>9</v>
       </c>
@@ -31051,7 +31066,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="67" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K67">
         <v>10</v>
       </c>
@@ -31089,7 +31104,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="68" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K68">
         <v>11</v>
       </c>
@@ -31127,7 +31142,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="69" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K69">
         <v>12</v>
       </c>
@@ -31165,7 +31180,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="70" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K70">
         <v>13</v>
       </c>
@@ -31203,7 +31218,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="71" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K71">
         <v>14</v>
       </c>
@@ -31241,7 +31256,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="72" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K72">
         <v>15</v>
       </c>
@@ -31279,7 +31294,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="73" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K73">
         <v>16</v>
       </c>
@@ -31317,7 +31332,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="74" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K74">
         <v>17</v>
       </c>
@@ -31355,7 +31370,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="75" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K75">
         <v>18</v>
       </c>
@@ -31393,7 +31408,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="76" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K76">
         <v>19</v>
       </c>
@@ -31431,7 +31446,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="77" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K77">
         <v>20</v>
       </c>
@@ -31469,7 +31484,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="78" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K78">
         <v>21</v>
       </c>
@@ -31507,7 +31522,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="79" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K79">
         <v>22</v>
       </c>
@@ -31545,7 +31560,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="80" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K80">
         <v>23</v>
       </c>
@@ -31583,7 +31598,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="81" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K81">
         <v>24</v>
       </c>
@@ -31621,7 +31636,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="82" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K82">
         <v>25</v>
       </c>
@@ -31659,7 +31674,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="83" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K83">
         <v>26</v>
       </c>
@@ -31697,7 +31712,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="84" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K84">
         <v>27</v>
       </c>
@@ -31735,7 +31750,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="85" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K85">
         <v>28</v>
       </c>
@@ -31773,7 +31788,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="86" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K86">
         <v>29</v>
       </c>
@@ -31811,7 +31826,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="87" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K87">
         <v>30</v>
       </c>
@@ -31849,7 +31864,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="88" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K88">
         <v>31</v>
       </c>
@@ -31887,7 +31902,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="89" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K89">
         <v>32</v>
       </c>
@@ -31925,7 +31940,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="90" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K90">
         <v>33</v>
       </c>
@@ -31963,7 +31978,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="91" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K91">
         <v>34</v>
       </c>
@@ -32001,7 +32016,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="92" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K92">
         <v>35</v>
       </c>
@@ -32039,7 +32054,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="93" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K93">
         <v>36</v>
       </c>
@@ -32077,7 +32092,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="94" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K94">
         <v>37</v>
       </c>
@@ -32115,7 +32130,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="95" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K95">
         <v>38</v>
       </c>
@@ -32153,7 +32168,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="96" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K96">
         <v>39</v>
       </c>
@@ -32191,7 +32206,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="97" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K97">
         <v>40</v>
       </c>
@@ -32229,7 +32244,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="98" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K98">
         <v>41</v>
       </c>
@@ -32267,7 +32282,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="99" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K99">
         <v>42</v>
       </c>
@@ -32305,7 +32320,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="100" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K100">
         <v>43</v>
       </c>
@@ -32343,7 +32358,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="101" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K101">
         <v>44</v>
       </c>
@@ -32381,7 +32396,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="102" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K102">
         <v>45</v>
       </c>
@@ -32419,7 +32434,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="103" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K103">
         <v>46</v>
       </c>
@@ -32457,7 +32472,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="104" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K104">
         <v>47</v>
       </c>
@@ -32495,7 +32510,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K105">
         <v>48</v>
       </c>
@@ -32533,7 +32548,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="106" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K106">
         <v>49</v>
       </c>
@@ -32571,7 +32586,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="107" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K107">
         <v>50</v>
       </c>
@@ -32609,7 +32624,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="108" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:54" x14ac:dyDescent="0.3">
       <c r="M108" t="s">
         <v>22</v>
       </c>
@@ -32642,12 +32657,12 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="109" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K110" t="s">
         <v>15</v>
       </c>
@@ -32670,7 +32685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K111">
         <v>1</v>
       </c>
@@ -32684,7 +32699,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="112" spans="11:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:54" x14ac:dyDescent="0.3">
       <c r="K112">
         <v>2</v>
       </c>
@@ -32713,7 +32728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K113">
         <v>3</v>
       </c>
@@ -32739,7 +32754,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="114" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K114">
         <v>4</v>
       </c>
@@ -32765,7 +32780,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="115" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K115">
         <v>5</v>
       </c>
@@ -32791,7 +32806,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="116" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K116">
         <v>6</v>
       </c>
@@ -32817,7 +32832,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="117" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K117">
         <v>7</v>
       </c>
@@ -32843,7 +32858,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="118" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K118">
         <v>8</v>
       </c>
@@ -32869,7 +32884,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="119" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K119">
         <v>9</v>
       </c>
@@ -32895,7 +32910,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="120" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K120">
         <v>10</v>
       </c>
@@ -32921,7 +32936,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="121" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K121">
         <v>11</v>
       </c>
@@ -32947,7 +32962,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="122" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K122">
         <v>12</v>
       </c>
@@ -32973,7 +32988,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="123" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K123">
         <v>13</v>
       </c>
@@ -32999,7 +33014,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="124" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K124">
         <v>14</v>
       </c>
@@ -33025,7 +33040,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="125" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K125">
         <v>15</v>
       </c>
@@ -33051,7 +33066,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="126" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K126">
         <v>16</v>
       </c>
@@ -33077,7 +33092,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="127" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K127">
         <v>17</v>
       </c>
@@ -33103,7 +33118,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="128" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K128">
         <v>18</v>
       </c>
@@ -33129,7 +33144,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="129" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K129">
         <v>19</v>
       </c>
@@ -33155,7 +33170,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="130" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K130">
         <v>20</v>
       </c>
@@ -33181,7 +33196,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="131" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K131">
         <v>21</v>
       </c>
@@ -33207,7 +33222,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="132" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K132">
         <v>22</v>
       </c>
@@ -33233,7 +33248,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="133" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K133">
         <v>23</v>
       </c>
@@ -33259,7 +33274,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="134" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K134">
         <v>24</v>
       </c>
@@ -33285,7 +33300,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="135" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K135">
         <v>25</v>
       </c>
@@ -33311,7 +33326,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="136" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="136" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K136">
         <v>26</v>
       </c>
@@ -33337,7 +33352,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="137" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K137">
         <v>27</v>
       </c>
@@ -33363,7 +33378,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="138" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K138">
         <v>28</v>
       </c>
@@ -33389,7 +33404,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="139" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K139">
         <v>29</v>
       </c>
@@ -33415,7 +33430,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="140" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K140">
         <v>30</v>
       </c>
@@ -33441,7 +33456,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="141" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K141">
         <v>31</v>
       </c>
@@ -33467,7 +33482,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="142" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K142">
         <v>32</v>
       </c>
@@ -33493,7 +33508,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="143" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="143" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K143">
         <v>33</v>
       </c>
@@ -33519,7 +33534,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="144" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="144" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K144">
         <v>34</v>
       </c>
@@ -33545,7 +33560,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="145" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K145">
         <v>35</v>
       </c>
@@ -33571,7 +33586,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="146" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K146">
         <v>36</v>
       </c>
@@ -33597,7 +33612,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="147" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K147">
         <v>37</v>
       </c>
@@ -33623,7 +33638,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="148" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K148">
         <v>38</v>
       </c>
@@ -33649,7 +33664,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="149" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K149">
         <v>39</v>
       </c>
@@ -33675,7 +33690,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="150" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K150">
         <v>40</v>
       </c>
@@ -33701,7 +33716,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="151" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K151">
         <v>41</v>
       </c>
@@ -33727,7 +33742,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="152" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K152">
         <v>42</v>
       </c>
@@ -33753,7 +33768,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="153" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K153">
         <v>43</v>
       </c>
@@ -33779,7 +33794,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="154" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K154">
         <v>44</v>
       </c>
@@ -33805,7 +33820,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="155" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K155">
         <v>45</v>
       </c>
@@ -33831,7 +33846,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="156" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K156">
         <v>46</v>
       </c>
@@ -33857,7 +33872,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="157" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K157">
         <v>47</v>
       </c>
@@ -33883,7 +33898,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="158" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K158">
         <v>48</v>
       </c>
@@ -33909,7 +33924,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="159" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K159">
         <v>49</v>
       </c>
@@ -33935,7 +33950,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="160" spans="11:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K160">
         <v>50</v>
       </c>
@@ -33961,7 +33976,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="161" spans="13:44" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:44" x14ac:dyDescent="0.3">
       <c r="M161" t="s">
         <v>22</v>
       </c>
@@ -33982,7 +33997,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="162" spans="13:44" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:44" x14ac:dyDescent="0.3">
       <c r="AO162">
         <v>50</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="43">
   <si>
     <t>Image Dimensions</t>
   </si>
@@ -162,6 +162,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,18 +849,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,6 +903,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2691,7 +2703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2704,14 +2716,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Parallel</a:t>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
+              <a:t>Parallel Algorithm Performance: 4 vs 8 Threads</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Algorithm Performance: 4 vs 8 Threads</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2728,7 +2735,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2746,7 +2753,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.229502265307063E-2"/>
+          <c:y val="0.10235678130891536"/>
+          <c:w val="0.90770497734692934"/>
+          <c:h val="0.77499149381910726"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2768,6 +2785,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2782,7 +2800,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2883,6 +2901,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2897,7 +2916,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3024,7 +3043,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3074,7 +3093,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3087,7 +3106,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t>Average Time / ms</a:t>
                 </a:r>
               </a:p>
@@ -3106,7 +3125,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3138,7 +3157,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3167,6 +3186,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33888487833191727"/>
+          <c:y val="0.94387735687285867"/>
+          <c:w val="0.32223012785060234"/>
+          <c:h val="5.6122643127141172E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3180,7 +3209,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3205,12 +3234,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5464,7 +5488,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="97" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5475,7 +5499,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5508,7 +5532,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5541,7 +5565,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8656948" cy="6276680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5868,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5885,27 +5909,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5986,25 +6010,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
       <c r="V3" s="11"/>
       <c r="W3" s="7">
         <v>1</v>
@@ -6238,7 +6262,7 @@
       <c r="U7" s="1">
         <v>48115</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="27">
         <v>1</v>
       </c>
       <c r="X7" s="1">
@@ -6302,7 +6326,7 @@
       <c r="U8" s="1">
         <v>48483</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="27">
         <v>2</v>
       </c>
       <c r="X8" s="1">
@@ -6366,7 +6390,7 @@
       <c r="U9" s="1">
         <v>47987</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="27">
         <v>3</v>
       </c>
       <c r="X9" s="1">
@@ -6430,10 +6454,10 @@
       <c r="U10" s="1">
         <v>48089</v>
       </c>
-      <c r="W10" s="24"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -6480,7 +6504,7 @@
       <c r="U11" s="1">
         <v>48173</v>
       </c>
-      <c r="W11" s="24"/>
+      <c r="W11" s="20"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -6529,16 +6553,16 @@
       <c r="U12" s="1">
         <v>47788</v>
       </c>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="39"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -6582,10 +6606,10 @@
       <c r="U13" s="1">
         <v>47748</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -10712,8 +10736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10729,27 +10753,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10805,7 +10829,7 @@
       <c r="U2" s="12">
         <v>1024</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="X2" s="15" t="s">
@@ -10830,25 +10854,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -11330,10 +11354,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="39"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -11779,11 +11803,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -11886,11 +11910,11 @@
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="41">
         <f>'Seq. Results'!B3/'OpenMP Static'!B3</f>
         <v>4.0750814941484537</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="42">
         <f>B24/B20</f>
         <v>1.0187703735371134</v>
       </c>
@@ -11942,11 +11966,11 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="41">
         <f>'Seq. Results'!B4/'OpenMP Static'!B4</f>
         <v>4.1191280566280568</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="43">
         <f>B25/B20</f>
         <v>1.0297820141570142</v>
       </c>
@@ -11998,11 +12022,11 @@
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="41">
         <f>'Seq. Results'!B5/'OpenMP Static'!B5</f>
         <v>4.2025957972805932</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="43">
         <f>B26/B20</f>
         <v>1.0506489493201483</v>
       </c>
@@ -12054,11 +12078,11 @@
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="41">
         <f>'Seq. Results'!B6/'OpenMP Static'!B6</f>
         <v>4.3582268286704711</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="43">
         <f>B27/B20</f>
         <v>1.0895567071676178</v>
       </c>
@@ -12110,11 +12134,11 @@
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="41">
         <f>'Seq. Results'!B7/'OpenMP Static'!B7</f>
         <v>4.4610101802492474</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="43">
         <f>B28/B20</f>
         <v>1.1152525450623119</v>
       </c>
@@ -12166,11 +12190,11 @@
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="41">
         <f>'Seq. Results'!B8/'OpenMP Static'!B8</f>
         <v>4.3909204262680435</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="43">
         <f>B29/B20</f>
         <v>1.0977301065670109</v>
       </c>
@@ -12222,11 +12246,11 @@
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="41">
         <f>'Seq. Results'!B9/'OpenMP Static'!B9</f>
         <v>4.3285418654617702</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="43">
         <f>B30/B20</f>
         <v>1.0821354663654426</v>
       </c>
@@ -12278,11 +12302,11 @@
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="41">
         <f>'Seq. Results'!B10/'OpenMP Static'!B10</f>
         <v>4.302667827213436</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="43">
         <f>B31/B20</f>
         <v>1.075666956803359</v>
       </c>
@@ -12376,11 +12400,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -12483,11 +12507,11 @@
       <c r="A35" s="7">
         <v>128</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="45">
         <f>'Seq. Results'!B15/'OpenMP Static'!B15</f>
         <v>3.9862201570261182</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="41">
         <f>B35/B20</f>
         <v>0.99655503925652955</v>
       </c>
@@ -12539,11 +12563,11 @@
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="46">
         <f>'Seq. Results'!B16/'OpenMP Static'!B16</f>
         <v>4.1328000658580759</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="41">
         <f>B36/B20</f>
         <v>1.033200016464519</v>
       </c>
@@ -12595,11 +12619,11 @@
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="46">
         <f>'Seq. Results'!B17/'OpenMP Static'!B17</f>
         <v>4.2167345721951701</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="41">
         <f>B37/B20</f>
         <v>1.0541836430487925</v>
       </c>
@@ -12651,11 +12675,11 @@
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="46">
         <f>'Seq. Results'!B18/'OpenMP Static'!B18</f>
         <v>4.3117982336797374</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="41">
         <f>B38/B20</f>
         <v>1.0779495584199343</v>
       </c>
@@ -15649,7 +15673,7 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15665,35 +15689,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -15741,16 +15765,16 @@
       <c r="U2" s="12">
         <v>1024</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15766,25 +15790,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -16266,10 +16290,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="39"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -16318,7 +16342,7 @@
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1"/>
@@ -16715,11 +16739,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -16765,7 +16789,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -16822,11 +16846,11 @@
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="41">
         <f>'Seq. Results'!B3/'OpenMP Dynamic'!B3</f>
         <v>4.6503841931942924</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="42">
         <f>B24/B20</f>
         <v>1.1625960482985731</v>
       </c>
@@ -16878,11 +16902,11 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="41">
         <f>'Seq. Results'!B4/'OpenMP Dynamic'!B4</f>
         <v>4.6732067895601386</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="43">
         <f>B25/B20</f>
         <v>1.1683016973900346</v>
       </c>
@@ -16934,11 +16958,11 @@
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="41">
         <f>'Seq. Results'!B5/'OpenMP Dynamic'!B5</f>
         <v>4.6688384015624287</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="43">
         <f>B26/B20</f>
         <v>1.1672096003906072</v>
       </c>
@@ -16990,11 +17014,11 @@
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="41">
         <f>'Seq. Results'!B6/'OpenMP Dynamic'!B6</f>
         <v>4.7553889767630224</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="43">
         <f>B27/B20</f>
         <v>1.1888472441907556</v>
       </c>
@@ -17046,11 +17070,11 @@
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="41">
         <f>'Seq. Results'!B7/'OpenMP Dynamic'!B7</f>
         <v>4.7642672719102492</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="43">
         <f>B28/B20</f>
         <v>1.1910668179775623</v>
       </c>
@@ -17102,11 +17126,11 @@
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="41">
         <f>'Seq. Results'!B8/'OpenMP Dynamic'!B8</f>
         <v>4.7145422765164611</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="43">
         <f>B29/B20</f>
         <v>1.1786355691291153</v>
       </c>
@@ -17152,11 +17176,11 @@
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="41">
         <f>'Seq. Results'!B9/'OpenMP Dynamic'!B9</f>
         <v>4.6483652757764116</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="43">
         <f>B30/B20</f>
         <v>1.1620913189441029</v>
       </c>
@@ -17202,11 +17226,11 @@
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="41">
         <f>'Seq. Results'!B10/'OpenMP Dynamic'!B10</f>
         <v>4.6163320849519645</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="43">
         <f>B31/B20</f>
         <v>1.1540830212379911</v>
       </c>
@@ -17288,11 +17312,11 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -17383,11 +17407,11 @@
       <c r="A35" s="7">
         <v>128</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="45">
         <f>'Seq. Results'!B15/'OpenMP Dynamic'!B15</f>
         <v>4.5011760448706353</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="41">
         <f>B35/B20</f>
         <v>1.1252940112176588</v>
       </c>
@@ -17433,11 +17457,11 @@
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="46">
         <f>'Seq. Results'!B16/'OpenMP Dynamic'!B16</f>
         <v>4.6038332798385992</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="41">
         <f>B36/B20</f>
         <v>1.1509583199596498</v>
       </c>
@@ -17483,11 +17507,11 @@
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="46">
         <f>'Seq. Results'!B17/'OpenMP Dynamic'!B17</f>
         <v>4.6000681420451901</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="41">
         <f>B37/B20</f>
         <v>1.1500170355112975</v>
       </c>
@@ -17533,11 +17557,11 @@
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="46">
         <f>'Seq. Results'!B18/'OpenMP Dynamic'!B18</f>
         <v>4.6539923288779619</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="41">
         <f>B38/B20</f>
         <v>1.1634980822194905</v>
       </c>
@@ -20033,8 +20057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20050,35 +20074,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="W1" s="22" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -20126,16 +20150,16 @@
       <c r="U2" s="12">
         <v>1024</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -20151,25 +20175,25 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
       <c r="W3" s="7">
         <v>1</v>
       </c>
@@ -20651,10 +20675,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="39"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>10</v>
@@ -20703,7 +20727,7 @@
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1"/>
@@ -21100,11 +21124,11 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7">
         <v>19</v>
@@ -21150,7 +21174,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -21207,11 +21231,11 @@
       <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="41">
         <f>'Seq. Results'!B3/'Manual Threading'!B3</f>
         <v>4.515722153135548</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="42">
         <f>B24/B20</f>
         <v>1.128930538283887</v>
       </c>
@@ -21263,11 +21287,11 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="41">
         <f>'Seq. Results'!B4/'Manual Threading'!B4</f>
         <v>4.6029182646212847</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="43">
         <f>B25/B20</f>
         <v>1.1507295661553212</v>
       </c>
@@ -21319,11 +21343,11 @@
       <c r="A26" s="7">
         <v>16</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="41">
         <f>'Seq. Results'!B5/'Manual Threading'!B5</f>
         <v>4.7106701356281846</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="43">
         <f>B26/B20</f>
         <v>1.1776675339070461</v>
       </c>
@@ -21375,11 +21399,11 @@
       <c r="A27" s="7">
         <v>32</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="41">
         <f>'Seq. Results'!B6/'Manual Threading'!B6</f>
         <v>4.8492850742198153</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="43">
         <f>B27/B20</f>
         <v>1.2123212685549538</v>
       </c>
@@ -21431,11 +21455,11 @@
       <c r="A28" s="7">
         <v>64</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="41">
         <f>'Seq. Results'!B7/'Manual Threading'!B7</f>
         <v>4.8671166527261764</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="43">
         <f>B28/B20</f>
         <v>1.2167791631815441</v>
       </c>
@@ -21487,11 +21511,11 @@
       <c r="A29" s="7">
         <v>128</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="41">
         <f>'Seq. Results'!B8/'Manual Threading'!B8</f>
         <v>4.8120552081086911</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="43">
         <f>B29/B20</f>
         <v>1.2030138020271728</v>
       </c>
@@ -21537,11 +21561,11 @@
       <c r="A30" s="7">
         <v>256</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="41">
         <f>'Seq. Results'!B9/'Manual Threading'!B9</f>
         <v>4.7611160133111214</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="43">
         <f>B30/B20</f>
         <v>1.1902790033277804</v>
       </c>
@@ -21587,11 +21611,11 @@
       <c r="A31" s="7">
         <v>512</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="41">
         <f>'Seq. Results'!B10/'Manual Threading'!B10</f>
         <v>4.6812327506899729</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="43">
         <f>B31/B20</f>
         <v>1.1703081876724932</v>
       </c>
@@ -21673,11 +21697,11 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7">
         <v>30</v>
@@ -21720,7 +21744,7 @@
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -21768,11 +21792,11 @@
       <c r="A35" s="6">
         <v>128</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="44">
         <f>'Seq. Results'!B15/'Manual Threading'!B15</f>
         <v>4.4314214463840402</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="42">
         <f>B35/B20</f>
         <v>1.1078553615960101</v>
       </c>
@@ -21818,11 +21842,11 @@
       <c r="A36" s="7">
         <v>256</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="44">
         <f>'Seq. Results'!B16/'Manual Threading'!B16</f>
         <v>4.6639260497956148</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="43">
         <f>B36/B20</f>
         <v>1.1659815124489037</v>
       </c>
@@ -21868,11 +21892,11 @@
       <c r="A37" s="7">
         <v>512</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="44">
         <f>'Seq. Results'!B17/'Manual Threading'!B17</f>
         <v>4.6031335234316888</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="43">
         <f>B37/B20</f>
         <v>1.1507833808579222</v>
       </c>
@@ -21918,11 +21942,11 @@
       <c r="A38" s="7">
         <v>1024</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="44">
         <f>'Seq. Results'!B18/'Manual Threading'!B18</f>
         <v>4.6958971480606344</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="43">
         <f>B38/B20</f>
         <v>1.1739742870151586</v>
       </c>
@@ -24419,7 +24443,7 @@
   <dimension ref="A1:BB162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24434,19 +24458,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="31"/>
       <c r="K2" t="s">
         <v>25</v>
       </c>
@@ -24503,7 +24527,7 @@
       <c r="C3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="K3" t="s">
         <v>20</v>
       </c>
@@ -24527,10 +24551,10 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <f>AVERAGE('Seq. Results'!K4:K103)</f>
         <v>12510.68</v>
       </c>
@@ -24672,10 +24696,10 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="35">
         <f>AVERAGE(AH5:AH54)</f>
         <v>11957.8</v>
       </c>
@@ -24797,10 +24821,10 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="36">
         <f>AVERAGE(AC5:AC54)</f>
         <v>11770.06</v>
       </c>
@@ -24922,10 +24946,10 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="35">
         <f>AVERAGE(X5:X54)</f>
         <v>8788.6200000000008</v>
       </c>
@@ -25047,8 +25071,8 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="K8" s="1">
         <v>4</v>
       </c>
@@ -25285,12 +25309,12 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34"/>
       <c r="K10" s="1">
         <v>6</v>
       </c>
@@ -25418,7 +25442,7 @@
       <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="31"/>
       <c r="K11" s="1">
         <v>7</v>
       </c>
@@ -25540,11 +25564,11 @@
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="34"/>
       <c r="K12" s="1">
         <v>8</v>
       </c>
@@ -25663,7 +25687,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1">
@@ -25793,7 +25817,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1">
@@ -25923,7 +25947,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1">
@@ -26169,7 +26193,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="17" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K17" s="1">
         <v>13</v>
       </c>
@@ -26287,7 +26311,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="18" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K18" s="1">
         <v>14</v>
       </c>
@@ -26405,7 +26429,10 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="19" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="K19" s="1">
         <v>15</v>
       </c>
@@ -26523,7 +26550,10 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="20" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="K20" s="1">
         <v>16</v>
       </c>
@@ -26641,7 +26671,10 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="21" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="K21" s="1">
         <v>17</v>
       </c>
@@ -26759,7 +26792,10 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="22" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="K22" s="1">
         <v>18</v>
       </c>
@@ -26877,7 +26913,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="23" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K23" s="1">
         <v>19</v>
       </c>
@@ -26995,7 +27031,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K24" s="1">
         <v>20</v>
       </c>
@@ -27113,7 +27149,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="25" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K25" s="1">
         <v>21</v>
       </c>
@@ -27231,7 +27267,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="26" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K26" s="1">
         <v>22</v>
       </c>
@@ -27349,7 +27385,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="27" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K27" s="1">
         <v>23</v>
       </c>
@@ -27467,7 +27503,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K28" s="1">
         <v>24</v>
       </c>
@@ -27585,7 +27621,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="29" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K29" s="1">
         <v>25</v>
       </c>
@@ -27703,7 +27739,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="30" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K30" s="1">
         <v>26</v>
       </c>
@@ -27821,7 +27857,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="31" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K31" s="1">
         <v>27</v>
       </c>
@@ -27939,7 +27975,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="32" spans="11:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="K32" s="1">
         <v>28</v>
       </c>
